--- a/earnings_per_share_pivot_table.xlsx
+++ b/earnings_per_share_pivot_table.xlsx
@@ -1,58 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_3299CB705D63F20F62355476585DCE3A8745D082" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2EC9A30-CD9F-4212-839A-9C57103462C8}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="459">
   <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
     <t>Ticker Symbol</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
   </si>
   <si>
     <t>AAL</t>
@@ -1402,8 +1396,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1414,7 +1408,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1463,14 +1460,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1758,59 +1747,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1821,13 +1800,13 @@
         <v>-11.25</v>
       </c>
       <c r="H2">
-        <v>4.0199999999999996</v>
+        <v>4.02</v>
       </c>
       <c r="I2">
         <v>11.39</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1844,7 +1823,7 @@
         <v>6.45</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1855,13 +1834,13 @@
         <v>6.49</v>
       </c>
       <c r="I4">
-        <v>9.2799999999999994</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="J4">
         <v>8.35</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -1872,13 +1851,13 @@
         <v>2.58</v>
       </c>
       <c r="H5">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="I5">
         <v>3.15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1895,7 +1874,7 @@
         <v>6.73</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1912,12 +1891,12 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G8">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="H8">
         <v>0.54</v>
@@ -1929,7 +1908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1946,7 +1925,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -1954,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.0299999999999998</v>
+        <v>2.03</v>
       </c>
       <c r="H10">
         <v>3.44</v>
@@ -1963,7 +1942,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1974,18 +1953,18 @@
         <v>10.09</v>
       </c>
       <c r="H11">
-        <v>8.7200000000000006</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="I11">
         <v>8.91</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G12">
-        <v>1.0900000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="H12">
         <v>1.02</v>
@@ -1997,7 +1976,7 @@
         <v>-1.46</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -2014,7 +1993,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -2031,7 +2010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -2048,7 +2027,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -2065,7 +2044,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -2082,7 +2061,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -2099,7 +2078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -2110,18 +2089,18 @@
         <v>1.98</v>
       </c>
       <c r="I19">
-        <v>2.0699999999999998</v>
+        <v>2.07</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F20">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="G20">
         <v>1.65</v>
@@ -2133,7 +2112,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -2150,7 +2129,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -2167,7 +2146,7 @@
         <v>6.61</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
@@ -2184,7 +2163,7 @@
         <v>5.12</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
@@ -2201,7 +2180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
@@ -2218,7 +2197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
@@ -2229,13 +2208,13 @@
         <v>0.88</v>
       </c>
       <c r="I26">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="J26">
         <v>1.56</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
@@ -2252,7 +2231,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
@@ -2263,13 +2242,13 @@
         <v>6.79</v>
       </c>
       <c r="H28">
-        <v>8.2200000000000006</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="I28">
         <v>9.49</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
@@ -2286,7 +2265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
         <v>39</v>
       </c>
@@ -2297,13 +2276,13 @@
         <v>6.56</v>
       </c>
       <c r="H30">
-        <v>8.4499999999999993</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="I30">
         <v>8.6</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
         <v>40</v>
       </c>
@@ -2320,7 +2299,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
@@ -2337,7 +2316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
         <v>42</v>
       </c>
@@ -2354,7 +2333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
         <v>43</v>
       </c>
@@ -2371,7 +2350,7 @@
         <v>9.73</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
         <v>44</v>
       </c>
@@ -2382,13 +2361,13 @@
         <v>3.57</v>
       </c>
       <c r="H35">
-        <v>4.7300000000000004</v>
+        <v>4.73</v>
       </c>
       <c r="I35">
         <v>4.93</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
         <v>45</v>
       </c>
@@ -2405,7 +2384,7 @@
         <v>-61.2</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
         <v>46</v>
       </c>
@@ -2422,7 +2401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
         <v>47</v>
       </c>
@@ -2439,7 +2418,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
         <v>48</v>
       </c>
@@ -2450,13 +2429,13 @@
         <v>4</v>
       </c>
       <c r="H39">
-        <v>2.2599999999999998</v>
+        <v>2.26</v>
       </c>
       <c r="I39">
-        <v>2.4700000000000002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2.47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
         <v>49</v>
       </c>
@@ -2473,7 +2452,7 @@
         <v>-0.31</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
         <v>50</v>
       </c>
@@ -2484,13 +2463,13 @@
         <v>0.96</v>
       </c>
       <c r="H41">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="I41">
         <v>1.21</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
         <v>51</v>
       </c>
@@ -2507,7 +2486,7 @@
         <v>5.54</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
         <v>52</v>
       </c>
@@ -2518,7 +2497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
         <v>53</v>
       </c>
@@ -2535,12 +2514,12 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F45">
-        <v>2.0299999999999998</v>
+        <v>2.03</v>
       </c>
       <c r="G45">
         <v>2.08</v>
@@ -2552,7 +2531,7 @@
         <v>2.66</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
         <v>55</v>
       </c>
@@ -2569,7 +2548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
         <v>56</v>
       </c>
@@ -2586,7 +2565,7 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
         <v>57</v>
       </c>
@@ -2594,7 +2573,7 @@
         <v>28.28</v>
       </c>
       <c r="H48">
-        <v>32.159999999999997</v>
+        <v>32.16</v>
       </c>
       <c r="I48">
         <v>36.76</v>
@@ -2603,7 +2582,7 @@
         <v>41.52</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
         <v>58</v>
       </c>
@@ -2620,7 +2599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
         <v>59</v>
       </c>
@@ -2628,7 +2607,7 @@
         <v>0.26</v>
       </c>
       <c r="G50">
-        <v>0.94</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H50">
         <v>0.36</v>
@@ -2637,7 +2616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
         <v>60</v>
       </c>
@@ -2648,13 +2627,13 @@
         <v>3.7</v>
       </c>
       <c r="H51">
-        <v>4.6100000000000003</v>
+        <v>4.61</v>
       </c>
       <c r="I51">
         <v>1.78</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,7 +2641,7 @@
         <v>4.62</v>
       </c>
       <c r="H52">
-        <v>4.8499999999999996</v>
+        <v>4.85</v>
       </c>
       <c r="I52">
         <v>5.13</v>
@@ -2671,7 +2650,7 @@
         <v>5.15</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
         <v>62</v>
       </c>
@@ -2679,7 +2658,7 @@
         <v>2.74</v>
       </c>
       <c r="G53">
-        <v>2.2200000000000002</v>
+        <v>2.22</v>
       </c>
       <c r="H53">
         <v>2.79</v>
@@ -2688,7 +2667,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
         <v>63</v>
       </c>
@@ -2705,12 +2684,12 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
         <v>64</v>
       </c>
       <c r="G55">
-        <v>8.5399999999999991</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="H55">
         <v>3.83</v>
@@ -2722,7 +2701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
         <v>65</v>
       </c>
@@ -2739,12 +2718,12 @@
         <v>4.59</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
         <v>66</v>
       </c>
       <c r="G57">
-        <v>2.4700000000000002</v>
+        <v>2.47</v>
       </c>
       <c r="H57">
         <v>3.93</v>
@@ -2756,7 +2735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
         <v>67</v>
       </c>
@@ -2773,7 +2752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
         <v>68</v>
       </c>
@@ -2790,7 +2769,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
         <v>69</v>
       </c>
@@ -2804,10 +2783,10 @@
         <v>3.39</v>
       </c>
       <c r="I60">
-        <v>2.0499999999999998</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
         <v>70</v>
       </c>
@@ -2821,10 +2800,10 @@
         <v>1.21</v>
       </c>
       <c r="I61">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
         <v>71</v>
       </c>
@@ -2841,7 +2820,7 @@
         <v>-0.18</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
         <v>72</v>
       </c>
@@ -2858,7 +2837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
         <v>73</v>
       </c>
@@ -2875,15 +2854,15 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
         <v>74</v>
       </c>
       <c r="F65">
-        <v>2.5099999999999998</v>
+        <v>2.51</v>
       </c>
       <c r="G65">
-        <v>4.3499999999999996</v>
+        <v>4.35</v>
       </c>
       <c r="H65">
         <v>2.21</v>
@@ -2892,7 +2871,7 @@
         <v>5.41</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
         <v>75</v>
       </c>
@@ -2909,7 +2888,7 @@
         <v>-1.57</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
         <v>76</v>
       </c>
@@ -2923,10 +2902,10 @@
         <v>3.66</v>
       </c>
       <c r="J67">
-        <v>4.3600000000000003</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4.36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
         <v>77</v>
       </c>
@@ -2943,7 +2922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
         <v>78</v>
       </c>
@@ -2957,10 +2936,10 @@
         <v>8.5</v>
       </c>
       <c r="I69">
-        <v>8.7100000000000009</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+        <v>8.710000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
         <v>79</v>
       </c>
@@ -2977,7 +2956,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
         <v>80</v>
       </c>
@@ -2991,10 +2970,10 @@
         <v>1.04</v>
       </c>
       <c r="I71">
-        <v>4.4400000000000004</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4.44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
         <v>81</v>
       </c>
@@ -3005,13 +2984,13 @@
         <v>1.59</v>
       </c>
       <c r="I72">
-        <v>2.2599999999999998</v>
+        <v>2.26</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
         <v>82</v>
       </c>
@@ -3019,7 +2998,7 @@
         <v>3.5</v>
       </c>
       <c r="H73">
-        <v>2.4900000000000002</v>
+        <v>2.49</v>
       </c>
       <c r="I73">
         <v>2.02</v>
@@ -3028,12 +3007,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G74">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="I74">
         <v>1.54</v>
@@ -3042,7 +3021,7 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,7 +3038,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
         <v>85</v>
       </c>
@@ -3076,7 +3055,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
         <v>86</v>
       </c>
@@ -3093,7 +3072,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
         <v>87</v>
       </c>
@@ -3110,7 +3089,7 @@
         <v>-22.43</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
         <v>88</v>
       </c>
@@ -3127,7 +3106,7 @@
         <v>3.52</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
         <v>89</v>
       </c>
@@ -3138,13 +3117,13 @@
         <v>-1.7</v>
       </c>
       <c r="I80">
-        <v>-2.4300000000000002</v>
+        <v>-2.43</v>
       </c>
       <c r="J80">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
         <v>90</v>
       </c>
@@ -3161,7 +3140,7 @@
         <v>8.17</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
         <v>91</v>
       </c>
@@ -3178,7 +3157,7 @@
         <v>3.87</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
         <v>92</v>
       </c>
@@ -3195,7 +3174,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
         <v>93</v>
       </c>
@@ -3203,7 +3182,7 @@
         <v>4.37</v>
       </c>
       <c r="H84">
-        <v>4.3099999999999996</v>
+        <v>4.31</v>
       </c>
       <c r="I84">
         <v>4.45</v>
@@ -3212,7 +3191,7 @@
         <v>5.01</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
         <v>94</v>
       </c>
@@ -3229,7 +3208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
         <v>95</v>
       </c>
@@ -3246,7 +3225,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
         <v>96</v>
       </c>
@@ -3263,7 +3242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
         <v>97</v>
       </c>
@@ -3271,7 +3250,7 @@
         <v>7.93</v>
       </c>
       <c r="H88">
-        <v>9.0399999999999991</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="I88">
         <v>7.86</v>
@@ -3280,7 +3259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
         <v>98</v>
       </c>
@@ -3297,7 +3276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
         <v>99</v>
       </c>
@@ -3308,13 +3287,13 @@
         <v>2.98</v>
       </c>
       <c r="H90">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="I90">
         <v>2.99</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
         <v>100</v>
       </c>
@@ -3331,7 +3310,7 @@
         <v>-1.61</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
         <v>101</v>
       </c>
@@ -3348,7 +3327,7 @@
         <v>7.15</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
         <v>102</v>
       </c>
@@ -3362,10 +3341,10 @@
         <v>0.25</v>
       </c>
       <c r="I93">
-        <v>-0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-0.28</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
         <v>103</v>
       </c>
@@ -3382,7 +3361,7 @@
         <v>5.58</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
         <v>104</v>
       </c>
@@ -3399,7 +3378,7 @@
         <v>5.65</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
         <v>105</v>
       </c>
@@ -3407,7 +3386,7 @@
         <v>4.68</v>
       </c>
       <c r="H96">
-        <v>4.6900000000000004</v>
+        <v>4.69</v>
       </c>
       <c r="I96">
         <v>5.41</v>
@@ -3416,7 +3395,7 @@
         <v>5.36</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
         <v>106</v>
       </c>
@@ -3433,7 +3412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
         <v>107</v>
       </c>
@@ -3450,7 +3429,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
         <v>108</v>
       </c>
@@ -3464,10 +3443,10 @@
         <v>-0.42</v>
       </c>
       <c r="J99">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
         <v>109</v>
       </c>
@@ -3484,7 +3463,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
         <v>110</v>
       </c>
@@ -3495,7 +3474,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
         <v>111</v>
       </c>
@@ -3512,12 +3491,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
         <v>112</v>
       </c>
       <c r="G103">
-        <v>2.5299999999999998</v>
+        <v>2.53</v>
       </c>
       <c r="H103">
         <v>3.08</v>
@@ -3529,7 +3508,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
         <v>113</v>
       </c>
@@ -3546,7 +3525,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="s">
         <v>114</v>
       </c>
@@ -3563,7 +3542,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="s">
         <v>115</v>
       </c>
@@ -3574,13 +3553,13 @@
         <v>1.48</v>
       </c>
       <c r="I106">
-        <v>2.0099999999999998</v>
+        <v>2.01</v>
       </c>
       <c r="J106">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="s">
         <v>116</v>
       </c>
@@ -3597,7 +3576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="s">
         <v>117</v>
       </c>
@@ -3608,13 +3587,13 @@
         <v>11.18</v>
       </c>
       <c r="H108">
-        <v>10.210000000000001</v>
+        <v>10.21</v>
       </c>
       <c r="I108">
         <v>2.46</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="s">
         <v>118</v>
       </c>
@@ -3625,13 +3604,13 @@
         <v>2.39</v>
       </c>
       <c r="H109">
-        <v>4.8899999999999997</v>
+        <v>4.89</v>
       </c>
       <c r="I109">
         <v>0.54</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="s">
         <v>119</v>
       </c>
@@ -3648,7 +3627,7 @@
         <v>3.21</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="s">
         <v>120</v>
       </c>
@@ -3665,7 +3644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="s">
         <v>121</v>
       </c>
@@ -3682,7 +3661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="s">
         <v>122</v>
       </c>
@@ -3690,7 +3669,7 @@
         <v>9.18</v>
       </c>
       <c r="H113">
-        <v>8.7100000000000009</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -3699,7 +3678,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="s">
         <v>123</v>
       </c>
@@ -3716,7 +3695,7 @@
         <v>5.14</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="s">
         <v>124</v>
       </c>
@@ -3733,7 +3712,7 @@
         <v>3.96</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="s">
         <v>125</v>
       </c>
@@ -3750,7 +3729,7 @@
         <v>4.92</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="s">
         <v>126</v>
       </c>
@@ -3761,13 +3740,13 @@
         <v>1.57</v>
       </c>
       <c r="I117">
-        <v>2.0499999999999998</v>
+        <v>2.05</v>
       </c>
       <c r="J117">
         <v>2.39</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="s">
         <v>127</v>
       </c>
@@ -3781,10 +3760,10 @@
         <v>3.7</v>
       </c>
       <c r="I118">
-        <v>4.8099999999999996</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4.81</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="s">
         <v>128</v>
       </c>
@@ -3792,7 +3771,7 @@
         <v>3.42</v>
       </c>
       <c r="H119">
-        <v>4.3099999999999996</v>
+        <v>4.31</v>
       </c>
       <c r="I119">
         <v>4.95</v>
@@ -3801,7 +3780,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="s">
         <v>129</v>
       </c>
@@ -3818,7 +3797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="s">
         <v>130</v>
       </c>
@@ -3835,7 +3814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="s">
         <v>131</v>
       </c>
@@ -3852,7 +3831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="s">
         <v>132</v>
       </c>
@@ -3869,7 +3848,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="s">
         <v>133</v>
       </c>
@@ -3886,7 +3865,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="s">
         <v>134</v>
       </c>
@@ -3903,7 +3882,7 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="s">
         <v>135</v>
       </c>
@@ -3911,7 +3890,7 @@
         <v>5.86</v>
       </c>
       <c r="H126">
-        <v>4.6500000000000004</v>
+        <v>4.65</v>
       </c>
       <c r="I126">
         <v>5.52</v>
@@ -3920,7 +3899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="s">
         <v>136</v>
       </c>
@@ -3937,7 +3916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="s">
         <v>137</v>
       </c>
@@ -3945,7 +3924,7 @@
         <v>3.19</v>
       </c>
       <c r="H128">
-        <v>2.1800000000000002</v>
+        <v>2.18</v>
       </c>
       <c r="I128">
         <v>5.56</v>
@@ -3954,7 +3933,7 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="s">
         <v>138</v>
       </c>
@@ -3971,7 +3950,7 @@
         <v>4.05</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="s">
         <v>139</v>
       </c>
@@ -3988,7 +3967,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="s">
         <v>140</v>
       </c>
@@ -3999,13 +3978,13 @@
         <v>3.93</v>
       </c>
       <c r="I131">
-        <v>-35.549999999999997</v>
+        <v>-35.55</v>
       </c>
       <c r="J131">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="s">
         <v>141</v>
       </c>
@@ -4022,12 +4001,12 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="s">
         <v>142</v>
       </c>
       <c r="G133">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="H133">
         <v>0.04</v>
@@ -4039,7 +4018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="s">
         <v>143</v>
       </c>
@@ -4056,7 +4035,7 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="s">
         <v>144</v>
       </c>
@@ -4073,7 +4052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="s">
         <v>145</v>
       </c>
@@ -4090,12 +4069,12 @@
         <v>3.61</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="s">
         <v>146</v>
       </c>
       <c r="F137">
-        <v>-0.56000000000000005</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="G137">
         <v>2.81</v>
@@ -4107,7 +4086,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="s">
         <v>147</v>
       </c>
@@ -4124,7 +4103,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="s">
         <v>148</v>
       </c>
@@ -4141,7 +4120,7 @@
         <v>5.71</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="s">
         <v>149</v>
       </c>
@@ -4155,10 +4134,10 @@
         <v>4.01</v>
       </c>
       <c r="J140">
-        <v>2.5299999999999998</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="s">
         <v>150</v>
       </c>
@@ -4166,16 +4145,16 @@
         <v>2.13</v>
       </c>
       <c r="G141">
-        <v>8.1300000000000008</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="H141">
         <v>5.36</v>
       </c>
       <c r="I141">
-        <v>-8.2899999999999991</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-8.289999999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="s">
         <v>151</v>
       </c>
@@ -4192,15 +4171,15 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="s">
         <v>152</v>
       </c>
       <c r="F143">
-        <v>2.7290000000000001</v>
+        <v>2.729</v>
       </c>
       <c r="G143">
-        <v>5.1550000000000002</v>
+        <v>5.155</v>
       </c>
       <c r="H143">
         <v>1.736</v>
@@ -4209,7 +4188,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="s">
         <v>153</v>
       </c>
@@ -4217,16 +4196,16 @@
         <v>2.59</v>
       </c>
       <c r="H144">
-        <v>2.5499999999999998</v>
+        <v>2.55</v>
       </c>
       <c r="I144">
-        <v>0.56000000000000005</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J144">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="s">
         <v>154</v>
       </c>
@@ -4234,7 +4213,7 @@
         <v>1.9</v>
       </c>
       <c r="G145">
-        <v>2.4900000000000002</v>
+        <v>2.49</v>
       </c>
       <c r="H145">
         <v>2.59</v>
@@ -4243,7 +4222,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="s">
         <v>155</v>
       </c>
@@ -4251,7 +4230,7 @@
         <v>3.42</v>
       </c>
       <c r="G146">
-        <v>4.0599999999999996</v>
+        <v>4.06</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -4260,7 +4239,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="s">
         <v>156</v>
       </c>
@@ -4277,7 +4256,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="s">
         <v>157</v>
       </c>
@@ -4294,12 +4273,12 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="s">
         <v>158</v>
       </c>
       <c r="F149">
-        <v>4.7699999999999996</v>
+        <v>4.77</v>
       </c>
       <c r="G149">
         <v>3.99</v>
@@ -4311,12 +4290,12 @@
         <v>-0.99</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="s">
         <v>159</v>
       </c>
       <c r="F150">
-        <v>2.5499999999999998</v>
+        <v>2.55</v>
       </c>
       <c r="G150">
         <v>3.51</v>
@@ -4325,10 +4304,10 @@
         <v>7.62</v>
       </c>
       <c r="I150">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="s">
         <v>160</v>
       </c>
@@ -4345,7 +4324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="s">
         <v>161</v>
       </c>
@@ -4362,7 +4341,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="s">
         <v>162</v>
       </c>
@@ -4379,12 +4358,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="s">
         <v>163</v>
       </c>
       <c r="F154">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="G154">
         <v>1.54</v>
@@ -4396,7 +4375,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="s">
         <v>164</v>
       </c>
@@ -4404,7 +4383,7 @@
         <v>1.82</v>
       </c>
       <c r="H155">
-        <v>0.81</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I155">
         <v>1.86</v>
@@ -4413,7 +4392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="s">
         <v>165</v>
       </c>
@@ -4430,7 +4409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="s">
         <v>166</v>
       </c>
@@ -4438,7 +4417,7 @@
         <v>0.62</v>
       </c>
       <c r="H157">
-        <v>1.1200000000000001</v>
+        <v>1.12</v>
       </c>
       <c r="I157">
         <v>1.31</v>
@@ -4447,7 +4426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="s">
         <v>167</v>
       </c>
@@ -4464,7 +4443,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="s">
         <v>168</v>
       </c>
@@ -4481,7 +4460,7 @@
         <v>-11.31</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="s">
         <v>169</v>
       </c>
@@ -4498,7 +4477,7 @@
         <v>6.59</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="s">
         <v>170</v>
       </c>
@@ -4506,7 +4485,7 @@
         <v>1.85</v>
       </c>
       <c r="G161">
-        <v>0.94</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H161">
         <v>0</v>
@@ -4515,7 +4494,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="s">
         <v>171</v>
       </c>
@@ -4532,7 +4511,7 @@
         <v>5.43</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="s">
         <v>172</v>
       </c>
@@ -4546,10 +4525,10 @@
         <v>2.38</v>
       </c>
       <c r="I163">
-        <v>2.2200000000000002</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2.22</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="s">
         <v>173</v>
       </c>
@@ -4557,7 +4536,7 @@
         <v>4.5</v>
       </c>
       <c r="G164">
-        <v>2.4700000000000002</v>
+        <v>2.47</v>
       </c>
       <c r="H164">
         <v>3.03</v>
@@ -4566,7 +4545,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="s">
         <v>174</v>
       </c>
@@ -4583,7 +4562,7 @@
         <v>3.89</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="s">
         <v>175</v>
       </c>
@@ -4600,12 +4579,12 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="s">
         <v>176</v>
       </c>
       <c r="G167">
-        <v>4.1100000000000003</v>
+        <v>4.11</v>
       </c>
       <c r="H167">
         <v>3.24</v>
@@ -4617,7 +4596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="s">
         <v>177</v>
       </c>
@@ -4628,13 +4607,13 @@
         <v>3.79</v>
       </c>
       <c r="I168">
-        <v>2.0099999999999998</v>
+        <v>2.01</v>
       </c>
       <c r="J168">
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="s">
         <v>178</v>
       </c>
@@ -4645,18 +4624,18 @@
         <v>2.16</v>
       </c>
       <c r="H169">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="I169">
         <v>3.66</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="s">
         <v>179</v>
       </c>
       <c r="G170">
-        <v>2.4700000000000002</v>
+        <v>2.47</v>
       </c>
       <c r="H170">
         <v>2.42</v>
@@ -4668,12 +4647,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="s">
         <v>180</v>
       </c>
       <c r="F171">
-        <v>-1.1100000000000001</v>
+        <v>-1.11</v>
       </c>
       <c r="G171">
         <v>3.77</v>
@@ -4685,12 +4664,12 @@
         <v>5.42</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="s">
         <v>181</v>
       </c>
       <c r="F172">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="G172">
         <v>0.11</v>
@@ -4699,10 +4678,10 @@
         <v>0.13</v>
       </c>
       <c r="I172">
-        <v>-0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-0.29</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="s">
         <v>182</v>
       </c>
@@ -4719,7 +4698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="s">
         <v>183</v>
       </c>
@@ -4736,7 +4715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="s">
         <v>184</v>
       </c>
@@ -4744,7 +4723,7 @@
         <v>1.71</v>
       </c>
       <c r="G175">
-        <v>2.0099999999999998</v>
+        <v>2.01</v>
       </c>
       <c r="H175">
         <v>7.95</v>
@@ -4753,7 +4732,7 @@
         <v>12.37</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="s">
         <v>185</v>
       </c>
@@ -4770,7 +4749,7 @@
         <v>2.83</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="s">
         <v>186</v>
       </c>
@@ -4787,7 +4766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="s">
         <v>187</v>
       </c>
@@ -4804,7 +4783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="s">
         <v>188</v>
       </c>
@@ -4815,13 +4794,13 @@
         <v>4.43</v>
       </c>
       <c r="H179">
-        <v>4.6399999999999997</v>
+        <v>4.64</v>
       </c>
       <c r="I179">
-        <v>4.6500000000000004</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4.65</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="s">
         <v>189</v>
       </c>
@@ -4832,13 +4811,13 @@
         <v>3.4</v>
       </c>
       <c r="I180">
-        <v>4.1500000000000004</v>
+        <v>4.15</v>
       </c>
       <c r="J180">
-        <v>2.0499999999999998</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="s">
         <v>190</v>
       </c>
@@ -4852,10 +4831,10 @@
         <v>2.9</v>
       </c>
       <c r="J181">
-        <v>2.2400000000000002</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2.24</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="s">
         <v>191</v>
       </c>
@@ -4872,7 +4851,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="s">
         <v>192</v>
       </c>
@@ -4880,21 +4859,21 @@
         <v>2.44</v>
       </c>
       <c r="H183">
-        <v>9.1300000000000008</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="I183">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="J183">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="s">
         <v>193</v>
       </c>
       <c r="F184">
-        <v>9.7100000000000009</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="G184">
         <v>11.31</v>
@@ -4906,7 +4885,7 @@
         <v>11.69</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="s">
         <v>194</v>
       </c>
@@ -4923,7 +4902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="s">
         <v>195</v>
       </c>
@@ -4940,7 +4919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="s">
         <v>196</v>
       </c>
@@ -4948,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="G187">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="H187">
         <v>3.24</v>
@@ -4957,7 +4936,7 @@
         <v>3.61</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="s">
         <v>197</v>
       </c>
@@ -4974,7 +4953,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="s">
         <v>198</v>
       </c>
@@ -4982,13 +4961,13 @@
         <v>3.31</v>
       </c>
       <c r="I189">
-        <v>4.0199999999999996</v>
+        <v>4.02</v>
       </c>
       <c r="J189">
         <v>1.07</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="s">
         <v>199</v>
       </c>
@@ -5005,7 +4984,7 @@
         <v>5.14</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="s">
         <v>200</v>
       </c>
@@ -5013,7 +4992,7 @@
         <v>0.99</v>
       </c>
       <c r="G191">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="H191">
         <v>1.46</v>
@@ -5022,7 +5001,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="s">
         <v>201</v>
       </c>
@@ -5030,7 +5009,7 @@
         <v>2.13</v>
       </c>
       <c r="H192">
-        <v>2.0099999999999998</v>
+        <v>2.01</v>
       </c>
       <c r="I192">
         <v>-1.21</v>
@@ -5039,7 +5018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="s">
         <v>202</v>
       </c>
@@ -5056,7 +5035,7 @@
         <v>5.49</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10">
       <c r="A194" s="1" t="s">
         <v>203</v>
       </c>
@@ -5073,7 +5052,7 @@
         <v>-10.78</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10">
       <c r="A195" s="1" t="s">
         <v>204</v>
       </c>
@@ -5090,7 +5069,7 @@
         <v>4.05</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10">
       <c r="A196" s="1" t="s">
         <v>205</v>
       </c>
@@ -5107,12 +5086,12 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10">
       <c r="A197" s="1" t="s">
         <v>206</v>
       </c>
       <c r="G197">
-        <v>-4.3600000000000003</v>
+        <v>-4.36</v>
       </c>
       <c r="H197">
         <v>0.06</v>
@@ -5124,7 +5103,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10">
       <c r="A198" s="1" t="s">
         <v>207</v>
       </c>
@@ -5141,7 +5120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10">
       <c r="A199" s="1" t="s">
         <v>208</v>
       </c>
@@ -5158,7 +5137,7 @@
         <v>-0.54</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10">
       <c r="A200" s="1" t="s">
         <v>209</v>
       </c>
@@ -5172,7 +5151,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10">
       <c r="A201" s="1" t="s">
         <v>210</v>
       </c>
@@ -5189,7 +5168,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10">
       <c r="A202" s="1" t="s">
         <v>211</v>
       </c>
@@ -5206,7 +5185,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10">
       <c r="A203" s="1" t="s">
         <v>212</v>
       </c>
@@ -5214,7 +5193,7 @@
         <v>1.99</v>
       </c>
       <c r="H203">
-        <v>2.2799999999999998</v>
+        <v>2.28</v>
       </c>
       <c r="I203">
         <v>0</v>
@@ -5223,7 +5202,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10">
       <c r="A204" s="1" t="s">
         <v>213</v>
       </c>
@@ -5240,15 +5219,15 @@
         <v>2.61</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10">
       <c r="A205" s="1" t="s">
         <v>214</v>
       </c>
       <c r="F205">
-        <v>4.4400000000000004</v>
+        <v>4.44</v>
       </c>
       <c r="G205">
-        <v>5.0199999999999996</v>
+        <v>5.02</v>
       </c>
       <c r="H205">
         <v>5.53</v>
@@ -5257,7 +5236,7 @@
         <v>5.78</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10">
       <c r="A206" s="1" t="s">
         <v>215</v>
       </c>
@@ -5274,7 +5253,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10">
       <c r="A207" s="1" t="s">
         <v>216</v>
       </c>
@@ -5291,7 +5270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10">
       <c r="A208" s="1" t="s">
         <v>217</v>
       </c>
@@ -5302,13 +5281,13 @@
         <v>7.44</v>
       </c>
       <c r="I208">
-        <v>8.5399999999999991</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="J208">
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11">
       <c r="A209" s="1" t="s">
         <v>218</v>
       </c>
@@ -5325,7 +5304,7 @@
         <v>13.48</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11">
       <c r="A210" s="1" t="s">
         <v>219</v>
       </c>
@@ -5339,10 +5318,10 @@
         <v>3.63</v>
       </c>
       <c r="I210">
-        <v>2.0699999999999998</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
       <c r="A211" s="1" t="s">
         <v>220</v>
       </c>
@@ -5359,7 +5338,7 @@
         <v>5.19</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11">
       <c r="A212" s="1" t="s">
         <v>221</v>
       </c>
@@ -5376,7 +5355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11">
       <c r="A213" s="1" t="s">
         <v>222</v>
       </c>
@@ -5393,7 +5372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11">
       <c r="A214" s="1" t="s">
         <v>223</v>
       </c>
@@ -5410,7 +5389,7 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11">
       <c r="A215" s="1" t="s">
         <v>224</v>
       </c>
@@ -5427,7 +5406,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11">
       <c r="A216" s="1" t="s">
         <v>225</v>
       </c>
@@ -5438,13 +5417,13 @@
         <v>0.62</v>
       </c>
       <c r="H216">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="I216">
-        <v>1.1100000000000001</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11">
       <c r="A217" s="1" t="s">
         <v>226</v>
       </c>
@@ -5458,10 +5437,10 @@
         <v>1.67</v>
       </c>
       <c r="I217">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11">
       <c r="A218" s="1" t="s">
         <v>227</v>
       </c>
@@ -5478,7 +5457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11">
       <c r="A219" s="1" t="s">
         <v>228</v>
       </c>
@@ -5495,7 +5474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11">
       <c r="A220" s="1" t="s">
         <v>229</v>
       </c>
@@ -5509,10 +5488,10 @@
         <v>2.27</v>
       </c>
       <c r="I220">
-        <v>2.2599999999999998</v>
-      </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.26</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11">
       <c r="A221" s="1" t="s">
         <v>230</v>
       </c>
@@ -5529,7 +5508,7 @@
         <v>3.69</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11">
       <c r="A222" s="1" t="s">
         <v>231</v>
       </c>
@@ -5537,7 +5516,7 @@
         <v>3.27</v>
       </c>
       <c r="H222">
-        <v>2.5099999999999998</v>
+        <v>2.51</v>
       </c>
       <c r="I222">
         <v>2.42</v>
@@ -5546,7 +5525,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11">
       <c r="A223" s="1" t="s">
         <v>232</v>
       </c>
@@ -5563,7 +5542,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11">
       <c r="A224" s="1" t="s">
         <v>233</v>
       </c>
@@ -5571,7 +5550,7 @@
         <v>5.22</v>
       </c>
       <c r="G224">
-        <v>4.3899999999999997</v>
+        <v>4.39</v>
       </c>
       <c r="H224">
         <v>5.34</v>
@@ -5580,7 +5559,7 @@
         <v>6.05</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10">
       <c r="A225" s="1" t="s">
         <v>234</v>
       </c>
@@ -5597,7 +5576,7 @@
         <v>3.22</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10">
       <c r="A226" s="1" t="s">
         <v>235</v>
       </c>
@@ -5605,7 +5584,7 @@
         <v>2.68</v>
       </c>
       <c r="G226">
-        <v>4.9800000000000004</v>
+        <v>4.98</v>
       </c>
       <c r="I226">
         <v>1.76</v>
@@ -5614,7 +5593,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10">
       <c r="A227" s="1" t="s">
         <v>236</v>
       </c>
@@ -5631,7 +5610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10">
       <c r="A228" s="1" t="s">
         <v>237</v>
       </c>
@@ -5645,10 +5624,10 @@
         <v>0.89</v>
       </c>
       <c r="I228">
-        <v>2.0099999999999998</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10">
       <c r="A229" s="1" t="s">
         <v>238</v>
       </c>
@@ -5659,13 +5638,13 @@
         <v>3.51</v>
       </c>
       <c r="I229">
-        <v>2.2599999999999998</v>
+        <v>2.26</v>
       </c>
       <c r="J229">
-        <v>4.5199999999999996</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4.52</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10">
       <c r="A230" s="1" t="s">
         <v>239</v>
       </c>
@@ -5682,7 +5661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10">
       <c r="A231" s="1" t="s">
         <v>240</v>
       </c>
@@ -5699,7 +5678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10">
       <c r="A232" s="1" t="s">
         <v>241</v>
       </c>
@@ -5707,7 +5686,7 @@
         <v>1.9</v>
       </c>
       <c r="H232">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="I232">
         <v>2.77</v>
@@ -5716,7 +5695,7 @@
         <v>3.07</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10">
       <c r="A233" s="1" t="s">
         <v>242</v>
       </c>
@@ -5733,7 +5712,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10">
       <c r="A234" s="1" t="s">
         <v>243</v>
       </c>
@@ -5744,13 +5723,13 @@
         <v>3.27</v>
       </c>
       <c r="I234">
-        <v>4.3499999999999996</v>
+        <v>4.35</v>
       </c>
       <c r="J234">
         <v>4.5</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10">
       <c r="A235" s="1" t="s">
         <v>244</v>
       </c>
@@ -5767,12 +5746,12 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10">
       <c r="A236" s="1" t="s">
         <v>245</v>
       </c>
       <c r="G236">
-        <v>4.1900000000000004</v>
+        <v>4.19</v>
       </c>
       <c r="H236">
         <v>4.08</v>
@@ -5784,7 +5763,7 @@
         <v>3.48</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10">
       <c r="A237" s="1" t="s">
         <v>246</v>
       </c>
@@ -5792,7 +5771,7 @@
         <v>3.19</v>
       </c>
       <c r="H237">
-        <v>4.5599999999999996</v>
+        <v>4.56</v>
       </c>
       <c r="I237">
         <v>4.41</v>
@@ -5801,7 +5780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10">
       <c r="A238" s="1" t="s">
         <v>247</v>
       </c>
@@ -5818,7 +5797,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10">
       <c r="A239" s="1" t="s">
         <v>248</v>
       </c>
@@ -5829,13 +5808,13 @@
         <v>1.36</v>
       </c>
       <c r="H239">
-        <v>0.69</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I239">
         <v>2.31</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10">
       <c r="A240" s="1" t="s">
         <v>249</v>
       </c>
@@ -5852,7 +5831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10">
       <c r="A241" s="1" t="s">
         <v>250</v>
       </c>
@@ -5869,7 +5848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10">
       <c r="A242" s="1" t="s">
         <v>251</v>
       </c>
@@ -5886,7 +5865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10">
       <c r="A243" s="1" t="s">
         <v>252</v>
       </c>
@@ -5894,7 +5873,7 @@
         <v>8.41</v>
       </c>
       <c r="G243">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H243">
         <v>7.78</v>
@@ -5903,7 +5882,7 @@
         <v>-2.97</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10">
       <c r="A244" s="1" t="s">
         <v>253</v>
       </c>
@@ -5920,7 +5899,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10">
       <c r="A245" s="1" t="s">
         <v>254</v>
       </c>
@@ -5937,12 +5916,12 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10">
       <c r="A246" s="1" t="s">
         <v>255</v>
       </c>
       <c r="G246">
-        <v>9.2899999999999991</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="H246">
         <v>11.41</v>
@@ -5954,7 +5933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10">
       <c r="A247" s="1" t="s">
         <v>256</v>
       </c>
@@ -5971,7 +5950,7 @@
         <v>3.36</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10">
       <c r="A248" s="1" t="s">
         <v>257</v>
       </c>
@@ -5988,7 +5967,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10">
       <c r="A249" s="1" t="s">
         <v>258</v>
       </c>
@@ -5999,13 +5978,13 @@
         <v>3.84</v>
       </c>
       <c r="I249">
-        <v>4.1100000000000003</v>
+        <v>4.11</v>
       </c>
       <c r="J249">
         <v>5.75</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10">
       <c r="A250" s="1" t="s">
         <v>259</v>
       </c>
@@ -6022,7 +6001,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10">
       <c r="A251" s="1" t="s">
         <v>260</v>
       </c>
@@ -6039,7 +6018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10">
       <c r="A252" s="1" t="s">
         <v>261</v>
       </c>
@@ -6053,10 +6032,10 @@
         <v>1.23</v>
       </c>
       <c r="I252">
-        <v>9.7100000000000009</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9.710000000000001</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10">
       <c r="A253" s="1" t="s">
         <v>262</v>
       </c>
@@ -6067,13 +6046,13 @@
         <v>6.8</v>
       </c>
       <c r="H253">
-        <v>8.0299999999999994</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="I253">
-        <v>9.6199999999999992</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9.619999999999999</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10">
       <c r="A254" s="1" t="s">
         <v>263</v>
       </c>
@@ -6090,7 +6069,7 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10">
       <c r="A255" s="1" t="s">
         <v>264</v>
       </c>
@@ -6107,7 +6086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10">
       <c r="A256" s="1" t="s">
         <v>265</v>
       </c>
@@ -6124,12 +6103,12 @@
         <v>4.41</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10">
       <c r="A257" s="1" t="s">
         <v>266</v>
       </c>
       <c r="F257">
-        <v>2.5099999999999998</v>
+        <v>2.51</v>
       </c>
       <c r="G257">
         <v>3.01</v>
@@ -6141,7 +6120,7 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10">
       <c r="A258" s="1" t="s">
         <v>267</v>
       </c>
@@ -6149,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="G258">
-        <v>2.0499999999999998</v>
+        <v>2.05</v>
       </c>
       <c r="H258">
         <v>2.6</v>
@@ -6158,7 +6137,7 @@
         <v>3.22</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10">
       <c r="A259" s="1" t="s">
         <v>268</v>
       </c>
@@ -6175,7 +6154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10">
       <c r="A260" s="1" t="s">
         <v>269</v>
       </c>
@@ -6192,7 +6171,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10">
       <c r="A261" s="1" t="s">
         <v>270</v>
       </c>
@@ -6203,13 +6182,13 @@
         <v>5.59</v>
       </c>
       <c r="H261">
-        <v>4.8499999999999996</v>
+        <v>4.85</v>
       </c>
       <c r="I261">
         <v>4.82</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10">
       <c r="A262" s="1" t="s">
         <v>271</v>
       </c>
@@ -6226,7 +6205,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10">
       <c r="A263" s="1" t="s">
         <v>272</v>
       </c>
@@ -6243,7 +6222,7 @@
         <v>9.82</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10">
       <c r="A264" s="1" t="s">
         <v>273</v>
       </c>
@@ -6254,13 +6233,13 @@
         <v>3.67</v>
       </c>
       <c r="H264">
-        <v>4.6900000000000004</v>
+        <v>4.69</v>
       </c>
       <c r="I264">
         <v>4.7</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10">
       <c r="A265" s="1" t="s">
         <v>274</v>
       </c>
@@ -6277,12 +6256,12 @@
         <v>4.49</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10">
       <c r="A266" s="1" t="s">
         <v>275</v>
       </c>
       <c r="F266">
-        <v>1.1200000000000001</v>
+        <v>1.12</v>
       </c>
       <c r="G266">
         <v>2.94</v>
@@ -6291,10 +6270,10 @@
         <v>5.48</v>
       </c>
       <c r="I266">
-        <v>4.6100000000000003</v>
-      </c>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4.61</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10">
       <c r="A267" s="1" t="s">
         <v>276</v>
       </c>
@@ -6302,7 +6281,7 @@
         <v>3.63</v>
       </c>
       <c r="G267">
-        <v>4.8600000000000003</v>
+        <v>4.86</v>
       </c>
       <c r="H267">
         <v>7.3</v>
@@ -6311,7 +6290,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10">
       <c r="A268" s="1" t="s">
         <v>277</v>
       </c>
@@ -6328,7 +6307,7 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10">
       <c r="A269" s="1" t="s">
         <v>278</v>
       </c>
@@ -6345,7 +6324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10">
       <c r="A270" s="1" t="s">
         <v>279</v>
       </c>
@@ -6359,10 +6338,10 @@
         <v>2.73</v>
       </c>
       <c r="I270">
-        <v>4.3099999999999996</v>
-      </c>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4.31</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10">
       <c r="A271" s="1" t="s">
         <v>280</v>
       </c>
@@ -6370,7 +6349,7 @@
         <v>2.16</v>
       </c>
       <c r="G271">
-        <v>2.4700000000000002</v>
+        <v>2.47</v>
       </c>
       <c r="H271">
         <v>2.69</v>
@@ -6379,7 +6358,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10">
       <c r="A272" s="1" t="s">
         <v>281</v>
       </c>
@@ -6396,7 +6375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10">
       <c r="A273" s="1" t="s">
         <v>282</v>
       </c>
@@ -6413,7 +6392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10">
       <c r="A274" s="1" t="s">
         <v>283</v>
       </c>
@@ -6421,7 +6400,7 @@
         <v>2.06</v>
       </c>
       <c r="G274">
-        <v>2.2599999999999998</v>
+        <v>2.26</v>
       </c>
       <c r="H274">
         <v>2.56</v>
@@ -6430,29 +6409,29 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10">
       <c r="A275" s="1" t="s">
         <v>284</v>
       </c>
       <c r="G275">
-        <v>4.6500000000000004</v>
+        <v>4.65</v>
       </c>
       <c r="H275">
         <v>5.28</v>
       </c>
       <c r="I275">
-        <v>4.8499999999999996</v>
+        <v>4.85</v>
       </c>
       <c r="J275">
         <v>3.02</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10">
       <c r="A276" s="1" t="s">
         <v>285</v>
       </c>
       <c r="G276">
-        <v>4.4400000000000004</v>
+        <v>4.44</v>
       </c>
       <c r="H276">
         <v>2.69</v>
@@ -6464,12 +6443,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10">
       <c r="A277" s="1" t="s">
         <v>286</v>
       </c>
       <c r="F277">
-        <v>9.9499999999999993</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="G277">
         <v>6.69</v>
@@ -6481,12 +6460,12 @@
         <v>5.29</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10">
       <c r="A278" s="1" t="s">
         <v>287</v>
       </c>
       <c r="F278">
-        <v>2.0299999999999998</v>
+        <v>2.03</v>
       </c>
       <c r="G278">
         <v>1.49</v>
@@ -6498,24 +6477,24 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10">
       <c r="A279" s="1" t="s">
         <v>288</v>
       </c>
       <c r="F279">
-        <v>2.2400000000000002</v>
+        <v>2.24</v>
       </c>
       <c r="G279">
-        <v>2.4900000000000002</v>
+        <v>2.49</v>
       </c>
       <c r="H279">
-        <v>4.4800000000000004</v>
+        <v>4.48</v>
       </c>
       <c r="I279">
         <v>-3.26</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10">
       <c r="A280" s="1" t="s">
         <v>289</v>
       </c>
@@ -6532,7 +6511,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10">
       <c r="A281" s="1" t="s">
         <v>290</v>
       </c>
@@ -6549,12 +6528,12 @@
         <v>7.22</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10">
       <c r="A282" s="1" t="s">
         <v>291</v>
       </c>
       <c r="G282">
-        <v>10.220000000000001</v>
+        <v>10.22</v>
       </c>
       <c r="H282">
         <v>11.71</v>
@@ -6566,12 +6545,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10">
       <c r="A283" s="1" t="s">
         <v>292</v>
       </c>
       <c r="G283">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="H283">
         <v>2.87</v>
@@ -6583,7 +6562,7 @@
         <v>-0.27</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10">
       <c r="A284" s="1" t="s">
         <v>293</v>
       </c>
@@ -6594,24 +6573,24 @@
         <v>5.98</v>
       </c>
       <c r="H284">
-        <v>5.0599999999999996</v>
+        <v>5.06</v>
       </c>
       <c r="I284">
         <v>-13.03</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10">
       <c r="A285" s="1" t="s">
         <v>294</v>
       </c>
       <c r="H285">
-        <v>2.4900000000000002</v>
+        <v>2.49</v>
       </c>
       <c r="I285">
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10">
       <c r="A286" s="1" t="s">
         <v>295</v>
       </c>
@@ -6625,7 +6604,7 @@
         <v>2.66</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10">
       <c r="A287" s="1" t="s">
         <v>296</v>
       </c>
@@ -6642,7 +6621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10">
       <c r="A288" s="1" t="s">
         <v>297</v>
       </c>
@@ -6650,16 +6629,16 @@
         <v>2.09</v>
       </c>
       <c r="G288">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="H288">
-        <v>2.4500000000000002</v>
+        <v>2.45</v>
       </c>
       <c r="I288">
         <v>2.56</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10">
       <c r="A289" s="1" t="s">
         <v>298</v>
       </c>
@@ -6676,7 +6655,7 @@
         <v>6.11</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10">
       <c r="A290" s="1" t="s">
         <v>299</v>
       </c>
@@ -6684,7 +6663,7 @@
         <v>3.65</v>
       </c>
       <c r="G290">
-        <v>-4.9400000000000004</v>
+        <v>-4.94</v>
       </c>
       <c r="H290">
         <v>1.02</v>
@@ -6693,7 +6672,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10">
       <c r="A291" s="1" t="s">
         <v>300</v>
       </c>
@@ -6701,24 +6680,24 @@
         <v>1.93</v>
       </c>
       <c r="H291">
-        <v>4.4400000000000004</v>
+        <v>4.44</v>
       </c>
       <c r="I291">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="J291">
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10">
       <c r="A292" s="1" t="s">
         <v>301</v>
       </c>
       <c r="F292">
-        <v>-8.8000000000000007</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="G292">
-        <v>0.94</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H292">
         <v>6.59</v>
@@ -6727,7 +6706,7 @@
         <v>-21.18</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10">
       <c r="A293" s="1" t="s">
         <v>302</v>
       </c>
@@ -6744,7 +6723,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10">
       <c r="A294" s="1" t="s">
         <v>303</v>
       </c>
@@ -6761,7 +6740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10">
       <c r="A295" s="1" t="s">
         <v>304</v>
       </c>
@@ -6778,7 +6757,7 @@
         <v>-1.99</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10">
       <c r="A296" s="1" t="s">
         <v>305</v>
       </c>
@@ -6795,7 +6774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10">
       <c r="A297" s="1" t="s">
         <v>306</v>
       </c>
@@ -6812,7 +6791,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10">
       <c r="A298" s="1" t="s">
         <v>307</v>
       </c>
@@ -6829,7 +6808,7 @@
         <v>4.03</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10">
       <c r="A299" s="1" t="s">
         <v>308</v>
       </c>
@@ -6840,13 +6819,13 @@
         <v>1.52</v>
       </c>
       <c r="H299">
-        <v>2.2200000000000002</v>
+        <v>2.22</v>
       </c>
       <c r="I299">
-        <v>1.1100000000000001</v>
-      </c>
-    </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10">
       <c r="A300" s="1" t="s">
         <v>309</v>
       </c>
@@ -6857,13 +6836,13 @@
         <v>0.75</v>
       </c>
       <c r="I300">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="J300">
-        <v>1.1299999999999999</v>
-      </c>
-    </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10">
       <c r="A301" s="1" t="s">
         <v>310</v>
       </c>
@@ -6880,7 +6859,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10">
       <c r="A302" s="1" t="s">
         <v>311</v>
       </c>
@@ -6897,7 +6876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10">
       <c r="A303" s="1" t="s">
         <v>312</v>
       </c>
@@ -6914,7 +6893,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10">
       <c r="A304" s="1" t="s">
         <v>313</v>
       </c>
@@ -6928,10 +6907,10 @@
         <v>1.04</v>
       </c>
       <c r="I304">
-        <v>1.0900000000000001</v>
-      </c>
-    </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10">
       <c r="A305" s="1" t="s">
         <v>314</v>
       </c>
@@ -6948,7 +6927,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10">
       <c r="A306" s="1" t="s">
         <v>315</v>
       </c>
@@ -6956,7 +6935,7 @@
         <v>3.73</v>
       </c>
       <c r="H306">
-        <v>4.2699999999999996</v>
+        <v>4.27</v>
       </c>
       <c r="I306">
         <v>4.43</v>
@@ -6965,7 +6944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10">
       <c r="A307" s="1" t="s">
         <v>316</v>
       </c>
@@ -6982,7 +6961,7 @@
         <v>9.32</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10">
       <c r="A308" s="1" t="s">
         <v>317</v>
       </c>
@@ -6999,7 +6978,7 @@
         <v>-10.23</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10">
       <c r="A309" s="1" t="s">
         <v>318</v>
       </c>
@@ -7016,7 +6995,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10">
       <c r="A310" s="1" t="s">
         <v>319</v>
       </c>
@@ -7033,12 +7012,12 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10">
       <c r="A311" s="1" t="s">
         <v>320</v>
       </c>
       <c r="F311">
-        <v>2.2200000000000002</v>
+        <v>2.22</v>
       </c>
       <c r="G311">
         <v>0.71</v>
@@ -7050,7 +7029,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10">
       <c r="A312" s="1" t="s">
         <v>321</v>
       </c>
@@ -7064,10 +7043,10 @@
         <v>3.83</v>
       </c>
       <c r="I312">
-        <v>4.5199999999999996</v>
-      </c>
-    </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4.52</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10">
       <c r="A313" s="1" t="s">
         <v>322</v>
       </c>
@@ -7084,7 +7063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10">
       <c r="A314" s="1" t="s">
         <v>323</v>
       </c>
@@ -7101,7 +7080,7 @@
         <v>50.09</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10">
       <c r="A315" s="1" t="s">
         <v>324</v>
       </c>
@@ -7112,13 +7091,13 @@
         <v>1.99</v>
       </c>
       <c r="I315">
-        <v>2.2599999999999998</v>
+        <v>2.26</v>
       </c>
       <c r="J315">
         <v>1.93</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10">
       <c r="A316" s="1" t="s">
         <v>325</v>
       </c>
@@ -7135,7 +7114,7 @@
         <v>3.32</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10">
       <c r="A317" s="1" t="s">
         <v>326</v>
       </c>
@@ -7143,7 +7122,7 @@
         <v>4.37</v>
       </c>
       <c r="H317">
-        <v>4.3099999999999996</v>
+        <v>4.31</v>
       </c>
       <c r="I317">
         <v>3.71</v>
@@ -7152,7 +7131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10">
       <c r="A318" s="1" t="s">
         <v>327</v>
       </c>
@@ -7166,10 +7145,10 @@
         <v>1.44</v>
       </c>
       <c r="I318">
-        <v>1.1299999999999999</v>
-      </c>
-    </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10">
       <c r="A319" s="1" t="s">
         <v>328</v>
       </c>
@@ -7180,13 +7159,13 @@
         <v>3.7</v>
       </c>
       <c r="I319">
-        <v>4.1100000000000003</v>
+        <v>4.11</v>
       </c>
       <c r="J319">
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10">
       <c r="A320" s="1" t="s">
         <v>329</v>
       </c>
@@ -7203,7 +7182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10">
       <c r="A321" s="1" t="s">
         <v>330</v>
       </c>
@@ -7220,7 +7199,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10">
       <c r="A322" s="1" t="s">
         <v>331</v>
       </c>
@@ -7237,7 +7216,7 @@
         <v>5.96</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10">
       <c r="A323" s="1" t="s">
         <v>332</v>
       </c>
@@ -7254,7 +7233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10">
       <c r="A324" s="1" t="s">
         <v>333</v>
       </c>
@@ -7271,7 +7250,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10">
       <c r="A325" s="1" t="s">
         <v>334</v>
       </c>
@@ -7288,7 +7267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10">
       <c r="A326" s="1" t="s">
         <v>335</v>
       </c>
@@ -7305,7 +7284,7 @@
         <v>7.52</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10">
       <c r="A327" s="1" t="s">
         <v>336</v>
       </c>
@@ -7316,13 +7295,13 @@
         <v>2.67</v>
       </c>
       <c r="H327">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="I327">
         <v>-0.42</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10">
       <c r="A328" s="1" t="s">
         <v>337</v>
       </c>
@@ -7339,7 +7318,7 @@
         <v>3.94</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10">
       <c r="A329" s="1" t="s">
         <v>338</v>
       </c>
@@ -7356,7 +7335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10">
       <c r="A330" s="1" t="s">
         <v>339</v>
       </c>
@@ -7373,7 +7352,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10">
       <c r="A331" s="1" t="s">
         <v>340</v>
       </c>
@@ -7390,7 +7369,7 @@
         <v>12.37</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10">
       <c r="A332" s="1" t="s">
         <v>341</v>
       </c>
@@ -7407,7 +7386,7 @@
         <v>7.78</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10">
       <c r="A333" s="1" t="s">
         <v>342</v>
       </c>
@@ -7424,7 +7403,7 @@
         <v>6.95</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10">
       <c r="A334" s="1" t="s">
         <v>343</v>
       </c>
@@ -7441,7 +7420,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10">
       <c r="A335" s="1" t="s">
         <v>344</v>
       </c>
@@ -7458,7 +7437,7 @@
         <v>5.39</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10">
       <c r="A336" s="1" t="s">
         <v>345</v>
       </c>
@@ -7472,7 +7451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10">
       <c r="A337" s="1" t="s">
         <v>346</v>
       </c>
@@ -7480,7 +7459,7 @@
         <v>3.99</v>
       </c>
       <c r="H337">
-        <v>4.7300000000000004</v>
+        <v>4.73</v>
       </c>
       <c r="I337">
         <v>3.26</v>
@@ -7489,7 +7468,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10">
       <c r="A338" s="1" t="s">
         <v>347</v>
       </c>
@@ -7503,7 +7482,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10">
       <c r="A339" s="1" t="s">
         <v>348</v>
       </c>
@@ -7511,7 +7490,7 @@
         <v>4.57</v>
       </c>
       <c r="H339">
-        <v>4.1399999999999997</v>
+        <v>4.14</v>
       </c>
       <c r="I339">
         <v>5.75</v>
@@ -7520,7 +7499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10">
       <c r="A340" s="1" t="s">
         <v>349</v>
       </c>
@@ -7537,7 +7516,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10">
       <c r="A341" s="1" t="s">
         <v>350</v>
       </c>
@@ -7554,7 +7533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10">
       <c r="A342" s="1" t="s">
         <v>351</v>
       </c>
@@ -7562,7 +7541,7 @@
         <v>1.85</v>
       </c>
       <c r="H342">
-        <v>2.2799999999999998</v>
+        <v>2.28</v>
       </c>
       <c r="I342">
         <v>2.72</v>
@@ -7571,7 +7550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10">
       <c r="A343" s="1" t="s">
         <v>352</v>
       </c>
@@ -7579,33 +7558,33 @@
         <v>0.78</v>
       </c>
       <c r="H343">
-        <v>0.94</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I343">
         <v>0.97</v>
       </c>
       <c r="J343">
-        <v>1.0900000000000001</v>
-      </c>
-    </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10">
       <c r="A344" s="1" t="s">
         <v>353</v>
       </c>
       <c r="G344">
-        <v>8.2100000000000009</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="H344">
-        <v>8.5500000000000007</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="I344">
         <v>7.96</v>
       </c>
       <c r="J344">
-        <v>4.6500000000000004</v>
-      </c>
-    </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4.65</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10">
       <c r="A345" s="1" t="s">
         <v>354</v>
       </c>
@@ -7622,7 +7601,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10">
       <c r="A346" s="1" t="s">
         <v>355</v>
       </c>
@@ -7639,7 +7618,7 @@
         <v>6.92</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10">
       <c r="A347" s="1" t="s">
         <v>356</v>
       </c>
@@ -7653,10 +7632,10 @@
         <v>4.47</v>
       </c>
       <c r="J347">
-        <v>2.5299999999999998</v>
-      </c>
-    </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10">
       <c r="A348" s="1" t="s">
         <v>357</v>
       </c>
@@ -7673,7 +7652,7 @@
         <v>-4.29</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10">
       <c r="A349" s="1" t="s">
         <v>358</v>
       </c>
@@ -7690,7 +7669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10">
       <c r="A350" s="1" t="s">
         <v>359</v>
       </c>
@@ -7707,7 +7686,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10">
       <c r="A351" s="1" t="s">
         <v>360</v>
       </c>
@@ -7724,12 +7703,12 @@
         <v>5.22</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10">
       <c r="A352" s="1" t="s">
         <v>361</v>
       </c>
       <c r="F352">
-        <v>0.69</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G352">
         <v>0.78</v>
@@ -7741,7 +7720,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10">
       <c r="A353" s="1" t="s">
         <v>362</v>
       </c>
@@ -7755,10 +7734,10 @@
         <v>1.61</v>
       </c>
       <c r="I353">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10">
       <c r="A354" s="1" t="s">
         <v>363</v>
       </c>
@@ -7775,7 +7754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10">
       <c r="A355" s="1" t="s">
         <v>364</v>
       </c>
@@ -7786,13 +7765,13 @@
         <v>7.41</v>
       </c>
       <c r="H355">
-        <v>8.9499999999999993</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="I355">
         <v>11.38</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10">
       <c r="A356" s="1" t="s">
         <v>365</v>
       </c>
@@ -7809,7 +7788,7 @@
         <v>5.89</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10">
       <c r="A357" s="1" t="s">
         <v>366</v>
       </c>
@@ -7826,7 +7805,7 @@
         <v>5.77</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10">
       <c r="A358" s="1" t="s">
         <v>367</v>
       </c>
@@ -7843,7 +7822,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10">
       <c r="A359" s="1" t="s">
         <v>368</v>
       </c>
@@ -7857,12 +7836,12 @@
         <v>8.24</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10">
       <c r="A360" s="1" t="s">
         <v>369</v>
       </c>
       <c r="F360">
-        <v>4.4800000000000004</v>
+        <v>4.48</v>
       </c>
       <c r="G360">
         <v>3.43</v>
@@ -7874,7 +7853,7 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10">
       <c r="A361" s="1" t="s">
         <v>370</v>
       </c>
@@ -7891,7 +7870,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10">
       <c r="A362" s="1" t="s">
         <v>371</v>
       </c>
@@ -7902,13 +7881,13 @@
         <v>4.24</v>
       </c>
       <c r="H362">
-        <v>4.5199999999999996</v>
+        <v>4.52</v>
       </c>
       <c r="I362">
         <v>5.88</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10">
       <c r="A363" s="1" t="s">
         <v>372</v>
       </c>
@@ -7925,7 +7904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10">
       <c r="A364" s="1" t="s">
         <v>373</v>
       </c>
@@ -7942,7 +7921,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10">
       <c r="A365" s="1" t="s">
         <v>374</v>
       </c>
@@ -7959,7 +7938,7 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10">
       <c r="A366" s="1" t="s">
         <v>375</v>
       </c>
@@ -7967,7 +7946,7 @@
         <v>3.56</v>
       </c>
       <c r="G366">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="H366">
         <v>4.72</v>
@@ -7976,7 +7955,7 @@
         <v>5.43</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10">
       <c r="A367" s="1" t="s">
         <v>376</v>
       </c>
@@ -7984,7 +7963,7 @@
         <v>3.62</v>
       </c>
       <c r="G367">
-        <v>2.4300000000000002</v>
+        <v>2.43</v>
       </c>
       <c r="H367">
         <v>3.26</v>
@@ -7993,7 +7972,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10">
       <c r="A368" s="1" t="s">
         <v>377</v>
       </c>
@@ -8001,7 +7980,7 @@
         <v>4.71</v>
       </c>
       <c r="H368">
-        <v>4.6500000000000004</v>
+        <v>4.65</v>
       </c>
       <c r="I368">
         <v>4.53</v>
@@ -8010,7 +7989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10">
       <c r="A369" s="1" t="s">
         <v>378</v>
       </c>
@@ -8027,7 +8006,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10">
       <c r="A370" s="1" t="s">
         <v>379</v>
       </c>
@@ -8044,7 +8023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10">
       <c r="A371" s="1" t="s">
         <v>380</v>
       </c>
@@ -8058,7 +8037,7 @@
         <v>5.96</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10">
       <c r="A372" s="1" t="s">
         <v>381</v>
       </c>
@@ -8075,15 +8054,15 @@
         <v>5.27</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10">
       <c r="A373" s="1" t="s">
         <v>382</v>
       </c>
       <c r="F373">
-        <v>-2.0299999999999998</v>
+        <v>-2.03</v>
       </c>
       <c r="G373">
-        <v>2.0099999999999998</v>
+        <v>2.01</v>
       </c>
       <c r="H373">
         <v>2.63</v>
@@ -8092,7 +8071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10">
       <c r="A374" s="1" t="s">
         <v>383</v>
       </c>
@@ -8109,7 +8088,7 @@
         <v>2.66</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10">
       <c r="A375" s="1" t="s">
         <v>384</v>
       </c>
@@ -8126,12 +8105,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10">
       <c r="A376" s="1" t="s">
         <v>385</v>
       </c>
       <c r="G376">
-        <v>1.0900000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="H376">
         <v>1.29</v>
@@ -8143,7 +8122,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10">
       <c r="A377" s="1" t="s">
         <v>386</v>
       </c>
@@ -8154,13 +8133,13 @@
         <v>1.59</v>
       </c>
       <c r="I377">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="J377">
         <v>1.66</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10">
       <c r="A378" s="1" t="s">
         <v>387</v>
       </c>
@@ -8177,7 +8156,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10">
       <c r="A379" s="1" t="s">
         <v>388</v>
       </c>
@@ -8194,12 +8173,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10">
       <c r="A380" s="1" t="s">
         <v>389</v>
       </c>
       <c r="F380">
-        <v>2.4900000000000002</v>
+        <v>2.49</v>
       </c>
       <c r="G380">
         <v>2.31</v>
@@ -8211,7 +8190,7 @@
         <v>-1.53</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10">
       <c r="A381" s="1" t="s">
         <v>390</v>
       </c>
@@ -8228,7 +8207,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10">
       <c r="A382" s="1" t="s">
         <v>391</v>
       </c>
@@ -8245,7 +8224,7 @@
         <v>5.49</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10">
       <c r="A383" s="1" t="s">
         <v>392</v>
       </c>
@@ -8262,7 +8241,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10">
       <c r="A384" s="1" t="s">
         <v>393</v>
       </c>
@@ -8279,7 +8258,7 @@
         <v>5.35</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10">
       <c r="A385" s="1" t="s">
         <v>394</v>
       </c>
@@ -8296,7 +8275,7 @@
         <v>3.61</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10">
       <c r="A386" s="1" t="s">
         <v>395</v>
       </c>
@@ -8313,7 +8292,7 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10">
       <c r="A387" s="1" t="s">
         <v>396</v>
       </c>
@@ -8324,13 +8303,13 @@
         <v>5.76</v>
       </c>
       <c r="H387">
-        <v>4.1500000000000004</v>
+        <v>4.15</v>
       </c>
       <c r="I387">
         <v>4.21</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10">
       <c r="A388" s="1" t="s">
         <v>397</v>
       </c>
@@ -8347,7 +8326,7 @@
         <v>4.96</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10">
       <c r="A389" s="1" t="s">
         <v>398</v>
       </c>
@@ -8364,7 +8343,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10">
       <c r="A390" s="1" t="s">
         <v>399</v>
       </c>
@@ -8381,7 +8360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10">
       <c r="A391" s="1" t="s">
         <v>400</v>
       </c>
@@ -8398,7 +8377,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10">
       <c r="A392" s="1" t="s">
         <v>401</v>
       </c>
@@ -8415,7 +8394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10">
       <c r="A393" s="1" t="s">
         <v>402</v>
       </c>
@@ -8432,7 +8411,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10">
       <c r="A394" s="1" t="s">
         <v>403</v>
       </c>
@@ -8449,7 +8428,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10">
       <c r="A395" s="1" t="s">
         <v>404</v>
       </c>
@@ -8466,7 +8445,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10">
       <c r="A396" s="1" t="s">
         <v>405</v>
       </c>
@@ -8483,7 +8462,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10">
       <c r="A397" s="1" t="s">
         <v>406</v>
       </c>
@@ -8500,7 +8479,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10">
       <c r="A398" s="1" t="s">
         <v>407</v>
       </c>
@@ -8517,12 +8496,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10">
       <c r="A399" s="1" t="s">
         <v>408</v>
       </c>
       <c r="F399">
-        <v>-2.1800000000000002</v>
+        <v>-2.18</v>
       </c>
       <c r="G399">
         <v>1.64</v>
@@ -8534,7 +8513,7 @@
         <v>19.52</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10">
       <c r="A400" s="1" t="s">
         <v>409</v>
       </c>
@@ -8551,7 +8530,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10">
       <c r="A401" s="1" t="s">
         <v>410</v>
       </c>
@@ -8568,7 +8547,7 @@
         <v>6.89</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10">
       <c r="A402" s="1" t="s">
         <v>411</v>
       </c>
@@ -8585,7 +8564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10">
       <c r="A403" s="1" t="s">
         <v>412</v>
       </c>
@@ -8602,7 +8581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10">
       <c r="A404" s="1" t="s">
         <v>413</v>
       </c>
@@ -8619,12 +8598,12 @@
         <v>3.51</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10">
       <c r="A405" s="1" t="s">
         <v>414</v>
       </c>
       <c r="G405">
-        <v>9.4700000000000006</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="H405">
         <v>5.77</v>
@@ -8636,7 +8615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10">
       <c r="A406" s="1" t="s">
         <v>415</v>
       </c>
@@ -8644,7 +8623,7 @@
         <v>0.84</v>
       </c>
       <c r="G406">
-        <v>4.6500000000000004</v>
+        <v>4.65</v>
       </c>
       <c r="H406">
         <v>3.31</v>
@@ -8653,7 +8632,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10">
       <c r="A407" s="1" t="s">
         <v>416</v>
       </c>
@@ -8670,7 +8649,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10">
       <c r="A408" s="1" t="s">
         <v>417</v>
       </c>
@@ -8687,7 +8666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10">
       <c r="A409" s="1" t="s">
         <v>418</v>
       </c>
@@ -8698,13 +8677,13 @@
         <v>6.92</v>
       </c>
       <c r="I409">
-        <v>8.7200000000000006</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="J409">
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10">
       <c r="A410" s="1" t="s">
         <v>419</v>
       </c>
@@ -8721,7 +8700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10">
       <c r="A411" s="1" t="s">
         <v>420</v>
       </c>
@@ -8738,7 +8717,7 @@
         <v>4.22</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10">
       <c r="A412" s="1" t="s">
         <v>421</v>
       </c>
@@ -8755,7 +8734,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10">
       <c r="A413" s="1" t="s">
         <v>422</v>
       </c>
@@ -8772,7 +8751,7 @@
         <v>3.63</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10">
       <c r="A414" s="1" t="s">
         <v>423</v>
       </c>
@@ -8789,7 +8768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10">
       <c r="A415" s="1" t="s">
         <v>424</v>
       </c>
@@ -8806,7 +8785,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10">
       <c r="A416" s="1" t="s">
         <v>425</v>
       </c>
@@ -8823,7 +8802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10">
       <c r="A417" s="1" t="s">
         <v>426</v>
       </c>
@@ -8831,7 +8810,7 @@
         <v>1.98</v>
       </c>
       <c r="G417">
-        <v>2.0699999999999998</v>
+        <v>2.07</v>
       </c>
       <c r="H417">
         <v>2.41</v>
@@ -8840,7 +8819,7 @@
         <v>3.07</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10">
       <c r="A418" s="1" t="s">
         <v>427</v>
       </c>
@@ -8857,7 +8836,7 @@
         <v>3.29</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10">
       <c r="A419" s="1" t="s">
         <v>428</v>
       </c>
@@ -8874,7 +8853,7 @@
         <v>-2.31</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10">
       <c r="A420" s="1" t="s">
         <v>429</v>
       </c>
@@ -8891,7 +8870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10">
       <c r="A421" s="1" t="s">
         <v>430</v>
       </c>
@@ -8908,7 +8887,7 @@
         <v>4.38</v>
       </c>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10">
       <c r="A422" s="1" t="s">
         <v>431</v>
       </c>
@@ -8925,7 +8904,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10">
       <c r="A423" s="1" t="s">
         <v>432</v>
       </c>
@@ -8942,7 +8921,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:10">
       <c r="A424" s="1" t="s">
         <v>433</v>
       </c>
@@ -8959,7 +8938,7 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10">
       <c r="A425" s="1" t="s">
         <v>434</v>
       </c>
@@ -8976,7 +8955,7 @@
         <v>4.18</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:10">
       <c r="A426" s="1" t="s">
         <v>435</v>
       </c>
@@ -8993,7 +8972,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:10">
       <c r="A427" s="1" t="s">
         <v>436</v>
       </c>
@@ -9001,16 +8980,16 @@
         <v>10.42</v>
       </c>
       <c r="H427">
-        <v>8.3000000000000007</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I427">
-        <v>9.9499999999999993</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="J427">
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10">
       <c r="A428" s="1" t="s">
         <v>437</v>
       </c>
@@ -9027,7 +9006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10">
       <c r="A429" s="1" t="s">
         <v>438</v>
       </c>
@@ -9044,7 +9023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:10">
       <c r="A430" s="1" t="s">
         <v>439</v>
       </c>
@@ -9061,7 +9040,7 @@
         <v>-0.76</v>
       </c>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:10">
       <c r="A431" s="1" t="s">
         <v>440</v>
       </c>
@@ -9069,7 +9048,7 @@
         <v>5.04</v>
       </c>
       <c r="H431">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="I431">
         <v>5.07</v>
@@ -9078,7 +9057,7 @@
         <v>4.58</v>
       </c>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10">
       <c r="A432" s="1" t="s">
         <v>441</v>
       </c>
@@ -9092,7 +9071,7 @@
         <v>-1.56</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:10">
       <c r="A433" s="1" t="s">
         <v>442</v>
       </c>
@@ -9109,7 +9088,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:10">
       <c r="A434" s="1" t="s">
         <v>443</v>
       </c>
@@ -9126,7 +9105,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:10">
       <c r="A435" s="1" t="s">
         <v>444</v>
       </c>
@@ -9143,7 +9122,7 @@
         <v>5.18</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:10">
       <c r="A436" s="1" t="s">
         <v>445</v>
       </c>
@@ -9160,7 +9139,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:10">
       <c r="A437" s="1" t="s">
         <v>446</v>
       </c>
@@ -9177,7 +9156,7 @@
         <v>-25.92</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:10">
       <c r="A438" s="1" t="s">
         <v>447</v>
       </c>
@@ -9188,13 +9167,13 @@
         <v>1.91</v>
       </c>
       <c r="H438">
-        <v>2.0299999999999998</v>
+        <v>2.03</v>
       </c>
       <c r="I438">
         <v>1.94</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:10">
       <c r="A439" s="1" t="s">
         <v>448</v>
       </c>
@@ -9211,7 +9190,7 @@
         <v>4.22</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:10">
       <c r="A440" s="1" t="s">
         <v>449</v>
       </c>
@@ -9228,12 +9207,12 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:10">
       <c r="A441" s="1" t="s">
         <v>450</v>
       </c>
       <c r="F441">
-        <v>9.6999999999999993</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G441">
         <v>7.37</v>
@@ -9245,24 +9224,24 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:10">
       <c r="A442" s="1" t="s">
         <v>451</v>
       </c>
       <c r="F442">
-        <v>2.2200000000000002</v>
+        <v>2.22</v>
       </c>
       <c r="G442">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="H442">
-        <v>2.2799999999999998</v>
+        <v>2.28</v>
       </c>
       <c r="I442">
         <v>1.79</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:10">
       <c r="A443" s="1" t="s">
         <v>452</v>
       </c>
@@ -9279,7 +9258,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:10">
       <c r="A444" s="1" t="s">
         <v>453</v>
       </c>
@@ -9296,7 +9275,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:10">
       <c r="A445" s="1" t="s">
         <v>454</v>
       </c>
@@ -9310,10 +9289,10 @@
         <v>7.61</v>
       </c>
       <c r="I445">
-        <v>-4.6399999999999997</v>
-      </c>
-    </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-4.64</v>
+      </c>
+    </row>
+    <row r="446" spans="1:10">
       <c r="A446" s="1" t="s">
         <v>455</v>
       </c>
@@ -9330,7 +9309,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:10">
       <c r="A447" s="1" t="s">
         <v>456</v>
       </c>
@@ -9347,7 +9326,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:10">
       <c r="A448" s="1" t="s">
         <v>457</v>
       </c>
@@ -9364,7 +9343,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:10">
       <c r="A449" s="1" t="s">
         <v>458</v>
       </c>
@@ -9372,7 +9351,7 @@
         <v>1.01</v>
       </c>
       <c r="H449">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="I449">
         <v>0.68</v>
@@ -9382,6 +9361,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/earnings_per_share_pivot_table.xlsx
+++ b/earnings_per_share_pivot_table.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1507" documentId="11_2869E2F47DC3CC36B52C4C8BBD6D1A1B7879E71B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D289DC92-2FD9-4A42-8A1C-E6C7667C572E}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1396,8 +1402,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1414,12 +1420,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1449,24 +1467,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1504,7 +1532,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1538,6 +1566,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1572,9 +1601,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1747,14 +1777,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K449"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1789,704 +1819,704 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>-5.6</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>-11.25</v>
       </c>
-      <c r="H2">
-        <v>4.02</v>
-      </c>
-      <c r="I2">
+      <c r="H2" s="3">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="I2" s="3">
         <v>11.39</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>5.29</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>5.36</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>6.75</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>6.45</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>40.03</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>6.49</v>
       </c>
-      <c r="I4">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="J4">
+      <c r="I4" s="3">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="J4" s="3">
         <v>8.35</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>2.58</v>
       </c>
-      <c r="H5">
-        <v>1.11</v>
-      </c>
-      <c r="I5">
+      <c r="H5" s="3">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="I5" s="3">
         <v>3.15</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>1.88</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>1.22</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <v>-0.62</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>6.73</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>3.76</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>1.64</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>1.5</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>2.94</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G8">
-        <v>0.58</v>
-      </c>
-      <c r="H8">
+      <c r="G8" s="3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H8" s="3">
         <v>0.54</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>1.26</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>2.19</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>0.35</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>0.31</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>0.96</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10">
-        <v>2.03</v>
-      </c>
-      <c r="H10">
+      <c r="G10" s="3">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="H10" s="3">
         <v>3.44</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>2.99</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>8.44</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>10.09</v>
       </c>
-      <c r="H11">
-        <v>8.720000000000001</v>
-      </c>
-      <c r="I11">
+      <c r="H11" s="3">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="I11" s="3">
         <v>8.91</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G12">
-        <v>1.09</v>
-      </c>
-      <c r="H12">
+      <c r="G12" s="3">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="H12" s="3">
         <v>1.02</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="3">
         <v>0.36</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="2">
         <v>-1.46</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>-4.01</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>1.19</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="3">
         <v>2.42</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="3">
         <v>2.6</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <v>2.6</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="3">
         <v>3.04</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="3">
         <v>3.34</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <v>6.14</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="3">
         <v>6.8</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="3">
         <v>6.54</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="3">
         <v>5.88</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
         <v>6.16</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="3">
         <v>5.27</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="3">
         <v>1.69</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>0.61</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="3">
         <v>1.4</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="3">
         <v>2.06</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="3">
         <v>1.52</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="3">
         <v>6.38</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="3">
         <v>6.52</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="3">
         <v>2.08</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="3">
         <v>2.08</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="3">
         <v>1.98</v>
       </c>
-      <c r="I19">
-        <v>2.07</v>
+      <c r="I19" s="3">
+        <v>2.0699999999999998</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F20">
-        <v>1.15</v>
-      </c>
-      <c r="G20">
+      <c r="F20" s="3">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G20" s="3">
         <v>1.65</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="3">
         <v>1.87</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="3">
         <v>1.8</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="3">
         <v>3.49</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="3">
         <v>4.93</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="3">
         <v>1.69</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="3">
         <v>3.01</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="3">
         <v>4.47</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="3">
         <v>7.26</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="3">
         <v>4.47</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="3">
         <v>6.61</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="3">
         <v>4.71</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="3">
         <v>4.87</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="3">
         <v>6.37</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="3">
         <v>5.12</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="3">
         <v>1.82</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="3">
         <v>1.6</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="3">
         <v>1.29</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="3">
         <v>3.32</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="3">
         <v>0.68</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="3">
         <v>0.21</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="3">
         <v>0.88</v>
       </c>
-      <c r="I26">
-        <v>1.13</v>
-      </c>
-      <c r="J26">
+      <c r="I26" s="3">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="J26" s="3">
         <v>1.56</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="3">
         <v>1.9</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="3">
         <v>2.12</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="3">
         <v>2.39</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="3">
         <v>2.46</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="3">
         <v>3.36</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="3">
         <v>6.79</v>
       </c>
-      <c r="H28">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="I28">
+      <c r="H28" s="3">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="I28" s="3">
         <v>9.49</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="3">
         <v>6.75</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="3">
         <v>6.8</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="3">
         <v>9.15</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="3">
         <v>4.7</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="3">
         <v>6.56</v>
       </c>
-      <c r="H30">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="I30">
+      <c r="H30" s="3">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="I30" s="3">
         <v>8.6</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="3">
         <v>1.61</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="3">
         <v>1.4</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="3">
         <v>2.02</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="3">
         <v>1.42</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="3">
         <v>0.6</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="2">
         <v>-0.52</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="3">
         <v>1.28</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="3">
         <v>3.09</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="3">
         <v>3.57</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="3">
         <v>3.93</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="3">
         <v>8.26</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="3">
         <v>8.34</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="3">
         <v>9.31</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="3">
         <v>9.73</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="3">
         <v>3.03</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="3">
         <v>3.57</v>
       </c>
-      <c r="H35">
-        <v>4.73</v>
-      </c>
-      <c r="I35">
+      <c r="H35" s="3">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="I35" s="3">
         <v>4.93</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="3">
         <v>4.95</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="3">
         <v>5.53</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="2">
         <v>-14.06</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="2">
         <v>-61.2</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="3">
         <v>1.58</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="2">
         <v>-3.47</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="2">
         <v>-13.18</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="3">
         <v>4.74</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="3">
         <v>4.66</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="3">
         <v>5.95</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="3">
         <v>2.92</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="3">
         <v>3.44</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="3">
         <v>4</v>
       </c>
-      <c r="H39">
-        <v>2.26</v>
-      </c>
-      <c r="I39">
-        <v>2.47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="H39" s="3">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="I39" s="3">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="3">
         <v>0.18</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="2">
         <v>-2.14</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="3">
         <v>0.21</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="2">
         <v>-0.31</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="3">
         <v>1.01</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="3">
         <v>0.96</v>
       </c>
-      <c r="H41">
-        <v>1.14</v>
-      </c>
-      <c r="I41">
+      <c r="H41" s="3">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="I41" s="3">
         <v>1.21</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="3">
         <v>4.34</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="3">
         <v>2.78</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="3">
         <v>5.22</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="3">
         <v>5.54</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>52</v>
       </c>
@@ -2497,48 +2527,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="3">
         <v>2.19</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="3">
         <v>2.65</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="3">
         <v>3.01</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F45">
-        <v>2.03</v>
-      </c>
-      <c r="G45">
+      <c r="F45" s="3">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="G45" s="3">
         <v>2.08</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="3">
         <v>2.36</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="3">
         <v>2.66</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="3">
         <v>3.91</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="3">
         <v>4.91</v>
       </c>
       <c r="H46">
@@ -2548,497 +2578,497 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="3">
         <v>2.97</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="3">
         <v>4.07</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="3">
         <v>5.13</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="3">
         <v>6.67</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="3">
         <v>28.28</v>
       </c>
-      <c r="H48">
-        <v>32.16</v>
-      </c>
-      <c r="I48">
+      <c r="H48" s="3">
+        <v>32.159999999999997</v>
+      </c>
+      <c r="I48" s="3">
         <v>36.76</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="3">
         <v>41.52</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="3">
         <v>6.03</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="3">
         <v>7.47</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="3">
         <v>7.52</v>
       </c>
       <c r="J49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="3">
         <v>0.26</v>
       </c>
-      <c r="G50">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="H50">
+      <c r="G50" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="H50" s="3">
         <v>0.36</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="3">
         <v>4.22</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="3">
         <v>3.7</v>
       </c>
-      <c r="H51">
-        <v>4.61</v>
-      </c>
-      <c r="I51">
+      <c r="H51" s="3">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="I51" s="3">
         <v>1.78</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="3">
         <v>4.62</v>
       </c>
-      <c r="H52">
-        <v>4.85</v>
-      </c>
-      <c r="I52">
+      <c r="H52" s="3">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="I52" s="3">
         <v>5.13</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="3">
         <v>5.15</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="3">
         <v>2.74</v>
       </c>
-      <c r="G53">
-        <v>2.22</v>
-      </c>
-      <c r="H53">
+      <c r="G53" s="3">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="H53" s="3">
         <v>2.79</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="3">
         <v>2.59</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="2">
         <v>-3.36</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="3">
         <v>1.56</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="3">
         <v>3.53</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="3">
         <v>2.59</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G55">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="H55">
+      <c r="G55" s="3">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="H55" s="3">
         <v>3.83</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="3">
         <v>1.8</v>
       </c>
       <c r="J55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="3">
         <v>6.63</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="3">
         <v>6.13</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="3">
         <v>3.43</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="3">
         <v>4.59</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G57">
-        <v>2.47</v>
-      </c>
-      <c r="H57">
+      <c r="G57" s="3">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="H57" s="3">
         <v>3.93</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="2">
         <v>-4.49</v>
       </c>
       <c r="J57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="3">
         <v>7.86</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="3">
         <v>12.42</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="3">
         <v>15.38</v>
       </c>
       <c r="J58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="3">
         <v>2.04</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="3">
         <v>1.75</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="3">
         <v>2.17</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="3">
         <v>2.73</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="3">
         <v>2.61</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="3">
         <v>2.79</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="3">
         <v>3.39</v>
       </c>
-      <c r="I60">
-        <v>2.05</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="I60" s="3">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="3">
         <v>1.17</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="3">
         <v>1.56</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="3">
         <v>1.21</v>
       </c>
-      <c r="I61">
-        <v>0.9399999999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="I61" s="3">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="2">
         <v>-2.89</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="2">
         <v>-0.09</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="2">
         <v>-0.09</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="2">
         <v>-0.18</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="3">
         <v>2.73</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="3">
         <v>2.89</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="3">
         <v>2.72</v>
       </c>
       <c r="J63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="3">
         <v>1.93</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="3">
         <v>4.87</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="3">
         <v>2.83</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="3">
         <v>3.79</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F65">
-        <v>2.51</v>
-      </c>
-      <c r="G65">
-        <v>4.35</v>
-      </c>
-      <c r="H65">
+      <c r="F65" s="3">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="G65" s="3">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="H65" s="3">
         <v>2.21</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="3">
         <v>5.41</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="3">
         <v>1.88</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="3">
         <v>0.72</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="2">
         <v>-0.6</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="2">
         <v>-1.57</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="3">
         <v>0.98</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="3">
         <v>3.42</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="3">
         <v>3.66</v>
       </c>
-      <c r="J67">
-        <v>4.36</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="J67" s="3">
+        <v>4.3600000000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="3">
         <v>5.87</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="3">
         <v>5.99</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="3">
         <v>3.54</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="3">
         <v>7.96</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="3">
         <v>11.02</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="3">
         <v>8.5</v>
       </c>
-      <c r="I69">
-        <v>8.710000000000001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="I69" s="3">
+        <v>8.7100000000000009</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="3">
         <v>0.98</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="3">
         <v>0.96</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="3">
         <v>1.47</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="3">
         <v>1.64</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="3">
         <v>0.64</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="3">
         <v>0.26</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="3">
         <v>1.04</v>
       </c>
-      <c r="I71">
-        <v>4.44</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="I71" s="3">
+        <v>4.4400000000000004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="3">
         <v>1.39</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="3">
         <v>1.59</v>
       </c>
-      <c r="I72">
-        <v>2.26</v>
+      <c r="I72" s="3">
+        <v>2.2599999999999998</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="3">
         <v>3.5</v>
       </c>
-      <c r="H73">
-        <v>2.49</v>
-      </c>
-      <c r="I73">
+      <c r="H73" s="3">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="I73" s="3">
         <v>2.02</v>
       </c>
       <c r="J73">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G74">
-        <v>1.16</v>
-      </c>
-      <c r="I74">
+      <c r="G74" s="3">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="I74" s="3">
         <v>1.54</v>
       </c>
-      <c r="J74">
+      <c r="J74" s="3">
         <v>1.57</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="3">
         <v>28.94</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="3">
         <v>24.87</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="3">
         <v>27.16</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="3">
         <v>2.97</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>85</v>
       </c>
@@ -3048,354 +3078,354 @@
       <c r="G76">
         <v>0</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="3">
         <v>1.55</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="3">
         <v>1.55</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="3">
         <v>2.5</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="3">
         <v>2.85</v>
       </c>
-      <c r="H77">
+      <c r="H77" s="3">
         <v>3.06</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="3">
         <v>3.13</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="2">
         <v>-1.46</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="3">
         <v>0.73</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="3">
         <v>1.93</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="2">
         <v>-22.43</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="3">
         <v>3.68</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="3">
         <v>2.65</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="3">
         <v>3.06</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="3">
         <v>3.52</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="2">
         <v>-1.65</v>
       </c>
-      <c r="H80">
+      <c r="H80" s="2">
         <v>-1.7</v>
       </c>
-      <c r="I80">
-        <v>-2.43</v>
+      <c r="I80" s="2">
+        <v>-2.4300000000000002</v>
       </c>
       <c r="J80">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="3">
         <v>5.7</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="3">
         <v>5.28</v>
       </c>
-      <c r="H81">
+      <c r="H81" s="3">
         <v>7.97</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="3">
         <v>8.17</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="3">
         <v>2.59</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="3">
         <v>3.16</v>
       </c>
-      <c r="H82">
+      <c r="H82" s="3">
         <v>3.21</v>
       </c>
-      <c r="I82">
+      <c r="I82" s="3">
         <v>3.87</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="3">
         <v>5.19</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="3">
         <v>2.41</v>
       </c>
-      <c r="H83">
+      <c r="H83" s="3">
         <v>2.38</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="3">
         <v>1.53</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="3">
         <v>4.37</v>
       </c>
-      <c r="H84">
-        <v>4.31</v>
-      </c>
-      <c r="I84">
+      <c r="H84" s="3">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="I84" s="3">
         <v>4.45</v>
       </c>
-      <c r="J84">
+      <c r="J84" s="3">
         <v>5.01</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="3">
         <v>2.92</v>
       </c>
-      <c r="H85">
+      <c r="H85" s="3">
         <v>3.28</v>
       </c>
-      <c r="I85">
+      <c r="I85" s="3">
         <v>2.93</v>
       </c>
       <c r="J85">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="3">
         <v>2.71</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="3">
         <v>2.94</v>
       </c>
-      <c r="H86">
+      <c r="H86" s="3">
         <v>3.37</v>
       </c>
-      <c r="I86">
+      <c r="I86" s="3">
         <v>3.71</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="3">
         <v>10.58</v>
       </c>
-      <c r="H87">
+      <c r="H87" s="3">
         <v>14.35</v>
       </c>
-      <c r="I87">
+      <c r="I87" s="3">
         <v>15.3</v>
       </c>
       <c r="J87">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="3">
         <v>7.93</v>
       </c>
-      <c r="H88">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="I88">
+      <c r="H88" s="3">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="I88" s="3">
         <v>7.86</v>
       </c>
       <c r="J88">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="3">
         <v>1.71</v>
       </c>
-      <c r="H89">
+      <c r="H89" s="3">
         <v>1.76</v>
       </c>
-      <c r="I89">
+      <c r="I89" s="3">
         <v>1.9</v>
       </c>
       <c r="J89">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="3">
         <v>0.04</v>
       </c>
-      <c r="G90">
+      <c r="G90" s="3">
         <v>2.98</v>
       </c>
-      <c r="H90">
-        <v>2.3</v>
-      </c>
-      <c r="I90">
+      <c r="H90" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I90" s="3">
         <v>2.99</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="3">
         <v>0.98</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="3">
         <v>0.73</v>
       </c>
-      <c r="H91">
+      <c r="H91" s="3">
         <v>1.42</v>
       </c>
-      <c r="I91">
+      <c r="I91" s="2">
         <v>-1.61</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="3">
         <v>6.21</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="3">
         <v>7.05</v>
       </c>
-      <c r="H92">
+      <c r="H92" s="3">
         <v>7.71</v>
       </c>
-      <c r="I92">
+      <c r="I92" s="3">
         <v>7.15</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="3">
         <v>0.63</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="3">
         <v>0.67</v>
       </c>
-      <c r="H93">
+      <c r="H93" s="3">
         <v>0.25</v>
       </c>
-      <c r="I93">
-        <v>-0.28</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="I93" s="2">
+        <v>-0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="3">
         <v>4.63</v>
       </c>
-      <c r="H94">
+      <c r="H94" s="3">
         <v>4.47</v>
       </c>
-      <c r="I94">
+      <c r="I94" s="3">
         <v>5.19</v>
       </c>
-      <c r="J94">
+      <c r="J94" s="3">
         <v>5.58</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="3">
         <v>6.09</v>
       </c>
-      <c r="H95">
+      <c r="H95" s="3">
         <v>5.61</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
-      <c r="J95">
+      <c r="J95" s="3">
         <v>5.65</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="3">
         <v>4.68</v>
       </c>
-      <c r="H96">
-        <v>4.69</v>
-      </c>
-      <c r="I96">
+      <c r="H96" s="3">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="I96" s="3">
         <v>5.41</v>
       </c>
-      <c r="J96">
+      <c r="J96" s="3">
         <v>5.36</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>106</v>
       </c>
@@ -3412,382 +3442,382 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G98">
+      <c r="G98" s="3">
         <v>1.46</v>
       </c>
-      <c r="H98">
+      <c r="H98" s="3">
         <v>2.61</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="3">
         <v>2.21</v>
       </c>
-      <c r="J98">
+      <c r="J98" s="3">
         <v>1.82</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="2">
         <v>-1.92</v>
       </c>
-      <c r="H99">
+      <c r="H99" s="2">
         <v>-0.39</v>
       </c>
-      <c r="I99">
+      <c r="I99" s="2">
         <v>-0.42</v>
       </c>
-      <c r="J99">
-        <v>-0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="J99" s="2">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="3">
         <v>1.87</v>
       </c>
-      <c r="H100">
+      <c r="H100" s="3">
         <v>1.5</v>
       </c>
-      <c r="I100">
+      <c r="I100" s="3">
         <v>1.76</v>
       </c>
-      <c r="J100">
+      <c r="J100" s="3">
         <v>2.13</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>110</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
-      <c r="J101">
+      <c r="J101" s="3">
         <v>0.54</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>111</v>
       </c>
       <c r="G102">
         <v>0</v>
       </c>
-      <c r="H102">
+      <c r="H102" s="3">
         <v>1.93</v>
       </c>
-      <c r="I102">
+      <c r="I102" s="3">
         <v>2</v>
       </c>
       <c r="J102">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G103">
-        <v>2.53</v>
-      </c>
-      <c r="H103">
+      <c r="G103" s="3">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="H103" s="3">
         <v>3.08</v>
       </c>
-      <c r="I103">
+      <c r="I103" s="3">
         <v>3.68</v>
       </c>
-      <c r="J103">
+      <c r="J103" s="3">
         <v>6.3</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="3">
         <v>1.25</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="2">
         <v>-0.4</v>
       </c>
-      <c r="H104">
+      <c r="H104" s="3">
         <v>1.36</v>
       </c>
-      <c r="I104">
+      <c r="I104" s="3">
         <v>1.58</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="3">
         <v>3.49</v>
       </c>
-      <c r="G105">
+      <c r="G105" s="3">
         <v>4.07</v>
       </c>
-      <c r="H105">
+      <c r="H105" s="3">
         <v>2.37</v>
       </c>
-      <c r="I105">
+      <c r="I105" s="3">
         <v>2.67</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G106">
+      <c r="G106" s="3">
         <v>1.82</v>
       </c>
-      <c r="H106">
+      <c r="H106" s="3">
         <v>1.48</v>
       </c>
-      <c r="I106">
-        <v>2.01</v>
+      <c r="I106" s="3">
+        <v>2.0099999999999998</v>
       </c>
       <c r="J106">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G107">
+      <c r="G107" s="3">
         <v>3.77</v>
       </c>
-      <c r="H107">
+      <c r="H107" s="3">
         <v>3.98</v>
       </c>
-      <c r="I107">
+      <c r="I107" s="3">
         <v>4.66</v>
       </c>
       <c r="J107">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="3">
         <v>13.42</v>
       </c>
-      <c r="G108">
+      <c r="G108" s="3">
         <v>11.18</v>
       </c>
-      <c r="H108">
-        <v>10.21</v>
-      </c>
-      <c r="I108">
+      <c r="H108" s="3">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="I108" s="3">
         <v>2.46</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="3">
         <v>4.18</v>
       </c>
-      <c r="G109">
+      <c r="G109" s="3">
         <v>2.39</v>
       </c>
-      <c r="H109">
-        <v>4.89</v>
-      </c>
-      <c r="I109">
+      <c r="H109" s="3">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="I109" s="3">
         <v>0.54</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="3">
         <v>0.53</v>
       </c>
-      <c r="G110">
+      <c r="G110" s="3">
         <v>2.93</v>
       </c>
-      <c r="H110">
+      <c r="H110" s="3">
         <v>2.25</v>
       </c>
-      <c r="I110">
+      <c r="I110" s="3">
         <v>3.21</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G111">
+      <c r="G111" s="3">
         <v>12.41</v>
       </c>
-      <c r="H111">
+      <c r="H111" s="3">
         <v>0.79</v>
       </c>
-      <c r="I111">
+      <c r="I111" s="3">
         <v>5.68</v>
       </c>
       <c r="J111">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G112">
+      <c r="G112" s="3">
         <v>5.22</v>
       </c>
-      <c r="H112">
+      <c r="H112" s="3">
         <v>3.95</v>
       </c>
-      <c r="I112">
+      <c r="I112" s="3">
         <v>2.17</v>
       </c>
       <c r="J112">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G113">
+      <c r="G113" s="3">
         <v>9.18</v>
       </c>
-      <c r="H113">
-        <v>8.710000000000001</v>
+      <c r="H113" s="3">
+        <v>8.7100000000000009</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
-      <c r="J113">
+      <c r="J113" s="3">
         <v>0.91</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="3">
         <v>4.47</v>
       </c>
-      <c r="G114">
+      <c r="G114" s="3">
         <v>4.97</v>
       </c>
-      <c r="H114">
+      <c r="H114" s="3">
         <v>4.91</v>
       </c>
-      <c r="I114">
+      <c r="I114" s="3">
         <v>5.14</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G115">
+      <c r="G115" s="3">
         <v>2.87</v>
       </c>
-      <c r="H115">
+      <c r="H115" s="3">
         <v>3.17</v>
       </c>
-      <c r="I115">
+      <c r="I115" s="3">
         <v>3.5</v>
       </c>
-      <c r="J115">
+      <c r="J115" s="3">
         <v>3.96</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="3">
         <v>3.49</v>
       </c>
-      <c r="G116">
+      <c r="G116" s="3">
         <v>5.58</v>
       </c>
-      <c r="H116">
+      <c r="H116" s="3">
         <v>3.83</v>
       </c>
-      <c r="I116">
+      <c r="I116" s="3">
         <v>4.92</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G117">
+      <c r="G117" s="3">
         <v>1.44</v>
       </c>
-      <c r="H117">
+      <c r="H117" s="3">
         <v>1.57</v>
       </c>
-      <c r="I117">
-        <v>2.05</v>
-      </c>
-      <c r="J117">
+      <c r="I117" s="3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="J117" s="3">
         <v>2.39</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="3">
         <v>3.45</v>
       </c>
-      <c r="G118">
+      <c r="G118" s="3">
         <v>3.87</v>
       </c>
-      <c r="H118">
+      <c r="H118" s="3">
         <v>3.7</v>
       </c>
-      <c r="I118">
-        <v>4.81</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10">
+      <c r="I118" s="3">
+        <v>4.8099999999999996</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G119">
+      <c r="G119" s="3">
         <v>3.42</v>
       </c>
-      <c r="H119">
-        <v>4.31</v>
-      </c>
-      <c r="I119">
+      <c r="H119" s="3">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="I119" s="3">
         <v>4.95</v>
       </c>
-      <c r="J119">
+      <c r="J119" s="3">
         <v>5.76</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G120">
+      <c r="G120" s="3">
         <v>3.01</v>
       </c>
-      <c r="H120">
+      <c r="H120" s="3">
         <v>0.38</v>
       </c>
       <c r="I120">
@@ -3797,7 +3827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>130</v>
       </c>
@@ -3814,504 +3844,504 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G122">
+      <c r="G122" s="3">
         <v>3.9</v>
       </c>
-      <c r="H122">
+      <c r="H122" s="3">
         <v>4.5</v>
       </c>
-      <c r="I122">
+      <c r="I122" s="3">
         <v>5.08</v>
       </c>
       <c r="J122">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F123">
+      <c r="F123" s="3">
         <v>1.48</v>
       </c>
-      <c r="G123">
+      <c r="G123" s="3">
         <v>2.12</v>
       </c>
-      <c r="H123">
+      <c r="H123" s="3">
         <v>1</v>
       </c>
-      <c r="I123">
+      <c r="I123" s="3">
         <v>1.56</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G124">
+      <c r="G124" s="3">
         <v>2.7</v>
       </c>
-      <c r="H124">
+      <c r="H124" s="3">
         <v>2.74</v>
       </c>
-      <c r="I124">
+      <c r="I124" s="3">
         <v>2.91</v>
       </c>
-      <c r="J124">
+      <c r="J124" s="3">
         <v>1.27</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F125">
+      <c r="F125" s="3">
         <v>6.47</v>
       </c>
-      <c r="G125">
+      <c r="G125" s="3">
         <v>6.61</v>
       </c>
-      <c r="H125">
+      <c r="H125" s="3">
         <v>8.06</v>
       </c>
-      <c r="I125">
+      <c r="I125" s="3">
         <v>4.68</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G126">
+      <c r="G126" s="3">
         <v>5.86</v>
       </c>
-      <c r="H126">
-        <v>4.65</v>
-      </c>
-      <c r="I126">
+      <c r="H126" s="3">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="I126" s="3">
         <v>5.52</v>
       </c>
       <c r="J126">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G127">
+      <c r="G127" s="3">
         <v>3.08</v>
       </c>
-      <c r="H127">
+      <c r="H127" s="3">
         <v>3.59</v>
       </c>
-      <c r="I127">
+      <c r="I127" s="3">
         <v>4</v>
       </c>
       <c r="J127">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G128">
+      <c r="G128" s="3">
         <v>3.19</v>
       </c>
-      <c r="H128">
-        <v>2.18</v>
-      </c>
-      <c r="I128">
+      <c r="H128" s="3">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="I128" s="3">
         <v>5.56</v>
       </c>
-      <c r="J128">
+      <c r="J128" s="3">
         <v>2.94</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F129">
+      <c r="F129" s="3">
         <v>0.21</v>
       </c>
-      <c r="G129">
+      <c r="G129" s="3">
         <v>3.77</v>
       </c>
-      <c r="H129">
+      <c r="H129" s="3">
         <v>2.66</v>
       </c>
-      <c r="I129">
+      <c r="I129" s="3">
         <v>4.05</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F130">
+      <c r="F130" s="3">
         <v>5.58</v>
       </c>
-      <c r="G130">
+      <c r="G130" s="3">
         <v>3.02</v>
       </c>
-      <c r="H130">
+      <c r="H130" s="3">
         <v>3.41</v>
       </c>
-      <c r="I130">
+      <c r="I130" s="3">
         <v>1.27</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G131">
+      <c r="G131" s="2">
         <v>-0.06</v>
       </c>
-      <c r="H131">
+      <c r="H131" s="3">
         <v>3.93</v>
       </c>
-      <c r="I131">
-        <v>-35.55</v>
+      <c r="I131" s="2">
+        <v>-35.549999999999997</v>
       </c>
       <c r="J131">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G132">
+      <c r="G132" s="3">
         <v>0.32</v>
       </c>
-      <c r="H132">
+      <c r="H132" s="3">
         <v>0.03</v>
       </c>
-      <c r="I132">
+      <c r="I132" s="3">
         <v>2.81</v>
       </c>
-      <c r="J132">
+      <c r="J132" s="3">
         <v>3.73</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G133">
-        <v>2.2</v>
-      </c>
-      <c r="H133">
+      <c r="G133" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H133" s="3">
         <v>0.04</v>
       </c>
-      <c r="I133">
+      <c r="I133" s="3">
         <v>1.43</v>
       </c>
       <c r="J133">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F134">
+      <c r="F134" s="3">
         <v>2.41</v>
       </c>
-      <c r="G134">
+      <c r="G134" s="3">
         <v>3.23</v>
       </c>
-      <c r="H134">
+      <c r="H134" s="3">
         <v>4.01</v>
       </c>
-      <c r="I134">
+      <c r="I134" s="3">
         <v>3.38</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G135">
+      <c r="G135" s="3">
         <v>3.62</v>
       </c>
-      <c r="H135">
+      <c r="H135" s="3">
         <v>3.73</v>
       </c>
-      <c r="I135">
+      <c r="I135" s="3">
         <v>4.07</v>
       </c>
       <c r="J135">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F136">
+      <c r="F136" s="3">
         <v>2.27</v>
       </c>
-      <c r="G136">
+      <c r="G136" s="3">
         <v>2.9</v>
       </c>
-      <c r="H136">
+      <c r="H136" s="3">
         <v>3.03</v>
       </c>
-      <c r="I136">
+      <c r="I136" s="3">
         <v>3.61</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F137">
-        <v>-0.5600000000000001</v>
-      </c>
-      <c r="G137">
+      <c r="F137" s="2">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="G137" s="3">
         <v>2.81</v>
       </c>
-      <c r="H137">
+      <c r="H137" s="3">
         <v>4.95</v>
       </c>
-      <c r="I137">
+      <c r="I137" s="3">
         <v>3.13</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G138">
+      <c r="G138" s="3">
         <v>2.63</v>
       </c>
-      <c r="H138">
+      <c r="H138" s="3">
         <v>3.12</v>
       </c>
-      <c r="I138">
+      <c r="I138" s="3">
         <v>2.87</v>
       </c>
-      <c r="J138">
+      <c r="J138" s="3">
         <v>3.01</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F139">
+      <c r="F139" s="3">
         <v>3</v>
       </c>
-      <c r="G139">
+      <c r="G139" s="3">
         <v>7.57</v>
       </c>
-      <c r="H139">
+      <c r="H139" s="3">
         <v>5.03</v>
       </c>
-      <c r="I139">
+      <c r="I139" s="3">
         <v>5.71</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G140">
+      <c r="G140" s="3">
         <v>2.78</v>
       </c>
-      <c r="H140">
+      <c r="H140" s="3">
         <v>3.05</v>
       </c>
-      <c r="I140">
+      <c r="I140" s="3">
         <v>4.01</v>
       </c>
-      <c r="J140">
-        <v>2.53</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10">
+      <c r="J140" s="3">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F141">
+      <c r="F141" s="3">
         <v>2.13</v>
       </c>
-      <c r="G141">
-        <v>8.130000000000001</v>
-      </c>
-      <c r="H141">
+      <c r="G141" s="3">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="H141" s="3">
         <v>5.36</v>
       </c>
-      <c r="I141">
-        <v>-8.289999999999999</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10">
+      <c r="I141" s="2">
+        <v>-8.2899999999999991</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F142">
+      <c r="F142" s="3">
         <v>3.01</v>
       </c>
-      <c r="G142">
+      <c r="G142" s="3">
         <v>1.92</v>
       </c>
-      <c r="H142">
+      <c r="H142" s="2">
         <v>-4.96</v>
       </c>
-      <c r="I142">
+      <c r="I142" s="3">
         <v>3.25</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F143">
-        <v>2.729</v>
-      </c>
-      <c r="G143">
-        <v>5.155</v>
-      </c>
-      <c r="H143">
+      <c r="F143" s="3">
+        <v>2.7290000000000001</v>
+      </c>
+      <c r="G143" s="3">
+        <v>5.1550000000000002</v>
+      </c>
+      <c r="H143" s="3">
         <v>1.736</v>
       </c>
-      <c r="I143">
+      <c r="I143" s="3">
         <v>2.37</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G144">
+      <c r="G144" s="3">
         <v>2.59</v>
       </c>
-      <c r="H144">
-        <v>2.55</v>
-      </c>
-      <c r="I144">
-        <v>0.5600000000000001</v>
+      <c r="H144" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="I144" s="3">
+        <v>0.56000000000000005</v>
       </c>
       <c r="J144">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F145">
+      <c r="F145" s="3">
         <v>1.9</v>
       </c>
-      <c r="G145">
-        <v>2.49</v>
-      </c>
-      <c r="H145">
+      <c r="G145" s="3">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H145" s="3">
         <v>2.59</v>
       </c>
-      <c r="I145">
+      <c r="I145" s="3">
         <v>2.77</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F146">
+      <c r="F146" s="3">
         <v>3.42</v>
       </c>
-      <c r="G146">
-        <v>4.06</v>
+      <c r="G146" s="3">
+        <v>4.0599999999999996</v>
       </c>
       <c r="H146">
         <v>0</v>
       </c>
-      <c r="I146">
+      <c r="I146" s="3">
         <v>3.5</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F147">
+      <c r="F147" s="2">
         <v>-0.39</v>
       </c>
-      <c r="G147">
+      <c r="G147" s="3">
         <v>0.3</v>
       </c>
-      <c r="H147">
+      <c r="H147" s="3">
         <v>1.02</v>
       </c>
-      <c r="I147">
+      <c r="I147" s="3">
         <v>0.92</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F148">
+      <c r="F148" s="3">
         <v>3.54</v>
       </c>
-      <c r="G148">
+      <c r="G148" s="3">
         <v>3.93</v>
       </c>
-      <c r="H148">
+      <c r="H148" s="3">
         <v>3.78</v>
       </c>
-      <c r="I148">
+      <c r="I148" s="3">
         <v>4.25</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F149">
-        <v>4.77</v>
-      </c>
-      <c r="G149">
+      <c r="F149" s="3">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="G149" s="3">
         <v>3.99</v>
       </c>
-      <c r="H149">
+      <c r="H149" s="3">
         <v>5.24</v>
       </c>
-      <c r="I149">
+      <c r="I149" s="2">
         <v>-0.99</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F150">
-        <v>2.55</v>
-      </c>
-      <c r="G150">
+      <c r="F150" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G150" s="3">
         <v>3.51</v>
       </c>
-      <c r="H150">
+      <c r="H150" s="3">
         <v>7.62</v>
       </c>
-      <c r="I150">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10">
+      <c r="I150" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="G151">
+      <c r="G151" s="3">
         <v>0.6</v>
       </c>
       <c r="H151">
@@ -4324,381 +4354,381 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F152">
+      <c r="F152" s="3">
         <v>1.58</v>
       </c>
-      <c r="G152">
+      <c r="G152" s="3">
         <v>1.69</v>
       </c>
-      <c r="H152">
+      <c r="H152" s="3">
         <v>1.92</v>
       </c>
-      <c r="I152">
+      <c r="I152" s="3">
         <v>2.42</v>
       </c>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G153">
+      <c r="G153" s="3">
         <v>1.73</v>
       </c>
-      <c r="H153">
+      <c r="H153" s="3">
         <v>3.09</v>
       </c>
-      <c r="I153">
+      <c r="I153" s="3">
         <v>5.87</v>
       </c>
       <c r="J153">
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F154">
-        <v>1.15</v>
-      </c>
-      <c r="G154">
+      <c r="F154" s="3">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G154" s="3">
         <v>1.54</v>
       </c>
-      <c r="H154">
+      <c r="H154" s="3">
         <v>1.54</v>
       </c>
-      <c r="I154">
+      <c r="I154" s="3">
         <v>1.58</v>
       </c>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G155">
+      <c r="G155" s="3">
         <v>1.82</v>
       </c>
-      <c r="H155">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="I155">
+      <c r="H155" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="I155" s="3">
         <v>1.86</v>
       </c>
       <c r="J155">
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="G156">
+      <c r="G156" s="3">
         <v>1.51</v>
       </c>
-      <c r="H156">
+      <c r="H156" s="3">
         <v>1.67</v>
       </c>
-      <c r="I156">
+      <c r="I156" s="3">
         <v>1.77</v>
       </c>
       <c r="J156">
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G157">
+      <c r="G157" s="3">
         <v>0.62</v>
       </c>
-      <c r="H157">
-        <v>1.12</v>
-      </c>
-      <c r="I157">
+      <c r="H157" s="3">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I157" s="3">
         <v>1.31</v>
       </c>
       <c r="J157">
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F158">
+      <c r="F158" s="3">
         <v>0.74</v>
       </c>
-      <c r="G158">
+      <c r="G158" s="3">
         <v>1.39</v>
       </c>
-      <c r="H158">
+      <c r="H158" s="3">
         <v>0.98</v>
       </c>
-      <c r="I158">
+      <c r="I158" s="3">
         <v>1.97</v>
       </c>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F159">
+      <c r="F159" s="3">
         <v>3.2</v>
       </c>
-      <c r="G159">
+      <c r="G159" s="3">
         <v>2.65</v>
       </c>
-      <c r="H159">
+      <c r="H159" s="2">
         <v>-1.26</v>
       </c>
-      <c r="I159">
+      <c r="I159" s="2">
         <v>-11.31</v>
       </c>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="G160">
+      <c r="G160" s="3">
         <v>4.95</v>
       </c>
-      <c r="H160">
+      <c r="H160" s="3">
         <v>6.82</v>
       </c>
-      <c r="I160">
+      <c r="I160" s="3">
         <v>3.7</v>
       </c>
-      <c r="J160">
+      <c r="J160" s="3">
         <v>6.59</v>
       </c>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F161">
+      <c r="F161" s="3">
         <v>1.85</v>
       </c>
-      <c r="G161">
-        <v>0.9399999999999999</v>
+      <c r="G161" s="3">
+        <v>0.94</v>
       </c>
       <c r="H161">
         <v>0</v>
       </c>
-      <c r="I161">
+      <c r="I161" s="3">
         <v>1.37</v>
       </c>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G162">
+      <c r="G162" s="3">
         <v>3.53</v>
       </c>
-      <c r="H162">
+      <c r="H162" s="3">
         <v>4.13</v>
       </c>
-      <c r="I162">
+      <c r="I162" s="3">
         <v>5.07</v>
       </c>
-      <c r="J162">
+      <c r="J162" s="3">
         <v>5.43</v>
       </c>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F163">
+      <c r="F163" s="3">
         <v>1.58</v>
       </c>
-      <c r="G163">
+      <c r="G163" s="3">
         <v>1.7</v>
       </c>
-      <c r="H163">
+      <c r="H163" s="3">
         <v>2.38</v>
       </c>
-      <c r="I163">
-        <v>2.22</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10">
+      <c r="I163" s="3">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F164">
+      <c r="F164" s="3">
         <v>4.5</v>
       </c>
-      <c r="G164">
-        <v>2.47</v>
-      </c>
-      <c r="H164">
+      <c r="G164" s="3">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="H164" s="3">
         <v>3.03</v>
       </c>
-      <c r="I164">
+      <c r="I164" s="3">
         <v>3.04</v>
       </c>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="G165">
+      <c r="G165" s="3">
         <v>2.62</v>
       </c>
-      <c r="H165">
+      <c r="H165" s="3">
         <v>2.89</v>
       </c>
-      <c r="I165">
+      <c r="I165" s="3">
         <v>3.61</v>
       </c>
-      <c r="J165">
+      <c r="J165" s="3">
         <v>3.89</v>
       </c>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F166">
+      <c r="F166" s="3">
         <v>1.47</v>
       </c>
-      <c r="G166">
+      <c r="G166" s="3">
         <v>1.24</v>
       </c>
-      <c r="H166">
+      <c r="H166" s="3">
         <v>1.42</v>
       </c>
-      <c r="I166">
+      <c r="I166" s="3">
         <v>1.73</v>
       </c>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="G167">
-        <v>4.11</v>
-      </c>
-      <c r="H167">
+      <c r="G167" s="3">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="H167" s="3">
         <v>3.24</v>
       </c>
-      <c r="I167">
+      <c r="I167" s="3">
         <v>2.85</v>
       </c>
       <c r="J167">
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="G168">
+      <c r="G168" s="3">
         <v>3.43</v>
       </c>
-      <c r="H168">
+      <c r="H168" s="3">
         <v>3.79</v>
       </c>
-      <c r="I168">
-        <v>2.01</v>
+      <c r="I168" s="3">
+        <v>2.0099999999999998</v>
       </c>
       <c r="J168">
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F169">
+      <c r="F169" s="3">
         <v>3.01</v>
       </c>
-      <c r="G169">
+      <c r="G169" s="3">
         <v>2.16</v>
       </c>
-      <c r="H169">
-        <v>2.3</v>
-      </c>
-      <c r="I169">
+      <c r="H169" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I169" s="3">
         <v>3.66</v>
       </c>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="G170">
-        <v>2.47</v>
-      </c>
-      <c r="H170">
+      <c r="G170" s="3">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="H170" s="3">
         <v>2.42</v>
       </c>
-      <c r="I170">
+      <c r="I170" s="3">
         <v>3.04</v>
       </c>
       <c r="J170">
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F171">
-        <v>-1.11</v>
-      </c>
-      <c r="G171">
+      <c r="F171" s="2">
+        <v>-1.1100000000000001</v>
+      </c>
+      <c r="G171" s="3">
         <v>3.77</v>
       </c>
-      <c r="H171">
+      <c r="H171" s="3">
         <v>3.97</v>
       </c>
-      <c r="I171">
+      <c r="I171" s="3">
         <v>5.42</v>
       </c>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F172">
-        <v>0.14</v>
-      </c>
-      <c r="G172">
+      <c r="F172" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G172" s="3">
         <v>0.11</v>
       </c>
-      <c r="H172">
+      <c r="H172" s="3">
         <v>0.13</v>
       </c>
-      <c r="I172">
-        <v>-0.29</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10">
+      <c r="I172" s="2">
+        <v>-0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G173">
+      <c r="G173" s="3">
         <v>6.72</v>
       </c>
-      <c r="H173">
+      <c r="H173" s="3">
         <v>7.56</v>
       </c>
-      <c r="I173">
+      <c r="I173" s="3">
         <v>9.23</v>
       </c>
       <c r="J173">
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>183</v>
       </c>
@@ -4715,194 +4745,194 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F175">
+      <c r="F175" s="3">
         <v>1.71</v>
       </c>
-      <c r="G175">
-        <v>2.01</v>
-      </c>
-      <c r="H175">
+      <c r="G175" s="3">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="H175" s="3">
         <v>7.95</v>
       </c>
-      <c r="I175">
+      <c r="I175" s="3">
         <v>12.37</v>
       </c>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="G176">
+      <c r="G176" s="3">
         <v>2.86</v>
       </c>
-      <c r="H176">
+      <c r="H176" s="3">
         <v>2.9</v>
       </c>
-      <c r="I176">
+      <c r="I176" s="3">
         <v>2.02</v>
       </c>
-      <c r="J176">
+      <c r="J176" s="3">
         <v>2.83</v>
       </c>
     </row>
-    <row r="177" spans="1:10">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G177">
+      <c r="G177" s="3">
         <v>1.35</v>
       </c>
-      <c r="H177">
+      <c r="H177" s="3">
         <v>1.82</v>
       </c>
-      <c r="I177">
+      <c r="I177" s="3">
         <v>1.02</v>
       </c>
       <c r="J177">
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:10">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="G178">
+      <c r="G178" s="3">
         <v>2.71</v>
       </c>
-      <c r="H178">
+      <c r="H178" s="3">
         <v>1.75</v>
       </c>
-      <c r="I178">
+      <c r="I178" s="3">
         <v>6.11</v>
       </c>
       <c r="J178">
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:10">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F179">
+      <c r="F179" s="3">
         <v>4.17</v>
       </c>
-      <c r="G179">
+      <c r="G179" s="3">
         <v>4.43</v>
       </c>
-      <c r="H179">
-        <v>4.64</v>
-      </c>
-      <c r="I179">
-        <v>4.65</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10">
+      <c r="H179" s="3">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="I179" s="3">
+        <v>4.6500000000000004</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="G180">
+      <c r="G180" s="3">
         <v>2.78</v>
       </c>
-      <c r="H180">
+      <c r="H180" s="3">
         <v>3.4</v>
       </c>
-      <c r="I180">
-        <v>4.15</v>
-      </c>
-      <c r="J180">
-        <v>2.05</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10">
+      <c r="I180" s="3">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="J180" s="3">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G181">
+      <c r="G181" s="3">
         <v>2.35</v>
       </c>
-      <c r="H181">
+      <c r="H181" s="3">
         <v>2.78</v>
       </c>
-      <c r="I181">
+      <c r="I181" s="3">
         <v>2.9</v>
       </c>
-      <c r="J181">
-        <v>2.24</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10">
+      <c r="J181" s="3">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F182">
+      <c r="F182" s="3">
         <v>2.78</v>
       </c>
-      <c r="G182">
+      <c r="G182" s="3">
         <v>3.13</v>
       </c>
-      <c r="H182">
+      <c r="H182" s="3">
         <v>1.89</v>
       </c>
-      <c r="I182">
+      <c r="I182" s="3">
         <v>2.39</v>
       </c>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="G183">
+      <c r="G183" s="3">
         <v>2.44</v>
       </c>
-      <c r="H183">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="I183">
-        <v>1.14</v>
+      <c r="H183" s="3">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="I183" s="3">
+        <v>1.1399999999999999</v>
       </c>
       <c r="J183">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:10">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F184">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="G184">
+      <c r="F184" s="3">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="G184" s="3">
         <v>11.31</v>
       </c>
-      <c r="H184">
+      <c r="H184" s="3">
         <v>11.59</v>
       </c>
-      <c r="I184">
+      <c r="I184" s="3">
         <v>11.69</v>
       </c>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="G185">
+      <c r="G185" s="3">
         <v>2.37</v>
       </c>
-      <c r="H185">
+      <c r="H185" s="3">
         <v>4.13</v>
       </c>
-      <c r="I185">
+      <c r="I185" s="2">
         <v>-0.79</v>
       </c>
       <c r="J185">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>195</v>
       </c>
@@ -4919,225 +4949,225 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>196</v>
       </c>
       <c r="F187">
         <v>0</v>
       </c>
-      <c r="G187">
-        <v>2.2</v>
-      </c>
-      <c r="H187">
+      <c r="G187" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H187" s="3">
         <v>3.24</v>
       </c>
-      <c r="I187">
+      <c r="I187" s="3">
         <v>3.61</v>
       </c>
     </row>
-    <row r="188" spans="1:10">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F188">
+      <c r="F188" s="3">
         <v>0.71</v>
       </c>
-      <c r="G188">
+      <c r="G188" s="3">
         <v>0.73</v>
       </c>
-      <c r="H188">
+      <c r="H188" s="3">
         <v>0.73</v>
       </c>
-      <c r="I188">
+      <c r="I188" s="3">
         <v>0.82</v>
       </c>
     </row>
-    <row r="189" spans="1:10">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="G189">
+      <c r="G189" s="3">
         <v>3.31</v>
       </c>
-      <c r="I189">
-        <v>4.02</v>
-      </c>
-      <c r="J189">
+      <c r="I189" s="3">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="J189" s="3">
         <v>1.07</v>
       </c>
     </row>
-    <row r="190" spans="1:10">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="F190">
+      <c r="F190" s="3">
         <v>3.65</v>
       </c>
-      <c r="G190">
+      <c r="G190" s="3">
         <v>3.5</v>
       </c>
-      <c r="H190">
+      <c r="H190" s="3">
         <v>4.3</v>
       </c>
-      <c r="I190">
+      <c r="I190" s="3">
         <v>5.14</v>
       </c>
     </row>
-    <row r="191" spans="1:10">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F191">
+      <c r="F191" s="3">
         <v>0.99</v>
       </c>
-      <c r="G191">
-        <v>0.28</v>
-      </c>
-      <c r="H191">
+      <c r="G191" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H191" s="3">
         <v>1.46</v>
       </c>
-      <c r="I191">
+      <c r="I191" s="3">
         <v>2.35</v>
       </c>
     </row>
-    <row r="192" spans="1:10">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G192">
+      <c r="G192" s="3">
         <v>2.13</v>
       </c>
-      <c r="H192">
-        <v>2.01</v>
-      </c>
-      <c r="I192">
+      <c r="H192" s="3">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="I192" s="2">
         <v>-1.21</v>
       </c>
       <c r="J192">
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:10">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G193">
+      <c r="G193" s="3">
         <v>3.03</v>
       </c>
-      <c r="H193">
+      <c r="H193" s="3">
         <v>3.78</v>
       </c>
-      <c r="I193">
+      <c r="I193" s="3">
         <v>4.74</v>
       </c>
-      <c r="J193">
+      <c r="J193" s="3">
         <v>5.49</v>
       </c>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F194">
+      <c r="F194" s="3">
         <v>5.98</v>
       </c>
-      <c r="G194">
+      <c r="G194" s="3">
         <v>15.01</v>
       </c>
-      <c r="H194">
+      <c r="H194" s="3">
         <v>7.63</v>
       </c>
-      <c r="I194">
+      <c r="I194" s="2">
         <v>-10.78</v>
       </c>
     </row>
-    <row r="195" spans="1:10">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F195">
+      <c r="F195" s="2">
         <v>-0.18</v>
       </c>
-      <c r="G195">
+      <c r="G195" s="3">
         <v>0.37</v>
       </c>
-      <c r="H195">
+      <c r="H195" s="3">
         <v>1.81</v>
       </c>
-      <c r="I195">
+      <c r="I195" s="3">
         <v>4.05</v>
       </c>
     </row>
-    <row r="196" spans="1:10">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F196">
+      <c r="F196" s="3">
         <v>2.75</v>
       </c>
-      <c r="G196">
+      <c r="G196" s="3">
         <v>3.3</v>
       </c>
-      <c r="H196">
+      <c r="H196" s="3">
         <v>3.9</v>
       </c>
-      <c r="I196">
+      <c r="I196" s="3">
         <v>3.71</v>
       </c>
     </row>
-    <row r="197" spans="1:10">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="G197">
-        <v>-4.36</v>
-      </c>
-      <c r="H197">
+      <c r="G197" s="2">
+        <v>-4.3600000000000003</v>
+      </c>
+      <c r="H197" s="3">
         <v>0.06</v>
       </c>
-      <c r="I197">
+      <c r="I197" s="3">
         <v>0.47</v>
       </c>
-      <c r="J197">
+      <c r="J197" s="3">
         <v>1.18</v>
       </c>
     </row>
-    <row r="198" spans="1:10">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G198">
+      <c r="G198" s="3">
         <v>4.99</v>
       </c>
-      <c r="H198">
+      <c r="H198" s="3">
         <v>5.4</v>
       </c>
-      <c r="I198">
+      <c r="I198" s="3">
         <v>6.11</v>
       </c>
       <c r="J198">
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:10">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G199">
+      <c r="G199" s="3">
         <v>6.89</v>
       </c>
-      <c r="H199">
+      <c r="H199" s="3">
         <v>6.54</v>
       </c>
-      <c r="I199">
+      <c r="I199" s="3">
         <v>3.9</v>
       </c>
-      <c r="J199">
+      <c r="J199" s="2">
         <v>-0.54</v>
       </c>
     </row>
-    <row r="200" spans="1:10">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>209</v>
       </c>
@@ -5147,113 +5177,113 @@
       <c r="I200">
         <v>0</v>
       </c>
-      <c r="J200">
+      <c r="J200" s="3">
         <v>1.84</v>
       </c>
     </row>
-    <row r="201" spans="1:10">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G201">
+      <c r="G201" s="3">
         <v>2.64</v>
       </c>
-      <c r="H201">
+      <c r="H201" s="3">
         <v>2.66</v>
       </c>
       <c r="I201">
         <v>0</v>
       </c>
-      <c r="J201">
+      <c r="J201" s="3">
         <v>1.44</v>
       </c>
     </row>
-    <row r="202" spans="1:10">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G202">
+      <c r="G202" s="3">
         <v>1.59</v>
       </c>
-      <c r="H202">
+      <c r="H202" s="3">
         <v>1.73</v>
       </c>
-      <c r="I202">
+      <c r="I202" s="3">
         <v>1.72</v>
       </c>
-      <c r="J202">
+      <c r="J202" s="3">
         <v>1.5</v>
       </c>
     </row>
-    <row r="203" spans="1:10">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G203">
+      <c r="G203" s="3">
         <v>1.99</v>
       </c>
-      <c r="H203">
-        <v>2.28</v>
+      <c r="H203" s="3">
+        <v>2.2799999999999998</v>
       </c>
       <c r="I203">
         <v>0</v>
       </c>
-      <c r="J203">
+      <c r="J203" s="3">
         <v>0.46</v>
       </c>
     </row>
-    <row r="204" spans="1:10">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G204">
+      <c r="G204" s="3">
         <v>1.01</v>
       </c>
-      <c r="H204">
+      <c r="H204" s="3">
         <v>5</v>
       </c>
-      <c r="I204">
+      <c r="I204" s="3">
         <v>3.15</v>
       </c>
-      <c r="J204">
+      <c r="J204" s="3">
         <v>2.61</v>
       </c>
     </row>
-    <row r="205" spans="1:10">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F205">
-        <v>4.44</v>
-      </c>
-      <c r="G205">
-        <v>5.02</v>
-      </c>
-      <c r="H205">
+      <c r="F205" s="3">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="G205" s="3">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="H205" s="3">
         <v>5.53</v>
       </c>
-      <c r="I205">
+      <c r="I205" s="3">
         <v>5.78</v>
       </c>
     </row>
-    <row r="206" spans="1:10">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F206">
+      <c r="F206" s="3">
         <v>0.08</v>
       </c>
-      <c r="G206">
+      <c r="G206" s="3">
         <v>0.16</v>
       </c>
-      <c r="H206">
+      <c r="H206" s="3">
         <v>0.34</v>
       </c>
-      <c r="I206">
+      <c r="I206" s="3">
         <v>0.22</v>
       </c>
     </row>
-    <row r="207" spans="1:10">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>216</v>
       </c>
@@ -5270,330 +5300,330 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:10">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G208">
+      <c r="G208" s="3">
         <v>7.81</v>
       </c>
-      <c r="H208">
+      <c r="H208" s="3">
         <v>7.44</v>
       </c>
-      <c r="I208">
-        <v>8.539999999999999</v>
+      <c r="I208" s="3">
+        <v>8.5399999999999991</v>
       </c>
       <c r="J208">
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F209">
+      <c r="F209" s="3">
         <v>14.53</v>
       </c>
-      <c r="G209">
+      <c r="G209" s="3">
         <v>15.06</v>
       </c>
-      <c r="H209">
+      <c r="H209" s="3">
         <v>11.97</v>
       </c>
-      <c r="I209">
+      <c r="I209" s="3">
         <v>13.48</v>
       </c>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F210">
+      <c r="F210" s="3">
         <v>3.24</v>
       </c>
-      <c r="G210">
+      <c r="G210" s="3">
         <v>3.53</v>
       </c>
-      <c r="H210">
+      <c r="H210" s="3">
         <v>3.63</v>
       </c>
-      <c r="I210">
-        <v>2.07</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11">
+      <c r="I210" s="3">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F211">
+      <c r="F211" s="3">
         <v>3.11</v>
       </c>
-      <c r="G211">
+      <c r="G211" s="3">
         <v>4.32</v>
       </c>
-      <c r="H211">
+      <c r="H211" s="3">
         <v>5.09</v>
       </c>
-      <c r="I211">
+      <c r="I211" s="3">
         <v>5.19</v>
       </c>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G212">
+      <c r="G212" s="3">
         <v>1</v>
       </c>
-      <c r="H212">
+      <c r="H212" s="3">
         <v>2.61</v>
       </c>
-      <c r="J212">
+      <c r="J212" s="3">
         <v>3.19</v>
       </c>
       <c r="K212">
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="G213">
+      <c r="G213" s="3">
         <v>1.94</v>
       </c>
-      <c r="H213">
+      <c r="H213" s="3">
         <v>2.39</v>
       </c>
-      <c r="I213">
+      <c r="I213" s="3">
         <v>2.41</v>
       </c>
       <c r="J213">
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="G214">
+      <c r="G214" s="3">
         <v>2.89</v>
       </c>
-      <c r="H214">
+      <c r="H214" s="3">
         <v>3.18</v>
       </c>
-      <c r="I214">
+      <c r="I214" s="3">
         <v>1.3</v>
       </c>
-      <c r="J214">
+      <c r="J214" s="3">
         <v>3.73</v>
       </c>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="F215">
+      <c r="F215" s="3">
         <v>1.82</v>
       </c>
-      <c r="G215">
+      <c r="G215" s="3">
         <v>3.15</v>
       </c>
-      <c r="H215">
+      <c r="H215" s="3">
         <v>1.3</v>
       </c>
-      <c r="I215">
+      <c r="I215" s="3">
         <v>2.25</v>
       </c>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="F216">
+      <c r="F216" s="3">
         <v>1.01</v>
       </c>
-      <c r="G216">
+      <c r="G216" s="3">
         <v>0.62</v>
       </c>
-      <c r="H216">
-        <v>1.14</v>
-      </c>
-      <c r="I216">
-        <v>1.11</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11">
+      <c r="H216" s="3">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="I216" s="3">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F217">
+      <c r="F217" s="3">
         <v>0.99</v>
       </c>
-      <c r="G217">
+      <c r="G217" s="3">
         <v>0.51</v>
       </c>
-      <c r="H217">
+      <c r="H217" s="3">
         <v>1.67</v>
       </c>
-      <c r="I217">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="218" spans="1:11">
+      <c r="I217" s="3">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G218">
+      <c r="G218" s="3">
         <v>17.12</v>
       </c>
-      <c r="H218">
+      <c r="H218" s="3">
         <v>11.35</v>
       </c>
-      <c r="I218">
+      <c r="I218" s="3">
         <v>15.87</v>
       </c>
       <c r="J218">
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="G219">
+      <c r="G219" s="3">
         <v>3.76</v>
       </c>
-      <c r="H219">
+      <c r="H219" s="3">
         <v>7.33</v>
       </c>
-      <c r="I219">
+      <c r="I219" s="3">
         <v>5.16</v>
       </c>
       <c r="J219">
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="F220">
+      <c r="F220" s="3">
         <v>1.5</v>
       </c>
-      <c r="G220">
+      <c r="G220" s="3">
         <v>2.1</v>
       </c>
-      <c r="H220">
+      <c r="H220" s="3">
         <v>2.27</v>
       </c>
-      <c r="I220">
-        <v>2.26</v>
-      </c>
-    </row>
-    <row r="221" spans="1:11">
+      <c r="I220" s="3">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F221">
+      <c r="F221" s="3">
         <v>2.64</v>
       </c>
-      <c r="G221">
+      <c r="G221" s="3">
         <v>2.92</v>
       </c>
-      <c r="H221">
+      <c r="H221" s="3">
         <v>3.2</v>
       </c>
-      <c r="I221">
+      <c r="I221" s="3">
         <v>3.69</v>
       </c>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="G222">
+      <c r="G222" s="3">
         <v>3.27</v>
       </c>
-      <c r="H222">
-        <v>2.51</v>
-      </c>
-      <c r="I222">
+      <c r="H222" s="3">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="I222" s="3">
         <v>2.42</v>
       </c>
-      <c r="J222">
+      <c r="J222" s="3">
         <v>1.75</v>
       </c>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F223">
+      <c r="F223" s="3">
         <v>0.36</v>
       </c>
-      <c r="G223">
+      <c r="G223" s="3">
         <v>0.88</v>
       </c>
-      <c r="H223">
+      <c r="H223" s="2">
         <v>-0.73</v>
       </c>
-      <c r="I223">
+      <c r="I223" s="3">
         <v>1.62</v>
       </c>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="F224">
+      <c r="F224" s="3">
         <v>5.22</v>
       </c>
-      <c r="G224">
-        <v>4.39</v>
-      </c>
-      <c r="H224">
+      <c r="G224" s="3">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="H224" s="3">
         <v>5.34</v>
       </c>
-      <c r="I224">
+      <c r="I224" s="3">
         <v>6.05</v>
       </c>
     </row>
-    <row r="225" spans="1:10">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G225">
+      <c r="G225" s="3">
         <v>3.62</v>
       </c>
-      <c r="H225">
+      <c r="H225" s="3">
         <v>3.77</v>
       </c>
-      <c r="I225">
+      <c r="I225" s="3">
         <v>3.79</v>
       </c>
-      <c r="J225">
+      <c r="J225" s="3">
         <v>3.22</v>
       </c>
     </row>
-    <row r="226" spans="1:10">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="F226">
+      <c r="F226" s="3">
         <v>2.68</v>
       </c>
-      <c r="G226">
-        <v>4.98</v>
-      </c>
-      <c r="I226">
+      <c r="G226" s="3">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="I226" s="3">
         <v>1.76</v>
       </c>
-      <c r="J226">
+      <c r="J226" s="3">
         <v>1.74</v>
       </c>
     </row>
-    <row r="227" spans="1:10">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>236</v>
       </c>
@@ -5610,58 +5640,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:10">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F228">
+      <c r="F228" s="3">
         <v>0.42</v>
       </c>
-      <c r="G228">
+      <c r="G228" s="3">
         <v>0.43</v>
       </c>
-      <c r="H228">
+      <c r="H228" s="3">
         <v>0.89</v>
       </c>
-      <c r="I228">
-        <v>2.01</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10">
+      <c r="I228" s="3">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="G229">
+      <c r="G229" s="3">
         <v>3.27</v>
       </c>
-      <c r="H229">
+      <c r="H229" s="3">
         <v>3.51</v>
       </c>
-      <c r="I229">
-        <v>2.26</v>
-      </c>
-      <c r="J229">
-        <v>4.52</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10">
+      <c r="I229" s="3">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="J229" s="3">
+        <v>4.5199999999999996</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="G230">
+      <c r="G230" s="3">
         <v>5.58</v>
       </c>
-      <c r="H230">
+      <c r="H230" s="3">
         <v>4.07</v>
       </c>
-      <c r="I230">
+      <c r="I230" s="3">
         <v>2.78</v>
       </c>
       <c r="J230">
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:10">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>240</v>
       </c>
@@ -5671,174 +5701,174 @@
       <c r="H231">
         <v>0</v>
       </c>
-      <c r="I231">
+      <c r="I231" s="3">
         <v>0.1</v>
       </c>
       <c r="J231">
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:10">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="G232">
+      <c r="G232" s="3">
         <v>1.9</v>
       </c>
-      <c r="H232">
-        <v>2.2</v>
-      </c>
-      <c r="I232">
+      <c r="H232" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I232" s="3">
         <v>2.77</v>
       </c>
-      <c r="J232">
+      <c r="J232" s="3">
         <v>3.07</v>
       </c>
     </row>
-    <row r="233" spans="1:10">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F233">
+      <c r="F233" s="3">
         <v>2</v>
       </c>
-      <c r="G233">
+      <c r="G233" s="3">
         <v>1.94</v>
       </c>
-      <c r="H233">
+      <c r="H233" s="3">
         <v>1.62</v>
       </c>
-      <c r="I233">
+      <c r="I233" s="3">
         <v>1.69</v>
       </c>
     </row>
-    <row r="234" spans="1:10">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="G234">
+      <c r="G234" s="3">
         <v>2.02</v>
       </c>
-      <c r="H234">
+      <c r="H234" s="3">
         <v>3.27</v>
       </c>
-      <c r="I234">
-        <v>4.35</v>
-      </c>
-      <c r="J234">
+      <c r="I234" s="3">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="J234" s="3">
         <v>4.5</v>
       </c>
     </row>
-    <row r="235" spans="1:10">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="G235">
+      <c r="G235" s="3">
         <v>2.78</v>
       </c>
-      <c r="H235">
+      <c r="H235" s="3">
         <v>2.93</v>
       </c>
-      <c r="I235">
+      <c r="I235" s="3">
         <v>3.49</v>
       </c>
-      <c r="J235">
+      <c r="J235" s="3">
         <v>2.09</v>
       </c>
     </row>
-    <row r="236" spans="1:10">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="G236">
-        <v>4.19</v>
-      </c>
-      <c r="H236">
+      <c r="G236" s="3">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="H236" s="3">
         <v>4.08</v>
       </c>
-      <c r="I236">
+      <c r="I236" s="3">
         <v>4.28</v>
       </c>
-      <c r="J236">
+      <c r="J236" s="3">
         <v>3.48</v>
       </c>
     </row>
-    <row r="237" spans="1:10">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="G237">
+      <c r="G237" s="3">
         <v>3.19</v>
       </c>
-      <c r="H237">
-        <v>4.56</v>
-      </c>
-      <c r="I237">
+      <c r="H237" s="3">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="I237" s="3">
         <v>4.41</v>
       </c>
       <c r="J237">
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:10">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="G238">
+      <c r="G238" s="3">
         <v>2.6</v>
       </c>
-      <c r="H238">
+      <c r="H238" s="3">
         <v>3.12</v>
       </c>
-      <c r="I238">
+      <c r="I238" s="3">
         <v>3.57</v>
       </c>
-      <c r="J238">
+      <c r="J238" s="3">
         <v>4.3</v>
       </c>
     </row>
-    <row r="239" spans="1:10">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F239">
+      <c r="F239" s="3">
         <v>1.72</v>
       </c>
-      <c r="G239">
+      <c r="G239" s="3">
         <v>1.36</v>
       </c>
-      <c r="H239">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="I239">
+      <c r="H239" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="I239" s="3">
         <v>2.31</v>
       </c>
     </row>
-    <row r="240" spans="1:10">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="G240">
+      <c r="G240" s="3">
         <v>2.48</v>
       </c>
-      <c r="H240">
+      <c r="H240" s="3">
         <v>3.12</v>
       </c>
-      <c r="I240">
+      <c r="I240" s="3">
         <v>3.87</v>
       </c>
       <c r="J240">
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:10">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F241">
+      <c r="F241" s="3">
         <v>6.09</v>
       </c>
-      <c r="G241">
+      <c r="G241" s="3">
         <v>6.36</v>
       </c>
       <c r="H241">
@@ -5848,11 +5878,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:10">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="F242">
+      <c r="F242" s="3">
         <v>0.88</v>
       </c>
       <c r="G242">
@@ -5865,517 +5895,517 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:10">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="F243">
+      <c r="F243" s="3">
         <v>8.41</v>
       </c>
-      <c r="G243">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="H243">
+      <c r="G243" s="3">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H243" s="3">
         <v>7.78</v>
       </c>
-      <c r="I243">
+      <c r="I243" s="2">
         <v>-2.97</v>
       </c>
     </row>
-    <row r="244" spans="1:10">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G244">
+      <c r="G244" s="3">
         <v>1.72</v>
       </c>
-      <c r="H244">
+      <c r="H244" s="3">
         <v>1.91</v>
       </c>
-      <c r="I244">
+      <c r="I244" s="3">
         <v>2.13</v>
       </c>
-      <c r="J244">
+      <c r="J244" s="3">
         <v>2.02</v>
       </c>
     </row>
-    <row r="245" spans="1:10">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="F245">
+      <c r="F245" s="3">
         <v>3.67</v>
       </c>
-      <c r="G245">
+      <c r="G245" s="3">
         <v>4.33</v>
       </c>
-      <c r="H245">
+      <c r="H245" s="3">
         <v>2.23</v>
       </c>
-      <c r="I245">
+      <c r="I245" s="3">
         <v>2.27</v>
       </c>
     </row>
-    <row r="246" spans="1:10">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="G246">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="H246">
+      <c r="G246" s="3">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="H246" s="3">
         <v>11.41</v>
       </c>
-      <c r="I246">
+      <c r="I246" s="3">
         <v>11.62</v>
       </c>
       <c r="J246">
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:10">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F247">
+      <c r="F247" s="3">
         <v>2.89</v>
       </c>
-      <c r="G247">
+      <c r="G247" s="3">
         <v>3.23</v>
       </c>
-      <c r="H247">
+      <c r="H247" s="3">
         <v>3.46</v>
       </c>
-      <c r="I247">
+      <c r="I247" s="3">
         <v>3.36</v>
       </c>
     </row>
-    <row r="248" spans="1:10">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G248">
+      <c r="G248" s="3">
         <v>1.69</v>
       </c>
-      <c r="H248">
+      <c r="H248" s="3">
         <v>2.14</v>
       </c>
-      <c r="I248">
+      <c r="I248" s="3">
         <v>2.71</v>
       </c>
-      <c r="J248">
+      <c r="J248" s="3">
         <v>2.73</v>
       </c>
     </row>
-    <row r="249" spans="1:10">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="G249">
+      <c r="G249" s="3">
         <v>0.67</v>
       </c>
-      <c r="H249">
+      <c r="H249" s="3">
         <v>3.84</v>
       </c>
-      <c r="I249">
-        <v>4.11</v>
-      </c>
-      <c r="J249">
+      <c r="I249" s="3">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="J249" s="3">
         <v>5.75</v>
       </c>
     </row>
-    <row r="250" spans="1:10">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F250">
+      <c r="F250" s="3">
         <v>3.49</v>
       </c>
-      <c r="G250">
+      <c r="G250" s="3">
         <v>1.07</v>
       </c>
-      <c r="H250">
+      <c r="H250" s="3">
         <v>0.54</v>
       </c>
-      <c r="I250">
+      <c r="I250" s="3">
         <v>0.74</v>
       </c>
     </row>
-    <row r="251" spans="1:10">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="G251">
+      <c r="G251" s="3">
         <v>1.06</v>
       </c>
-      <c r="H251">
+      <c r="H251" s="3">
         <v>1.65</v>
       </c>
-      <c r="I251">
+      <c r="I251" s="3">
         <v>3.3</v>
       </c>
       <c r="J251">
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:10">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="F252">
+      <c r="F252" s="2">
         <v>-1.96</v>
       </c>
-      <c r="G252">
+      <c r="G252" s="2">
         <v>-0.49</v>
       </c>
-      <c r="H252">
+      <c r="H252" s="3">
         <v>1.23</v>
       </c>
-      <c r="I252">
-        <v>9.710000000000001</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10">
+      <c r="I252" s="3">
+        <v>9.7100000000000009</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F253">
+      <c r="F253" s="3">
         <v>4.97</v>
       </c>
-      <c r="G253">
+      <c r="G253" s="3">
         <v>6.8</v>
       </c>
-      <c r="H253">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="I253">
-        <v>9.619999999999999</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10">
+      <c r="H253" s="3">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="I253" s="3">
+        <v>9.6199999999999992</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="G254">
+      <c r="G254" s="3">
         <v>3.29</v>
       </c>
-      <c r="H254">
+      <c r="H254" s="3">
         <v>3.93</v>
       </c>
-      <c r="I254">
+      <c r="I254" s="3">
         <v>4.3</v>
       </c>
-      <c r="J254">
+      <c r="J254" s="3">
         <v>3.26</v>
       </c>
     </row>
-    <row r="255" spans="1:10">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="G255">
+      <c r="G255" s="3">
         <v>2.57</v>
       </c>
-      <c r="H255">
+      <c r="H255" s="3">
         <v>3.11</v>
       </c>
-      <c r="I255">
+      <c r="I255" s="3">
         <v>3.36</v>
       </c>
       <c r="J255">
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:10">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="F256">
+      <c r="F256" s="3">
         <v>2.56</v>
       </c>
-      <c r="G256">
+      <c r="G256" s="3">
         <v>2.27</v>
       </c>
-      <c r="H256">
+      <c r="H256" s="3">
         <v>1.97</v>
       </c>
-      <c r="I256">
+      <c r="I256" s="3">
         <v>4.41</v>
       </c>
     </row>
-    <row r="257" spans="1:10">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F257">
-        <v>2.51</v>
-      </c>
-      <c r="G257">
+      <c r="F257" s="3">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="G257" s="3">
         <v>3.01</v>
       </c>
-      <c r="H257">
+      <c r="H257" s="3">
         <v>10.46</v>
       </c>
-      <c r="I257">
+      <c r="I257" s="3">
         <v>3.08</v>
       </c>
     </row>
-    <row r="258" spans="1:10">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>267</v>
       </c>
       <c r="F258">
         <v>0</v>
       </c>
-      <c r="G258">
-        <v>2.05</v>
-      </c>
-      <c r="H258">
+      <c r="G258" s="3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="H258" s="3">
         <v>2.6</v>
       </c>
-      <c r="I258">
+      <c r="I258" s="3">
         <v>3.22</v>
       </c>
     </row>
-    <row r="259" spans="1:10">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="G259">
+      <c r="G259" s="3">
         <v>0.76</v>
       </c>
-      <c r="H259">
+      <c r="H259" s="3">
         <v>2.4</v>
       </c>
-      <c r="I259">
+      <c r="I259" s="3">
         <v>1.03</v>
       </c>
       <c r="J259">
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:10">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="F260">
+      <c r="F260" s="3">
         <v>2.25</v>
       </c>
-      <c r="G260">
+      <c r="G260" s="3">
         <v>2.61</v>
       </c>
-      <c r="H260">
+      <c r="H260" s="3">
         <v>1.46</v>
       </c>
-      <c r="I260">
+      <c r="I260" s="3">
         <v>1.08</v>
       </c>
     </row>
-    <row r="261" spans="1:10">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="F261">
+      <c r="F261" s="3">
         <v>5.41</v>
       </c>
-      <c r="G261">
+      <c r="G261" s="3">
         <v>5.59</v>
       </c>
-      <c r="H261">
-        <v>4.85</v>
-      </c>
-      <c r="I261">
+      <c r="H261" s="3">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="I261" s="3">
         <v>4.82</v>
       </c>
     </row>
-    <row r="262" spans="1:10">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="G262">
+      <c r="G262" s="3">
         <v>0.65</v>
       </c>
-      <c r="H262">
+      <c r="H262" s="3">
         <v>1.99</v>
       </c>
-      <c r="I262">
+      <c r="I262" s="3">
         <v>1.84</v>
       </c>
-      <c r="J262">
+      <c r="J262" s="3">
         <v>1.59</v>
       </c>
     </row>
-    <row r="263" spans="1:10">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="G263">
+      <c r="G263" s="3">
         <v>5.71</v>
       </c>
-      <c r="H263">
+      <c r="H263" s="3">
         <v>5.51</v>
       </c>
-      <c r="I263">
+      <c r="I263" s="3">
         <v>6.37</v>
       </c>
-      <c r="J263">
+      <c r="J263" s="3">
         <v>9.82</v>
       </c>
     </row>
-    <row r="264" spans="1:10">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="F264">
+      <c r="F264" s="3">
         <v>3.09</v>
       </c>
-      <c r="G264">
+      <c r="G264" s="3">
         <v>3.67</v>
       </c>
-      <c r="H264">
-        <v>4.69</v>
-      </c>
-      <c r="I264">
+      <c r="H264" s="3">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="I264" s="3">
         <v>4.7</v>
       </c>
     </row>
-    <row r="265" spans="1:10">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="F265">
+      <c r="F265" s="3">
         <v>1.7</v>
       </c>
-      <c r="G265">
+      <c r="G265" s="3">
         <v>2.21</v>
       </c>
-      <c r="H265">
+      <c r="H265" s="3">
         <v>1.29</v>
       </c>
-      <c r="I265">
+      <c r="I265" s="3">
         <v>4.49</v>
       </c>
     </row>
-    <row r="266" spans="1:10">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="F266">
-        <v>1.12</v>
-      </c>
-      <c r="G266">
+      <c r="F266" s="3">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G266" s="3">
         <v>2.94</v>
       </c>
-      <c r="H266">
+      <c r="H266" s="3">
         <v>5.48</v>
       </c>
-      <c r="I266">
-        <v>4.61</v>
-      </c>
-    </row>
-    <row r="267" spans="1:10">
+      <c r="I266" s="3">
+        <v>4.6100000000000003</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="F267">
+      <c r="F267" s="3">
         <v>3.63</v>
       </c>
-      <c r="G267">
-        <v>4.86</v>
-      </c>
-      <c r="H267">
+      <c r="G267" s="3">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="H267" s="3">
         <v>7.3</v>
       </c>
-      <c r="I267">
+      <c r="I267" s="3">
         <v>2.59</v>
       </c>
     </row>
-    <row r="268" spans="1:10">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F268">
+      <c r="F268" s="3">
         <v>2.96</v>
       </c>
-      <c r="G268">
+      <c r="G268" s="3">
         <v>3.2</v>
       </c>
-      <c r="H268">
+      <c r="H268" s="3">
         <v>3.55</v>
       </c>
-      <c r="I268">
+      <c r="I268" s="3">
         <v>3.28</v>
       </c>
     </row>
-    <row r="269" spans="1:10">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="G269">
+      <c r="G269" s="3">
         <v>2.94</v>
       </c>
-      <c r="H269">
+      <c r="H269" s="3">
         <v>3.37</v>
       </c>
-      <c r="I269">
+      <c r="I269" s="3">
         <v>3.14</v>
       </c>
       <c r="J269">
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:10">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="F270">
+      <c r="F270" s="3">
         <v>1.83</v>
       </c>
-      <c r="G270">
+      <c r="G270" s="3">
         <v>2.62</v>
       </c>
-      <c r="H270">
+      <c r="H270" s="3">
         <v>2.73</v>
       </c>
-      <c r="I270">
-        <v>4.31</v>
-      </c>
-    </row>
-    <row r="271" spans="1:10">
+      <c r="I270" s="3">
+        <v>4.3099999999999996</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="F271">
+      <c r="F271" s="3">
         <v>2.16</v>
       </c>
-      <c r="G271">
-        <v>2.47</v>
-      </c>
-      <c r="H271">
+      <c r="G271" s="3">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="H271" s="3">
         <v>2.69</v>
       </c>
-      <c r="I271">
+      <c r="I271" s="3">
         <v>3.01</v>
       </c>
     </row>
-    <row r="272" spans="1:10">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="G272">
+      <c r="G272" s="3">
         <v>6.83</v>
       </c>
-      <c r="H272">
+      <c r="H272" s="3">
         <v>7.63</v>
       </c>
-      <c r="I272">
+      <c r="I272" s="3">
         <v>7.72</v>
       </c>
       <c r="J272">
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:10">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>282</v>
       </c>
@@ -6392,321 +6422,321 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:10">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F274">
+      <c r="F274" s="3">
         <v>2.06</v>
       </c>
-      <c r="G274">
-        <v>2.26</v>
-      </c>
-      <c r="H274">
+      <c r="G274" s="3">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="H274" s="3">
         <v>2.56</v>
       </c>
-      <c r="I274">
+      <c r="I274" s="3">
         <v>2.67</v>
       </c>
     </row>
-    <row r="275" spans="1:10">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="G275">
-        <v>4.65</v>
-      </c>
-      <c r="H275">
+      <c r="G275" s="3">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="H275" s="3">
         <v>5.28</v>
       </c>
-      <c r="I275">
-        <v>4.85</v>
-      </c>
-      <c r="J275">
+      <c r="I275" s="3">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="J275" s="3">
         <v>3.02</v>
       </c>
     </row>
-    <row r="276" spans="1:10">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="G276">
-        <v>4.44</v>
-      </c>
-      <c r="H276">
+      <c r="G276" s="3">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="H276" s="3">
         <v>2.69</v>
       </c>
-      <c r="I276">
+      <c r="I276" s="3">
         <v>2.79</v>
       </c>
       <c r="J276">
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:10">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="F277">
-        <v>9.949999999999999</v>
-      </c>
-      <c r="G277">
+      <c r="F277" s="3">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="G277" s="3">
         <v>6.69</v>
       </c>
-      <c r="H277">
+      <c r="H277" s="3">
         <v>8.84</v>
       </c>
-      <c r="I277">
+      <c r="I277" s="3">
         <v>5.29</v>
       </c>
     </row>
-    <row r="278" spans="1:10">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F278">
-        <v>2.03</v>
-      </c>
-      <c r="G278">
+      <c r="F278" s="3">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="G278" s="3">
         <v>1.49</v>
       </c>
-      <c r="H278">
+      <c r="H278" s="3">
         <v>4.12</v>
       </c>
-      <c r="I278">
+      <c r="I278" s="3">
         <v>1.58</v>
       </c>
     </row>
-    <row r="279" spans="1:10">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="F279">
-        <v>2.24</v>
-      </c>
-      <c r="G279">
-        <v>2.49</v>
-      </c>
-      <c r="H279">
-        <v>4.48</v>
-      </c>
-      <c r="I279">
+      <c r="F279" s="3">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="G279" s="3">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H279" s="3">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="I279" s="2">
         <v>-3.26</v>
       </c>
     </row>
-    <row r="280" spans="1:10">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G280">
+      <c r="G280" s="3">
         <v>2.61</v>
       </c>
-      <c r="H280">
+      <c r="H280" s="3">
         <v>2.66</v>
       </c>
-      <c r="I280">
+      <c r="I280" s="3">
         <v>1.49</v>
       </c>
-      <c r="J280">
+      <c r="J280" s="3">
         <v>2.12</v>
       </c>
     </row>
-    <row r="281" spans="1:10">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="F281">
+      <c r="F281" s="3">
         <v>7.57</v>
       </c>
-      <c r="G281">
+      <c r="G281" s="3">
         <v>8.26</v>
       </c>
-      <c r="H281">
+      <c r="H281" s="3">
         <v>7.47</v>
       </c>
-      <c r="I281">
+      <c r="I281" s="3">
         <v>7.22</v>
       </c>
     </row>
-    <row r="282" spans="1:10">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="G282">
-        <v>10.22</v>
-      </c>
-      <c r="H282">
+      <c r="G282" s="3">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="H282" s="3">
         <v>11.71</v>
       </c>
-      <c r="I282">
+      <c r="I282" s="3">
         <v>12.75</v>
       </c>
       <c r="J282">
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:10">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="G283">
-        <v>1.16</v>
-      </c>
-      <c r="H283">
+      <c r="G283" s="3">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H283" s="3">
         <v>2.87</v>
       </c>
-      <c r="I283">
+      <c r="I283" s="3">
         <v>2.71</v>
       </c>
-      <c r="J283">
+      <c r="J283" s="2">
         <v>-0.27</v>
       </c>
     </row>
-    <row r="284" spans="1:10">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="F284">
+      <c r="F284" s="3">
         <v>5.01</v>
       </c>
-      <c r="G284">
+      <c r="G284" s="3">
         <v>5.98</v>
       </c>
-      <c r="H284">
-        <v>5.06</v>
-      </c>
-      <c r="I284">
+      <c r="H284" s="3">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="I284" s="2">
         <v>-13.03</v>
       </c>
     </row>
-    <row r="285" spans="1:10">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="H285">
-        <v>2.49</v>
+      <c r="H285" s="3">
+        <v>2.4900000000000002</v>
       </c>
       <c r="I285">
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:10">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>295</v>
       </c>
       <c r="G286">
         <v>0</v>
       </c>
-      <c r="H286">
+      <c r="H286" s="3">
         <v>2.74</v>
       </c>
-      <c r="I286">
+      <c r="I286" s="3">
         <v>2.66</v>
       </c>
     </row>
-    <row r="287" spans="1:10">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G287">
+      <c r="G287" s="3">
         <v>2.72</v>
       </c>
-      <c r="H287">
+      <c r="H287" s="3">
         <v>3.36</v>
       </c>
-      <c r="I287">
+      <c r="I287" s="2">
         <v>-6.07</v>
       </c>
       <c r="J287">
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:10">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="F288">
+      <c r="F288" s="3">
         <v>2.09</v>
       </c>
-      <c r="G288">
-        <v>2.3</v>
-      </c>
-      <c r="H288">
-        <v>2.45</v>
-      </c>
-      <c r="I288">
+      <c r="G288" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H288" s="3">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="I288" s="3">
         <v>2.56</v>
       </c>
     </row>
-    <row r="289" spans="1:10">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="F289">
+      <c r="F289" s="3">
         <v>4.59</v>
       </c>
-      <c r="G289">
+      <c r="G289" s="3">
         <v>4.5</v>
       </c>
-      <c r="H289">
+      <c r="H289" s="3">
         <v>5.67</v>
       </c>
-      <c r="I289">
+      <c r="I289" s="3">
         <v>6.11</v>
       </c>
     </row>
-    <row r="290" spans="1:10">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="F290">
+      <c r="F290" s="3">
         <v>3.65</v>
       </c>
-      <c r="G290">
-        <v>-4.94</v>
-      </c>
-      <c r="H290">
+      <c r="G290" s="2">
+        <v>-4.9400000000000004</v>
+      </c>
+      <c r="H290" s="3">
         <v>1.02</v>
       </c>
-      <c r="I290">
+      <c r="I290" s="3">
         <v>0.43</v>
       </c>
     </row>
-    <row r="291" spans="1:10">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="G291">
+      <c r="G291" s="3">
         <v>1.93</v>
       </c>
-      <c r="H291">
-        <v>4.44</v>
-      </c>
-      <c r="I291">
-        <v>0.29</v>
+      <c r="H291" s="3">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="I291" s="3">
+        <v>0.28999999999999998</v>
       </c>
       <c r="J291">
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:10">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="F292">
-        <v>-8.800000000000001</v>
-      </c>
-      <c r="G292">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="H292">
+      <c r="F292" s="2">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="G292" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="H292" s="3">
         <v>6.59</v>
       </c>
-      <c r="I292">
+      <c r="I292" s="2">
         <v>-21.18</v>
       </c>
     </row>
-    <row r="293" spans="1:10">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>302</v>
       </c>
@@ -6719,147 +6749,147 @@
       <c r="I293">
         <v>0</v>
       </c>
-      <c r="J293">
+      <c r="J293" s="3">
         <v>2.21</v>
       </c>
     </row>
-    <row r="294" spans="1:10">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="G294">
+      <c r="G294" s="3">
         <v>1.97</v>
       </c>
-      <c r="H294">
+      <c r="H294" s="3">
         <v>1.01</v>
       </c>
-      <c r="I294">
+      <c r="I294" s="3">
         <v>1.55</v>
       </c>
       <c r="J294">
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:10">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="F295">
+      <c r="F295" s="3">
         <v>5.86</v>
       </c>
-      <c r="G295">
+      <c r="G295" s="3">
         <v>5.46</v>
       </c>
-      <c r="H295">
+      <c r="H295" s="3">
         <v>5.85</v>
       </c>
-      <c r="I295">
+      <c r="I295" s="2">
         <v>-1.99</v>
       </c>
     </row>
-    <row r="296" spans="1:10">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="G296">
+      <c r="G296" s="3">
         <v>6.1</v>
       </c>
-      <c r="H296">
+      <c r="H296" s="3">
         <v>6.44</v>
       </c>
-      <c r="I296">
+      <c r="I296" s="3">
         <v>5.13</v>
       </c>
       <c r="J296">
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:10">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="G297">
+      <c r="G297" s="3">
         <v>1.4</v>
       </c>
-      <c r="H297">
+      <c r="H297" s="3">
         <v>1.87</v>
       </c>
-      <c r="I297">
+      <c r="I297" s="3">
         <v>1.77</v>
       </c>
-      <c r="J297">
+      <c r="J297" s="3">
         <v>0.78</v>
       </c>
     </row>
-    <row r="298" spans="1:10">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="F298">
+      <c r="F298" s="3">
         <v>2.82</v>
       </c>
-      <c r="G298">
+      <c r="G298" s="3">
         <v>3.01</v>
       </c>
-      <c r="H298">
+      <c r="H298" s="3">
         <v>3.34</v>
       </c>
-      <c r="I298">
+      <c r="I298" s="3">
         <v>4.03</v>
       </c>
     </row>
-    <row r="299" spans="1:10">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="F299">
+      <c r="F299" s="3">
         <v>1.58</v>
       </c>
-      <c r="G299">
+      <c r="G299" s="3">
         <v>1.52</v>
       </c>
-      <c r="H299">
-        <v>2.22</v>
-      </c>
-      <c r="I299">
-        <v>1.11</v>
-      </c>
-    </row>
-    <row r="300" spans="1:10">
+      <c r="H299" s="3">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="I299" s="3">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="G300">
+      <c r="G300" s="3">
         <v>0.91</v>
       </c>
-      <c r="H300">
+      <c r="H300" s="3">
         <v>0.75</v>
       </c>
-      <c r="I300">
-        <v>1.14</v>
-      </c>
-      <c r="J300">
-        <v>1.13</v>
-      </c>
-    </row>
-    <row r="301" spans="1:10">
+      <c r="I300" s="3">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="J300" s="3">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="F301">
+      <c r="F301" s="3">
         <v>1.38</v>
       </c>
-      <c r="G301">
+      <c r="G301" s="3">
         <v>1.64</v>
       </c>
-      <c r="H301">
+      <c r="H301" s="3">
         <v>1.37</v>
       </c>
-      <c r="I301">
+      <c r="I301" s="3">
         <v>1.3</v>
       </c>
     </row>
-    <row r="302" spans="1:10">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>311</v>
       </c>
@@ -6876,296 +6906,296 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:10">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>312</v>
       </c>
       <c r="G303">
         <v>0</v>
       </c>
-      <c r="H303">
+      <c r="H303" s="3">
         <v>0.41</v>
       </c>
-      <c r="I303">
+      <c r="I303" s="2">
         <v>-0.26</v>
       </c>
-      <c r="J303">
+      <c r="J303" s="3">
         <v>0.3</v>
       </c>
     </row>
-    <row r="304" spans="1:10">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="F304">
+      <c r="F304" s="3">
         <v>0.86</v>
       </c>
-      <c r="G304">
+      <c r="G304" s="3">
         <v>1.06</v>
       </c>
-      <c r="H304">
+      <c r="H304" s="3">
         <v>1.04</v>
       </c>
-      <c r="I304">
-        <v>1.09</v>
-      </c>
-    </row>
-    <row r="305" spans="1:10">
+      <c r="I304" s="3">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="F305">
+      <c r="F305" s="3">
         <v>1.75</v>
       </c>
-      <c r="G305">
+      <c r="G305" s="3">
         <v>1.29</v>
       </c>
-      <c r="H305">
+      <c r="H305" s="3">
         <v>1.5</v>
       </c>
-      <c r="I305">
+      <c r="I305" s="3">
         <v>1.17</v>
       </c>
     </row>
-    <row r="306" spans="1:10">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G306">
+      <c r="G306" s="3">
         <v>3.73</v>
       </c>
-      <c r="H306">
-        <v>4.27</v>
-      </c>
-      <c r="I306">
+      <c r="H306" s="3">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="I306" s="3">
         <v>4.43</v>
       </c>
       <c r="J306">
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:10">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="F307">
+      <c r="F307" s="3">
         <v>4.83</v>
       </c>
-      <c r="G307">
+      <c r="G307" s="3">
         <v>6.14</v>
       </c>
-      <c r="H307">
+      <c r="H307" s="3">
         <v>7.46</v>
       </c>
-      <c r="I307">
+      <c r="I307" s="3">
         <v>9.32</v>
       </c>
     </row>
-    <row r="308" spans="1:10">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="F308">
+      <c r="F308" s="3">
         <v>5.67</v>
       </c>
-      <c r="G308">
+      <c r="G308" s="3">
         <v>7.33</v>
       </c>
-      <c r="H308">
+      <c r="H308" s="3">
         <v>0.79</v>
       </c>
-      <c r="I308">
+      <c r="I308" s="2">
         <v>-10.23</v>
       </c>
     </row>
-    <row r="309" spans="1:10">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="G309">
+      <c r="G309" s="3">
         <v>1.56</v>
       </c>
-      <c r="H309">
+      <c r="H309" s="3">
         <v>1.72</v>
       </c>
-      <c r="I309">
+      <c r="I309" s="3">
         <v>1.86</v>
       </c>
-      <c r="J309">
+      <c r="J309" s="3">
         <v>2.1</v>
       </c>
     </row>
-    <row r="310" spans="1:10">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="F310">
+      <c r="F310" s="3">
         <v>0.72</v>
       </c>
-      <c r="G310">
+      <c r="G310" s="3">
         <v>0.74</v>
       </c>
-      <c r="H310">
+      <c r="H310" s="3">
         <v>0.84</v>
       </c>
-      <c r="I310">
+      <c r="I310" s="3">
         <v>0.86</v>
       </c>
     </row>
-    <row r="311" spans="1:10">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="F311">
-        <v>2.22</v>
-      </c>
-      <c r="G311">
+      <c r="F311" s="3">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="G311" s="3">
         <v>0.71</v>
       </c>
-      <c r="H311">
+      <c r="H311" s="3">
         <v>1.65</v>
       </c>
-      <c r="I311">
+      <c r="I311" s="3">
         <v>2.04</v>
       </c>
     </row>
-    <row r="312" spans="1:10">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="F312">
+      <c r="F312" s="3">
         <v>3.13</v>
       </c>
-      <c r="G312">
+      <c r="G312" s="3">
         <v>3.31</v>
       </c>
-      <c r="H312">
+      <c r="H312" s="3">
         <v>3.83</v>
       </c>
-      <c r="I312">
-        <v>4.52</v>
-      </c>
-    </row>
-    <row r="313" spans="1:10">
+      <c r="I312" s="3">
+        <v>4.5199999999999996</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="G313">
+      <c r="G313" s="3">
         <v>1.83</v>
       </c>
-      <c r="H313">
+      <c r="H313" s="3">
         <v>3.07</v>
       </c>
-      <c r="I313">
+      <c r="I313" s="3">
         <v>1.81</v>
       </c>
       <c r="J313">
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:10">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="F314">
+      <c r="F314" s="3">
         <v>28.48</v>
       </c>
-      <c r="G314">
+      <c r="G314" s="3">
         <v>37.17</v>
       </c>
-      <c r="H314">
+      <c r="H314" s="3">
         <v>46.3</v>
       </c>
-      <c r="I314">
+      <c r="I314" s="3">
         <v>50.09</v>
       </c>
     </row>
-    <row r="315" spans="1:10">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="G315">
+      <c r="G315" s="3">
         <v>2.04</v>
       </c>
-      <c r="H315">
+      <c r="H315" s="3">
         <v>1.99</v>
       </c>
-      <c r="I315">
-        <v>2.26</v>
-      </c>
-      <c r="J315">
+      <c r="I315" s="3">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="J315" s="3">
         <v>1.93</v>
       </c>
     </row>
-    <row r="316" spans="1:10">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="F316">
+      <c r="F316" s="3">
         <v>2.52</v>
       </c>
-      <c r="G316">
+      <c r="G316" s="3">
         <v>2.46</v>
       </c>
-      <c r="H316">
+      <c r="H316" s="3">
         <v>3</v>
       </c>
-      <c r="I316">
+      <c r="I316" s="3">
         <v>3.32</v>
       </c>
     </row>
-    <row r="317" spans="1:10">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="G317">
+      <c r="G317" s="3">
         <v>4.37</v>
       </c>
-      <c r="H317">
-        <v>4.31</v>
-      </c>
-      <c r="I317">
+      <c r="H317" s="3">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="I317" s="3">
         <v>3.71</v>
       </c>
       <c r="J317">
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:10">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="F318">
+      <c r="F318" s="3">
         <v>1.96</v>
       </c>
-      <c r="G318">
+      <c r="G318" s="3">
         <v>3.23</v>
       </c>
-      <c r="H318">
+      <c r="H318" s="3">
         <v>1.44</v>
       </c>
-      <c r="I318">
-        <v>1.13</v>
-      </c>
-    </row>
-    <row r="319" spans="1:10">
+      <c r="I318" s="3">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="G319">
+      <c r="G319" s="3">
         <v>2.99</v>
       </c>
-      <c r="H319">
+      <c r="H319" s="3">
         <v>3.7</v>
       </c>
-      <c r="I319">
-        <v>4.11</v>
+      <c r="I319" s="3">
+        <v>4.1100000000000003</v>
       </c>
       <c r="J319">
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:10">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>329</v>
       </c>
@@ -7182,831 +7212,831 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:10">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="F321">
+      <c r="F321" s="3">
         <v>1.5</v>
       </c>
-      <c r="G321">
+      <c r="G321" s="3">
         <v>1.95</v>
       </c>
-      <c r="H321">
+      <c r="H321" s="3">
         <v>2.17</v>
       </c>
-      <c r="I321">
+      <c r="I321" s="3">
         <v>2.16</v>
       </c>
     </row>
-    <row r="322" spans="1:10">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="G322">
+      <c r="G322" s="3">
         <v>6.36</v>
       </c>
-      <c r="H322">
+      <c r="H322" s="3">
         <v>6.98</v>
       </c>
-      <c r="I322">
+      <c r="I322" s="3">
         <v>7.08</v>
       </c>
-      <c r="J322">
+      <c r="J322" s="3">
         <v>5.96</v>
       </c>
     </row>
-    <row r="323" spans="1:10">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="G323">
+      <c r="G323" s="3">
         <v>6.79</v>
       </c>
-      <c r="H323">
+      <c r="H323" s="3">
         <v>1.27</v>
       </c>
-      <c r="I323">
+      <c r="I323" s="3">
         <v>1.38</v>
       </c>
       <c r="J323">
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:10">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="F324">
+      <c r="F324" s="3">
         <v>0.61</v>
       </c>
-      <c r="G324">
+      <c r="G324" s="3">
         <v>1.49</v>
       </c>
-      <c r="H324">
+      <c r="H324" s="3">
         <v>1.4</v>
       </c>
-      <c r="J324">
+      <c r="J324" s="3">
         <v>1.89</v>
       </c>
     </row>
-    <row r="325" spans="1:10">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G325">
+      <c r="G325" s="3">
         <v>5.26</v>
       </c>
-      <c r="H325">
+      <c r="H325" s="3">
         <v>4.76</v>
       </c>
-      <c r="I325">
+      <c r="I325" s="3">
         <v>4.42</v>
       </c>
       <c r="J325">
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:10">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="F326">
+      <c r="F326" s="3">
         <v>5.36</v>
       </c>
-      <c r="G326">
+      <c r="G326" s="3">
         <v>7.48</v>
       </c>
-      <c r="H326">
+      <c r="H326" s="3">
         <v>7.44</v>
       </c>
-      <c r="I326">
+      <c r="I326" s="3">
         <v>7.52</v>
       </c>
     </row>
-    <row r="327" spans="1:10">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="F327">
+      <c r="F327" s="2">
         <v>-0.84</v>
       </c>
-      <c r="G327">
+      <c r="G327" s="3">
         <v>2.67</v>
       </c>
-      <c r="H327">
-        <v>1.13</v>
-      </c>
-      <c r="I327">
+      <c r="H327" s="3">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="I327" s="2">
         <v>-0.42</v>
       </c>
     </row>
-    <row r="328" spans="1:10">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="F328">
+      <c r="F328" s="3">
         <v>3.48</v>
       </c>
-      <c r="G328">
+      <c r="G328" s="3">
         <v>3.69</v>
       </c>
-      <c r="H328">
+      <c r="H328" s="3">
         <v>3.59</v>
       </c>
-      <c r="I328">
+      <c r="I328" s="3">
         <v>3.94</v>
       </c>
     </row>
-    <row r="329" spans="1:10">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="G329">
+      <c r="G329" s="3">
         <v>22.53</v>
       </c>
-      <c r="H329">
+      <c r="H329" s="3">
         <v>15.2</v>
       </c>
-      <c r="I329">
+      <c r="I329" s="3">
         <v>5.18</v>
       </c>
       <c r="J329">
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:10">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="F330">
+      <c r="F330" s="3">
         <v>2.61</v>
       </c>
-      <c r="G330">
+      <c r="G330" s="3">
         <v>1.85</v>
       </c>
-      <c r="H330">
+      <c r="H330" s="3">
         <v>2.64</v>
       </c>
-      <c r="I330">
+      <c r="I330" s="3">
         <v>1.01</v>
       </c>
     </row>
-    <row r="331" spans="1:10">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="F331">
+      <c r="F331" s="2">
         <v>-0.48</v>
       </c>
-      <c r="G331">
+      <c r="G331" s="2">
         <v>-1.55</v>
       </c>
-      <c r="H331">
+      <c r="H331" s="2">
         <v>-2.69</v>
       </c>
-      <c r="I331">
+      <c r="I331" s="3">
         <v>12.37</v>
       </c>
     </row>
-    <row r="332" spans="1:10">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="F332">
+      <c r="F332" s="3">
         <v>6.55</v>
       </c>
-      <c r="G332">
+      <c r="G332" s="3">
         <v>6.07</v>
       </c>
-      <c r="H332">
+      <c r="H332" s="3">
         <v>8.4</v>
       </c>
-      <c r="I332">
+      <c r="I332" s="3">
         <v>7.78</v>
       </c>
     </row>
-    <row r="333" spans="1:10">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="G333">
+      <c r="G333" s="3">
         <v>5.98</v>
       </c>
-      <c r="H333">
+      <c r="H333" s="3">
         <v>1.77</v>
       </c>
-      <c r="I333">
+      <c r="I333" s="3">
         <v>5.33</v>
       </c>
-      <c r="J333">
+      <c r="J333" s="3">
         <v>6.95</v>
       </c>
     </row>
-    <row r="334" spans="1:10">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="F334">
+      <c r="F334" s="3">
         <v>1.44</v>
       </c>
-      <c r="G334">
+      <c r="G334" s="3">
         <v>1.87</v>
       </c>
-      <c r="H334">
+      <c r="H334" s="3">
         <v>1.35</v>
       </c>
-      <c r="I334">
+      <c r="I334" s="3">
         <v>1.59</v>
       </c>
     </row>
-    <row r="335" spans="1:10">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="F335">
+      <c r="F335" s="3">
         <v>5.67</v>
       </c>
-      <c r="G335">
+      <c r="G335" s="3">
         <v>5.94</v>
       </c>
-      <c r="H335">
+      <c r="H335" s="3">
         <v>5.79</v>
       </c>
-      <c r="I335">
+      <c r="I335" s="3">
         <v>5.39</v>
       </c>
     </row>
-    <row r="336" spans="1:10">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>345</v>
       </c>
       <c r="H336">
         <v>0</v>
       </c>
-      <c r="I336">
+      <c r="I336" s="3">
         <v>1</v>
       </c>
       <c r="J336">
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:10">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="G337">
+      <c r="G337" s="3">
         <v>3.99</v>
       </c>
-      <c r="H337">
-        <v>4.73</v>
-      </c>
-      <c r="I337">
+      <c r="H337" s="3">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="I337" s="3">
         <v>3.26</v>
       </c>
-      <c r="J337">
+      <c r="J337" s="3">
         <v>3.84</v>
       </c>
     </row>
-    <row r="338" spans="1:10">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>347</v>
       </c>
       <c r="H338">
         <v>0</v>
       </c>
-      <c r="I338">
+      <c r="I338" s="3">
         <v>2.17</v>
       </c>
-      <c r="J338">
+      <c r="J338" s="2">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="339" spans="1:10">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="G339">
+      <c r="G339" s="3">
         <v>4.57</v>
       </c>
-      <c r="H339">
-        <v>4.14</v>
-      </c>
-      <c r="I339">
+      <c r="H339" s="3">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="I339" s="3">
         <v>5.75</v>
       </c>
       <c r="J339">
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:10">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="F340">
+      <c r="F340" s="3">
         <v>0.08</v>
       </c>
-      <c r="G340">
+      <c r="G340" s="3">
         <v>2.16</v>
       </c>
-      <c r="H340">
+      <c r="H340" s="3">
         <v>3.45</v>
       </c>
-      <c r="I340">
+      <c r="I340" s="3">
         <v>3.03</v>
       </c>
     </row>
-    <row r="341" spans="1:10">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="G341">
+      <c r="G341" s="3">
         <v>4.33</v>
       </c>
-      <c r="H341">
+      <c r="H341" s="3">
         <v>3.46</v>
       </c>
-      <c r="I341">
+      <c r="I341" s="3">
         <v>6.17</v>
       </c>
       <c r="J341">
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:10">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="G342">
+      <c r="G342" s="3">
         <v>1.85</v>
       </c>
-      <c r="H342">
-        <v>2.28</v>
-      </c>
-      <c r="I342">
+      <c r="H342" s="3">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="I342" s="3">
         <v>2.72</v>
       </c>
       <c r="J342">
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:10">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="G343">
+      <c r="G343" s="3">
         <v>0.78</v>
       </c>
-      <c r="H343">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="I343">
+      <c r="H343" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="I343" s="3">
         <v>0.97</v>
       </c>
-      <c r="J343">
-        <v>1.09</v>
-      </c>
-    </row>
-    <row r="344" spans="1:10">
+      <c r="J343" s="3">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="G344">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="H344">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="I344">
+      <c r="G344" s="3">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="H344" s="3">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="I344" s="3">
         <v>7.96</v>
       </c>
-      <c r="J344">
-        <v>4.65</v>
-      </c>
-    </row>
-    <row r="345" spans="1:10">
+      <c r="J344" s="3">
+        <v>4.6500000000000004</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="G345">
+      <c r="G345" s="3">
         <v>5.43</v>
       </c>
-      <c r="H345">
+      <c r="H345" s="3">
         <v>5.98</v>
       </c>
-      <c r="I345">
+      <c r="I345" s="3">
         <v>6.15</v>
       </c>
-      <c r="J345">
+      <c r="J345" s="3">
         <v>5.6</v>
       </c>
     </row>
-    <row r="346" spans="1:10">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="F346">
+      <c r="F346" s="3">
         <v>4.95</v>
       </c>
-      <c r="G346">
+      <c r="G346" s="3">
         <v>5.43</v>
       </c>
-      <c r="H346">
+      <c r="H346" s="3">
         <v>6.47</v>
       </c>
-      <c r="I346">
+      <c r="I346" s="3">
         <v>6.92</v>
       </c>
     </row>
-    <row r="347" spans="1:10">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G347">
+      <c r="G347" s="3">
         <v>3.59</v>
       </c>
-      <c r="H347">
+      <c r="H347" s="3">
         <v>3.93</v>
       </c>
-      <c r="I347">
+      <c r="I347" s="3">
         <v>4.47</v>
       </c>
-      <c r="J347">
-        <v>2.53</v>
-      </c>
-    </row>
-    <row r="348" spans="1:10">
+      <c r="J347" s="3">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="F348">
+      <c r="F348" s="3">
         <v>0.08</v>
       </c>
-      <c r="G348">
+      <c r="G348" s="3">
         <v>0.71</v>
       </c>
-      <c r="H348">
+      <c r="H348" s="3">
         <v>3.81</v>
       </c>
-      <c r="I348">
+      <c r="I348" s="2">
         <v>-4.29</v>
       </c>
     </row>
-    <row r="349" spans="1:10">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="G349">
+      <c r="G349" s="3">
         <v>1.63</v>
       </c>
-      <c r="H349">
+      <c r="H349" s="3">
         <v>1.54</v>
       </c>
-      <c r="I349">
+      <c r="I349" s="3">
         <v>2.14</v>
       </c>
       <c r="J349">
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:10">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="G350">
+      <c r="G350" s="3">
         <v>0.01</v>
       </c>
-      <c r="H350">
+      <c r="H350" s="3">
         <v>2.75</v>
       </c>
-      <c r="I350">
+      <c r="I350" s="3">
         <v>1.84</v>
       </c>
-      <c r="J350">
+      <c r="J350" s="3">
         <v>1.91</v>
       </c>
     </row>
-    <row r="351" spans="1:10">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="F351">
+      <c r="F351" s="3">
         <v>3.2</v>
       </c>
-      <c r="G351">
+      <c r="G351" s="3">
         <v>3.4</v>
       </c>
-      <c r="H351">
+      <c r="H351" s="3">
         <v>3.79</v>
       </c>
-      <c r="I351">
+      <c r="I351" s="3">
         <v>5.22</v>
       </c>
     </row>
-    <row r="352" spans="1:10">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="F352">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="G352">
+      <c r="F352" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="G352" s="3">
         <v>0.78</v>
       </c>
-      <c r="H352">
+      <c r="H352" s="3">
         <v>0.96</v>
       </c>
-      <c r="I352">
+      <c r="I352" s="3">
         <v>1.04</v>
       </c>
     </row>
-    <row r="353" spans="1:10">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="F353">
+      <c r="F353" s="3">
         <v>1.44</v>
       </c>
-      <c r="G353">
+      <c r="G353" s="3">
         <v>1.55</v>
       </c>
-      <c r="H353">
+      <c r="H353" s="3">
         <v>1.61</v>
       </c>
-      <c r="I353">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="354" spans="1:10">
+      <c r="I353" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="G354">
+      <c r="G354" s="3">
         <v>0.64</v>
       </c>
-      <c r="H354">
+      <c r="H354" s="3">
         <v>1.22</v>
       </c>
-      <c r="I354">
+      <c r="I354" s="3">
         <v>1.63</v>
       </c>
       <c r="J354">
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:10">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="F355">
+      <c r="F355" s="3">
         <v>6.15</v>
       </c>
-      <c r="G355">
+      <c r="G355" s="3">
         <v>7.41</v>
       </c>
-      <c r="H355">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="I355">
+      <c r="H355" s="3">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="I355" s="3">
         <v>11.38</v>
       </c>
     </row>
-    <row r="356" spans="1:10">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="G356">
+      <c r="G356" s="3">
         <v>4.37</v>
       </c>
-      <c r="H356">
+      <c r="H356" s="3">
         <v>4.59</v>
       </c>
       <c r="I356">
         <v>0</v>
       </c>
-      <c r="J356">
+      <c r="J356" s="3">
         <v>5.89</v>
       </c>
     </row>
-    <row r="357" spans="1:10">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="G357">
+      <c r="G357" s="3">
         <v>5</v>
       </c>
-      <c r="H357">
+      <c r="H357" s="3">
         <v>5.42</v>
       </c>
-      <c r="I357">
+      <c r="I357" s="3">
         <v>3.33</v>
       </c>
-      <c r="J357">
+      <c r="J357" s="3">
         <v>5.77</v>
       </c>
     </row>
-    <row r="358" spans="1:10">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F358">
+      <c r="F358" s="3">
         <v>1.75</v>
       </c>
-      <c r="G358">
+      <c r="G358" s="3">
         <v>0.39</v>
       </c>
-      <c r="H358">
+      <c r="H358" s="3">
         <v>0.59</v>
       </c>
-      <c r="I358">
+      <c r="I358" s="3">
         <v>1.02</v>
       </c>
     </row>
-    <row r="359" spans="1:10">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>368</v>
       </c>
       <c r="G359">
         <v>0</v>
       </c>
-      <c r="I359">
+      <c r="I359" s="3">
         <v>7.26</v>
       </c>
-      <c r="J359">
+      <c r="J359" s="3">
         <v>8.24</v>
       </c>
     </row>
-    <row r="360" spans="1:10">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="F360">
-        <v>4.48</v>
-      </c>
-      <c r="G360">
+      <c r="F360" s="3">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="G360" s="3">
         <v>3.43</v>
       </c>
-      <c r="H360">
+      <c r="H360" s="3">
         <v>3.86</v>
       </c>
-      <c r="I360">
+      <c r="I360" s="3">
         <v>4.68</v>
       </c>
     </row>
-    <row r="361" spans="1:10">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="F361">
+      <c r="F361" s="3">
         <v>2.7</v>
       </c>
-      <c r="G361">
+      <c r="G361" s="3">
         <v>1.88</v>
       </c>
-      <c r="H361">
+      <c r="H361" s="3">
         <v>2.19</v>
       </c>
-      <c r="I361">
+      <c r="I361" s="3">
         <v>2.6</v>
       </c>
     </row>
-    <row r="362" spans="1:10">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="F362">
+      <c r="F362" s="3">
         <v>4.72</v>
       </c>
-      <c r="G362">
+      <c r="G362" s="3">
         <v>4.24</v>
       </c>
-      <c r="H362">
-        <v>4.52</v>
-      </c>
-      <c r="I362">
+      <c r="H362" s="3">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="I362" s="3">
         <v>5.88</v>
       </c>
     </row>
-    <row r="363" spans="1:10">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="G363">
+      <c r="G363" s="3">
         <v>5.01</v>
       </c>
-      <c r="H363">
+      <c r="H363" s="2">
         <v>-0.42</v>
       </c>
-      <c r="I363">
+      <c r="I363" s="3">
         <v>4.26</v>
       </c>
       <c r="J363">
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:10">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="G364">
+      <c r="G364" s="2">
         <v>-0.31</v>
       </c>
-      <c r="H364">
+      <c r="H364" s="3">
         <v>0.95</v>
       </c>
-      <c r="I364">
+      <c r="I364" s="3">
         <v>0.21</v>
       </c>
-      <c r="J364">
+      <c r="J364" s="3">
         <v>0.59</v>
       </c>
     </row>
-    <row r="365" spans="1:10">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="F365">
+      <c r="F365" s="3">
         <v>3.14</v>
       </c>
-      <c r="G365">
+      <c r="G365" s="3">
         <v>3.62</v>
       </c>
-      <c r="H365">
+      <c r="H365" s="3">
         <v>3.84</v>
       </c>
-      <c r="I365">
+      <c r="I365" s="3">
         <v>3.02</v>
       </c>
     </row>
-    <row r="366" spans="1:10">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="F366">
+      <c r="F366" s="3">
         <v>3.56</v>
       </c>
-      <c r="G366">
-        <v>4.1</v>
-      </c>
-      <c r="H366">
+      <c r="G366" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H366" s="3">
         <v>4.72</v>
       </c>
-      <c r="I366">
+      <c r="I366" s="3">
         <v>5.43</v>
       </c>
     </row>
-    <row r="367" spans="1:10">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="F367">
+      <c r="F367" s="3">
         <v>3.62</v>
       </c>
-      <c r="G367">
-        <v>2.43</v>
-      </c>
-      <c r="H367">
+      <c r="G367" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="H367" s="3">
         <v>3.26</v>
       </c>
-      <c r="I367">
+      <c r="I367" s="3">
         <v>3.62</v>
       </c>
     </row>
-    <row r="368" spans="1:10">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="G368">
+      <c r="G368" s="3">
         <v>4.71</v>
       </c>
-      <c r="H368">
-        <v>4.65</v>
-      </c>
-      <c r="I368">
+      <c r="H368" s="3">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="I368" s="3">
         <v>4.53</v>
       </c>
       <c r="J368">
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:10">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="G369">
+      <c r="G369" s="3">
         <v>4.97</v>
       </c>
-      <c r="H369">
+      <c r="H369" s="3">
         <v>4.66</v>
       </c>
-      <c r="I369">
+      <c r="I369" s="3">
         <v>5.38</v>
       </c>
-      <c r="J369">
+      <c r="J369" s="3">
         <v>0.83</v>
       </c>
     </row>
-    <row r="370" spans="1:10">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>379</v>
       </c>
@@ -8023,55 +8053,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:10">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="G371">
+      <c r="G371" s="3">
         <v>3.16</v>
       </c>
       <c r="I371">
         <v>0</v>
       </c>
-      <c r="J371">
+      <c r="J371" s="3">
         <v>5.96</v>
       </c>
     </row>
-    <row r="372" spans="1:10">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="G372">
+      <c r="G372" s="3">
         <v>1.48</v>
       </c>
-      <c r="H372">
+      <c r="H372" s="3">
         <v>2.44</v>
       </c>
-      <c r="I372">
+      <c r="I372" s="3">
         <v>4.21</v>
       </c>
-      <c r="J372">
+      <c r="J372" s="3">
         <v>5.27</v>
       </c>
     </row>
-    <row r="373" spans="1:10">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="F373">
-        <v>-2.03</v>
-      </c>
-      <c r="G373">
-        <v>2.01</v>
-      </c>
-      <c r="H373">
+      <c r="F373" s="2">
+        <v>-2.0299999999999998</v>
+      </c>
+      <c r="G373" s="3">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="H373" s="3">
         <v>2.63</v>
       </c>
       <c r="I373">
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:10">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>383</v>
       </c>
@@ -8081,303 +8111,303 @@
       <c r="G374">
         <v>0</v>
       </c>
-      <c r="H374">
+      <c r="H374" s="3">
         <v>2.78</v>
       </c>
-      <c r="I374">
+      <c r="I374" s="3">
         <v>2.66</v>
       </c>
     </row>
-    <row r="375" spans="1:10">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="G375">
+      <c r="G375" s="3">
         <v>2.66</v>
       </c>
-      <c r="H375">
+      <c r="H375" s="3">
         <v>1.36</v>
       </c>
-      <c r="I375">
+      <c r="I375" s="3">
         <v>3.82</v>
       </c>
       <c r="J375">
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:10">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="G376">
-        <v>1.09</v>
-      </c>
-      <c r="H376">
+      <c r="G376" s="3">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="H376" s="3">
         <v>1.29</v>
       </c>
-      <c r="I376">
+      <c r="I376" s="3">
         <v>1.27</v>
       </c>
-      <c r="J376">
+      <c r="J376" s="3">
         <v>3.71</v>
       </c>
     </row>
-    <row r="377" spans="1:10">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="G377">
+      <c r="G377" s="3">
         <v>1.68</v>
       </c>
-      <c r="H377">
+      <c r="H377" s="3">
         <v>1.59</v>
       </c>
-      <c r="I377">
-        <v>1.16</v>
-      </c>
-      <c r="J377">
+      <c r="I377" s="3">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="J377" s="3">
         <v>1.66</v>
       </c>
     </row>
-    <row r="378" spans="1:10">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="F378">
+      <c r="F378" s="3">
         <v>1.25</v>
       </c>
-      <c r="G378">
+      <c r="G378" s="3">
         <v>3.39</v>
       </c>
-      <c r="H378">
+      <c r="H378" s="3">
         <v>1.19</v>
       </c>
-      <c r="I378">
+      <c r="I378" s="3">
         <v>2.37</v>
       </c>
     </row>
-    <row r="379" spans="1:10">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="G379">
+      <c r="G379" s="3">
         <v>3.1</v>
       </c>
-      <c r="H379">
+      <c r="H379" s="3">
         <v>2.78</v>
       </c>
-      <c r="I379">
+      <c r="I379" s="3">
         <v>1.94</v>
       </c>
       <c r="J379">
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:10">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="F380">
-        <v>2.49</v>
-      </c>
-      <c r="G380">
+      <c r="F380" s="3">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="G380" s="3">
         <v>2.31</v>
       </c>
-      <c r="H380">
+      <c r="H380" s="3">
         <v>2.36</v>
       </c>
-      <c r="I380">
+      <c r="I380" s="2">
         <v>-1.53</v>
       </c>
     </row>
-    <row r="381" spans="1:10">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="G381">
+      <c r="G381" s="2">
         <v>-0.2</v>
       </c>
-      <c r="H381">
+      <c r="H381" s="3">
         <v>1.91</v>
       </c>
-      <c r="I381">
+      <c r="I381" s="3">
         <v>2.5</v>
       </c>
-      <c r="J381">
+      <c r="J381" s="3">
         <v>2.77</v>
       </c>
     </row>
-    <row r="382" spans="1:10">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="G382">
+      <c r="G382" s="3">
         <v>3.05</v>
       </c>
-      <c r="H382">
+      <c r="H382" s="3">
         <v>4.34</v>
       </c>
-      <c r="I382">
+      <c r="I382" s="3">
         <v>5.98</v>
       </c>
-      <c r="J382">
+      <c r="J382" s="3">
         <v>5.49</v>
       </c>
     </row>
-    <row r="383" spans="1:10">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="F383">
+      <c r="F383" s="3">
         <v>1.83</v>
       </c>
-      <c r="G383">
+      <c r="G383" s="3">
         <v>1.7</v>
       </c>
       <c r="H383">
         <v>0</v>
       </c>
-      <c r="I383">
+      <c r="I383" s="3">
         <v>2.04</v>
       </c>
     </row>
-    <row r="384" spans="1:10">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="G384">
+      <c r="G384" s="3">
         <v>4.57</v>
       </c>
-      <c r="H384">
+      <c r="H384" s="3">
         <v>3.1</v>
       </c>
-      <c r="I384">
+      <c r="I384" s="2">
         <v>-2.58</v>
       </c>
-      <c r="J384">
+      <c r="J384" s="3">
         <v>5.35</v>
       </c>
     </row>
-    <row r="385" spans="1:10">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="G385">
+      <c r="G385" s="3">
         <v>3.28</v>
       </c>
-      <c r="H385">
+      <c r="H385" s="3">
         <v>1.42</v>
       </c>
-      <c r="I385">
+      <c r="I385" s="3">
         <v>3.75</v>
       </c>
-      <c r="J385">
+      <c r="J385" s="3">
         <v>3.61</v>
       </c>
     </row>
-    <row r="386" spans="1:10">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="G386">
+      <c r="G386" s="3">
         <v>2.6</v>
       </c>
-      <c r="H386">
+      <c r="H386" s="3">
         <v>3</v>
       </c>
-      <c r="I386">
+      <c r="I386" s="3">
         <v>3.2</v>
       </c>
-      <c r="J386">
+      <c r="J386" s="3">
         <v>3.38</v>
       </c>
     </row>
-    <row r="387" spans="1:10">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="F387">
+      <c r="F387" s="3">
         <v>5.48</v>
       </c>
-      <c r="G387">
+      <c r="G387" s="3">
         <v>5.76</v>
       </c>
-      <c r="H387">
-        <v>4.15</v>
-      </c>
-      <c r="I387">
+      <c r="H387" s="3">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="I387" s="3">
         <v>4.21</v>
       </c>
     </row>
-    <row r="388" spans="1:10">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="F388">
+      <c r="F388" s="3">
         <v>3.24</v>
       </c>
-      <c r="G388">
+      <c r="G388" s="3">
         <v>3.53</v>
       </c>
-      <c r="H388">
+      <c r="H388" s="3">
         <v>4.76</v>
       </c>
-      <c r="I388">
+      <c r="I388" s="3">
         <v>4.96</v>
       </c>
     </row>
-    <row r="389" spans="1:10">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="F389">
+      <c r="F389" s="3">
         <v>1.39</v>
       </c>
-      <c r="G389">
+      <c r="G389" s="3">
         <v>1.44</v>
       </c>
-      <c r="H389">
+      <c r="H389" s="3">
         <v>1.58</v>
       </c>
-      <c r="I389">
+      <c r="I389" s="3">
         <v>1.38</v>
       </c>
     </row>
-    <row r="390" spans="1:10">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="G390">
+      <c r="G390" s="3">
         <v>9.84</v>
       </c>
-      <c r="H390">
+      <c r="H390" s="3">
         <v>10.82</v>
       </c>
-      <c r="I390">
+      <c r="I390" s="3">
         <v>10.99</v>
       </c>
       <c r="J390">
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:10">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="F391">
+      <c r="F391" s="3">
         <v>3.89</v>
       </c>
-      <c r="G391">
+      <c r="G391" s="3">
         <v>2.35</v>
       </c>
-      <c r="H391">
+      <c r="H391" s="3">
         <v>2.69</v>
       </c>
-      <c r="I391">
+      <c r="I391" s="3">
         <v>3.03</v>
       </c>
     </row>
-    <row r="392" spans="1:10">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>401</v>
       </c>
@@ -8394,92 +8424,92 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:10">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="F393">
+      <c r="F393" s="3">
         <v>5.33</v>
       </c>
-      <c r="G393">
+      <c r="G393" s="3">
         <v>3.05</v>
       </c>
-      <c r="H393">
+      <c r="H393" s="3">
         <v>6.56</v>
       </c>
-      <c r="I393">
+      <c r="I393" s="3">
         <v>12.5</v>
       </c>
     </row>
-    <row r="394" spans="1:10">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="F394">
+      <c r="F394" s="3">
         <v>1.3</v>
       </c>
-      <c r="G394">
+      <c r="G394" s="3">
         <v>1.3</v>
       </c>
-      <c r="H394">
+      <c r="H394" s="3">
         <v>1.73</v>
       </c>
-      <c r="I394">
+      <c r="I394" s="3">
         <v>1.98</v>
       </c>
     </row>
-    <row r="395" spans="1:10">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="F395">
+      <c r="F395" s="3">
         <v>1.53</v>
       </c>
-      <c r="G395">
+      <c r="G395" s="3">
         <v>1.94</v>
       </c>
-      <c r="H395">
+      <c r="H395" s="3">
         <v>2.61</v>
       </c>
-      <c r="I395">
+      <c r="I395" s="3">
         <v>2.86</v>
       </c>
     </row>
-    <row r="396" spans="1:10">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="F396">
+      <c r="F396" s="3">
         <v>2.1</v>
       </c>
-      <c r="G396">
+      <c r="G396" s="3">
         <v>1.78</v>
       </c>
-      <c r="I396">
+      <c r="I396" s="3">
         <v>2.15</v>
       </c>
-      <c r="J396">
+      <c r="J396" s="3">
         <v>2.52</v>
       </c>
     </row>
-    <row r="397" spans="1:10">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="F397">
+      <c r="F397" s="3">
         <v>1.23</v>
       </c>
-      <c r="G397">
+      <c r="G397" s="3">
         <v>1.54</v>
       </c>
-      <c r="H397">
+      <c r="H397" s="3">
         <v>0.98</v>
       </c>
-      <c r="I397">
+      <c r="I397" s="3">
         <v>1.08</v>
       </c>
     </row>
-    <row r="398" spans="1:10">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>407</v>
       </c>
@@ -8496,160 +8526,160 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:10">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="F399">
-        <v>-2.18</v>
-      </c>
-      <c r="G399">
+      <c r="F399" s="2">
+        <v>-2.1800000000000002</v>
+      </c>
+      <c r="G399" s="3">
         <v>1.64</v>
       </c>
-      <c r="H399">
+      <c r="H399" s="3">
         <v>3.05</v>
       </c>
-      <c r="I399">
+      <c r="I399" s="3">
         <v>19.52</v>
       </c>
     </row>
-    <row r="400" spans="1:10">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="F400">
+      <c r="F400" s="3">
         <v>0.85</v>
       </c>
-      <c r="G400">
+      <c r="G400" s="3">
         <v>0.16</v>
       </c>
-      <c r="H400">
+      <c r="H400" s="3">
         <v>0.6</v>
       </c>
-      <c r="I400">
+      <c r="I400" s="3">
         <v>1.3</v>
       </c>
     </row>
-    <row r="401" spans="1:10">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="F401">
+      <c r="F401" s="3">
         <v>4.57</v>
       </c>
-      <c r="G401">
+      <c r="G401" s="3">
         <v>5.21</v>
       </c>
-      <c r="H401">
+      <c r="H401" s="3">
         <v>5.52</v>
       </c>
-      <c r="I401">
+      <c r="I401" s="3">
         <v>6.89</v>
       </c>
     </row>
-    <row r="402" spans="1:10">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="G402">
+      <c r="G402" s="3">
         <v>2.73</v>
       </c>
       <c r="H402">
         <v>0</v>
       </c>
-      <c r="I402">
+      <c r="I402" s="3">
         <v>4</v>
       </c>
       <c r="J402">
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:10">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="G403">
+      <c r="G403" s="3">
         <v>5.59</v>
       </c>
-      <c r="H403">
+      <c r="H403" s="3">
         <v>5.78</v>
       </c>
-      <c r="I403">
+      <c r="I403" s="3">
         <v>6.1</v>
       </c>
       <c r="J403">
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:10">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="F404">
+      <c r="F404" s="3">
         <v>3.18</v>
       </c>
-      <c r="G404">
+      <c r="G404" s="3">
         <v>3.24</v>
       </c>
-      <c r="H404">
+      <c r="H404" s="3">
         <v>1.62</v>
       </c>
-      <c r="I404">
+      <c r="I404" s="3">
         <v>3.51</v>
       </c>
     </row>
-    <row r="405" spans="1:10">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="G405">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="H405">
+      <c r="G405" s="3">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="H405" s="3">
         <v>5.77</v>
       </c>
-      <c r="I405">
+      <c r="I405" s="3">
         <v>5.51</v>
       </c>
       <c r="J405">
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:10">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="F406">
+      <c r="F406" s="3">
         <v>0.84</v>
       </c>
-      <c r="G406">
-        <v>4.65</v>
-      </c>
-      <c r="H406">
+      <c r="G406" s="3">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="H406" s="3">
         <v>3.31</v>
       </c>
-      <c r="I406">
+      <c r="I406" s="3">
         <v>5.38</v>
       </c>
     </row>
-    <row r="407" spans="1:10">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="G407">
+      <c r="G407" s="3">
         <v>1.63</v>
       </c>
-      <c r="H407">
+      <c r="H407" s="3">
         <v>1.92</v>
       </c>
-      <c r="I407">
+      <c r="I407" s="3">
         <v>1.7</v>
       </c>
-      <c r="J407">
+      <c r="J407" s="3">
         <v>1.79</v>
       </c>
     </row>
-    <row r="408" spans="1:10">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>417</v>
       </c>
@@ -8666,24 +8696,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:10">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="G409">
+      <c r="G409" s="3">
         <v>6.35</v>
       </c>
-      <c r="H409">
+      <c r="H409" s="3">
         <v>6.92</v>
       </c>
-      <c r="I409">
-        <v>8.720000000000001</v>
+      <c r="I409" s="3">
+        <v>8.7200000000000006</v>
       </c>
       <c r="J409">
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:10">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>419</v>
       </c>
@@ -8700,24 +8730,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:10">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="G411">
+      <c r="G411" s="3">
         <v>4.04</v>
       </c>
-      <c r="H411">
+      <c r="H411" s="3">
         <v>3.88</v>
       </c>
-      <c r="I411">
+      <c r="I411" s="3">
         <v>4.13</v>
       </c>
-      <c r="J411">
+      <c r="J411" s="3">
         <v>4.22</v>
       </c>
     </row>
-    <row r="412" spans="1:10">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>421</v>
       </c>
@@ -8727,167 +8757,167 @@
       <c r="G412">
         <v>0</v>
       </c>
-      <c r="I412">
+      <c r="I412" s="3">
         <v>2.42</v>
       </c>
-      <c r="J412">
+      <c r="J412" s="3">
         <v>2.9</v>
       </c>
     </row>
-    <row r="413" spans="1:10">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="G413">
+      <c r="G413" s="3">
         <v>4.93</v>
       </c>
-      <c r="H413">
+      <c r="H413" s="3">
         <v>5.53</v>
       </c>
-      <c r="I413">
+      <c r="I413" s="3">
         <v>4.78</v>
       </c>
-      <c r="J413">
+      <c r="J413" s="3">
         <v>3.63</v>
       </c>
     </row>
-    <row r="414" spans="1:10">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="F414">
+      <c r="F414" s="3">
         <v>3.77</v>
       </c>
-      <c r="G414">
+      <c r="G414" s="3">
         <v>4.99</v>
       </c>
-      <c r="H414">
+      <c r="H414" s="3">
         <v>6.88</v>
       </c>
-      <c r="I414">
+      <c r="I414" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="415" spans="1:10">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="F415">
+      <c r="F415" s="2">
         <v>-0.41</v>
       </c>
-      <c r="G415">
+      <c r="G415" s="3">
         <v>0.19</v>
       </c>
-      <c r="H415">
+      <c r="H415" s="3">
         <v>1.56</v>
       </c>
-      <c r="I415">
+      <c r="I415" s="3">
         <v>1.66</v>
       </c>
     </row>
-    <row r="416" spans="1:10">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="G416">
+      <c r="G416" s="3">
         <v>2.1</v>
       </c>
-      <c r="H416">
+      <c r="H416" s="3">
         <v>4.18</v>
       </c>
-      <c r="I416">
+      <c r="I416" s="3">
         <v>3.61</v>
       </c>
       <c r="J416">
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:10">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="F417">
+      <c r="F417" s="3">
         <v>1.98</v>
       </c>
-      <c r="G417">
-        <v>2.07</v>
-      </c>
-      <c r="H417">
+      <c r="G417" s="3">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="H417" s="3">
         <v>2.41</v>
       </c>
-      <c r="I417">
+      <c r="I417" s="3">
         <v>3.07</v>
       </c>
     </row>
-    <row r="418" spans="1:10">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="F418">
+      <c r="F418" s="3">
         <v>2.04</v>
       </c>
-      <c r="G418">
+      <c r="G418" s="3">
         <v>3.77</v>
       </c>
-      <c r="H418">
+      <c r="H418" s="3">
         <v>2.8</v>
       </c>
-      <c r="I418">
+      <c r="I418" s="3">
         <v>3.29</v>
       </c>
     </row>
-    <row r="419" spans="1:10">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="F419">
+      <c r="F419" s="2">
         <v>-0.5</v>
       </c>
-      <c r="G419">
+      <c r="G419" s="2">
         <v>-1.98</v>
       </c>
-      <c r="H419">
+      <c r="H419" s="2">
         <v>-3.14</v>
       </c>
-      <c r="I419">
+      <c r="I419" s="2">
         <v>-2.31</v>
       </c>
     </row>
-    <row r="420" spans="1:10">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="G420">
+      <c r="G420" s="3">
         <v>1.55</v>
       </c>
-      <c r="H420">
+      <c r="H420" s="3">
         <v>1.62</v>
       </c>
-      <c r="I420">
+      <c r="I420" s="3">
         <v>1.26</v>
       </c>
       <c r="J420">
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:10">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="F421">
+      <c r="F421" s="3">
         <v>0.31</v>
       </c>
-      <c r="G421">
+      <c r="G421" s="3">
         <v>4.01</v>
       </c>
-      <c r="H421">
+      <c r="H421" s="3">
         <v>2.42</v>
       </c>
-      <c r="I421">
+      <c r="I421" s="3">
         <v>4.38</v>
       </c>
     </row>
-    <row r="422" spans="1:10">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>431</v>
       </c>
@@ -8900,96 +8930,96 @@
       <c r="H422">
         <v>0</v>
       </c>
-      <c r="I422">
+      <c r="I422" s="3">
         <v>5.7</v>
       </c>
     </row>
-    <row r="423" spans="1:10">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="G423">
+      <c r="G423" s="3">
         <v>4.07</v>
       </c>
-      <c r="H423">
+      <c r="H423" s="3">
         <v>6.88</v>
       </c>
-      <c r="I423">
+      <c r="I423" s="3">
         <v>6.31</v>
       </c>
-      <c r="J423">
+      <c r="J423" s="3">
         <v>1.01</v>
       </c>
     </row>
-    <row r="424" spans="1:10">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="F424">
+      <c r="F424" s="3">
         <v>2.37</v>
       </c>
-      <c r="G424">
+      <c r="G424" s="3">
         <v>2.54</v>
       </c>
-      <c r="H424">
+      <c r="H424" s="3">
         <v>2.61</v>
       </c>
-      <c r="I424">
+      <c r="I424" s="3">
         <v>2.36</v>
       </c>
     </row>
-    <row r="425" spans="1:10">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="F425">
+      <c r="F425" s="3">
         <v>3.4</v>
       </c>
-      <c r="G425">
+      <c r="G425" s="3">
         <v>3.95</v>
       </c>
-      <c r="H425">
+      <c r="H425" s="3">
         <v>4.17</v>
       </c>
-      <c r="I425">
+      <c r="I425" s="3">
         <v>4.18</v>
       </c>
     </row>
-    <row r="426" spans="1:10">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="G426">
+      <c r="G426" s="3">
         <v>1.48</v>
       </c>
-      <c r="H426">
+      <c r="H426" s="3">
         <v>1.57</v>
       </c>
-      <c r="I426">
+      <c r="I426" s="3">
         <v>1.49</v>
       </c>
-      <c r="J426">
+      <c r="J426" s="3">
         <v>1.55</v>
       </c>
     </row>
-    <row r="427" spans="1:10">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="G427">
+      <c r="G427" s="3">
         <v>10.42</v>
       </c>
-      <c r="H427">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="I427">
-        <v>9.949999999999999</v>
+      <c r="H427" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I427" s="3">
+        <v>9.9499999999999993</v>
       </c>
       <c r="J427">
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:10">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>437</v>
       </c>
@@ -9006,123 +9036,123 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:10">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="G429">
+      <c r="G429" s="3">
         <v>0.21</v>
       </c>
-      <c r="H429">
+      <c r="H429" s="3">
         <v>2.8</v>
       </c>
-      <c r="I429">
+      <c r="I429" s="3">
         <v>1.66</v>
       </c>
       <c r="J429">
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:10">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="F430">
+      <c r="F430" s="3">
         <v>1.39</v>
       </c>
-      <c r="G430">
+      <c r="G430" s="3">
         <v>0.63</v>
       </c>
-      <c r="H430">
+      <c r="H430" s="3">
         <v>2.94</v>
       </c>
-      <c r="I430">
+      <c r="I430" s="2">
         <v>-0.76</v>
       </c>
     </row>
-    <row r="431" spans="1:10">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="G431">
+      <c r="G431" s="3">
         <v>5.04</v>
       </c>
-      <c r="H431">
-        <v>4.9</v>
-      </c>
-      <c r="I431">
+      <c r="H431" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I431" s="3">
         <v>5.07</v>
       </c>
-      <c r="J431">
+      <c r="J431" s="3">
         <v>4.58</v>
       </c>
     </row>
-    <row r="432" spans="1:10">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>441</v>
       </c>
       <c r="H432">
         <v>0</v>
       </c>
-      <c r="I432">
+      <c r="I432" s="3">
         <v>2.97</v>
       </c>
-      <c r="J432">
+      <c r="J432" s="2">
         <v>-1.56</v>
       </c>
     </row>
-    <row r="433" spans="1:10">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="F433">
+      <c r="F433" s="3">
         <v>1.7</v>
       </c>
-      <c r="G433">
+      <c r="G433" s="3">
         <v>1.43</v>
       </c>
-      <c r="H433">
+      <c r="H433" s="3">
         <v>1.6</v>
       </c>
-      <c r="I433">
+      <c r="I433" s="3">
         <v>1.63</v>
       </c>
     </row>
-    <row r="434" spans="1:10">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="F434">
+      <c r="F434" s="3">
         <v>0.71</v>
       </c>
-      <c r="G434">
+      <c r="G434" s="3">
         <v>0.95</v>
       </c>
-      <c r="H434">
+      <c r="H434" s="3">
         <v>3.2</v>
       </c>
-      <c r="I434">
+      <c r="I434" s="3">
         <v>0.89</v>
       </c>
     </row>
-    <row r="435" spans="1:10">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F435">
+      <c r="F435" s="3">
         <v>2.8</v>
       </c>
-      <c r="G435">
+      <c r="G435" s="3">
         <v>3.25</v>
       </c>
-      <c r="H435">
+      <c r="H435" s="3">
         <v>4.22</v>
       </c>
-      <c r="I435">
+      <c r="I435" s="3">
         <v>5.18</v>
       </c>
     </row>
-    <row r="436" spans="1:10">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>445</v>
       </c>
@@ -9139,7 +9169,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="437" spans="1:10">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>446</v>
       </c>
@@ -9156,7 +9186,7 @@
         <v>-25.92</v>
       </c>
     </row>
-    <row r="438" spans="1:10">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>447</v>
       </c>
@@ -9167,13 +9197,13 @@
         <v>1.91</v>
       </c>
       <c r="H438">
-        <v>2.03</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="I438">
         <v>1.94</v>
       </c>
     </row>
-    <row r="439" spans="1:10">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>448</v>
       </c>
@@ -9190,7 +9220,7 @@
         <v>4.22</v>
       </c>
     </row>
-    <row r="440" spans="1:10">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>449</v>
       </c>
@@ -9207,12 +9237,12 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="441" spans="1:10">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>450</v>
       </c>
       <c r="F441">
-        <v>9.699999999999999</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="G441">
         <v>7.37</v>
@@ -9224,24 +9254,24 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="442" spans="1:10">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>451</v>
       </c>
       <c r="F442">
-        <v>2.22</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="G442">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H442">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="I442">
         <v>1.79</v>
       </c>
     </row>
-    <row r="443" spans="1:10">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>452</v>
       </c>
@@ -9258,7 +9288,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="444" spans="1:10">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>453</v>
       </c>
@@ -9275,7 +9305,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="445" spans="1:10">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>454</v>
       </c>
@@ -9289,10 +9319,10 @@
         <v>7.61</v>
       </c>
       <c r="I445">
-        <v>-4.64</v>
-      </c>
-    </row>
-    <row r="446" spans="1:10">
+        <v>-4.6399999999999997</v>
+      </c>
+    </row>
+    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>455</v>
       </c>
@@ -9309,7 +9339,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="447" spans="1:10">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>456</v>
       </c>
@@ -9326,7 +9356,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="448" spans="1:10">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>457</v>
       </c>
@@ -9343,7 +9373,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="449" spans="1:10">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>458</v>
       </c>
@@ -9351,7 +9381,7 @@
         <v>1.01</v>
       </c>
       <c r="H449">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="I449">
         <v>0.68</v>

--- a/earnings_per_share_pivot_table.xlsx
+++ b/earnings_per_share_pivot_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1507" documentId="11_2869E2F47DC3CC36B52C4C8BBD6D1A1B7879E71B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D289DC92-2FD9-4A42-8A1C-E6C7667C572E}"/>
+  <xr:revisionPtr revIDLastSave="1360" documentId="11_2869E2F47DC3CC36B52C4CCA0D6C18477979E71B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{303021E6-5CCA-46DB-8B95-71DE07AB736E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1420,7 +1420,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1436,6 +1436,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA9D08E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3B7FCD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1467,13 +1473,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1874,7 +1881,7 @@
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>0</v>
       </c>
       <c r="G5" s="3">
@@ -1934,7 +1941,7 @@
       <c r="I8" s="3">
         <v>1.26</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1959,7 +1966,7 @@
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <v>0</v>
       </c>
       <c r="G10" s="3">
@@ -2036,7 +2043,7 @@
       <c r="H14" s="3">
         <v>3.34</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2061,7 +2068,7 @@
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="4">
         <v>0</v>
       </c>
       <c r="G16" s="3">
@@ -2104,7 +2111,7 @@
       <c r="I18" s="3">
         <v>2.08</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2121,7 +2128,7 @@
       <c r="I19" s="3">
         <v>2.0699999999999998</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2197,7 +2204,7 @@
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="4">
         <v>0</v>
       </c>
       <c r="H24" s="3">
@@ -2206,7 +2213,7 @@
       <c r="I24" s="3">
         <v>1.6</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2223,7 +2230,7 @@
       <c r="I25" s="3">
         <v>0.68</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2291,7 +2298,7 @@
       <c r="I29" s="3">
         <v>9.15</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2342,7 +2349,7 @@
       <c r="I32" s="3">
         <v>1.28</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2359,7 +2366,7 @@
       <c r="I33" s="3">
         <v>3.93</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2427,7 +2434,7 @@
       <c r="I37" s="2">
         <v>-13.18</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2520,10 +2527,10 @@
       <c r="A43" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
+      <c r="I43" s="4">
+        <v>0</v>
+      </c>
+      <c r="J43" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2531,7 +2538,7 @@
       <c r="A44" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="4">
         <v>0</v>
       </c>
       <c r="G44" s="3">
@@ -2571,10 +2578,10 @@
       <c r="G46" s="3">
         <v>4.91</v>
       </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
+      <c r="H46" s="4">
+        <v>0</v>
+      </c>
+      <c r="I46" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2625,7 +2632,7 @@
       <c r="I49" s="3">
         <v>7.52</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2642,7 +2649,7 @@
       <c r="H50" s="3">
         <v>0.36</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2727,7 +2734,7 @@
       <c r="I55" s="3">
         <v>1.8</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2761,7 +2768,7 @@
       <c r="I57" s="2">
         <v>-4.49</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2778,7 +2785,7 @@
       <c r="I58" s="3">
         <v>15.38</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2863,7 +2870,7 @@
       <c r="I63" s="3">
         <v>2.72</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2948,7 +2955,7 @@
       <c r="I68" s="3">
         <v>3.54</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3016,7 +3023,7 @@
       <c r="I72" s="3">
         <v>2.2599999999999998</v>
       </c>
-      <c r="J72">
+      <c r="J72" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3033,7 +3040,7 @@
       <c r="I73" s="3">
         <v>2.02</v>
       </c>
-      <c r="J73">
+      <c r="J73" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3072,10 +3079,10 @@
       <c r="A76" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
+      <c r="F76" s="4">
+        <v>0</v>
+      </c>
+      <c r="G76" s="4">
         <v>0</v>
       </c>
       <c r="H76" s="3">
@@ -3149,7 +3156,7 @@
       <c r="I80" s="2">
         <v>-2.4300000000000002</v>
       </c>
-      <c r="J80">
+      <c r="J80" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3234,7 +3241,7 @@
       <c r="I85" s="3">
         <v>2.93</v>
       </c>
-      <c r="J85">
+      <c r="J85" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3268,7 +3275,7 @@
       <c r="I87" s="3">
         <v>15.3</v>
       </c>
-      <c r="J87">
+      <c r="J87" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3285,7 +3292,7 @@
       <c r="I88" s="3">
         <v>7.86</v>
       </c>
-      <c r="J88">
+      <c r="J88" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3302,7 +3309,7 @@
       <c r="I89" s="3">
         <v>1.9</v>
       </c>
-      <c r="J89">
+      <c r="J89" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3401,7 +3408,7 @@
       <c r="H95" s="3">
         <v>5.61</v>
       </c>
-      <c r="I95">
+      <c r="I95" s="4">
         <v>0</v>
       </c>
       <c r="J95" s="3">
@@ -3429,16 +3436,16 @@
       <c r="A97" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B97">
-        <v>0</v>
-      </c>
-      <c r="C97">
-        <v>0</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97">
+      <c r="B97" s="4">
+        <v>0</v>
+      </c>
+      <c r="C97" s="4">
+        <v>0</v>
+      </c>
+      <c r="D97" s="4">
+        <v>0</v>
+      </c>
+      <c r="E97" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3497,7 +3504,7 @@
       <c r="A101" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="I101">
+      <c r="I101" s="4">
         <v>0</v>
       </c>
       <c r="J101" s="3">
@@ -3508,7 +3515,7 @@
       <c r="A102" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="4">
         <v>0</v>
       </c>
       <c r="H102" s="3">
@@ -3517,7 +3524,7 @@
       <c r="I102" s="3">
         <v>2</v>
       </c>
-      <c r="J102">
+      <c r="J102" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3585,7 +3592,7 @@
       <c r="I106" s="3">
         <v>2.0099999999999998</v>
       </c>
-      <c r="J106">
+      <c r="J106" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3602,7 +3609,7 @@
       <c r="I107" s="3">
         <v>4.66</v>
       </c>
-      <c r="J107">
+      <c r="J107" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3670,7 +3677,7 @@
       <c r="I111" s="3">
         <v>5.68</v>
       </c>
-      <c r="J111">
+      <c r="J111" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3687,7 +3694,7 @@
       <c r="I112" s="3">
         <v>2.17</v>
       </c>
-      <c r="J112">
+      <c r="J112" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3701,7 +3708,7 @@
       <c r="H113" s="3">
         <v>8.7100000000000009</v>
       </c>
-      <c r="I113">
+      <c r="I113" s="4">
         <v>0</v>
       </c>
       <c r="J113" s="3">
@@ -3820,10 +3827,10 @@
       <c r="H120" s="3">
         <v>0.38</v>
       </c>
-      <c r="I120">
-        <v>0</v>
-      </c>
-      <c r="J120">
+      <c r="I120" s="4">
+        <v>0</v>
+      </c>
+      <c r="J120" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3831,16 +3838,16 @@
       <c r="A121" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G121">
-        <v>0</v>
-      </c>
-      <c r="H121">
-        <v>0</v>
-      </c>
-      <c r="I121">
-        <v>0</v>
-      </c>
-      <c r="J121">
+      <c r="G121" s="4">
+        <v>0</v>
+      </c>
+      <c r="H121" s="4">
+        <v>0</v>
+      </c>
+      <c r="I121" s="4">
+        <v>0</v>
+      </c>
+      <c r="J121" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3857,7 +3864,7 @@
       <c r="I122" s="3">
         <v>5.08</v>
       </c>
-      <c r="J122">
+      <c r="J122" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3925,7 +3932,7 @@
       <c r="I126" s="3">
         <v>5.52</v>
       </c>
-      <c r="J126">
+      <c r="J126" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3942,7 +3949,7 @@
       <c r="I127" s="3">
         <v>4</v>
       </c>
-      <c r="J127">
+      <c r="J127" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4010,7 +4017,7 @@
       <c r="I131" s="2">
         <v>-35.549999999999997</v>
       </c>
-      <c r="J131">
+      <c r="J131" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4044,7 +4051,7 @@
       <c r="I133" s="3">
         <v>1.43</v>
       </c>
-      <c r="J133">
+      <c r="J133" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4078,7 +4085,7 @@
       <c r="I135" s="3">
         <v>4.07</v>
       </c>
-      <c r="J135">
+      <c r="J135" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4231,7 +4238,7 @@
       <c r="I144" s="3">
         <v>0.56000000000000005</v>
       </c>
-      <c r="J144">
+      <c r="J144" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4262,7 +4269,7 @@
       <c r="G146" s="3">
         <v>4.0599999999999996</v>
       </c>
-      <c r="H146">
+      <c r="H146" s="4">
         <v>0</v>
       </c>
       <c r="I146" s="3">
@@ -4344,13 +4351,13 @@
       <c r="G151" s="3">
         <v>0.6</v>
       </c>
-      <c r="H151">
-        <v>0</v>
-      </c>
-      <c r="I151">
-        <v>0</v>
-      </c>
-      <c r="J151">
+      <c r="H151" s="4">
+        <v>0</v>
+      </c>
+      <c r="I151" s="4">
+        <v>0</v>
+      </c>
+      <c r="J151" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4384,7 +4391,7 @@
       <c r="I153" s="3">
         <v>5.87</v>
       </c>
-      <c r="J153">
+      <c r="J153" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4418,7 +4425,7 @@
       <c r="I155" s="3">
         <v>1.86</v>
       </c>
-      <c r="J155">
+      <c r="J155" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4435,7 +4442,7 @@
       <c r="I156" s="3">
         <v>1.77</v>
       </c>
-      <c r="J156">
+      <c r="J156" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4452,7 +4459,7 @@
       <c r="I157" s="3">
         <v>1.31</v>
       </c>
-      <c r="J157">
+      <c r="J157" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4517,7 +4524,7 @@
       <c r="G161" s="3">
         <v>0.94</v>
       </c>
-      <c r="H161">
+      <c r="H161" s="4">
         <v>0</v>
       </c>
       <c r="I161" s="3">
@@ -4622,7 +4629,7 @@
       <c r="I167" s="3">
         <v>2.85</v>
       </c>
-      <c r="J167">
+      <c r="J167" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4639,7 +4646,7 @@
       <c r="I168" s="3">
         <v>2.0099999999999998</v>
       </c>
-      <c r="J168">
+      <c r="J168" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4673,7 +4680,7 @@
       <c r="I170" s="3">
         <v>3.04</v>
       </c>
-      <c r="J170">
+      <c r="J170" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4724,7 +4731,7 @@
       <c r="I173" s="3">
         <v>9.23</v>
       </c>
-      <c r="J173">
+      <c r="J173" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4732,16 +4739,16 @@
       <c r="A174" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F174">
-        <v>0</v>
-      </c>
-      <c r="G174">
-        <v>0</v>
-      </c>
-      <c r="H174">
-        <v>0</v>
-      </c>
-      <c r="I174">
+      <c r="F174" s="4">
+        <v>0</v>
+      </c>
+      <c r="G174" s="4">
+        <v>0</v>
+      </c>
+      <c r="H174" s="4">
+        <v>0</v>
+      </c>
+      <c r="I174" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4792,7 +4799,7 @@
       <c r="I177" s="3">
         <v>1.02</v>
       </c>
-      <c r="J177">
+      <c r="J177" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4809,7 +4816,7 @@
       <c r="I178" s="3">
         <v>6.11</v>
       </c>
-      <c r="J178">
+      <c r="J178" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4894,7 +4901,7 @@
       <c r="I183" s="3">
         <v>1.1399999999999999</v>
       </c>
-      <c r="J183">
+      <c r="J183" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4928,7 +4935,7 @@
       <c r="I185" s="2">
         <v>-0.79</v>
       </c>
-      <c r="J185">
+      <c r="J185" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4936,16 +4943,16 @@
       <c r="A186" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="G186">
-        <v>0</v>
-      </c>
-      <c r="H186">
-        <v>0</v>
-      </c>
-      <c r="I186">
-        <v>0</v>
-      </c>
-      <c r="J186">
+      <c r="G186" s="4">
+        <v>0</v>
+      </c>
+      <c r="H186" s="4">
+        <v>0</v>
+      </c>
+      <c r="I186" s="4">
+        <v>0</v>
+      </c>
+      <c r="J186" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4953,7 +4960,7 @@
       <c r="A187" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F187">
+      <c r="F187" s="4">
         <v>0</v>
       </c>
       <c r="G187" s="3">
@@ -5044,7 +5051,7 @@
       <c r="I192" s="2">
         <v>-1.21</v>
       </c>
-      <c r="J192">
+      <c r="J192" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5146,7 +5153,7 @@
       <c r="I198" s="3">
         <v>6.11</v>
       </c>
-      <c r="J198">
+      <c r="J198" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5171,10 +5178,10 @@
       <c r="A200" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="H200">
-        <v>0</v>
-      </c>
-      <c r="I200">
+      <c r="H200" s="4">
+        <v>0</v>
+      </c>
+      <c r="I200" s="4">
         <v>0</v>
       </c>
       <c r="J200" s="3">
@@ -5191,7 +5198,7 @@
       <c r="H201" s="3">
         <v>2.66</v>
       </c>
-      <c r="I201">
+      <c r="I201" s="4">
         <v>0</v>
       </c>
       <c r="J201" s="3">
@@ -5225,7 +5232,7 @@
       <c r="H203" s="3">
         <v>2.2799999999999998</v>
       </c>
-      <c r="I203">
+      <c r="I203" s="4">
         <v>0</v>
       </c>
       <c r="J203" s="3">
@@ -5287,16 +5294,16 @@
       <c r="A207" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F207">
-        <v>0</v>
-      </c>
-      <c r="G207">
-        <v>0</v>
-      </c>
-      <c r="H207">
-        <v>0</v>
-      </c>
-      <c r="I207">
+      <c r="F207" s="4">
+        <v>0</v>
+      </c>
+      <c r="G207" s="4">
+        <v>0</v>
+      </c>
+      <c r="H207" s="4">
+        <v>0</v>
+      </c>
+      <c r="I207" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5313,7 +5320,7 @@
       <c r="I208" s="3">
         <v>8.5399999999999991</v>
       </c>
-      <c r="J208">
+      <c r="J208" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5381,7 +5388,7 @@
       <c r="J212" s="3">
         <v>3.19</v>
       </c>
-      <c r="K212">
+      <c r="K212" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5398,7 +5405,7 @@
       <c r="I213" s="3">
         <v>2.41</v>
       </c>
-      <c r="J213">
+      <c r="J213" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5483,7 +5490,7 @@
       <c r="I218" s="3">
         <v>15.87</v>
       </c>
-      <c r="J218">
+      <c r="J218" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5500,7 +5507,7 @@
       <c r="I219" s="3">
         <v>5.16</v>
       </c>
-      <c r="J219">
+      <c r="J219" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5627,16 +5634,16 @@
       <c r="A227" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="G227">
-        <v>0</v>
-      </c>
-      <c r="H227">
-        <v>0</v>
-      </c>
-      <c r="I227">
-        <v>0</v>
-      </c>
-      <c r="J227">
+      <c r="G227" s="4">
+        <v>0</v>
+      </c>
+      <c r="H227" s="4">
+        <v>0</v>
+      </c>
+      <c r="I227" s="4">
+        <v>0</v>
+      </c>
+      <c r="J227" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5687,7 +5694,7 @@
       <c r="I230" s="3">
         <v>2.78</v>
       </c>
-      <c r="J230">
+      <c r="J230" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5695,16 +5702,16 @@
       <c r="A231" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="G231">
-        <v>0</v>
-      </c>
-      <c r="H231">
+      <c r="G231" s="4">
+        <v>0</v>
+      </c>
+      <c r="H231" s="4">
         <v>0</v>
       </c>
       <c r="I231" s="3">
         <v>0.1</v>
       </c>
-      <c r="J231">
+      <c r="J231" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5806,7 +5813,7 @@
       <c r="I237" s="3">
         <v>4.41</v>
       </c>
-      <c r="J237">
+      <c r="J237" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5857,7 +5864,7 @@
       <c r="I240" s="3">
         <v>3.87</v>
       </c>
-      <c r="J240">
+      <c r="J240" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5871,10 +5878,10 @@
       <c r="G241" s="3">
         <v>6.36</v>
       </c>
-      <c r="H241">
-        <v>0</v>
-      </c>
-      <c r="I241">
+      <c r="H241" s="4">
+        <v>0</v>
+      </c>
+      <c r="I241" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5885,13 +5892,13 @@
       <c r="F242" s="3">
         <v>0.88</v>
       </c>
-      <c r="G242">
-        <v>0</v>
-      </c>
-      <c r="H242">
-        <v>0</v>
-      </c>
-      <c r="I242">
+      <c r="G242" s="4">
+        <v>0</v>
+      </c>
+      <c r="H242" s="4">
+        <v>0</v>
+      </c>
+      <c r="I242" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5959,7 +5966,7 @@
       <c r="I246" s="3">
         <v>11.62</v>
       </c>
-      <c r="J246">
+      <c r="J246" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6044,7 +6051,7 @@
       <c r="I251" s="3">
         <v>3.3</v>
       </c>
-      <c r="J251">
+      <c r="J251" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6112,7 +6119,7 @@
       <c r="I255" s="3">
         <v>3.36</v>
       </c>
-      <c r="J255">
+      <c r="J255" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6154,7 +6161,7 @@
       <c r="A258" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="F258">
+      <c r="F258" s="4">
         <v>0</v>
       </c>
       <c r="G258" s="3">
@@ -6180,7 +6187,7 @@
       <c r="I259" s="3">
         <v>1.03</v>
       </c>
-      <c r="J259">
+      <c r="J259" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6350,7 +6357,7 @@
       <c r="I269" s="3">
         <v>3.14</v>
       </c>
-      <c r="J269">
+      <c r="J269" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6401,7 +6408,7 @@
       <c r="I272" s="3">
         <v>7.72</v>
       </c>
-      <c r="J272">
+      <c r="J272" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6409,16 +6416,16 @@
       <c r="A273" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F273">
-        <v>0</v>
-      </c>
-      <c r="G273">
-        <v>0</v>
-      </c>
-      <c r="H273">
-        <v>0</v>
-      </c>
-      <c r="I273">
+      <c r="F273" s="4">
+        <v>0</v>
+      </c>
+      <c r="G273" s="4">
+        <v>0</v>
+      </c>
+      <c r="H273" s="4">
+        <v>0</v>
+      </c>
+      <c r="I273" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6469,7 +6476,7 @@
       <c r="I276" s="3">
         <v>2.79</v>
       </c>
-      <c r="J276">
+      <c r="J276" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6571,7 +6578,7 @@
       <c r="I282" s="3">
         <v>12.75</v>
       </c>
-      <c r="J282">
+      <c r="J282" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6616,7 +6623,7 @@
       <c r="H285" s="3">
         <v>2.4900000000000002</v>
       </c>
-      <c r="I285">
+      <c r="I285" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6624,7 +6631,7 @@
       <c r="A286" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G286">
+      <c r="G286" s="4">
         <v>0</v>
       </c>
       <c r="H286" s="3">
@@ -6647,7 +6654,7 @@
       <c r="I287" s="2">
         <v>-6.07</v>
       </c>
-      <c r="J287">
+      <c r="J287" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6715,7 +6722,7 @@
       <c r="I291" s="3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="J291">
+      <c r="J291" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6740,13 +6747,13 @@
       <c r="A293" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="G293">
-        <v>0</v>
-      </c>
-      <c r="H293">
-        <v>0</v>
-      </c>
-      <c r="I293">
+      <c r="G293" s="4">
+        <v>0</v>
+      </c>
+      <c r="H293" s="4">
+        <v>0</v>
+      </c>
+      <c r="I293" s="4">
         <v>0</v>
       </c>
       <c r="J293" s="3">
@@ -6766,7 +6773,7 @@
       <c r="I294" s="3">
         <v>1.55</v>
       </c>
-      <c r="J294">
+      <c r="J294" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6800,7 +6807,7 @@
       <c r="I296" s="3">
         <v>5.13</v>
       </c>
-      <c r="J296">
+      <c r="J296" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6893,16 +6900,16 @@
       <c r="A302" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="G302">
-        <v>0</v>
-      </c>
-      <c r="H302">
-        <v>0</v>
-      </c>
-      <c r="I302">
-        <v>0</v>
-      </c>
-      <c r="J302">
+      <c r="G302" s="4">
+        <v>0</v>
+      </c>
+      <c r="H302" s="4">
+        <v>0</v>
+      </c>
+      <c r="I302" s="4">
+        <v>0</v>
+      </c>
+      <c r="J302" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6910,7 +6917,7 @@
       <c r="A303" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="G303">
+      <c r="G303" s="4">
         <v>0</v>
       </c>
       <c r="H303" s="3">
@@ -6970,7 +6977,7 @@
       <c r="I306" s="3">
         <v>4.43</v>
       </c>
-      <c r="J306">
+      <c r="J306" s="4">
         <v>0</v>
       </c>
     </row>
@@ -7089,7 +7096,7 @@
       <c r="I313" s="3">
         <v>1.81</v>
       </c>
-      <c r="J313">
+      <c r="J313" s="4">
         <v>0</v>
       </c>
     </row>
@@ -7157,7 +7164,7 @@
       <c r="I317" s="3">
         <v>3.71</v>
       </c>
-      <c r="J317">
+      <c r="J317" s="4">
         <v>0</v>
       </c>
     </row>
@@ -7191,7 +7198,7 @@
       <c r="I319" s="3">
         <v>4.1100000000000003</v>
       </c>
-      <c r="J319">
+      <c r="J319" s="4">
         <v>0</v>
       </c>
     </row>
@@ -7199,16 +7206,16 @@
       <c r="A320" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="G320">
-        <v>0</v>
-      </c>
-      <c r="H320">
-        <v>0</v>
-      </c>
-      <c r="I320">
-        <v>0</v>
-      </c>
-      <c r="J320">
+      <c r="G320" s="4">
+        <v>0</v>
+      </c>
+      <c r="H320" s="4">
+        <v>0</v>
+      </c>
+      <c r="I320" s="4">
+        <v>0</v>
+      </c>
+      <c r="J320" s="4">
         <v>0</v>
       </c>
     </row>
@@ -7259,7 +7266,7 @@
       <c r="I323" s="3">
         <v>1.38</v>
       </c>
-      <c r="J323">
+      <c r="J323" s="4">
         <v>0</v>
       </c>
     </row>
@@ -7293,7 +7300,7 @@
       <c r="I325" s="3">
         <v>4.42</v>
       </c>
-      <c r="J325">
+      <c r="J325" s="4">
         <v>0</v>
       </c>
     </row>
@@ -7361,7 +7368,7 @@
       <c r="I329" s="3">
         <v>5.18</v>
       </c>
-      <c r="J329">
+      <c r="J329" s="4">
         <v>0</v>
       </c>
     </row>
@@ -7471,13 +7478,13 @@
       <c r="A336" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="H336">
+      <c r="H336" s="4">
         <v>0</v>
       </c>
       <c r="I336" s="3">
         <v>1</v>
       </c>
-      <c r="J336">
+      <c r="J336" s="4">
         <v>0</v>
       </c>
     </row>
@@ -7502,7 +7509,7 @@
       <c r="A338" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="H338">
+      <c r="H338" s="4">
         <v>0</v>
       </c>
       <c r="I338" s="3">
@@ -7525,7 +7532,7 @@
       <c r="I339" s="3">
         <v>5.75</v>
       </c>
-      <c r="J339">
+      <c r="J339" s="4">
         <v>0</v>
       </c>
     </row>
@@ -7559,7 +7566,7 @@
       <c r="I341" s="3">
         <v>6.17</v>
       </c>
-      <c r="J341">
+      <c r="J341" s="4">
         <v>0</v>
       </c>
     </row>
@@ -7576,7 +7583,7 @@
       <c r="I342" s="3">
         <v>2.72</v>
       </c>
-      <c r="J342">
+      <c r="J342" s="4">
         <v>0</v>
       </c>
     </row>
@@ -7618,16 +7625,16 @@
       <c r="A345" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="G345" s="3">
+      <c r="G345">
         <v>5.43</v>
       </c>
-      <c r="H345" s="3">
+      <c r="H345">
         <v>5.98</v>
       </c>
-      <c r="I345" s="3">
+      <c r="I345">
         <v>6.15</v>
       </c>
-      <c r="J345" s="3">
+      <c r="J345">
         <v>5.6</v>
       </c>
     </row>
@@ -7635,16 +7642,16 @@
       <c r="A346" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="F346" s="3">
+      <c r="F346">
         <v>4.95</v>
       </c>
-      <c r="G346" s="3">
+      <c r="G346">
         <v>5.43</v>
       </c>
-      <c r="H346" s="3">
+      <c r="H346">
         <v>6.47</v>
       </c>
-      <c r="I346" s="3">
+      <c r="I346">
         <v>6.92</v>
       </c>
     </row>
@@ -7652,16 +7659,16 @@
       <c r="A347" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G347" s="3">
+      <c r="G347">
         <v>3.59</v>
       </c>
-      <c r="H347" s="3">
+      <c r="H347">
         <v>3.93</v>
       </c>
-      <c r="I347" s="3">
+      <c r="I347">
         <v>4.47</v>
       </c>
-      <c r="J347" s="3">
+      <c r="J347">
         <v>2.5299999999999998</v>
       </c>
     </row>
@@ -7669,16 +7676,16 @@
       <c r="A348" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="F348" s="3">
+      <c r="F348">
         <v>0.08</v>
       </c>
-      <c r="G348" s="3">
+      <c r="G348">
         <v>0.71</v>
       </c>
-      <c r="H348" s="3">
+      <c r="H348">
         <v>3.81</v>
       </c>
-      <c r="I348" s="2">
+      <c r="I348">
         <v>-4.29</v>
       </c>
     </row>
@@ -7686,13 +7693,13 @@
       <c r="A349" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="G349" s="3">
+      <c r="G349">
         <v>1.63</v>
       </c>
-      <c r="H349" s="3">
+      <c r="H349">
         <v>1.54</v>
       </c>
-      <c r="I349" s="3">
+      <c r="I349">
         <v>2.14</v>
       </c>
       <c r="J349">
@@ -7703,16 +7710,16 @@
       <c r="A350" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="G350" s="3">
+      <c r="G350">
         <v>0.01</v>
       </c>
-      <c r="H350" s="3">
+      <c r="H350">
         <v>2.75</v>
       </c>
-      <c r="I350" s="3">
+      <c r="I350">
         <v>1.84</v>
       </c>
-      <c r="J350" s="3">
+      <c r="J350">
         <v>1.91</v>
       </c>
     </row>
@@ -7720,16 +7727,16 @@
       <c r="A351" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="F351" s="3">
+      <c r="F351">
         <v>3.2</v>
       </c>
-      <c r="G351" s="3">
+      <c r="G351">
         <v>3.4</v>
       </c>
-      <c r="H351" s="3">
+      <c r="H351">
         <v>3.79</v>
       </c>
-      <c r="I351" s="3">
+      <c r="I351">
         <v>5.22</v>
       </c>
     </row>
@@ -7737,16 +7744,16 @@
       <c r="A352" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="F352" s="3">
+      <c r="F352">
         <v>0.69</v>
       </c>
-      <c r="G352" s="3">
+      <c r="G352">
         <v>0.78</v>
       </c>
-      <c r="H352" s="3">
+      <c r="H352">
         <v>0.96</v>
       </c>
-      <c r="I352" s="3">
+      <c r="I352">
         <v>1.04</v>
       </c>
     </row>
@@ -7754,16 +7761,16 @@
       <c r="A353" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="F353" s="3">
+      <c r="F353">
         <v>1.44</v>
       </c>
-      <c r="G353" s="3">
+      <c r="G353">
         <v>1.55</v>
       </c>
-      <c r="H353" s="3">
+      <c r="H353">
         <v>1.61</v>
       </c>
-      <c r="I353" s="3">
+      <c r="I353">
         <v>0.28999999999999998</v>
       </c>
     </row>
@@ -7771,13 +7778,13 @@
       <c r="A354" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="G354" s="3">
+      <c r="G354">
         <v>0.64</v>
       </c>
-      <c r="H354" s="3">
+      <c r="H354">
         <v>1.22</v>
       </c>
-      <c r="I354" s="3">
+      <c r="I354">
         <v>1.63</v>
       </c>
       <c r="J354">
@@ -7788,16 +7795,16 @@
       <c r="A355" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="F355" s="3">
+      <c r="F355">
         <v>6.15</v>
       </c>
-      <c r="G355" s="3">
+      <c r="G355">
         <v>7.41</v>
       </c>
-      <c r="H355" s="3">
+      <c r="H355">
         <v>8.9499999999999993</v>
       </c>
-      <c r="I355" s="3">
+      <c r="I355">
         <v>11.38</v>
       </c>
     </row>
@@ -7805,16 +7812,16 @@
       <c r="A356" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="G356" s="3">
+      <c r="G356">
         <v>4.37</v>
       </c>
-      <c r="H356" s="3">
+      <c r="H356">
         <v>4.59</v>
       </c>
       <c r="I356">
         <v>0</v>
       </c>
-      <c r="J356" s="3">
+      <c r="J356">
         <v>5.89</v>
       </c>
     </row>
@@ -7822,16 +7829,16 @@
       <c r="A357" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="G357" s="3">
+      <c r="G357">
         <v>5</v>
       </c>
-      <c r="H357" s="3">
+      <c r="H357">
         <v>5.42</v>
       </c>
-      <c r="I357" s="3">
+      <c r="I357">
         <v>3.33</v>
       </c>
-      <c r="J357" s="3">
+      <c r="J357">
         <v>5.77</v>
       </c>
     </row>
@@ -7839,16 +7846,16 @@
       <c r="A358" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F358" s="3">
+      <c r="F358">
         <v>1.75</v>
       </c>
-      <c r="G358" s="3">
+      <c r="G358">
         <v>0.39</v>
       </c>
-      <c r="H358" s="3">
+      <c r="H358">
         <v>0.59</v>
       </c>
-      <c r="I358" s="3">
+      <c r="I358">
         <v>1.02</v>
       </c>
     </row>
@@ -7859,10 +7866,10 @@
       <c r="G359">
         <v>0</v>
       </c>
-      <c r="I359" s="3">
+      <c r="I359">
         <v>7.26</v>
       </c>
-      <c r="J359" s="3">
+      <c r="J359">
         <v>8.24</v>
       </c>
     </row>
@@ -7870,16 +7877,16 @@
       <c r="A360" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="F360" s="3">
+      <c r="F360">
         <v>4.4800000000000004</v>
       </c>
-      <c r="G360" s="3">
+      <c r="G360">
         <v>3.43</v>
       </c>
-      <c r="H360" s="3">
+      <c r="H360">
         <v>3.86</v>
       </c>
-      <c r="I360" s="3">
+      <c r="I360">
         <v>4.68</v>
       </c>
     </row>
@@ -7887,16 +7894,16 @@
       <c r="A361" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="F361" s="3">
+      <c r="F361">
         <v>2.7</v>
       </c>
-      <c r="G361" s="3">
+      <c r="G361">
         <v>1.88</v>
       </c>
-      <c r="H361" s="3">
+      <c r="H361">
         <v>2.19</v>
       </c>
-      <c r="I361" s="3">
+      <c r="I361">
         <v>2.6</v>
       </c>
     </row>
@@ -7904,16 +7911,16 @@
       <c r="A362" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="F362" s="3">
+      <c r="F362">
         <v>4.72</v>
       </c>
-      <c r="G362" s="3">
+      <c r="G362">
         <v>4.24</v>
       </c>
-      <c r="H362" s="3">
+      <c r="H362">
         <v>4.5199999999999996</v>
       </c>
-      <c r="I362" s="3">
+      <c r="I362">
         <v>5.88</v>
       </c>
     </row>
@@ -7921,13 +7928,13 @@
       <c r="A363" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="G363" s="3">
+      <c r="G363">
         <v>5.01</v>
       </c>
-      <c r="H363" s="2">
+      <c r="H363">
         <v>-0.42</v>
       </c>
-      <c r="I363" s="3">
+      <c r="I363">
         <v>4.26</v>
       </c>
       <c r="J363">
@@ -7938,16 +7945,16 @@
       <c r="A364" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="G364" s="2">
+      <c r="G364">
         <v>-0.31</v>
       </c>
-      <c r="H364" s="3">
+      <c r="H364">
         <v>0.95</v>
       </c>
-      <c r="I364" s="3">
+      <c r="I364">
         <v>0.21</v>
       </c>
-      <c r="J364" s="3">
+      <c r="J364">
         <v>0.59</v>
       </c>
     </row>
@@ -7955,16 +7962,16 @@
       <c r="A365" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="F365" s="3">
+      <c r="F365">
         <v>3.14</v>
       </c>
-      <c r="G365" s="3">
+      <c r="G365">
         <v>3.62</v>
       </c>
-      <c r="H365" s="3">
+      <c r="H365">
         <v>3.84</v>
       </c>
-      <c r="I365" s="3">
+      <c r="I365">
         <v>3.02</v>
       </c>
     </row>
@@ -7972,16 +7979,16 @@
       <c r="A366" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="F366" s="3">
+      <c r="F366">
         <v>3.56</v>
       </c>
-      <c r="G366" s="3">
+      <c r="G366">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H366" s="3">
+      <c r="H366">
         <v>4.72</v>
       </c>
-      <c r="I366" s="3">
+      <c r="I366">
         <v>5.43</v>
       </c>
     </row>
@@ -7989,16 +7996,16 @@
       <c r="A367" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="F367" s="3">
+      <c r="F367">
         <v>3.62</v>
       </c>
-      <c r="G367" s="3">
+      <c r="G367">
         <v>2.4300000000000002</v>
       </c>
-      <c r="H367" s="3">
+      <c r="H367">
         <v>3.26</v>
       </c>
-      <c r="I367" s="3">
+      <c r="I367">
         <v>3.62</v>
       </c>
     </row>
@@ -8006,13 +8013,13 @@
       <c r="A368" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="G368" s="3">
+      <c r="G368">
         <v>4.71</v>
       </c>
-      <c r="H368" s="3">
+      <c r="H368">
         <v>4.6500000000000004</v>
       </c>
-      <c r="I368" s="3">
+      <c r="I368">
         <v>4.53</v>
       </c>
       <c r="J368">
@@ -8023,16 +8030,16 @@
       <c r="A369" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="G369" s="3">
+      <c r="G369">
         <v>4.97</v>
       </c>
-      <c r="H369" s="3">
+      <c r="H369">
         <v>4.66</v>
       </c>
-      <c r="I369" s="3">
+      <c r="I369">
         <v>5.38</v>
       </c>
-      <c r="J369" s="3">
+      <c r="J369">
         <v>0.83</v>
       </c>
     </row>
@@ -8057,13 +8064,13 @@
       <c r="A371" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="G371" s="3">
+      <c r="G371">
         <v>3.16</v>
       </c>
       <c r="I371">
         <v>0</v>
       </c>
-      <c r="J371" s="3">
+      <c r="J371">
         <v>5.96</v>
       </c>
     </row>
@@ -8071,16 +8078,16 @@
       <c r="A372" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="G372" s="3">
+      <c r="G372">
         <v>1.48</v>
       </c>
-      <c r="H372" s="3">
+      <c r="H372">
         <v>2.44</v>
       </c>
-      <c r="I372" s="3">
+      <c r="I372">
         <v>4.21</v>
       </c>
-      <c r="J372" s="3">
+      <c r="J372">
         <v>5.27</v>
       </c>
     </row>
@@ -8088,13 +8095,13 @@
       <c r="A373" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="F373" s="2">
+      <c r="F373">
         <v>-2.0299999999999998</v>
       </c>
-      <c r="G373" s="3">
+      <c r="G373">
         <v>2.0099999999999998</v>
       </c>
-      <c r="H373" s="3">
+      <c r="H373">
         <v>2.63</v>
       </c>
       <c r="I373">
@@ -8111,10 +8118,10 @@
       <c r="G374">
         <v>0</v>
       </c>
-      <c r="H374" s="3">
+      <c r="H374">
         <v>2.78</v>
       </c>
-      <c r="I374" s="3">
+      <c r="I374">
         <v>2.66</v>
       </c>
     </row>
@@ -8122,13 +8129,13 @@
       <c r="A375" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="G375" s="3">
+      <c r="G375">
         <v>2.66</v>
       </c>
-      <c r="H375" s="3">
+      <c r="H375">
         <v>1.36</v>
       </c>
-      <c r="I375" s="3">
+      <c r="I375">
         <v>3.82</v>
       </c>
       <c r="J375">
@@ -8139,16 +8146,16 @@
       <c r="A376" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="G376" s="3">
+      <c r="G376">
         <v>1.0900000000000001</v>
       </c>
-      <c r="H376" s="3">
+      <c r="H376">
         <v>1.29</v>
       </c>
-      <c r="I376" s="3">
+      <c r="I376">
         <v>1.27</v>
       </c>
-      <c r="J376" s="3">
+      <c r="J376">
         <v>3.71</v>
       </c>
     </row>
@@ -8156,16 +8163,16 @@
       <c r="A377" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="G377" s="3">
+      <c r="G377">
         <v>1.68</v>
       </c>
-      <c r="H377" s="3">
+      <c r="H377">
         <v>1.59</v>
       </c>
-      <c r="I377" s="3">
+      <c r="I377">
         <v>1.1599999999999999</v>
       </c>
-      <c r="J377" s="3">
+      <c r="J377">
         <v>1.66</v>
       </c>
     </row>
@@ -8173,16 +8180,16 @@
       <c r="A378" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="F378" s="3">
+      <c r="F378">
         <v>1.25</v>
       </c>
-      <c r="G378" s="3">
+      <c r="G378">
         <v>3.39</v>
       </c>
-      <c r="H378" s="3">
+      <c r="H378">
         <v>1.19</v>
       </c>
-      <c r="I378" s="3">
+      <c r="I378">
         <v>2.37</v>
       </c>
     </row>
@@ -8190,13 +8197,13 @@
       <c r="A379" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="G379" s="3">
+      <c r="G379">
         <v>3.1</v>
       </c>
-      <c r="H379" s="3">
+      <c r="H379">
         <v>2.78</v>
       </c>
-      <c r="I379" s="3">
+      <c r="I379">
         <v>1.94</v>
       </c>
       <c r="J379">
@@ -8207,16 +8214,16 @@
       <c r="A380" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="F380" s="3">
+      <c r="F380">
         <v>2.4900000000000002</v>
       </c>
-      <c r="G380" s="3">
+      <c r="G380">
         <v>2.31</v>
       </c>
-      <c r="H380" s="3">
+      <c r="H380">
         <v>2.36</v>
       </c>
-      <c r="I380" s="2">
+      <c r="I380">
         <v>-1.53</v>
       </c>
     </row>
@@ -8224,16 +8231,16 @@
       <c r="A381" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="G381" s="2">
+      <c r="G381">
         <v>-0.2</v>
       </c>
-      <c r="H381" s="3">
+      <c r="H381">
         <v>1.91</v>
       </c>
-      <c r="I381" s="3">
+      <c r="I381">
         <v>2.5</v>
       </c>
-      <c r="J381" s="3">
+      <c r="J381">
         <v>2.77</v>
       </c>
     </row>
@@ -8241,16 +8248,16 @@
       <c r="A382" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="G382" s="3">
+      <c r="G382">
         <v>3.05</v>
       </c>
-      <c r="H382" s="3">
+      <c r="H382">
         <v>4.34</v>
       </c>
-      <c r="I382" s="3">
+      <c r="I382">
         <v>5.98</v>
       </c>
-      <c r="J382" s="3">
+      <c r="J382">
         <v>5.49</v>
       </c>
     </row>
@@ -8258,16 +8265,16 @@
       <c r="A383" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="F383" s="3">
+      <c r="F383">
         <v>1.83</v>
       </c>
-      <c r="G383" s="3">
+      <c r="G383">
         <v>1.7</v>
       </c>
       <c r="H383">
         <v>0</v>
       </c>
-      <c r="I383" s="3">
+      <c r="I383">
         <v>2.04</v>
       </c>
     </row>
@@ -8275,16 +8282,16 @@
       <c r="A384" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="G384" s="3">
+      <c r="G384">
         <v>4.57</v>
       </c>
-      <c r="H384" s="3">
+      <c r="H384">
         <v>3.1</v>
       </c>
-      <c r="I384" s="2">
+      <c r="I384">
         <v>-2.58</v>
       </c>
-      <c r="J384" s="3">
+      <c r="J384">
         <v>5.35</v>
       </c>
     </row>
@@ -8292,16 +8299,16 @@
       <c r="A385" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="G385" s="3">
+      <c r="G385">
         <v>3.28</v>
       </c>
-      <c r="H385" s="3">
+      <c r="H385">
         <v>1.42</v>
       </c>
-      <c r="I385" s="3">
+      <c r="I385">
         <v>3.75</v>
       </c>
-      <c r="J385" s="3">
+      <c r="J385">
         <v>3.61</v>
       </c>
     </row>
@@ -8309,16 +8316,16 @@
       <c r="A386" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="G386" s="3">
+      <c r="G386">
         <v>2.6</v>
       </c>
-      <c r="H386" s="3">
+      <c r="H386">
         <v>3</v>
       </c>
-      <c r="I386" s="3">
+      <c r="I386">
         <v>3.2</v>
       </c>
-      <c r="J386" s="3">
+      <c r="J386">
         <v>3.38</v>
       </c>
     </row>
@@ -8326,16 +8333,16 @@
       <c r="A387" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="F387" s="3">
+      <c r="F387">
         <v>5.48</v>
       </c>
-      <c r="G387" s="3">
+      <c r="G387">
         <v>5.76</v>
       </c>
-      <c r="H387" s="3">
+      <c r="H387">
         <v>4.1500000000000004</v>
       </c>
-      <c r="I387" s="3">
+      <c r="I387">
         <v>4.21</v>
       </c>
     </row>
@@ -8343,16 +8350,16 @@
       <c r="A388" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="F388" s="3">
+      <c r="F388">
         <v>3.24</v>
       </c>
-      <c r="G388" s="3">
+      <c r="G388">
         <v>3.53</v>
       </c>
-      <c r="H388" s="3">
+      <c r="H388">
         <v>4.76</v>
       </c>
-      <c r="I388" s="3">
+      <c r="I388">
         <v>4.96</v>
       </c>
     </row>
@@ -8360,16 +8367,16 @@
       <c r="A389" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="F389" s="3">
+      <c r="F389">
         <v>1.39</v>
       </c>
-      <c r="G389" s="3">
+      <c r="G389">
         <v>1.44</v>
       </c>
-      <c r="H389" s="3">
+      <c r="H389">
         <v>1.58</v>
       </c>
-      <c r="I389" s="3">
+      <c r="I389">
         <v>1.38</v>
       </c>
     </row>
@@ -8377,13 +8384,13 @@
       <c r="A390" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="G390" s="3">
+      <c r="G390">
         <v>9.84</v>
       </c>
-      <c r="H390" s="3">
+      <c r="H390">
         <v>10.82</v>
       </c>
-      <c r="I390" s="3">
+      <c r="I390">
         <v>10.99</v>
       </c>
       <c r="J390">
@@ -8394,16 +8401,16 @@
       <c r="A391" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="F391" s="3">
+      <c r="F391">
         <v>3.89</v>
       </c>
-      <c r="G391" s="3">
+      <c r="G391">
         <v>2.35</v>
       </c>
-      <c r="H391" s="3">
+      <c r="H391">
         <v>2.69</v>
       </c>
-      <c r="I391" s="3">
+      <c r="I391">
         <v>3.03</v>
       </c>
     </row>
@@ -8428,16 +8435,16 @@
       <c r="A393" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="F393" s="3">
+      <c r="F393">
         <v>5.33</v>
       </c>
-      <c r="G393" s="3">
+      <c r="G393">
         <v>3.05</v>
       </c>
-      <c r="H393" s="3">
+      <c r="H393">
         <v>6.56</v>
       </c>
-      <c r="I393" s="3">
+      <c r="I393">
         <v>12.5</v>
       </c>
     </row>
@@ -8445,16 +8452,16 @@
       <c r="A394" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="F394" s="3">
+      <c r="F394">
         <v>1.3</v>
       </c>
-      <c r="G394" s="3">
+      <c r="G394">
         <v>1.3</v>
       </c>
-      <c r="H394" s="3">
+      <c r="H394">
         <v>1.73</v>
       </c>
-      <c r="I394" s="3">
+      <c r="I394">
         <v>1.98</v>
       </c>
     </row>
@@ -8462,16 +8469,16 @@
       <c r="A395" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="F395" s="3">
+      <c r="F395">
         <v>1.53</v>
       </c>
-      <c r="G395" s="3">
+      <c r="G395">
         <v>1.94</v>
       </c>
-      <c r="H395" s="3">
+      <c r="H395">
         <v>2.61</v>
       </c>
-      <c r="I395" s="3">
+      <c r="I395">
         <v>2.86</v>
       </c>
     </row>
@@ -8479,16 +8486,16 @@
       <c r="A396" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="F396" s="3">
+      <c r="F396">
         <v>2.1</v>
       </c>
-      <c r="G396" s="3">
+      <c r="G396">
         <v>1.78</v>
       </c>
-      <c r="I396" s="3">
+      <c r="I396">
         <v>2.15</v>
       </c>
-      <c r="J396" s="3">
+      <c r="J396">
         <v>2.52</v>
       </c>
     </row>
@@ -8496,16 +8503,16 @@
       <c r="A397" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="F397" s="3">
+      <c r="F397">
         <v>1.23</v>
       </c>
-      <c r="G397" s="3">
+      <c r="G397">
         <v>1.54</v>
       </c>
-      <c r="H397" s="3">
+      <c r="H397">
         <v>0.98</v>
       </c>
-      <c r="I397" s="3">
+      <c r="I397">
         <v>1.08</v>
       </c>
     </row>
@@ -8530,16 +8537,16 @@
       <c r="A399" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="F399" s="2">
+      <c r="F399">
         <v>-2.1800000000000002</v>
       </c>
-      <c r="G399" s="3">
+      <c r="G399">
         <v>1.64</v>
       </c>
-      <c r="H399" s="3">
+      <c r="H399">
         <v>3.05</v>
       </c>
-      <c r="I399" s="3">
+      <c r="I399">
         <v>19.52</v>
       </c>
     </row>
@@ -8547,16 +8554,16 @@
       <c r="A400" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="F400" s="3">
+      <c r="F400">
         <v>0.85</v>
       </c>
-      <c r="G400" s="3">
+      <c r="G400">
         <v>0.16</v>
       </c>
-      <c r="H400" s="3">
+      <c r="H400">
         <v>0.6</v>
       </c>
-      <c r="I400" s="3">
+      <c r="I400">
         <v>1.3</v>
       </c>
     </row>
@@ -8564,16 +8571,16 @@
       <c r="A401" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="F401" s="3">
+      <c r="F401">
         <v>4.57</v>
       </c>
-      <c r="G401" s="3">
+      <c r="G401">
         <v>5.21</v>
       </c>
-      <c r="H401" s="3">
+      <c r="H401">
         <v>5.52</v>
       </c>
-      <c r="I401" s="3">
+      <c r="I401">
         <v>6.89</v>
       </c>
     </row>
@@ -8581,13 +8588,13 @@
       <c r="A402" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="G402" s="3">
+      <c r="G402">
         <v>2.73</v>
       </c>
       <c r="H402">
         <v>0</v>
       </c>
-      <c r="I402" s="3">
+      <c r="I402">
         <v>4</v>
       </c>
       <c r="J402">
@@ -8598,13 +8605,13 @@
       <c r="A403" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="G403" s="3">
+      <c r="G403">
         <v>5.59</v>
       </c>
-      <c r="H403" s="3">
+      <c r="H403">
         <v>5.78</v>
       </c>
-      <c r="I403" s="3">
+      <c r="I403">
         <v>6.1</v>
       </c>
       <c r="J403">
@@ -8615,16 +8622,16 @@
       <c r="A404" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="F404" s="3">
+      <c r="F404">
         <v>3.18</v>
       </c>
-      <c r="G404" s="3">
+      <c r="G404">
         <v>3.24</v>
       </c>
-      <c r="H404" s="3">
+      <c r="H404">
         <v>1.62</v>
       </c>
-      <c r="I404" s="3">
+      <c r="I404">
         <v>3.51</v>
       </c>
     </row>
@@ -8632,13 +8639,13 @@
       <c r="A405" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="G405" s="3">
+      <c r="G405">
         <v>9.4700000000000006</v>
       </c>
-      <c r="H405" s="3">
+      <c r="H405">
         <v>5.77</v>
       </c>
-      <c r="I405" s="3">
+      <c r="I405">
         <v>5.51</v>
       </c>
       <c r="J405">
@@ -8649,16 +8656,16 @@
       <c r="A406" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="F406" s="3">
+      <c r="F406">
         <v>0.84</v>
       </c>
-      <c r="G406" s="3">
+      <c r="G406">
         <v>4.6500000000000004</v>
       </c>
-      <c r="H406" s="3">
+      <c r="H406">
         <v>3.31</v>
       </c>
-      <c r="I406" s="3">
+      <c r="I406">
         <v>5.38</v>
       </c>
     </row>
@@ -8666,16 +8673,16 @@
       <c r="A407" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="G407" s="3">
+      <c r="G407">
         <v>1.63</v>
       </c>
-      <c r="H407" s="3">
+      <c r="H407">
         <v>1.92</v>
       </c>
-      <c r="I407" s="3">
+      <c r="I407">
         <v>1.7</v>
       </c>
-      <c r="J407" s="3">
+      <c r="J407">
         <v>1.79</v>
       </c>
     </row>
@@ -8700,13 +8707,13 @@
       <c r="A409" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="G409" s="3">
+      <c r="G409">
         <v>6.35</v>
       </c>
-      <c r="H409" s="3">
+      <c r="H409">
         <v>6.92</v>
       </c>
-      <c r="I409" s="3">
+      <c r="I409">
         <v>8.7200000000000006</v>
       </c>
       <c r="J409">
@@ -8734,16 +8741,16 @@
       <c r="A411" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="G411" s="3">
+      <c r="G411">
         <v>4.04</v>
       </c>
-      <c r="H411" s="3">
+      <c r="H411">
         <v>3.88</v>
       </c>
-      <c r="I411" s="3">
+      <c r="I411">
         <v>4.13</v>
       </c>
-      <c r="J411" s="3">
+      <c r="J411">
         <v>4.22</v>
       </c>
     </row>
@@ -8757,10 +8764,10 @@
       <c r="G412">
         <v>0</v>
       </c>
-      <c r="I412" s="3">
+      <c r="I412">
         <v>2.42</v>
       </c>
-      <c r="J412" s="3">
+      <c r="J412">
         <v>2.9</v>
       </c>
     </row>
@@ -8768,16 +8775,16 @@
       <c r="A413" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="G413" s="3">
+      <c r="G413">
         <v>4.93</v>
       </c>
-      <c r="H413" s="3">
+      <c r="H413">
         <v>5.53</v>
       </c>
-      <c r="I413" s="3">
+      <c r="I413">
         <v>4.78</v>
       </c>
-      <c r="J413" s="3">
+      <c r="J413">
         <v>3.63</v>
       </c>
     </row>
@@ -8785,16 +8792,16 @@
       <c r="A414" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="F414" s="3">
+      <c r="F414">
         <v>3.77</v>
       </c>
-      <c r="G414" s="3">
+      <c r="G414">
         <v>4.99</v>
       </c>
-      <c r="H414" s="3">
+      <c r="H414">
         <v>6.88</v>
       </c>
-      <c r="I414" s="3">
+      <c r="I414">
         <v>8</v>
       </c>
     </row>
@@ -8802,16 +8809,16 @@
       <c r="A415" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="F415" s="2">
+      <c r="F415">
         <v>-0.41</v>
       </c>
-      <c r="G415" s="3">
+      <c r="G415">
         <v>0.19</v>
       </c>
-      <c r="H415" s="3">
+      <c r="H415">
         <v>1.56</v>
       </c>
-      <c r="I415" s="3">
+      <c r="I415">
         <v>1.66</v>
       </c>
     </row>
@@ -8819,13 +8826,13 @@
       <c r="A416" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="G416" s="3">
+      <c r="G416">
         <v>2.1</v>
       </c>
-      <c r="H416" s="3">
+      <c r="H416">
         <v>4.18</v>
       </c>
-      <c r="I416" s="3">
+      <c r="I416">
         <v>3.61</v>
       </c>
       <c r="J416">
@@ -8836,16 +8843,16 @@
       <c r="A417" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="F417" s="3">
+      <c r="F417">
         <v>1.98</v>
       </c>
-      <c r="G417" s="3">
+      <c r="G417">
         <v>2.0699999999999998</v>
       </c>
-      <c r="H417" s="3">
+      <c r="H417">
         <v>2.41</v>
       </c>
-      <c r="I417" s="3">
+      <c r="I417">
         <v>3.07</v>
       </c>
     </row>
@@ -8853,16 +8860,16 @@
       <c r="A418" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="F418" s="3">
+      <c r="F418">
         <v>2.04</v>
       </c>
-      <c r="G418" s="3">
+      <c r="G418">
         <v>3.77</v>
       </c>
-      <c r="H418" s="3">
+      <c r="H418">
         <v>2.8</v>
       </c>
-      <c r="I418" s="3">
+      <c r="I418">
         <v>3.29</v>
       </c>
     </row>
@@ -8870,16 +8877,16 @@
       <c r="A419" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="F419" s="2">
+      <c r="F419">
         <v>-0.5</v>
       </c>
-      <c r="G419" s="2">
+      <c r="G419">
         <v>-1.98</v>
       </c>
-      <c r="H419" s="2">
+      <c r="H419">
         <v>-3.14</v>
       </c>
-      <c r="I419" s="2">
+      <c r="I419">
         <v>-2.31</v>
       </c>
     </row>
@@ -8887,13 +8894,13 @@
       <c r="A420" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="G420" s="3">
+      <c r="G420">
         <v>1.55</v>
       </c>
-      <c r="H420" s="3">
+      <c r="H420">
         <v>1.62</v>
       </c>
-      <c r="I420" s="3">
+      <c r="I420">
         <v>1.26</v>
       </c>
       <c r="J420">
@@ -8904,16 +8911,16 @@
       <c r="A421" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="F421" s="3">
+      <c r="F421">
         <v>0.31</v>
       </c>
-      <c r="G421" s="3">
+      <c r="G421">
         <v>4.01</v>
       </c>
-      <c r="H421" s="3">
+      <c r="H421">
         <v>2.42</v>
       </c>
-      <c r="I421" s="3">
+      <c r="I421">
         <v>4.38</v>
       </c>
     </row>
@@ -8930,7 +8937,7 @@
       <c r="H422">
         <v>0</v>
       </c>
-      <c r="I422" s="3">
+      <c r="I422">
         <v>5.7</v>
       </c>
     </row>
@@ -8938,16 +8945,16 @@
       <c r="A423" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="G423" s="3">
+      <c r="G423">
         <v>4.07</v>
       </c>
-      <c r="H423" s="3">
+      <c r="H423">
         <v>6.88</v>
       </c>
-      <c r="I423" s="3">
+      <c r="I423">
         <v>6.31</v>
       </c>
-      <c r="J423" s="3">
+      <c r="J423">
         <v>1.01</v>
       </c>
     </row>
@@ -8955,16 +8962,16 @@
       <c r="A424" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="F424" s="3">
+      <c r="F424">
         <v>2.37</v>
       </c>
-      <c r="G424" s="3">
+      <c r="G424">
         <v>2.54</v>
       </c>
-      <c r="H424" s="3">
+      <c r="H424">
         <v>2.61</v>
       </c>
-      <c r="I424" s="3">
+      <c r="I424">
         <v>2.36</v>
       </c>
     </row>
@@ -8972,16 +8979,16 @@
       <c r="A425" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="F425" s="3">
+      <c r="F425">
         <v>3.4</v>
       </c>
-      <c r="G425" s="3">
+      <c r="G425">
         <v>3.95</v>
       </c>
-      <c r="H425" s="3">
+      <c r="H425">
         <v>4.17</v>
       </c>
-      <c r="I425" s="3">
+      <c r="I425">
         <v>4.18</v>
       </c>
     </row>
@@ -8989,16 +8996,16 @@
       <c r="A426" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="G426" s="3">
+      <c r="G426">
         <v>1.48</v>
       </c>
-      <c r="H426" s="3">
+      <c r="H426">
         <v>1.57</v>
       </c>
-      <c r="I426" s="3">
+      <c r="I426">
         <v>1.49</v>
       </c>
-      <c r="J426" s="3">
+      <c r="J426">
         <v>1.55</v>
       </c>
     </row>
@@ -9006,13 +9013,13 @@
       <c r="A427" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="G427" s="3">
+      <c r="G427">
         <v>10.42</v>
       </c>
-      <c r="H427" s="3">
+      <c r="H427">
         <v>8.3000000000000007</v>
       </c>
-      <c r="I427" s="3">
+      <c r="I427">
         <v>9.9499999999999993</v>
       </c>
       <c r="J427">
@@ -9040,13 +9047,13 @@
       <c r="A429" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="G429" s="3">
+      <c r="G429">
         <v>0.21</v>
       </c>
-      <c r="H429" s="3">
+      <c r="H429">
         <v>2.8</v>
       </c>
-      <c r="I429" s="3">
+      <c r="I429">
         <v>1.66</v>
       </c>
       <c r="J429">
@@ -9057,16 +9064,16 @@
       <c r="A430" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="F430" s="3">
+      <c r="F430">
         <v>1.39</v>
       </c>
-      <c r="G430" s="3">
+      <c r="G430">
         <v>0.63</v>
       </c>
-      <c r="H430" s="3">
+      <c r="H430">
         <v>2.94</v>
       </c>
-      <c r="I430" s="2">
+      <c r="I430">
         <v>-0.76</v>
       </c>
     </row>
@@ -9074,16 +9081,16 @@
       <c r="A431" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="G431" s="3">
+      <c r="G431">
         <v>5.04</v>
       </c>
-      <c r="H431" s="3">
+      <c r="H431">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I431" s="3">
+      <c r="I431">
         <v>5.07</v>
       </c>
-      <c r="J431" s="3">
+      <c r="J431">
         <v>4.58</v>
       </c>
     </row>
@@ -9094,10 +9101,10 @@
       <c r="H432">
         <v>0</v>
       </c>
-      <c r="I432" s="3">
+      <c r="I432">
         <v>2.97</v>
       </c>
-      <c r="J432" s="2">
+      <c r="J432">
         <v>-1.56</v>
       </c>
     </row>
@@ -9105,16 +9112,16 @@
       <c r="A433" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="F433" s="3">
+      <c r="F433">
         <v>1.7</v>
       </c>
-      <c r="G433" s="3">
+      <c r="G433">
         <v>1.43</v>
       </c>
-      <c r="H433" s="3">
+      <c r="H433">
         <v>1.6</v>
       </c>
-      <c r="I433" s="3">
+      <c r="I433">
         <v>1.63</v>
       </c>
     </row>
@@ -9122,16 +9129,16 @@
       <c r="A434" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="F434" s="3">
+      <c r="F434">
         <v>0.71</v>
       </c>
-      <c r="G434" s="3">
+      <c r="G434">
         <v>0.95</v>
       </c>
-      <c r="H434" s="3">
+      <c r="H434">
         <v>3.2</v>
       </c>
-      <c r="I434" s="3">
+      <c r="I434">
         <v>0.89</v>
       </c>
     </row>
@@ -9139,16 +9146,16 @@
       <c r="A435" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F435" s="3">
+      <c r="F435">
         <v>2.8</v>
       </c>
-      <c r="G435" s="3">
+      <c r="G435">
         <v>3.25</v>
       </c>
-      <c r="H435" s="3">
+      <c r="H435">
         <v>4.22</v>
       </c>
-      <c r="I435" s="3">
+      <c r="I435">
         <v>5.18</v>
       </c>
     </row>

--- a/earnings_per_share_pivot_table.xlsx
+++ b/earnings_per_share_pivot_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1360" documentId="11_2869E2F47DC3CC36B52C4CCA0D6C18477979E71B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{303021E6-5CCA-46DB-8B95-71DE07AB736E}"/>
+  <xr:revisionPtr revIDLastSave="1696" documentId="11_2869E2F47DC3CC36B52C4CCA0D6C18477979E71B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{822025D0-3986-4F78-9402-8FFE8B998BD5}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1496,6 +1496,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7625,16 +7629,16 @@
       <c r="A345" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="G345">
+      <c r="G345" s="3">
         <v>5.43</v>
       </c>
-      <c r="H345">
+      <c r="H345" s="3">
         <v>5.98</v>
       </c>
-      <c r="I345">
+      <c r="I345" s="3">
         <v>6.15</v>
       </c>
-      <c r="J345">
+      <c r="J345" s="3">
         <v>5.6</v>
       </c>
     </row>
@@ -7642,16 +7646,16 @@
       <c r="A346" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="F346">
+      <c r="F346" s="3">
         <v>4.95</v>
       </c>
-      <c r="G346">
+      <c r="G346" s="3">
         <v>5.43</v>
       </c>
-      <c r="H346">
+      <c r="H346" s="3">
         <v>6.47</v>
       </c>
-      <c r="I346">
+      <c r="I346" s="3">
         <v>6.92</v>
       </c>
     </row>
@@ -7659,16 +7663,16 @@
       <c r="A347" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G347">
+      <c r="G347" s="3">
         <v>3.59</v>
       </c>
-      <c r="H347">
+      <c r="H347" s="3">
         <v>3.93</v>
       </c>
-      <c r="I347">
+      <c r="I347" s="3">
         <v>4.47</v>
       </c>
-      <c r="J347">
+      <c r="J347" s="3">
         <v>2.5299999999999998</v>
       </c>
     </row>
@@ -7676,16 +7680,16 @@
       <c r="A348" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="F348">
+      <c r="F348" s="3">
         <v>0.08</v>
       </c>
-      <c r="G348">
+      <c r="G348" s="3">
         <v>0.71</v>
       </c>
-      <c r="H348">
+      <c r="H348" s="3">
         <v>3.81</v>
       </c>
-      <c r="I348">
+      <c r="I348" s="2">
         <v>-4.29</v>
       </c>
     </row>
@@ -7693,16 +7697,16 @@
       <c r="A349" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="G349">
+      <c r="G349" s="3">
         <v>1.63</v>
       </c>
-      <c r="H349">
+      <c r="H349" s="3">
         <v>1.54</v>
       </c>
-      <c r="I349">
+      <c r="I349" s="3">
         <v>2.14</v>
       </c>
-      <c r="J349">
+      <c r="J349" s="4">
         <v>0</v>
       </c>
     </row>
@@ -7710,16 +7714,16 @@
       <c r="A350" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="G350">
+      <c r="G350" s="3">
         <v>0.01</v>
       </c>
-      <c r="H350">
+      <c r="H350" s="3">
         <v>2.75</v>
       </c>
-      <c r="I350">
+      <c r="I350" s="3">
         <v>1.84</v>
       </c>
-      <c r="J350">
+      <c r="J350" s="3">
         <v>1.91</v>
       </c>
     </row>
@@ -7727,16 +7731,16 @@
       <c r="A351" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="F351">
+      <c r="F351" s="3">
         <v>3.2</v>
       </c>
-      <c r="G351">
+      <c r="G351" s="3">
         <v>3.4</v>
       </c>
-      <c r="H351">
+      <c r="H351" s="3">
         <v>3.79</v>
       </c>
-      <c r="I351">
+      <c r="I351" s="3">
         <v>5.22</v>
       </c>
     </row>
@@ -7744,16 +7748,16 @@
       <c r="A352" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="F352">
+      <c r="F352" s="3">
         <v>0.69</v>
       </c>
-      <c r="G352">
+      <c r="G352" s="3">
         <v>0.78</v>
       </c>
-      <c r="H352">
+      <c r="H352" s="3">
         <v>0.96</v>
       </c>
-      <c r="I352">
+      <c r="I352" s="3">
         <v>1.04</v>
       </c>
     </row>
@@ -7761,16 +7765,16 @@
       <c r="A353" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="F353">
+      <c r="F353" s="3">
         <v>1.44</v>
       </c>
-      <c r="G353">
+      <c r="G353" s="3">
         <v>1.55</v>
       </c>
-      <c r="H353">
+      <c r="H353" s="3">
         <v>1.61</v>
       </c>
-      <c r="I353">
+      <c r="I353" s="3">
         <v>0.28999999999999998</v>
       </c>
     </row>
@@ -7778,16 +7782,16 @@
       <c r="A354" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="G354">
+      <c r="G354" s="3">
         <v>0.64</v>
       </c>
-      <c r="H354">
+      <c r="H354" s="3">
         <v>1.22</v>
       </c>
-      <c r="I354">
+      <c r="I354" s="3">
         <v>1.63</v>
       </c>
-      <c r="J354">
+      <c r="J354" s="4">
         <v>0</v>
       </c>
     </row>
@@ -7795,16 +7799,16 @@
       <c r="A355" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="F355">
+      <c r="F355" s="3">
         <v>6.15</v>
       </c>
-      <c r="G355">
+      <c r="G355" s="3">
         <v>7.41</v>
       </c>
-      <c r="H355">
+      <c r="H355" s="3">
         <v>8.9499999999999993</v>
       </c>
-      <c r="I355">
+      <c r="I355" s="3">
         <v>11.38</v>
       </c>
     </row>
@@ -7812,16 +7816,16 @@
       <c r="A356" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="G356">
+      <c r="G356" s="3">
         <v>4.37</v>
       </c>
-      <c r="H356">
+      <c r="H356" s="3">
         <v>4.59</v>
       </c>
-      <c r="I356">
-        <v>0</v>
-      </c>
-      <c r="J356">
+      <c r="I356" s="4">
+        <v>0</v>
+      </c>
+      <c r="J356" s="3">
         <v>5.89</v>
       </c>
     </row>
@@ -7829,16 +7833,16 @@
       <c r="A357" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="G357">
+      <c r="G357" s="3">
         <v>5</v>
       </c>
-      <c r="H357">
+      <c r="H357" s="3">
         <v>5.42</v>
       </c>
-      <c r="I357">
+      <c r="I357" s="3">
         <v>3.33</v>
       </c>
-      <c r="J357">
+      <c r="J357" s="3">
         <v>5.77</v>
       </c>
     </row>
@@ -7846,16 +7850,16 @@
       <c r="A358" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F358">
+      <c r="F358" s="3">
         <v>1.75</v>
       </c>
-      <c r="G358">
+      <c r="G358" s="3">
         <v>0.39</v>
       </c>
-      <c r="H358">
+      <c r="H358" s="3">
         <v>0.59</v>
       </c>
-      <c r="I358">
+      <c r="I358" s="3">
         <v>1.02</v>
       </c>
     </row>
@@ -7863,13 +7867,13 @@
       <c r="A359" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="G359">
-        <v>0</v>
-      </c>
-      <c r="I359">
+      <c r="G359" s="4">
+        <v>0</v>
+      </c>
+      <c r="I359" s="3">
         <v>7.26</v>
       </c>
-      <c r="J359">
+      <c r="J359" s="3">
         <v>8.24</v>
       </c>
     </row>
@@ -7877,16 +7881,16 @@
       <c r="A360" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="F360">
+      <c r="F360" s="3">
         <v>4.4800000000000004</v>
       </c>
-      <c r="G360">
+      <c r="G360" s="3">
         <v>3.43</v>
       </c>
-      <c r="H360">
+      <c r="H360" s="3">
         <v>3.86</v>
       </c>
-      <c r="I360">
+      <c r="I360" s="3">
         <v>4.68</v>
       </c>
     </row>
@@ -7894,16 +7898,16 @@
       <c r="A361" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="F361">
+      <c r="F361" s="3">
         <v>2.7</v>
       </c>
-      <c r="G361">
+      <c r="G361" s="3">
         <v>1.88</v>
       </c>
-      <c r="H361">
+      <c r="H361" s="3">
         <v>2.19</v>
       </c>
-      <c r="I361">
+      <c r="I361" s="3">
         <v>2.6</v>
       </c>
     </row>
@@ -7911,16 +7915,16 @@
       <c r="A362" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="F362">
+      <c r="F362" s="3">
         <v>4.72</v>
       </c>
-      <c r="G362">
+      <c r="G362" s="3">
         <v>4.24</v>
       </c>
-      <c r="H362">
+      <c r="H362" s="3">
         <v>4.5199999999999996</v>
       </c>
-      <c r="I362">
+      <c r="I362" s="3">
         <v>5.88</v>
       </c>
     </row>
@@ -7928,16 +7932,16 @@
       <c r="A363" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="G363">
+      <c r="G363" s="3">
         <v>5.01</v>
       </c>
-      <c r="H363">
+      <c r="H363" s="2">
         <v>-0.42</v>
       </c>
-      <c r="I363">
+      <c r="I363" s="3">
         <v>4.26</v>
       </c>
-      <c r="J363">
+      <c r="J363" s="4">
         <v>0</v>
       </c>
     </row>
@@ -7945,16 +7949,16 @@
       <c r="A364" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="G364">
+      <c r="G364" s="2">
         <v>-0.31</v>
       </c>
-      <c r="H364">
+      <c r="H364" s="3">
         <v>0.95</v>
       </c>
-      <c r="I364">
+      <c r="I364" s="3">
         <v>0.21</v>
       </c>
-      <c r="J364">
+      <c r="J364" s="3">
         <v>0.59</v>
       </c>
     </row>
@@ -7962,16 +7966,16 @@
       <c r="A365" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="F365">
+      <c r="F365" s="3">
         <v>3.14</v>
       </c>
-      <c r="G365">
+      <c r="G365" s="3">
         <v>3.62</v>
       </c>
-      <c r="H365">
+      <c r="H365" s="3">
         <v>3.84</v>
       </c>
-      <c r="I365">
+      <c r="I365" s="3">
         <v>3.02</v>
       </c>
     </row>
@@ -7979,16 +7983,16 @@
       <c r="A366" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="F366">
+      <c r="F366" s="3">
         <v>3.56</v>
       </c>
-      <c r="G366">
+      <c r="G366" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H366">
+      <c r="H366" s="3">
         <v>4.72</v>
       </c>
-      <c r="I366">
+      <c r="I366" s="3">
         <v>5.43</v>
       </c>
     </row>
@@ -7996,16 +8000,16 @@
       <c r="A367" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="F367">
+      <c r="F367" s="3">
         <v>3.62</v>
       </c>
-      <c r="G367">
+      <c r="G367" s="3">
         <v>2.4300000000000002</v>
       </c>
-      <c r="H367">
+      <c r="H367" s="3">
         <v>3.26</v>
       </c>
-      <c r="I367">
+      <c r="I367" s="3">
         <v>3.62</v>
       </c>
     </row>
@@ -8013,16 +8017,16 @@
       <c r="A368" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="G368">
+      <c r="G368" s="3">
         <v>4.71</v>
       </c>
-      <c r="H368">
+      <c r="H368" s="3">
         <v>4.6500000000000004</v>
       </c>
-      <c r="I368">
+      <c r="I368" s="3">
         <v>4.53</v>
       </c>
-      <c r="J368">
+      <c r="J368" s="4">
         <v>0</v>
       </c>
     </row>
@@ -8030,16 +8034,16 @@
       <c r="A369" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="G369">
+      <c r="G369" s="3">
         <v>4.97</v>
       </c>
-      <c r="H369">
+      <c r="H369" s="3">
         <v>4.66</v>
       </c>
-      <c r="I369">
+      <c r="I369" s="3">
         <v>5.38</v>
       </c>
-      <c r="J369">
+      <c r="J369" s="3">
         <v>0.83</v>
       </c>
     </row>
@@ -8047,16 +8051,16 @@
       <c r="A370" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="G370">
-        <v>0</v>
-      </c>
-      <c r="H370">
-        <v>0</v>
-      </c>
-      <c r="I370">
-        <v>0</v>
-      </c>
-      <c r="J370">
+      <c r="G370" s="4">
+        <v>0</v>
+      </c>
+      <c r="H370" s="4">
+        <v>0</v>
+      </c>
+      <c r="I370" s="4">
+        <v>0</v>
+      </c>
+      <c r="J370" s="4">
         <v>0</v>
       </c>
     </row>
@@ -8064,13 +8068,13 @@
       <c r="A371" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="G371">
+      <c r="G371" s="3">
         <v>3.16</v>
       </c>
-      <c r="I371">
-        <v>0</v>
-      </c>
-      <c r="J371">
+      <c r="I371" s="4">
+        <v>0</v>
+      </c>
+      <c r="J371" s="3">
         <v>5.96</v>
       </c>
     </row>
@@ -8078,16 +8082,16 @@
       <c r="A372" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="G372">
+      <c r="G372" s="3">
         <v>1.48</v>
       </c>
-      <c r="H372">
+      <c r="H372" s="3">
         <v>2.44</v>
       </c>
-      <c r="I372">
+      <c r="I372" s="3">
         <v>4.21</v>
       </c>
-      <c r="J372">
+      <c r="J372" s="3">
         <v>5.27</v>
       </c>
     </row>
@@ -8095,16 +8099,16 @@
       <c r="A373" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="F373">
+      <c r="F373" s="2">
         <v>-2.0299999999999998</v>
       </c>
-      <c r="G373">
+      <c r="G373" s="3">
         <v>2.0099999999999998</v>
       </c>
-      <c r="H373">
+      <c r="H373" s="3">
         <v>2.63</v>
       </c>
-      <c r="I373">
+      <c r="I373" s="4">
         <v>0</v>
       </c>
     </row>
@@ -8112,16 +8116,16 @@
       <c r="A374" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="F374">
-        <v>0</v>
-      </c>
-      <c r="G374">
-        <v>0</v>
-      </c>
-      <c r="H374">
+      <c r="F374" s="4">
+        <v>0</v>
+      </c>
+      <c r="G374" s="4">
+        <v>0</v>
+      </c>
+      <c r="H374" s="3">
         <v>2.78</v>
       </c>
-      <c r="I374">
+      <c r="I374" s="3">
         <v>2.66</v>
       </c>
     </row>
@@ -8129,16 +8133,16 @@
       <c r="A375" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="G375">
+      <c r="G375" s="3">
         <v>2.66</v>
       </c>
-      <c r="H375">
+      <c r="H375" s="3">
         <v>1.36</v>
       </c>
-      <c r="I375">
+      <c r="I375" s="3">
         <v>3.82</v>
       </c>
-      <c r="J375">
+      <c r="J375" s="4">
         <v>0</v>
       </c>
     </row>
@@ -8146,16 +8150,16 @@
       <c r="A376" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="G376">
+      <c r="G376" s="3">
         <v>1.0900000000000001</v>
       </c>
-      <c r="H376">
+      <c r="H376" s="3">
         <v>1.29</v>
       </c>
-      <c r="I376">
+      <c r="I376" s="3">
         <v>1.27</v>
       </c>
-      <c r="J376">
+      <c r="J376" s="3">
         <v>3.71</v>
       </c>
     </row>
@@ -8163,16 +8167,16 @@
       <c r="A377" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="G377">
+      <c r="G377" s="3">
         <v>1.68</v>
       </c>
-      <c r="H377">
+      <c r="H377" s="3">
         <v>1.59</v>
       </c>
-      <c r="I377">
+      <c r="I377" s="3">
         <v>1.1599999999999999</v>
       </c>
-      <c r="J377">
+      <c r="J377" s="3">
         <v>1.66</v>
       </c>
     </row>
@@ -8180,16 +8184,16 @@
       <c r="A378" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="F378">
+      <c r="F378" s="3">
         <v>1.25</v>
       </c>
-      <c r="G378">
+      <c r="G378" s="3">
         <v>3.39</v>
       </c>
-      <c r="H378">
+      <c r="H378" s="3">
         <v>1.19</v>
       </c>
-      <c r="I378">
+      <c r="I378" s="3">
         <v>2.37</v>
       </c>
     </row>
@@ -8197,16 +8201,16 @@
       <c r="A379" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="G379">
+      <c r="G379" s="3">
         <v>3.1</v>
       </c>
-      <c r="H379">
+      <c r="H379" s="3">
         <v>2.78</v>
       </c>
-      <c r="I379">
+      <c r="I379" s="3">
         <v>1.94</v>
       </c>
-      <c r="J379">
+      <c r="J379" s="4">
         <v>0</v>
       </c>
     </row>
@@ -8214,16 +8218,16 @@
       <c r="A380" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="F380">
+      <c r="F380" s="3">
         <v>2.4900000000000002</v>
       </c>
-      <c r="G380">
+      <c r="G380" s="3">
         <v>2.31</v>
       </c>
-      <c r="H380">
+      <c r="H380" s="3">
         <v>2.36</v>
       </c>
-      <c r="I380">
+      <c r="I380" s="2">
         <v>-1.53</v>
       </c>
     </row>
@@ -8231,16 +8235,16 @@
       <c r="A381" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="G381">
+      <c r="G381" s="2">
         <v>-0.2</v>
       </c>
-      <c r="H381">
+      <c r="H381" s="3">
         <v>1.91</v>
       </c>
-      <c r="I381">
+      <c r="I381" s="3">
         <v>2.5</v>
       </c>
-      <c r="J381">
+      <c r="J381" s="3">
         <v>2.77</v>
       </c>
     </row>
@@ -8248,16 +8252,16 @@
       <c r="A382" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="G382">
+      <c r="G382" s="3">
         <v>3.05</v>
       </c>
-      <c r="H382">
+      <c r="H382" s="3">
         <v>4.34</v>
       </c>
-      <c r="I382">
+      <c r="I382" s="3">
         <v>5.98</v>
       </c>
-      <c r="J382">
+      <c r="J382" s="3">
         <v>5.49</v>
       </c>
     </row>
@@ -8265,16 +8269,16 @@
       <c r="A383" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="F383">
+      <c r="F383" s="3">
         <v>1.83</v>
       </c>
-      <c r="G383">
+      <c r="G383" s="3">
         <v>1.7</v>
       </c>
-      <c r="H383">
-        <v>0</v>
-      </c>
-      <c r="I383">
+      <c r="H383" s="4">
+        <v>0</v>
+      </c>
+      <c r="I383" s="3">
         <v>2.04</v>
       </c>
     </row>
@@ -8282,16 +8286,16 @@
       <c r="A384" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="G384">
+      <c r="G384" s="3">
         <v>4.57</v>
       </c>
-      <c r="H384">
+      <c r="H384" s="3">
         <v>3.1</v>
       </c>
-      <c r="I384">
+      <c r="I384" s="2">
         <v>-2.58</v>
       </c>
-      <c r="J384">
+      <c r="J384" s="3">
         <v>5.35</v>
       </c>
     </row>
@@ -8299,16 +8303,16 @@
       <c r="A385" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="G385">
+      <c r="G385" s="3">
         <v>3.28</v>
       </c>
-      <c r="H385">
+      <c r="H385" s="3">
         <v>1.42</v>
       </c>
-      <c r="I385">
+      <c r="I385" s="3">
         <v>3.75</v>
       </c>
-      <c r="J385">
+      <c r="J385" s="3">
         <v>3.61</v>
       </c>
     </row>
@@ -8316,16 +8320,16 @@
       <c r="A386" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="G386">
+      <c r="G386" s="3">
         <v>2.6</v>
       </c>
-      <c r="H386">
+      <c r="H386" s="3">
         <v>3</v>
       </c>
-      <c r="I386">
+      <c r="I386" s="3">
         <v>3.2</v>
       </c>
-      <c r="J386">
+      <c r="J386" s="3">
         <v>3.38</v>
       </c>
     </row>
@@ -8333,16 +8337,16 @@
       <c r="A387" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="F387">
+      <c r="F387" s="3">
         <v>5.48</v>
       </c>
-      <c r="G387">
+      <c r="G387" s="3">
         <v>5.76</v>
       </c>
-      <c r="H387">
+      <c r="H387" s="3">
         <v>4.1500000000000004</v>
       </c>
-      <c r="I387">
+      <c r="I387" s="3">
         <v>4.21</v>
       </c>
     </row>
@@ -8350,16 +8354,16 @@
       <c r="A388" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="F388">
+      <c r="F388" s="3">
         <v>3.24</v>
       </c>
-      <c r="G388">
+      <c r="G388" s="3">
         <v>3.53</v>
       </c>
-      <c r="H388">
+      <c r="H388" s="3">
         <v>4.76</v>
       </c>
-      <c r="I388">
+      <c r="I388" s="3">
         <v>4.96</v>
       </c>
     </row>
@@ -8367,16 +8371,16 @@
       <c r="A389" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="F389">
+      <c r="F389" s="3">
         <v>1.39</v>
       </c>
-      <c r="G389">
+      <c r="G389" s="3">
         <v>1.44</v>
       </c>
-      <c r="H389">
+      <c r="H389" s="3">
         <v>1.58</v>
       </c>
-      <c r="I389">
+      <c r="I389" s="3">
         <v>1.38</v>
       </c>
     </row>
@@ -8384,16 +8388,16 @@
       <c r="A390" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="G390">
+      <c r="G390" s="3">
         <v>9.84</v>
       </c>
-      <c r="H390">
+      <c r="H390" s="3">
         <v>10.82</v>
       </c>
-      <c r="I390">
+      <c r="I390" s="3">
         <v>10.99</v>
       </c>
-      <c r="J390">
+      <c r="J390" s="4">
         <v>0</v>
       </c>
     </row>
@@ -8401,16 +8405,16 @@
       <c r="A391" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="F391">
+      <c r="F391" s="3">
         <v>3.89</v>
       </c>
-      <c r="G391">
+      <c r="G391" s="3">
         <v>2.35</v>
       </c>
-      <c r="H391">
+      <c r="H391" s="3">
         <v>2.69</v>
       </c>
-      <c r="I391">
+      <c r="I391" s="3">
         <v>3.03</v>
       </c>
     </row>
@@ -8418,16 +8422,16 @@
       <c r="A392" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="G392">
-        <v>0</v>
-      </c>
-      <c r="H392">
-        <v>0</v>
-      </c>
-      <c r="I392">
-        <v>0</v>
-      </c>
-      <c r="J392">
+      <c r="G392" s="4">
+        <v>0</v>
+      </c>
+      <c r="H392" s="4">
+        <v>0</v>
+      </c>
+      <c r="I392" s="4">
+        <v>0</v>
+      </c>
+      <c r="J392" s="4">
         <v>0</v>
       </c>
     </row>
@@ -8435,16 +8439,16 @@
       <c r="A393" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="F393">
+      <c r="F393" s="3">
         <v>5.33</v>
       </c>
-      <c r="G393">
+      <c r="G393" s="3">
         <v>3.05</v>
       </c>
-      <c r="H393">
+      <c r="H393" s="3">
         <v>6.56</v>
       </c>
-      <c r="I393">
+      <c r="I393" s="3">
         <v>12.5</v>
       </c>
     </row>
@@ -8452,16 +8456,16 @@
       <c r="A394" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="F394">
+      <c r="F394" s="3">
         <v>1.3</v>
       </c>
-      <c r="G394">
+      <c r="G394" s="3">
         <v>1.3</v>
       </c>
-      <c r="H394">
+      <c r="H394" s="3">
         <v>1.73</v>
       </c>
-      <c r="I394">
+      <c r="I394" s="3">
         <v>1.98</v>
       </c>
     </row>
@@ -8469,16 +8473,16 @@
       <c r="A395" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="F395">
+      <c r="F395" s="3">
         <v>1.53</v>
       </c>
-      <c r="G395">
+      <c r="G395" s="3">
         <v>1.94</v>
       </c>
-      <c r="H395">
+      <c r="H395" s="3">
         <v>2.61</v>
       </c>
-      <c r="I395">
+      <c r="I395" s="3">
         <v>2.86</v>
       </c>
     </row>
@@ -8486,16 +8490,16 @@
       <c r="A396" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="F396">
+      <c r="F396" s="3">
         <v>2.1</v>
       </c>
-      <c r="G396">
+      <c r="G396" s="3">
         <v>1.78</v>
       </c>
-      <c r="I396">
+      <c r="I396" s="3">
         <v>2.15</v>
       </c>
-      <c r="J396">
+      <c r="J396" s="3">
         <v>2.52</v>
       </c>
     </row>
@@ -8503,16 +8507,16 @@
       <c r="A397" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="F397">
+      <c r="F397" s="3">
         <v>1.23</v>
       </c>
-      <c r="G397">
+      <c r="G397" s="3">
         <v>1.54</v>
       </c>
-      <c r="H397">
+      <c r="H397" s="3">
         <v>0.98</v>
       </c>
-      <c r="I397">
+      <c r="I397" s="3">
         <v>1.08</v>
       </c>
     </row>
@@ -8520,16 +8524,16 @@
       <c r="A398" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F398">
-        <v>0</v>
-      </c>
-      <c r="G398">
-        <v>0</v>
-      </c>
-      <c r="H398">
-        <v>0</v>
-      </c>
-      <c r="I398">
+      <c r="F398" s="4">
+        <v>0</v>
+      </c>
+      <c r="G398" s="4">
+        <v>0</v>
+      </c>
+      <c r="H398" s="4">
+        <v>0</v>
+      </c>
+      <c r="I398" s="4">
         <v>0</v>
       </c>
     </row>
@@ -8537,16 +8541,16 @@
       <c r="A399" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="F399">
+      <c r="F399" s="2">
         <v>-2.1800000000000002</v>
       </c>
-      <c r="G399">
+      <c r="G399" s="3">
         <v>1.64</v>
       </c>
-      <c r="H399">
+      <c r="H399" s="3">
         <v>3.05</v>
       </c>
-      <c r="I399">
+      <c r="I399" s="3">
         <v>19.52</v>
       </c>
     </row>
@@ -8554,16 +8558,16 @@
       <c r="A400" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="F400">
+      <c r="F400" s="3">
         <v>0.85</v>
       </c>
-      <c r="G400">
+      <c r="G400" s="3">
         <v>0.16</v>
       </c>
-      <c r="H400">
+      <c r="H400" s="3">
         <v>0.6</v>
       </c>
-      <c r="I400">
+      <c r="I400" s="3">
         <v>1.3</v>
       </c>
     </row>
@@ -8571,16 +8575,16 @@
       <c r="A401" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="F401">
+      <c r="F401" s="3">
         <v>4.57</v>
       </c>
-      <c r="G401">
+      <c r="G401" s="3">
         <v>5.21</v>
       </c>
-      <c r="H401">
+      <c r="H401" s="3">
         <v>5.52</v>
       </c>
-      <c r="I401">
+      <c r="I401" s="3">
         <v>6.89</v>
       </c>
     </row>
@@ -8588,16 +8592,16 @@
       <c r="A402" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="G402">
+      <c r="G402" s="3">
         <v>2.73</v>
       </c>
-      <c r="H402">
-        <v>0</v>
-      </c>
-      <c r="I402">
+      <c r="H402" s="4">
+        <v>0</v>
+      </c>
+      <c r="I402" s="3">
         <v>4</v>
       </c>
-      <c r="J402">
+      <c r="J402" s="4">
         <v>0</v>
       </c>
     </row>
@@ -8605,16 +8609,16 @@
       <c r="A403" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="G403">
+      <c r="G403" s="3">
         <v>5.59</v>
       </c>
-      <c r="H403">
+      <c r="H403" s="3">
         <v>5.78</v>
       </c>
-      <c r="I403">
+      <c r="I403" s="3">
         <v>6.1</v>
       </c>
-      <c r="J403">
+      <c r="J403" s="4">
         <v>0</v>
       </c>
     </row>
@@ -8622,16 +8626,16 @@
       <c r="A404" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="F404">
+      <c r="F404" s="3">
         <v>3.18</v>
       </c>
-      <c r="G404">
+      <c r="G404" s="3">
         <v>3.24</v>
       </c>
-      <c r="H404">
+      <c r="H404" s="3">
         <v>1.62</v>
       </c>
-      <c r="I404">
+      <c r="I404" s="3">
         <v>3.51</v>
       </c>
     </row>
@@ -8639,16 +8643,16 @@
       <c r="A405" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="G405">
+      <c r="G405" s="3">
         <v>9.4700000000000006</v>
       </c>
-      <c r="H405">
+      <c r="H405" s="3">
         <v>5.77</v>
       </c>
-      <c r="I405">
+      <c r="I405" s="3">
         <v>5.51</v>
       </c>
-      <c r="J405">
+      <c r="J405" s="4">
         <v>0</v>
       </c>
     </row>
@@ -8656,16 +8660,16 @@
       <c r="A406" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="F406">
+      <c r="F406" s="3">
         <v>0.84</v>
       </c>
-      <c r="G406">
+      <c r="G406" s="3">
         <v>4.6500000000000004</v>
       </c>
-      <c r="H406">
+      <c r="H406" s="3">
         <v>3.31</v>
       </c>
-      <c r="I406">
+      <c r="I406" s="3">
         <v>5.38</v>
       </c>
     </row>
@@ -8673,16 +8677,16 @@
       <c r="A407" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="G407">
+      <c r="G407" s="3">
         <v>1.63</v>
       </c>
-      <c r="H407">
+      <c r="H407" s="3">
         <v>1.92</v>
       </c>
-      <c r="I407">
+      <c r="I407" s="3">
         <v>1.7</v>
       </c>
-      <c r="J407">
+      <c r="J407" s="3">
         <v>1.79</v>
       </c>
     </row>
@@ -8690,16 +8694,16 @@
       <c r="A408" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="G408">
-        <v>0</v>
-      </c>
-      <c r="H408">
-        <v>0</v>
-      </c>
-      <c r="I408">
-        <v>0</v>
-      </c>
-      <c r="J408">
+      <c r="G408" s="4">
+        <v>0</v>
+      </c>
+      <c r="H408" s="4">
+        <v>0</v>
+      </c>
+      <c r="I408" s="4">
+        <v>0</v>
+      </c>
+      <c r="J408" s="4">
         <v>0</v>
       </c>
     </row>
@@ -8707,16 +8711,16 @@
       <c r="A409" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="G409">
+      <c r="G409" s="3">
         <v>6.35</v>
       </c>
-      <c r="H409">
+      <c r="H409" s="3">
         <v>6.92</v>
       </c>
-      <c r="I409">
+      <c r="I409" s="3">
         <v>8.7200000000000006</v>
       </c>
-      <c r="J409">
+      <c r="J409" s="4">
         <v>0</v>
       </c>
     </row>
@@ -8724,16 +8728,16 @@
       <c r="A410" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="G410">
-        <v>0</v>
-      </c>
-      <c r="H410">
-        <v>0</v>
-      </c>
-      <c r="I410">
-        <v>0</v>
-      </c>
-      <c r="J410">
+      <c r="G410" s="4">
+        <v>0</v>
+      </c>
+      <c r="H410" s="4">
+        <v>0</v>
+      </c>
+      <c r="I410" s="4">
+        <v>0</v>
+      </c>
+      <c r="J410" s="4">
         <v>0</v>
       </c>
     </row>
@@ -8741,16 +8745,16 @@
       <c r="A411" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="G411">
+      <c r="G411" s="3">
         <v>4.04</v>
       </c>
-      <c r="H411">
+      <c r="H411" s="3">
         <v>3.88</v>
       </c>
-      <c r="I411">
+      <c r="I411" s="3">
         <v>4.13</v>
       </c>
-      <c r="J411">
+      <c r="J411" s="3">
         <v>4.22</v>
       </c>
     </row>
@@ -8758,16 +8762,16 @@
       <c r="A412" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="F412">
-        <v>0</v>
-      </c>
-      <c r="G412">
-        <v>0</v>
-      </c>
-      <c r="I412">
+      <c r="F412" s="4">
+        <v>0</v>
+      </c>
+      <c r="G412" s="4">
+        <v>0</v>
+      </c>
+      <c r="I412" s="3">
         <v>2.42</v>
       </c>
-      <c r="J412">
+      <c r="J412" s="3">
         <v>2.9</v>
       </c>
     </row>
@@ -8775,16 +8779,16 @@
       <c r="A413" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="G413">
+      <c r="G413" s="3">
         <v>4.93</v>
       </c>
-      <c r="H413">
+      <c r="H413" s="3">
         <v>5.53</v>
       </c>
-      <c r="I413">
+      <c r="I413" s="3">
         <v>4.78</v>
       </c>
-      <c r="J413">
+      <c r="J413" s="3">
         <v>3.63</v>
       </c>
     </row>
@@ -8792,16 +8796,16 @@
       <c r="A414" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="F414">
+      <c r="F414" s="3">
         <v>3.77</v>
       </c>
-      <c r="G414">
+      <c r="G414" s="3">
         <v>4.99</v>
       </c>
-      <c r="H414">
+      <c r="H414" s="3">
         <v>6.88</v>
       </c>
-      <c r="I414">
+      <c r="I414" s="3">
         <v>8</v>
       </c>
     </row>
@@ -8809,16 +8813,16 @@
       <c r="A415" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="F415">
+      <c r="F415" s="2">
         <v>-0.41</v>
       </c>
-      <c r="G415">
+      <c r="G415" s="3">
         <v>0.19</v>
       </c>
-      <c r="H415">
+      <c r="H415" s="3">
         <v>1.56</v>
       </c>
-      <c r="I415">
+      <c r="I415" s="3">
         <v>1.66</v>
       </c>
     </row>
@@ -8826,16 +8830,16 @@
       <c r="A416" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="G416">
+      <c r="G416" s="3">
         <v>2.1</v>
       </c>
-      <c r="H416">
+      <c r="H416" s="3">
         <v>4.18</v>
       </c>
-      <c r="I416">
+      <c r="I416" s="3">
         <v>3.61</v>
       </c>
-      <c r="J416">
+      <c r="J416" s="4">
         <v>0</v>
       </c>
     </row>
@@ -8843,16 +8847,16 @@
       <c r="A417" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="F417">
+      <c r="F417" s="3">
         <v>1.98</v>
       </c>
-      <c r="G417">
+      <c r="G417" s="3">
         <v>2.0699999999999998</v>
       </c>
-      <c r="H417">
+      <c r="H417" s="3">
         <v>2.41</v>
       </c>
-      <c r="I417">
+      <c r="I417" s="3">
         <v>3.07</v>
       </c>
     </row>
@@ -8860,16 +8864,16 @@
       <c r="A418" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="F418">
+      <c r="F418" s="3">
         <v>2.04</v>
       </c>
-      <c r="G418">
+      <c r="G418" s="3">
         <v>3.77</v>
       </c>
-      <c r="H418">
+      <c r="H418" s="3">
         <v>2.8</v>
       </c>
-      <c r="I418">
+      <c r="I418" s="3">
         <v>3.29</v>
       </c>
     </row>
@@ -8877,16 +8881,16 @@
       <c r="A419" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="F419">
+      <c r="F419" s="2">
         <v>-0.5</v>
       </c>
-      <c r="G419">
+      <c r="G419" s="2">
         <v>-1.98</v>
       </c>
-      <c r="H419">
+      <c r="H419" s="2">
         <v>-3.14</v>
       </c>
-      <c r="I419">
+      <c r="I419" s="2">
         <v>-2.31</v>
       </c>
     </row>
@@ -8894,16 +8898,16 @@
       <c r="A420" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="G420">
+      <c r="G420" s="3">
         <v>1.55</v>
       </c>
-      <c r="H420">
+      <c r="H420" s="3">
         <v>1.62</v>
       </c>
-      <c r="I420">
+      <c r="I420" s="3">
         <v>1.26</v>
       </c>
-      <c r="J420">
+      <c r="J420" s="4">
         <v>0</v>
       </c>
     </row>
@@ -8911,16 +8915,16 @@
       <c r="A421" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="F421">
+      <c r="F421" s="3">
         <v>0.31</v>
       </c>
-      <c r="G421">
+      <c r="G421" s="3">
         <v>4.01</v>
       </c>
-      <c r="H421">
+      <c r="H421" s="3">
         <v>2.42</v>
       </c>
-      <c r="I421">
+      <c r="I421" s="3">
         <v>4.38</v>
       </c>
     </row>
@@ -8928,16 +8932,16 @@
       <c r="A422" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="F422">
-        <v>0</v>
-      </c>
-      <c r="G422">
-        <v>0</v>
-      </c>
-      <c r="H422">
-        <v>0</v>
-      </c>
-      <c r="I422">
+      <c r="F422" s="4">
+        <v>0</v>
+      </c>
+      <c r="G422" s="4">
+        <v>0</v>
+      </c>
+      <c r="H422" s="4">
+        <v>0</v>
+      </c>
+      <c r="I422" s="3">
         <v>5.7</v>
       </c>
     </row>
@@ -8945,16 +8949,16 @@
       <c r="A423" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="G423">
+      <c r="G423" s="3">
         <v>4.07</v>
       </c>
-      <c r="H423">
+      <c r="H423" s="3">
         <v>6.88</v>
       </c>
-      <c r="I423">
+      <c r="I423" s="3">
         <v>6.31</v>
       </c>
-      <c r="J423">
+      <c r="J423" s="3">
         <v>1.01</v>
       </c>
     </row>
@@ -8962,16 +8966,16 @@
       <c r="A424" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="F424">
+      <c r="F424" s="3">
         <v>2.37</v>
       </c>
-      <c r="G424">
+      <c r="G424" s="3">
         <v>2.54</v>
       </c>
-      <c r="H424">
+      <c r="H424" s="3">
         <v>2.61</v>
       </c>
-      <c r="I424">
+      <c r="I424" s="3">
         <v>2.36</v>
       </c>
     </row>
@@ -8979,16 +8983,16 @@
       <c r="A425" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="F425">
+      <c r="F425" s="3">
         <v>3.4</v>
       </c>
-      <c r="G425">
+      <c r="G425" s="3">
         <v>3.95</v>
       </c>
-      <c r="H425">
+      <c r="H425" s="3">
         <v>4.17</v>
       </c>
-      <c r="I425">
+      <c r="I425" s="3">
         <v>4.18</v>
       </c>
     </row>
@@ -8996,16 +9000,16 @@
       <c r="A426" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="G426">
+      <c r="G426" s="3">
         <v>1.48</v>
       </c>
-      <c r="H426">
+      <c r="H426" s="3">
         <v>1.57</v>
       </c>
-      <c r="I426">
+      <c r="I426" s="3">
         <v>1.49</v>
       </c>
-      <c r="J426">
+      <c r="J426" s="3">
         <v>1.55</v>
       </c>
     </row>
@@ -9013,16 +9017,16 @@
       <c r="A427" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="G427">
+      <c r="G427" s="3">
         <v>10.42</v>
       </c>
-      <c r="H427">
+      <c r="H427" s="3">
         <v>8.3000000000000007</v>
       </c>
-      <c r="I427">
+      <c r="I427" s="3">
         <v>9.9499999999999993</v>
       </c>
-      <c r="J427">
+      <c r="J427" s="4">
         <v>0</v>
       </c>
     </row>
@@ -9030,16 +9034,16 @@
       <c r="A428" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="F428">
-        <v>0</v>
-      </c>
-      <c r="G428">
-        <v>0</v>
-      </c>
-      <c r="H428">
-        <v>0</v>
-      </c>
-      <c r="I428">
+      <c r="F428" s="4">
+        <v>0</v>
+      </c>
+      <c r="G428" s="4">
+        <v>0</v>
+      </c>
+      <c r="H428" s="4">
+        <v>0</v>
+      </c>
+      <c r="I428" s="4">
         <v>0</v>
       </c>
     </row>
@@ -9047,10 +9051,10 @@
       <c r="A429" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="G429">
+      <c r="G429" s="3">
         <v>0.21</v>
       </c>
-      <c r="H429">
+      <c r="H429" s="3">
         <v>2.8</v>
       </c>
       <c r="I429">

--- a/earnings_per_share_pivot_table.xlsx
+++ b/earnings_per_share_pivot_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1696" documentId="11_2869E2F47DC3CC36B52C4CCA0D6C18477979E71B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{822025D0-3986-4F78-9402-8FFE8B998BD5}"/>
+  <xr:revisionPtr revIDLastSave="941" documentId="11_2869E2F47DC3CC36B52C4C78752C31E77979E71B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04F30F8A-8A8A-49F4-B656-6A2351E6E13B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1496,10 +1496,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5842,16 +5838,16 @@
       <c r="A239" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F239" s="3">
+      <c r="F239">
         <v>1.72</v>
       </c>
-      <c r="G239" s="3">
+      <c r="G239">
         <v>1.36</v>
       </c>
-      <c r="H239" s="3">
+      <c r="H239">
         <v>0.69</v>
       </c>
-      <c r="I239" s="3">
+      <c r="I239">
         <v>2.31</v>
       </c>
     </row>
@@ -5859,16 +5855,16 @@
       <c r="A240" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="G240" s="3">
+      <c r="G240">
         <v>2.48</v>
       </c>
-      <c r="H240" s="3">
+      <c r="H240">
         <v>3.12</v>
       </c>
-      <c r="I240" s="3">
+      <c r="I240">
         <v>3.87</v>
       </c>
-      <c r="J240" s="4">
+      <c r="J240">
         <v>0</v>
       </c>
     </row>
@@ -5876,16 +5872,16 @@
       <c r="A241" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F241" s="3">
+      <c r="F241">
         <v>6.09</v>
       </c>
-      <c r="G241" s="3">
+      <c r="G241">
         <v>6.36</v>
       </c>
-      <c r="H241" s="4">
-        <v>0</v>
-      </c>
-      <c r="I241" s="4">
+      <c r="H241">
+        <v>0</v>
+      </c>
+      <c r="I241">
         <v>0</v>
       </c>
     </row>
@@ -5893,16 +5889,16 @@
       <c r="A242" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="F242" s="3">
+      <c r="F242">
         <v>0.88</v>
       </c>
-      <c r="G242" s="4">
-        <v>0</v>
-      </c>
-      <c r="H242" s="4">
-        <v>0</v>
-      </c>
-      <c r="I242" s="4">
+      <c r="G242">
+        <v>0</v>
+      </c>
+      <c r="H242">
+        <v>0</v>
+      </c>
+      <c r="I242">
         <v>0</v>
       </c>
     </row>
@@ -5910,16 +5906,16 @@
       <c r="A243" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="F243" s="3">
+      <c r="F243">
         <v>8.41</v>
       </c>
-      <c r="G243" s="3">
+      <c r="G243">
         <v>8.6999999999999993</v>
       </c>
-      <c r="H243" s="3">
+      <c r="H243">
         <v>7.78</v>
       </c>
-      <c r="I243" s="2">
+      <c r="I243">
         <v>-2.97</v>
       </c>
     </row>
@@ -5927,16 +5923,16 @@
       <c r="A244" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G244" s="3">
+      <c r="G244">
         <v>1.72</v>
       </c>
-      <c r="H244" s="3">
+      <c r="H244">
         <v>1.91</v>
       </c>
-      <c r="I244" s="3">
+      <c r="I244">
         <v>2.13</v>
       </c>
-      <c r="J244" s="3">
+      <c r="J244">
         <v>2.02</v>
       </c>
     </row>
@@ -5944,16 +5940,16 @@
       <c r="A245" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="F245" s="3">
+      <c r="F245">
         <v>3.67</v>
       </c>
-      <c r="G245" s="3">
+      <c r="G245">
         <v>4.33</v>
       </c>
-      <c r="H245" s="3">
+      <c r="H245">
         <v>2.23</v>
       </c>
-      <c r="I245" s="3">
+      <c r="I245">
         <v>2.27</v>
       </c>
     </row>
@@ -5961,16 +5957,16 @@
       <c r="A246" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="G246" s="3">
+      <c r="G246">
         <v>9.2899999999999991</v>
       </c>
-      <c r="H246" s="3">
+      <c r="H246">
         <v>11.41</v>
       </c>
-      <c r="I246" s="3">
+      <c r="I246">
         <v>11.62</v>
       </c>
-      <c r="J246" s="4">
+      <c r="J246">
         <v>0</v>
       </c>
     </row>
@@ -5978,16 +5974,16 @@
       <c r="A247" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F247" s="3">
+      <c r="F247">
         <v>2.89</v>
       </c>
-      <c r="G247" s="3">
+      <c r="G247">
         <v>3.23</v>
       </c>
-      <c r="H247" s="3">
+      <c r="H247">
         <v>3.46</v>
       </c>
-      <c r="I247" s="3">
+      <c r="I247">
         <v>3.36</v>
       </c>
     </row>
@@ -5995,16 +5991,16 @@
       <c r="A248" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G248" s="3">
+      <c r="G248">
         <v>1.69</v>
       </c>
-      <c r="H248" s="3">
+      <c r="H248">
         <v>2.14</v>
       </c>
-      <c r="I248" s="3">
+      <c r="I248">
         <v>2.71</v>
       </c>
-      <c r="J248" s="3">
+      <c r="J248">
         <v>2.73</v>
       </c>
     </row>
@@ -6012,16 +6008,16 @@
       <c r="A249" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="G249" s="3">
+      <c r="G249">
         <v>0.67</v>
       </c>
-      <c r="H249" s="3">
+      <c r="H249">
         <v>3.84</v>
       </c>
-      <c r="I249" s="3">
+      <c r="I249">
         <v>4.1100000000000003</v>
       </c>
-      <c r="J249" s="3">
+      <c r="J249">
         <v>5.75</v>
       </c>
     </row>
@@ -6029,16 +6025,16 @@
       <c r="A250" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F250" s="3">
+      <c r="F250">
         <v>3.49</v>
       </c>
-      <c r="G250" s="3">
+      <c r="G250">
         <v>1.07</v>
       </c>
-      <c r="H250" s="3">
+      <c r="H250">
         <v>0.54</v>
       </c>
-      <c r="I250" s="3">
+      <c r="I250">
         <v>0.74</v>
       </c>
     </row>
@@ -6046,16 +6042,16 @@
       <c r="A251" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="G251" s="3">
+      <c r="G251">
         <v>1.06</v>
       </c>
-      <c r="H251" s="3">
+      <c r="H251">
         <v>1.65</v>
       </c>
-      <c r="I251" s="3">
+      <c r="I251">
         <v>3.3</v>
       </c>
-      <c r="J251" s="4">
+      <c r="J251">
         <v>0</v>
       </c>
     </row>
@@ -6063,16 +6059,16 @@
       <c r="A252" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="F252" s="2">
+      <c r="F252">
         <v>-1.96</v>
       </c>
-      <c r="G252" s="2">
+      <c r="G252">
         <v>-0.49</v>
       </c>
-      <c r="H252" s="3">
+      <c r="H252">
         <v>1.23</v>
       </c>
-      <c r="I252" s="3">
+      <c r="I252">
         <v>9.7100000000000009</v>
       </c>
     </row>
@@ -6080,16 +6076,16 @@
       <c r="A253" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F253" s="3">
+      <c r="F253">
         <v>4.97</v>
       </c>
-      <c r="G253" s="3">
+      <c r="G253">
         <v>6.8</v>
       </c>
-      <c r="H253" s="3">
+      <c r="H253">
         <v>8.0299999999999994</v>
       </c>
-      <c r="I253" s="3">
+      <c r="I253">
         <v>9.6199999999999992</v>
       </c>
     </row>
@@ -6097,16 +6093,16 @@
       <c r="A254" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="G254" s="3">
+      <c r="G254">
         <v>3.29</v>
       </c>
-      <c r="H254" s="3">
+      <c r="H254">
         <v>3.93</v>
       </c>
-      <c r="I254" s="3">
+      <c r="I254">
         <v>4.3</v>
       </c>
-      <c r="J254" s="3">
+      <c r="J254">
         <v>3.26</v>
       </c>
     </row>
@@ -6114,16 +6110,16 @@
       <c r="A255" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="G255" s="3">
+      <c r="G255">
         <v>2.57</v>
       </c>
-      <c r="H255" s="3">
+      <c r="H255">
         <v>3.11</v>
       </c>
-      <c r="I255" s="3">
+      <c r="I255">
         <v>3.36</v>
       </c>
-      <c r="J255" s="4">
+      <c r="J255">
         <v>0</v>
       </c>
     </row>
@@ -6131,16 +6127,16 @@
       <c r="A256" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="F256" s="3">
+      <c r="F256">
         <v>2.56</v>
       </c>
-      <c r="G256" s="3">
+      <c r="G256">
         <v>2.27</v>
       </c>
-      <c r="H256" s="3">
+      <c r="H256">
         <v>1.97</v>
       </c>
-      <c r="I256" s="3">
+      <c r="I256">
         <v>4.41</v>
       </c>
     </row>
@@ -6148,16 +6144,16 @@
       <c r="A257" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F257" s="3">
+      <c r="F257">
         <v>2.5099999999999998</v>
       </c>
-      <c r="G257" s="3">
+      <c r="G257">
         <v>3.01</v>
       </c>
-      <c r="H257" s="3">
+      <c r="H257">
         <v>10.46</v>
       </c>
-      <c r="I257" s="3">
+      <c r="I257">
         <v>3.08</v>
       </c>
     </row>
@@ -6165,16 +6161,16 @@
       <c r="A258" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="F258" s="4">
-        <v>0</v>
-      </c>
-      <c r="G258" s="3">
+      <c r="F258">
+        <v>0</v>
+      </c>
+      <c r="G258">
         <v>2.0499999999999998</v>
       </c>
-      <c r="H258" s="3">
+      <c r="H258">
         <v>2.6</v>
       </c>
-      <c r="I258" s="3">
+      <c r="I258">
         <v>3.22</v>
       </c>
     </row>
@@ -6182,16 +6178,16 @@
       <c r="A259" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="G259" s="3">
+      <c r="G259">
         <v>0.76</v>
       </c>
-      <c r="H259" s="3">
+      <c r="H259">
         <v>2.4</v>
       </c>
-      <c r="I259" s="3">
+      <c r="I259">
         <v>1.03</v>
       </c>
-      <c r="J259" s="4">
+      <c r="J259">
         <v>0</v>
       </c>
     </row>
@@ -6199,16 +6195,16 @@
       <c r="A260" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="F260" s="3">
+      <c r="F260">
         <v>2.25</v>
       </c>
-      <c r="G260" s="3">
+      <c r="G260">
         <v>2.61</v>
       </c>
-      <c r="H260" s="3">
+      <c r="H260">
         <v>1.46</v>
       </c>
-      <c r="I260" s="3">
+      <c r="I260">
         <v>1.08</v>
       </c>
     </row>
@@ -6216,16 +6212,16 @@
       <c r="A261" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="F261" s="3">
+      <c r="F261">
         <v>5.41</v>
       </c>
-      <c r="G261" s="3">
+      <c r="G261">
         <v>5.59</v>
       </c>
-      <c r="H261" s="3">
+      <c r="H261">
         <v>4.8499999999999996</v>
       </c>
-      <c r="I261" s="3">
+      <c r="I261">
         <v>4.82</v>
       </c>
     </row>
@@ -6233,16 +6229,16 @@
       <c r="A262" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="G262" s="3">
+      <c r="G262">
         <v>0.65</v>
       </c>
-      <c r="H262" s="3">
+      <c r="H262">
         <v>1.99</v>
       </c>
-      <c r="I262" s="3">
+      <c r="I262">
         <v>1.84</v>
       </c>
-      <c r="J262" s="3">
+      <c r="J262">
         <v>1.59</v>
       </c>
     </row>
@@ -6250,16 +6246,16 @@
       <c r="A263" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="G263" s="3">
+      <c r="G263">
         <v>5.71</v>
       </c>
-      <c r="H263" s="3">
+      <c r="H263">
         <v>5.51</v>
       </c>
-      <c r="I263" s="3">
+      <c r="I263">
         <v>6.37</v>
       </c>
-      <c r="J263" s="3">
+      <c r="J263">
         <v>9.82</v>
       </c>
     </row>
@@ -6267,16 +6263,16 @@
       <c r="A264" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="F264" s="3">
+      <c r="F264">
         <v>3.09</v>
       </c>
-      <c r="G264" s="3">
+      <c r="G264">
         <v>3.67</v>
       </c>
-      <c r="H264" s="3">
+      <c r="H264">
         <v>4.6900000000000004</v>
       </c>
-      <c r="I264" s="3">
+      <c r="I264">
         <v>4.7</v>
       </c>
     </row>
@@ -6284,16 +6280,16 @@
       <c r="A265" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="F265" s="3">
+      <c r="F265">
         <v>1.7</v>
       </c>
-      <c r="G265" s="3">
+      <c r="G265">
         <v>2.21</v>
       </c>
-      <c r="H265" s="3">
+      <c r="H265">
         <v>1.29</v>
       </c>
-      <c r="I265" s="3">
+      <c r="I265">
         <v>4.49</v>
       </c>
     </row>
@@ -6301,16 +6297,16 @@
       <c r="A266" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="F266" s="3">
+      <c r="F266">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G266" s="3">
+      <c r="G266">
         <v>2.94</v>
       </c>
-      <c r="H266" s="3">
+      <c r="H266">
         <v>5.48</v>
       </c>
-      <c r="I266" s="3">
+      <c r="I266">
         <v>4.6100000000000003</v>
       </c>
     </row>
@@ -6318,16 +6314,16 @@
       <c r="A267" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="F267" s="3">
+      <c r="F267">
         <v>3.63</v>
       </c>
-      <c r="G267" s="3">
+      <c r="G267">
         <v>4.8600000000000003</v>
       </c>
-      <c r="H267" s="3">
+      <c r="H267">
         <v>7.3</v>
       </c>
-      <c r="I267" s="3">
+      <c r="I267">
         <v>2.59</v>
       </c>
     </row>
@@ -6335,16 +6331,16 @@
       <c r="A268" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F268" s="3">
+      <c r="F268">
         <v>2.96</v>
       </c>
-      <c r="G268" s="3">
+      <c r="G268">
         <v>3.2</v>
       </c>
-      <c r="H268" s="3">
+      <c r="H268">
         <v>3.55</v>
       </c>
-      <c r="I268" s="3">
+      <c r="I268">
         <v>3.28</v>
       </c>
     </row>
@@ -6352,16 +6348,16 @@
       <c r="A269" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="G269" s="3">
+      <c r="G269">
         <v>2.94</v>
       </c>
-      <c r="H269" s="3">
+      <c r="H269">
         <v>3.37</v>
       </c>
-      <c r="I269" s="3">
+      <c r="I269">
         <v>3.14</v>
       </c>
-      <c r="J269" s="4">
+      <c r="J269">
         <v>0</v>
       </c>
     </row>
@@ -6369,16 +6365,16 @@
       <c r="A270" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="F270" s="3">
+      <c r="F270">
         <v>1.83</v>
       </c>
-      <c r="G270" s="3">
+      <c r="G270">
         <v>2.62</v>
       </c>
-      <c r="H270" s="3">
+      <c r="H270">
         <v>2.73</v>
       </c>
-      <c r="I270" s="3">
+      <c r="I270">
         <v>4.3099999999999996</v>
       </c>
     </row>
@@ -6386,16 +6382,16 @@
       <c r="A271" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="F271" s="3">
+      <c r="F271">
         <v>2.16</v>
       </c>
-      <c r="G271" s="3">
+      <c r="G271">
         <v>2.4700000000000002</v>
       </c>
-      <c r="H271" s="3">
+      <c r="H271">
         <v>2.69</v>
       </c>
-      <c r="I271" s="3">
+      <c r="I271">
         <v>3.01</v>
       </c>
     </row>
@@ -6403,16 +6399,16 @@
       <c r="A272" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="G272" s="3">
+      <c r="G272">
         <v>6.83</v>
       </c>
-      <c r="H272" s="3">
+      <c r="H272">
         <v>7.63</v>
       </c>
-      <c r="I272" s="3">
+      <c r="I272">
         <v>7.72</v>
       </c>
-      <c r="J272" s="4">
+      <c r="J272">
         <v>0</v>
       </c>
     </row>
@@ -6420,16 +6416,16 @@
       <c r="A273" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F273" s="4">
-        <v>0</v>
-      </c>
-      <c r="G273" s="4">
-        <v>0</v>
-      </c>
-      <c r="H273" s="4">
-        <v>0</v>
-      </c>
-      <c r="I273" s="4">
+      <c r="F273">
+        <v>0</v>
+      </c>
+      <c r="G273">
+        <v>0</v>
+      </c>
+      <c r="H273">
+        <v>0</v>
+      </c>
+      <c r="I273">
         <v>0</v>
       </c>
     </row>
@@ -6437,16 +6433,16 @@
       <c r="A274" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F274" s="3">
+      <c r="F274">
         <v>2.06</v>
       </c>
-      <c r="G274" s="3">
+      <c r="G274">
         <v>2.2599999999999998</v>
       </c>
-      <c r="H274" s="3">
+      <c r="H274">
         <v>2.56</v>
       </c>
-      <c r="I274" s="3">
+      <c r="I274">
         <v>2.67</v>
       </c>
     </row>
@@ -6454,16 +6450,16 @@
       <c r="A275" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="G275" s="3">
+      <c r="G275">
         <v>4.6500000000000004</v>
       </c>
-      <c r="H275" s="3">
+      <c r="H275">
         <v>5.28</v>
       </c>
-      <c r="I275" s="3">
+      <c r="I275">
         <v>4.8499999999999996</v>
       </c>
-      <c r="J275" s="3">
+      <c r="J275">
         <v>3.02</v>
       </c>
     </row>
@@ -6471,16 +6467,16 @@
       <c r="A276" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="G276" s="3">
+      <c r="G276">
         <v>4.4400000000000004</v>
       </c>
-      <c r="H276" s="3">
+      <c r="H276">
         <v>2.69</v>
       </c>
-      <c r="I276" s="3">
+      <c r="I276">
         <v>2.79</v>
       </c>
-      <c r="J276" s="4">
+      <c r="J276">
         <v>0</v>
       </c>
     </row>
@@ -6488,16 +6484,16 @@
       <c r="A277" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="F277" s="3">
+      <c r="F277">
         <v>9.9499999999999993</v>
       </c>
-      <c r="G277" s="3">
+      <c r="G277">
         <v>6.69</v>
       </c>
-      <c r="H277" s="3">
+      <c r="H277">
         <v>8.84</v>
       </c>
-      <c r="I277" s="3">
+      <c r="I277">
         <v>5.29</v>
       </c>
     </row>
@@ -6505,16 +6501,16 @@
       <c r="A278" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F278" s="3">
+      <c r="F278">
         <v>2.0299999999999998</v>
       </c>
-      <c r="G278" s="3">
+      <c r="G278">
         <v>1.49</v>
       </c>
-      <c r="H278" s="3">
+      <c r="H278">
         <v>4.12</v>
       </c>
-      <c r="I278" s="3">
+      <c r="I278">
         <v>1.58</v>
       </c>
     </row>
@@ -6522,16 +6518,16 @@
       <c r="A279" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="F279" s="3">
+      <c r="F279">
         <v>2.2400000000000002</v>
       </c>
-      <c r="G279" s="3">
+      <c r="G279">
         <v>2.4900000000000002</v>
       </c>
-      <c r="H279" s="3">
+      <c r="H279">
         <v>4.4800000000000004</v>
       </c>
-      <c r="I279" s="2">
+      <c r="I279">
         <v>-3.26</v>
       </c>
     </row>
@@ -6539,16 +6535,16 @@
       <c r="A280" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G280" s="3">
+      <c r="G280">
         <v>2.61</v>
       </c>
-      <c r="H280" s="3">
+      <c r="H280">
         <v>2.66</v>
       </c>
-      <c r="I280" s="3">
+      <c r="I280">
         <v>1.49</v>
       </c>
-      <c r="J280" s="3">
+      <c r="J280">
         <v>2.12</v>
       </c>
     </row>
@@ -6556,16 +6552,16 @@
       <c r="A281" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="F281" s="3">
+      <c r="F281">
         <v>7.57</v>
       </c>
-      <c r="G281" s="3">
+      <c r="G281">
         <v>8.26</v>
       </c>
-      <c r="H281" s="3">
+      <c r="H281">
         <v>7.47</v>
       </c>
-      <c r="I281" s="3">
+      <c r="I281">
         <v>7.22</v>
       </c>
     </row>
@@ -6573,16 +6569,16 @@
       <c r="A282" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="G282" s="3">
+      <c r="G282">
         <v>10.220000000000001</v>
       </c>
-      <c r="H282" s="3">
+      <c r="H282">
         <v>11.71</v>
       </c>
-      <c r="I282" s="3">
+      <c r="I282">
         <v>12.75</v>
       </c>
-      <c r="J282" s="4">
+      <c r="J282">
         <v>0</v>
       </c>
     </row>
@@ -6590,16 +6586,16 @@
       <c r="A283" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="G283" s="3">
+      <c r="G283">
         <v>1.1599999999999999</v>
       </c>
-      <c r="H283" s="3">
+      <c r="H283">
         <v>2.87</v>
       </c>
-      <c r="I283" s="3">
+      <c r="I283">
         <v>2.71</v>
       </c>
-      <c r="J283" s="2">
+      <c r="J283">
         <v>-0.27</v>
       </c>
     </row>
@@ -6607,16 +6603,16 @@
       <c r="A284" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="F284" s="3">
+      <c r="F284">
         <v>5.01</v>
       </c>
-      <c r="G284" s="3">
+      <c r="G284">
         <v>5.98</v>
       </c>
-      <c r="H284" s="3">
+      <c r="H284">
         <v>5.0599999999999996</v>
       </c>
-      <c r="I284" s="2">
+      <c r="I284">
         <v>-13.03</v>
       </c>
     </row>
@@ -6624,10 +6620,10 @@
       <c r="A285" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="H285" s="3">
+      <c r="H285">
         <v>2.4900000000000002</v>
       </c>
-      <c r="I285" s="4">
+      <c r="I285">
         <v>0</v>
       </c>
     </row>
@@ -6635,13 +6631,13 @@
       <c r="A286" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G286" s="4">
-        <v>0</v>
-      </c>
-      <c r="H286" s="3">
+      <c r="G286">
+        <v>0</v>
+      </c>
+      <c r="H286">
         <v>2.74</v>
       </c>
-      <c r="I286" s="3">
+      <c r="I286">
         <v>2.66</v>
       </c>
     </row>
@@ -6649,16 +6645,16 @@
       <c r="A287" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G287" s="3">
+      <c r="G287">
         <v>2.72</v>
       </c>
-      <c r="H287" s="3">
+      <c r="H287">
         <v>3.36</v>
       </c>
-      <c r="I287" s="2">
+      <c r="I287">
         <v>-6.07</v>
       </c>
-      <c r="J287" s="4">
+      <c r="J287">
         <v>0</v>
       </c>
     </row>
@@ -6666,16 +6662,16 @@
       <c r="A288" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="F288" s="3">
+      <c r="F288">
         <v>2.09</v>
       </c>
-      <c r="G288" s="3">
+      <c r="G288">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H288" s="3">
+      <c r="H288">
         <v>2.4500000000000002</v>
       </c>
-      <c r="I288" s="3">
+      <c r="I288">
         <v>2.56</v>
       </c>
     </row>
@@ -6683,16 +6679,16 @@
       <c r="A289" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="F289" s="3">
+      <c r="F289">
         <v>4.59</v>
       </c>
-      <c r="G289" s="3">
+      <c r="G289">
         <v>4.5</v>
       </c>
-      <c r="H289" s="3">
+      <c r="H289">
         <v>5.67</v>
       </c>
-      <c r="I289" s="3">
+      <c r="I289">
         <v>6.11</v>
       </c>
     </row>
@@ -6700,16 +6696,16 @@
       <c r="A290" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="F290" s="3">
+      <c r="F290">
         <v>3.65</v>
       </c>
-      <c r="G290" s="2">
+      <c r="G290">
         <v>-4.9400000000000004</v>
       </c>
-      <c r="H290" s="3">
+      <c r="H290">
         <v>1.02</v>
       </c>
-      <c r="I290" s="3">
+      <c r="I290">
         <v>0.43</v>
       </c>
     </row>
@@ -6717,16 +6713,16 @@
       <c r="A291" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="G291" s="3">
+      <c r="G291">
         <v>1.93</v>
       </c>
-      <c r="H291" s="3">
+      <c r="H291">
         <v>4.4400000000000004</v>
       </c>
-      <c r="I291" s="3">
+      <c r="I291">
         <v>0.28999999999999998</v>
       </c>
-      <c r="J291" s="4">
+      <c r="J291">
         <v>0</v>
       </c>
     </row>
@@ -6734,16 +6730,16 @@
       <c r="A292" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="F292" s="2">
+      <c r="F292">
         <v>-8.8000000000000007</v>
       </c>
-      <c r="G292" s="3">
+      <c r="G292">
         <v>0.94</v>
       </c>
-      <c r="H292" s="3">
+      <c r="H292">
         <v>6.59</v>
       </c>
-      <c r="I292" s="2">
+      <c r="I292">
         <v>-21.18</v>
       </c>
     </row>
@@ -6751,16 +6747,16 @@
       <c r="A293" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="G293" s="4">
-        <v>0</v>
-      </c>
-      <c r="H293" s="4">
-        <v>0</v>
-      </c>
-      <c r="I293" s="4">
-        <v>0</v>
-      </c>
-      <c r="J293" s="3">
+      <c r="G293">
+        <v>0</v>
+      </c>
+      <c r="H293">
+        <v>0</v>
+      </c>
+      <c r="I293">
+        <v>0</v>
+      </c>
+      <c r="J293">
         <v>2.21</v>
       </c>
     </row>
@@ -6768,16 +6764,16 @@
       <c r="A294" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="G294" s="3">
+      <c r="G294">
         <v>1.97</v>
       </c>
-      <c r="H294" s="3">
+      <c r="H294">
         <v>1.01</v>
       </c>
-      <c r="I294" s="3">
+      <c r="I294">
         <v>1.55</v>
       </c>
-      <c r="J294" s="4">
+      <c r="J294">
         <v>0</v>
       </c>
     </row>
@@ -6785,16 +6781,16 @@
       <c r="A295" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="F295" s="3">
+      <c r="F295">
         <v>5.86</v>
       </c>
-      <c r="G295" s="3">
+      <c r="G295">
         <v>5.46</v>
       </c>
-      <c r="H295" s="3">
+      <c r="H295">
         <v>5.85</v>
       </c>
-      <c r="I295" s="2">
+      <c r="I295">
         <v>-1.99</v>
       </c>
     </row>
@@ -6802,16 +6798,16 @@
       <c r="A296" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="G296" s="3">
+      <c r="G296">
         <v>6.1</v>
       </c>
-      <c r="H296" s="3">
+      <c r="H296">
         <v>6.44</v>
       </c>
-      <c r="I296" s="3">
+      <c r="I296">
         <v>5.13</v>
       </c>
-      <c r="J296" s="4">
+      <c r="J296">
         <v>0</v>
       </c>
     </row>
@@ -6819,16 +6815,16 @@
       <c r="A297" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="G297" s="3">
+      <c r="G297">
         <v>1.4</v>
       </c>
-      <c r="H297" s="3">
+      <c r="H297">
         <v>1.87</v>
       </c>
-      <c r="I297" s="3">
+      <c r="I297">
         <v>1.77</v>
       </c>
-      <c r="J297" s="3">
+      <c r="J297">
         <v>0.78</v>
       </c>
     </row>
@@ -6836,16 +6832,16 @@
       <c r="A298" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="F298" s="3">
+      <c r="F298">
         <v>2.82</v>
       </c>
-      <c r="G298" s="3">
+      <c r="G298">
         <v>3.01</v>
       </c>
-      <c r="H298" s="3">
+      <c r="H298">
         <v>3.34</v>
       </c>
-      <c r="I298" s="3">
+      <c r="I298">
         <v>4.03</v>
       </c>
     </row>
@@ -6853,16 +6849,16 @@
       <c r="A299" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="F299" s="3">
+      <c r="F299">
         <v>1.58</v>
       </c>
-      <c r="G299" s="3">
+      <c r="G299">
         <v>1.52</v>
       </c>
-      <c r="H299" s="3">
+      <c r="H299">
         <v>2.2200000000000002</v>
       </c>
-      <c r="I299" s="3">
+      <c r="I299">
         <v>1.1100000000000001</v>
       </c>
     </row>
@@ -6870,16 +6866,16 @@
       <c r="A300" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="G300" s="3">
+      <c r="G300">
         <v>0.91</v>
       </c>
-      <c r="H300" s="3">
+      <c r="H300">
         <v>0.75</v>
       </c>
-      <c r="I300" s="3">
+      <c r="I300">
         <v>1.1399999999999999</v>
       </c>
-      <c r="J300" s="3">
+      <c r="J300">
         <v>1.1299999999999999</v>
       </c>
     </row>
@@ -6887,16 +6883,16 @@
       <c r="A301" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="F301" s="3">
+      <c r="F301">
         <v>1.38</v>
       </c>
-      <c r="G301" s="3">
+      <c r="G301">
         <v>1.64</v>
       </c>
-      <c r="H301" s="3">
+      <c r="H301">
         <v>1.37</v>
       </c>
-      <c r="I301" s="3">
+      <c r="I301">
         <v>1.3</v>
       </c>
     </row>
@@ -6904,16 +6900,16 @@
       <c r="A302" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="G302" s="4">
-        <v>0</v>
-      </c>
-      <c r="H302" s="4">
-        <v>0</v>
-      </c>
-      <c r="I302" s="4">
-        <v>0</v>
-      </c>
-      <c r="J302" s="4">
+      <c r="G302">
+        <v>0</v>
+      </c>
+      <c r="H302">
+        <v>0</v>
+      </c>
+      <c r="I302">
+        <v>0</v>
+      </c>
+      <c r="J302">
         <v>0</v>
       </c>
     </row>
@@ -6921,16 +6917,16 @@
       <c r="A303" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="G303" s="4">
-        <v>0</v>
-      </c>
-      <c r="H303" s="3">
+      <c r="G303">
+        <v>0</v>
+      </c>
+      <c r="H303">
         <v>0.41</v>
       </c>
-      <c r="I303" s="2">
+      <c r="I303">
         <v>-0.26</v>
       </c>
-      <c r="J303" s="3">
+      <c r="J303">
         <v>0.3</v>
       </c>
     </row>
@@ -6938,16 +6934,16 @@
       <c r="A304" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="F304" s="3">
+      <c r="F304">
         <v>0.86</v>
       </c>
-      <c r="G304" s="3">
+      <c r="G304">
         <v>1.06</v>
       </c>
-      <c r="H304" s="3">
+      <c r="H304">
         <v>1.04</v>
       </c>
-      <c r="I304" s="3">
+      <c r="I304">
         <v>1.0900000000000001</v>
       </c>
     </row>
@@ -6955,16 +6951,16 @@
       <c r="A305" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="F305" s="3">
+      <c r="F305">
         <v>1.75</v>
       </c>
-      <c r="G305" s="3">
+      <c r="G305">
         <v>1.29</v>
       </c>
-      <c r="H305" s="3">
+      <c r="H305">
         <v>1.5</v>
       </c>
-      <c r="I305" s="3">
+      <c r="I305">
         <v>1.17</v>
       </c>
     </row>
@@ -6972,16 +6968,16 @@
       <c r="A306" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G306" s="3">
+      <c r="G306">
         <v>3.73</v>
       </c>
-      <c r="H306" s="3">
+      <c r="H306">
         <v>4.2699999999999996</v>
       </c>
-      <c r="I306" s="3">
+      <c r="I306">
         <v>4.43</v>
       </c>
-      <c r="J306" s="4">
+      <c r="J306">
         <v>0</v>
       </c>
     </row>
@@ -6989,16 +6985,16 @@
       <c r="A307" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="F307" s="3">
+      <c r="F307">
         <v>4.83</v>
       </c>
-      <c r="G307" s="3">
+      <c r="G307">
         <v>6.14</v>
       </c>
-      <c r="H307" s="3">
+      <c r="H307">
         <v>7.46</v>
       </c>
-      <c r="I307" s="3">
+      <c r="I307">
         <v>9.32</v>
       </c>
     </row>
@@ -7006,16 +7002,16 @@
       <c r="A308" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="F308" s="3">
+      <c r="F308">
         <v>5.67</v>
       </c>
-      <c r="G308" s="3">
+      <c r="G308">
         <v>7.33</v>
       </c>
-      <c r="H308" s="3">
+      <c r="H308">
         <v>0.79</v>
       </c>
-      <c r="I308" s="2">
+      <c r="I308">
         <v>-10.23</v>
       </c>
     </row>
@@ -7023,16 +7019,16 @@
       <c r="A309" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="G309" s="3">
+      <c r="G309">
         <v>1.56</v>
       </c>
-      <c r="H309" s="3">
+      <c r="H309">
         <v>1.72</v>
       </c>
-      <c r="I309" s="3">
+      <c r="I309">
         <v>1.86</v>
       </c>
-      <c r="J309" s="3">
+      <c r="J309">
         <v>2.1</v>
       </c>
     </row>
@@ -7040,16 +7036,16 @@
       <c r="A310" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="F310" s="3">
+      <c r="F310">
         <v>0.72</v>
       </c>
-      <c r="G310" s="3">
+      <c r="G310">
         <v>0.74</v>
       </c>
-      <c r="H310" s="3">
+      <c r="H310">
         <v>0.84</v>
       </c>
-      <c r="I310" s="3">
+      <c r="I310">
         <v>0.86</v>
       </c>
     </row>
@@ -7057,16 +7053,16 @@
       <c r="A311" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="F311" s="3">
+      <c r="F311">
         <v>2.2200000000000002</v>
       </c>
-      <c r="G311" s="3">
+      <c r="G311">
         <v>0.71</v>
       </c>
-      <c r="H311" s="3">
+      <c r="H311">
         <v>1.65</v>
       </c>
-      <c r="I311" s="3">
+      <c r="I311">
         <v>2.04</v>
       </c>
     </row>
@@ -7074,16 +7070,16 @@
       <c r="A312" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="F312" s="3">
+      <c r="F312">
         <v>3.13</v>
       </c>
-      <c r="G312" s="3">
+      <c r="G312">
         <v>3.31</v>
       </c>
-      <c r="H312" s="3">
+      <c r="H312">
         <v>3.83</v>
       </c>
-      <c r="I312" s="3">
+      <c r="I312">
         <v>4.5199999999999996</v>
       </c>
     </row>
@@ -7091,16 +7087,16 @@
       <c r="A313" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="G313" s="3">
+      <c r="G313">
         <v>1.83</v>
       </c>
-      <c r="H313" s="3">
+      <c r="H313">
         <v>3.07</v>
       </c>
-      <c r="I313" s="3">
+      <c r="I313">
         <v>1.81</v>
       </c>
-      <c r="J313" s="4">
+      <c r="J313">
         <v>0</v>
       </c>
     </row>
@@ -7108,16 +7104,16 @@
       <c r="A314" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="F314" s="3">
+      <c r="F314">
         <v>28.48</v>
       </c>
-      <c r="G314" s="3">
+      <c r="G314">
         <v>37.17</v>
       </c>
-      <c r="H314" s="3">
+      <c r="H314">
         <v>46.3</v>
       </c>
-      <c r="I314" s="3">
+      <c r="I314">
         <v>50.09</v>
       </c>
     </row>
@@ -7125,16 +7121,16 @@
       <c r="A315" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="G315" s="3">
+      <c r="G315">
         <v>2.04</v>
       </c>
-      <c r="H315" s="3">
+      <c r="H315">
         <v>1.99</v>
       </c>
-      <c r="I315" s="3">
+      <c r="I315">
         <v>2.2599999999999998</v>
       </c>
-      <c r="J315" s="3">
+      <c r="J315">
         <v>1.93</v>
       </c>
     </row>
@@ -7142,16 +7138,16 @@
       <c r="A316" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="F316" s="3">
+      <c r="F316">
         <v>2.52</v>
       </c>
-      <c r="G316" s="3">
+      <c r="G316">
         <v>2.46</v>
       </c>
-      <c r="H316" s="3">
+      <c r="H316">
         <v>3</v>
       </c>
-      <c r="I316" s="3">
+      <c r="I316">
         <v>3.32</v>
       </c>
     </row>
@@ -7159,16 +7155,16 @@
       <c r="A317" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="G317" s="3">
+      <c r="G317">
         <v>4.37</v>
       </c>
-      <c r="H317" s="3">
+      <c r="H317">
         <v>4.3099999999999996</v>
       </c>
-      <c r="I317" s="3">
+      <c r="I317">
         <v>3.71</v>
       </c>
-      <c r="J317" s="4">
+      <c r="J317">
         <v>0</v>
       </c>
     </row>
@@ -7176,16 +7172,16 @@
       <c r="A318" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="F318" s="3">
+      <c r="F318">
         <v>1.96</v>
       </c>
-      <c r="G318" s="3">
+      <c r="G318">
         <v>3.23</v>
       </c>
-      <c r="H318" s="3">
+      <c r="H318">
         <v>1.44</v>
       </c>
-      <c r="I318" s="3">
+      <c r="I318">
         <v>1.1299999999999999</v>
       </c>
     </row>
@@ -7193,16 +7189,16 @@
       <c r="A319" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="G319" s="3">
+      <c r="G319">
         <v>2.99</v>
       </c>
-      <c r="H319" s="3">
+      <c r="H319">
         <v>3.7</v>
       </c>
-      <c r="I319" s="3">
+      <c r="I319">
         <v>4.1100000000000003</v>
       </c>
-      <c r="J319" s="4">
+      <c r="J319">
         <v>0</v>
       </c>
     </row>
@@ -7210,16 +7206,16 @@
       <c r="A320" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="G320" s="4">
-        <v>0</v>
-      </c>
-      <c r="H320" s="4">
-        <v>0</v>
-      </c>
-      <c r="I320" s="4">
-        <v>0</v>
-      </c>
-      <c r="J320" s="4">
+      <c r="G320">
+        <v>0</v>
+      </c>
+      <c r="H320">
+        <v>0</v>
+      </c>
+      <c r="I320">
+        <v>0</v>
+      </c>
+      <c r="J320">
         <v>0</v>
       </c>
     </row>
@@ -7227,16 +7223,16 @@
       <c r="A321" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="F321" s="3">
+      <c r="F321">
         <v>1.5</v>
       </c>
-      <c r="G321" s="3">
+      <c r="G321">
         <v>1.95</v>
       </c>
-      <c r="H321" s="3">
+      <c r="H321">
         <v>2.17</v>
       </c>
-      <c r="I321" s="3">
+      <c r="I321">
         <v>2.16</v>
       </c>
     </row>
@@ -7244,16 +7240,16 @@
       <c r="A322" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="G322" s="3">
+      <c r="G322">
         <v>6.36</v>
       </c>
-      <c r="H322" s="3">
+      <c r="H322">
         <v>6.98</v>
       </c>
-      <c r="I322" s="3">
+      <c r="I322">
         <v>7.08</v>
       </c>
-      <c r="J322" s="3">
+      <c r="J322">
         <v>5.96</v>
       </c>
     </row>
@@ -7261,16 +7257,16 @@
       <c r="A323" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="G323" s="3">
+      <c r="G323">
         <v>6.79</v>
       </c>
-      <c r="H323" s="3">
+      <c r="H323">
         <v>1.27</v>
       </c>
-      <c r="I323" s="3">
+      <c r="I323">
         <v>1.38</v>
       </c>
-      <c r="J323" s="4">
+      <c r="J323">
         <v>0</v>
       </c>
     </row>
@@ -7278,16 +7274,16 @@
       <c r="A324" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="F324" s="3">
+      <c r="F324">
         <v>0.61</v>
       </c>
-      <c r="G324" s="3">
+      <c r="G324">
         <v>1.49</v>
       </c>
-      <c r="H324" s="3">
+      <c r="H324">
         <v>1.4</v>
       </c>
-      <c r="J324" s="3">
+      <c r="J324">
         <v>1.89</v>
       </c>
     </row>
@@ -7295,16 +7291,16 @@
       <c r="A325" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G325" s="3">
+      <c r="G325">
         <v>5.26</v>
       </c>
-      <c r="H325" s="3">
+      <c r="H325">
         <v>4.76</v>
       </c>
-      <c r="I325" s="3">
+      <c r="I325">
         <v>4.42</v>
       </c>
-      <c r="J325" s="4">
+      <c r="J325">
         <v>0</v>
       </c>
     </row>
@@ -7312,16 +7308,16 @@
       <c r="A326" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="F326" s="3">
+      <c r="F326">
         <v>5.36</v>
       </c>
-      <c r="G326" s="3">
+      <c r="G326">
         <v>7.48</v>
       </c>
-      <c r="H326" s="3">
+      <c r="H326">
         <v>7.44</v>
       </c>
-      <c r="I326" s="3">
+      <c r="I326">
         <v>7.52</v>
       </c>
     </row>
@@ -7329,16 +7325,16 @@
       <c r="A327" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="F327" s="2">
+      <c r="F327">
         <v>-0.84</v>
       </c>
-      <c r="G327" s="3">
+      <c r="G327">
         <v>2.67</v>
       </c>
-      <c r="H327" s="3">
+      <c r="H327">
         <v>1.1299999999999999</v>
       </c>
-      <c r="I327" s="2">
+      <c r="I327">
         <v>-0.42</v>
       </c>
     </row>
@@ -7346,16 +7342,16 @@
       <c r="A328" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="F328" s="3">
+      <c r="F328">
         <v>3.48</v>
       </c>
-      <c r="G328" s="3">
+      <c r="G328">
         <v>3.69</v>
       </c>
-      <c r="H328" s="3">
+      <c r="H328">
         <v>3.59</v>
       </c>
-      <c r="I328" s="3">
+      <c r="I328">
         <v>3.94</v>
       </c>
     </row>
@@ -7363,16 +7359,16 @@
       <c r="A329" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="G329" s="3">
+      <c r="G329">
         <v>22.53</v>
       </c>
-      <c r="H329" s="3">
+      <c r="H329">
         <v>15.2</v>
       </c>
-      <c r="I329" s="3">
+      <c r="I329">
         <v>5.18</v>
       </c>
-      <c r="J329" s="4">
+      <c r="J329">
         <v>0</v>
       </c>
     </row>
@@ -7380,16 +7376,16 @@
       <c r="A330" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="F330" s="3">
+      <c r="F330">
         <v>2.61</v>
       </c>
-      <c r="G330" s="3">
+      <c r="G330">
         <v>1.85</v>
       </c>
-      <c r="H330" s="3">
+      <c r="H330">
         <v>2.64</v>
       </c>
-      <c r="I330" s="3">
+      <c r="I330">
         <v>1.01</v>
       </c>
     </row>
@@ -7397,16 +7393,16 @@
       <c r="A331" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="F331" s="2">
+      <c r="F331">
         <v>-0.48</v>
       </c>
-      <c r="G331" s="2">
+      <c r="G331">
         <v>-1.55</v>
       </c>
-      <c r="H331" s="2">
+      <c r="H331">
         <v>-2.69</v>
       </c>
-      <c r="I331" s="3">
+      <c r="I331">
         <v>12.37</v>
       </c>
     </row>
@@ -7414,16 +7410,16 @@
       <c r="A332" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="F332" s="3">
+      <c r="F332">
         <v>6.55</v>
       </c>
-      <c r="G332" s="3">
+      <c r="G332">
         <v>6.07</v>
       </c>
-      <c r="H332" s="3">
+      <c r="H332">
         <v>8.4</v>
       </c>
-      <c r="I332" s="3">
+      <c r="I332">
         <v>7.78</v>
       </c>
     </row>
@@ -7431,16 +7427,16 @@
       <c r="A333" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="G333" s="3">
+      <c r="G333">
         <v>5.98</v>
       </c>
-      <c r="H333" s="3">
+      <c r="H333">
         <v>1.77</v>
       </c>
-      <c r="I333" s="3">
+      <c r="I333">
         <v>5.33</v>
       </c>
-      <c r="J333" s="3">
+      <c r="J333">
         <v>6.95</v>
       </c>
     </row>
@@ -7448,16 +7444,16 @@
       <c r="A334" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="F334" s="3">
+      <c r="F334">
         <v>1.44</v>
       </c>
-      <c r="G334" s="3">
+      <c r="G334">
         <v>1.87</v>
       </c>
-      <c r="H334" s="3">
+      <c r="H334">
         <v>1.35</v>
       </c>
-      <c r="I334" s="3">
+      <c r="I334">
         <v>1.59</v>
       </c>
     </row>
@@ -7465,16 +7461,16 @@
       <c r="A335" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="F335" s="3">
+      <c r="F335">
         <v>5.67</v>
       </c>
-      <c r="G335" s="3">
+      <c r="G335">
         <v>5.94</v>
       </c>
-      <c r="H335" s="3">
+      <c r="H335">
         <v>5.79</v>
       </c>
-      <c r="I335" s="3">
+      <c r="I335">
         <v>5.39</v>
       </c>
     </row>
@@ -7482,13 +7478,13 @@
       <c r="A336" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="H336" s="4">
-        <v>0</v>
-      </c>
-      <c r="I336" s="3">
+      <c r="H336">
+        <v>0</v>
+      </c>
+      <c r="I336">
         <v>1</v>
       </c>
-      <c r="J336" s="4">
+      <c r="J336">
         <v>0</v>
       </c>
     </row>
@@ -7496,16 +7492,16 @@
       <c r="A337" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="G337" s="3">
+      <c r="G337">
         <v>3.99</v>
       </c>
-      <c r="H337" s="3">
+      <c r="H337">
         <v>4.7300000000000004</v>
       </c>
-      <c r="I337" s="3">
+      <c r="I337">
         <v>3.26</v>
       </c>
-      <c r="J337" s="3">
+      <c r="J337">
         <v>3.84</v>
       </c>
     </row>
@@ -7513,13 +7509,13 @@
       <c r="A338" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="H338" s="4">
-        <v>0</v>
-      </c>
-      <c r="I338" s="3">
+      <c r="H338">
+        <v>0</v>
+      </c>
+      <c r="I338">
         <v>2.17</v>
       </c>
-      <c r="J338" s="2">
+      <c r="J338">
         <v>-0.2</v>
       </c>
     </row>
@@ -7527,16 +7523,16 @@
       <c r="A339" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="G339" s="3">
+      <c r="G339">
         <v>4.57</v>
       </c>
-      <c r="H339" s="3">
+      <c r="H339">
         <v>4.1399999999999997</v>
       </c>
-      <c r="I339" s="3">
+      <c r="I339">
         <v>5.75</v>
       </c>
-      <c r="J339" s="4">
+      <c r="J339">
         <v>0</v>
       </c>
     </row>
@@ -7544,16 +7540,16 @@
       <c r="A340" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="F340" s="3">
+      <c r="F340">
         <v>0.08</v>
       </c>
-      <c r="G340" s="3">
+      <c r="G340">
         <v>2.16</v>
       </c>
-      <c r="H340" s="3">
+      <c r="H340">
         <v>3.45</v>
       </c>
-      <c r="I340" s="3">
+      <c r="I340">
         <v>3.03</v>
       </c>
     </row>
@@ -7561,16 +7557,16 @@
       <c r="A341" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="G341" s="3">
+      <c r="G341">
         <v>4.33</v>
       </c>
-      <c r="H341" s="3">
+      <c r="H341">
         <v>3.46</v>
       </c>
-      <c r="I341" s="3">
+      <c r="I341">
         <v>6.17</v>
       </c>
-      <c r="J341" s="4">
+      <c r="J341">
         <v>0</v>
       </c>
     </row>
@@ -7578,16 +7574,16 @@
       <c r="A342" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="G342" s="3">
+      <c r="G342">
         <v>1.85</v>
       </c>
-      <c r="H342" s="3">
+      <c r="H342">
         <v>2.2799999999999998</v>
       </c>
-      <c r="I342" s="3">
+      <c r="I342">
         <v>2.72</v>
       </c>
-      <c r="J342" s="4">
+      <c r="J342">
         <v>0</v>
       </c>
     </row>
@@ -7595,16 +7591,16 @@
       <c r="A343" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="G343" s="3">
+      <c r="G343">
         <v>0.78</v>
       </c>
-      <c r="H343" s="3">
+      <c r="H343">
         <v>0.94</v>
       </c>
-      <c r="I343" s="3">
+      <c r="I343">
         <v>0.97</v>
       </c>
-      <c r="J343" s="3">
+      <c r="J343">
         <v>1.0900000000000001</v>
       </c>
     </row>
@@ -7612,16 +7608,16 @@
       <c r="A344" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="G344" s="3">
+      <c r="G344">
         <v>8.2100000000000009</v>
       </c>
-      <c r="H344" s="3">
+      <c r="H344">
         <v>8.5500000000000007</v>
       </c>
-      <c r="I344" s="3">
+      <c r="I344">
         <v>7.96</v>
       </c>
-      <c r="J344" s="3">
+      <c r="J344">
         <v>4.6500000000000004</v>
       </c>
     </row>
@@ -7629,16 +7625,16 @@
       <c r="A345" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="G345" s="3">
+      <c r="G345">
         <v>5.43</v>
       </c>
-      <c r="H345" s="3">
+      <c r="H345">
         <v>5.98</v>
       </c>
-      <c r="I345" s="3">
+      <c r="I345">
         <v>6.15</v>
       </c>
-      <c r="J345" s="3">
+      <c r="J345">
         <v>5.6</v>
       </c>
     </row>
@@ -7646,16 +7642,16 @@
       <c r="A346" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="F346" s="3">
+      <c r="F346">
         <v>4.95</v>
       </c>
-      <c r="G346" s="3">
+      <c r="G346">
         <v>5.43</v>
       </c>
-      <c r="H346" s="3">
+      <c r="H346">
         <v>6.47</v>
       </c>
-      <c r="I346" s="3">
+      <c r="I346">
         <v>6.92</v>
       </c>
     </row>
@@ -7663,16 +7659,16 @@
       <c r="A347" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G347" s="3">
+      <c r="G347">
         <v>3.59</v>
       </c>
-      <c r="H347" s="3">
+      <c r="H347">
         <v>3.93</v>
       </c>
-      <c r="I347" s="3">
+      <c r="I347">
         <v>4.47</v>
       </c>
-      <c r="J347" s="3">
+      <c r="J347">
         <v>2.5299999999999998</v>
       </c>
     </row>
@@ -7680,16 +7676,16 @@
       <c r="A348" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="F348" s="3">
+      <c r="F348">
         <v>0.08</v>
       </c>
-      <c r="G348" s="3">
+      <c r="G348">
         <v>0.71</v>
       </c>
-      <c r="H348" s="3">
+      <c r="H348">
         <v>3.81</v>
       </c>
-      <c r="I348" s="2">
+      <c r="I348">
         <v>-4.29</v>
       </c>
     </row>
@@ -7697,16 +7693,16 @@
       <c r="A349" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="G349" s="3">
+      <c r="G349">
         <v>1.63</v>
       </c>
-      <c r="H349" s="3">
+      <c r="H349">
         <v>1.54</v>
       </c>
-      <c r="I349" s="3">
+      <c r="I349">
         <v>2.14</v>
       </c>
-      <c r="J349" s="4">
+      <c r="J349">
         <v>0</v>
       </c>
     </row>
@@ -7714,16 +7710,16 @@
       <c r="A350" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="G350" s="3">
+      <c r="G350">
         <v>0.01</v>
       </c>
-      <c r="H350" s="3">
+      <c r="H350">
         <v>2.75</v>
       </c>
-      <c r="I350" s="3">
+      <c r="I350">
         <v>1.84</v>
       </c>
-      <c r="J350" s="3">
+      <c r="J350">
         <v>1.91</v>
       </c>
     </row>
@@ -7731,16 +7727,16 @@
       <c r="A351" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="F351" s="3">
+      <c r="F351">
         <v>3.2</v>
       </c>
-      <c r="G351" s="3">
+      <c r="G351">
         <v>3.4</v>
       </c>
-      <c r="H351" s="3">
+      <c r="H351">
         <v>3.79</v>
       </c>
-      <c r="I351" s="3">
+      <c r="I351">
         <v>5.22</v>
       </c>
     </row>
@@ -7748,16 +7744,16 @@
       <c r="A352" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="F352" s="3">
+      <c r="F352">
         <v>0.69</v>
       </c>
-      <c r="G352" s="3">
+      <c r="G352">
         <v>0.78</v>
       </c>
-      <c r="H352" s="3">
+      <c r="H352">
         <v>0.96</v>
       </c>
-      <c r="I352" s="3">
+      <c r="I352">
         <v>1.04</v>
       </c>
     </row>
@@ -7765,16 +7761,16 @@
       <c r="A353" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="F353" s="3">
+      <c r="F353">
         <v>1.44</v>
       </c>
-      <c r="G353" s="3">
+      <c r="G353">
         <v>1.55</v>
       </c>
-      <c r="H353" s="3">
+      <c r="H353">
         <v>1.61</v>
       </c>
-      <c r="I353" s="3">
+      <c r="I353">
         <v>0.28999999999999998</v>
       </c>
     </row>
@@ -7782,16 +7778,16 @@
       <c r="A354" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="G354" s="3">
+      <c r="G354">
         <v>0.64</v>
       </c>
-      <c r="H354" s="3">
+      <c r="H354">
         <v>1.22</v>
       </c>
-      <c r="I354" s="3">
+      <c r="I354">
         <v>1.63</v>
       </c>
-      <c r="J354" s="4">
+      <c r="J354">
         <v>0</v>
       </c>
     </row>
@@ -7799,16 +7795,16 @@
       <c r="A355" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="F355" s="3">
+      <c r="F355">
         <v>6.15</v>
       </c>
-      <c r="G355" s="3">
+      <c r="G355">
         <v>7.41</v>
       </c>
-      <c r="H355" s="3">
+      <c r="H355">
         <v>8.9499999999999993</v>
       </c>
-      <c r="I355" s="3">
+      <c r="I355">
         <v>11.38</v>
       </c>
     </row>
@@ -7816,16 +7812,16 @@
       <c r="A356" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="G356" s="3">
+      <c r="G356">
         <v>4.37</v>
       </c>
-      <c r="H356" s="3">
+      <c r="H356">
         <v>4.59</v>
       </c>
-      <c r="I356" s="4">
-        <v>0</v>
-      </c>
-      <c r="J356" s="3">
+      <c r="I356">
+        <v>0</v>
+      </c>
+      <c r="J356">
         <v>5.89</v>
       </c>
     </row>
@@ -7833,16 +7829,16 @@
       <c r="A357" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="G357" s="3">
+      <c r="G357">
         <v>5</v>
       </c>
-      <c r="H357" s="3">
+      <c r="H357">
         <v>5.42</v>
       </c>
-      <c r="I357" s="3">
+      <c r="I357">
         <v>3.33</v>
       </c>
-      <c r="J357" s="3">
+      <c r="J357">
         <v>5.77</v>
       </c>
     </row>
@@ -7850,16 +7846,16 @@
       <c r="A358" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F358" s="3">
+      <c r="F358">
         <v>1.75</v>
       </c>
-      <c r="G358" s="3">
+      <c r="G358">
         <v>0.39</v>
       </c>
-      <c r="H358" s="3">
+      <c r="H358">
         <v>0.59</v>
       </c>
-      <c r="I358" s="3">
+      <c r="I358">
         <v>1.02</v>
       </c>
     </row>
@@ -7867,13 +7863,13 @@
       <c r="A359" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="G359" s="4">
-        <v>0</v>
-      </c>
-      <c r="I359" s="3">
+      <c r="G359">
+        <v>0</v>
+      </c>
+      <c r="I359">
         <v>7.26</v>
       </c>
-      <c r="J359" s="3">
+      <c r="J359">
         <v>8.24</v>
       </c>
     </row>
@@ -7881,16 +7877,16 @@
       <c r="A360" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="F360" s="3">
+      <c r="F360">
         <v>4.4800000000000004</v>
       </c>
-      <c r="G360" s="3">
+      <c r="G360">
         <v>3.43</v>
       </c>
-      <c r="H360" s="3">
+      <c r="H360">
         <v>3.86</v>
       </c>
-      <c r="I360" s="3">
+      <c r="I360">
         <v>4.68</v>
       </c>
     </row>
@@ -7898,16 +7894,16 @@
       <c r="A361" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="F361" s="3">
+      <c r="F361">
         <v>2.7</v>
       </c>
-      <c r="G361" s="3">
+      <c r="G361">
         <v>1.88</v>
       </c>
-      <c r="H361" s="3">
+      <c r="H361">
         <v>2.19</v>
       </c>
-      <c r="I361" s="3">
+      <c r="I361">
         <v>2.6</v>
       </c>
     </row>
@@ -7915,16 +7911,16 @@
       <c r="A362" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="F362" s="3">
+      <c r="F362">
         <v>4.72</v>
       </c>
-      <c r="G362" s="3">
+      <c r="G362">
         <v>4.24</v>
       </c>
-      <c r="H362" s="3">
+      <c r="H362">
         <v>4.5199999999999996</v>
       </c>
-      <c r="I362" s="3">
+      <c r="I362">
         <v>5.88</v>
       </c>
     </row>
@@ -7932,16 +7928,16 @@
       <c r="A363" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="G363" s="3">
+      <c r="G363">
         <v>5.01</v>
       </c>
-      <c r="H363" s="2">
+      <c r="H363">
         <v>-0.42</v>
       </c>
-      <c r="I363" s="3">
+      <c r="I363">
         <v>4.26</v>
       </c>
-      <c r="J363" s="4">
+      <c r="J363">
         <v>0</v>
       </c>
     </row>
@@ -7949,16 +7945,16 @@
       <c r="A364" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="G364" s="2">
+      <c r="G364">
         <v>-0.31</v>
       </c>
-      <c r="H364" s="3">
+      <c r="H364">
         <v>0.95</v>
       </c>
-      <c r="I364" s="3">
+      <c r="I364">
         <v>0.21</v>
       </c>
-      <c r="J364" s="3">
+      <c r="J364">
         <v>0.59</v>
       </c>
     </row>
@@ -7966,16 +7962,16 @@
       <c r="A365" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="F365" s="3">
+      <c r="F365">
         <v>3.14</v>
       </c>
-      <c r="G365" s="3">
+      <c r="G365">
         <v>3.62</v>
       </c>
-      <c r="H365" s="3">
+      <c r="H365">
         <v>3.84</v>
       </c>
-      <c r="I365" s="3">
+      <c r="I365">
         <v>3.02</v>
       </c>
     </row>
@@ -7983,16 +7979,16 @@
       <c r="A366" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="F366" s="3">
+      <c r="F366">
         <v>3.56</v>
       </c>
-      <c r="G366" s="3">
+      <c r="G366">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H366" s="3">
+      <c r="H366">
         <v>4.72</v>
       </c>
-      <c r="I366" s="3">
+      <c r="I366">
         <v>5.43</v>
       </c>
     </row>
@@ -8000,16 +7996,16 @@
       <c r="A367" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="F367" s="3">
+      <c r="F367">
         <v>3.62</v>
       </c>
-      <c r="G367" s="3">
+      <c r="G367">
         <v>2.4300000000000002</v>
       </c>
-      <c r="H367" s="3">
+      <c r="H367">
         <v>3.26</v>
       </c>
-      <c r="I367" s="3">
+      <c r="I367">
         <v>3.62</v>
       </c>
     </row>
@@ -8017,16 +8013,16 @@
       <c r="A368" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="G368" s="3">
+      <c r="G368">
         <v>4.71</v>
       </c>
-      <c r="H368" s="3">
+      <c r="H368">
         <v>4.6500000000000004</v>
       </c>
-      <c r="I368" s="3">
+      <c r="I368">
         <v>4.53</v>
       </c>
-      <c r="J368" s="4">
+      <c r="J368">
         <v>0</v>
       </c>
     </row>
@@ -8034,16 +8030,16 @@
       <c r="A369" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="G369" s="3">
+      <c r="G369">
         <v>4.97</v>
       </c>
-      <c r="H369" s="3">
+      <c r="H369">
         <v>4.66</v>
       </c>
-      <c r="I369" s="3">
+      <c r="I369">
         <v>5.38</v>
       </c>
-      <c r="J369" s="3">
+      <c r="J369">
         <v>0.83</v>
       </c>
     </row>
@@ -8051,16 +8047,16 @@
       <c r="A370" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="G370" s="4">
-        <v>0</v>
-      </c>
-      <c r="H370" s="4">
-        <v>0</v>
-      </c>
-      <c r="I370" s="4">
-        <v>0</v>
-      </c>
-      <c r="J370" s="4">
+      <c r="G370">
+        <v>0</v>
+      </c>
+      <c r="H370">
+        <v>0</v>
+      </c>
+      <c r="I370">
+        <v>0</v>
+      </c>
+      <c r="J370">
         <v>0</v>
       </c>
     </row>
@@ -8068,13 +8064,13 @@
       <c r="A371" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="G371" s="3">
+      <c r="G371">
         <v>3.16</v>
       </c>
-      <c r="I371" s="4">
-        <v>0</v>
-      </c>
-      <c r="J371" s="3">
+      <c r="I371">
+        <v>0</v>
+      </c>
+      <c r="J371">
         <v>5.96</v>
       </c>
     </row>
@@ -8082,16 +8078,16 @@
       <c r="A372" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="G372" s="3">
+      <c r="G372">
         <v>1.48</v>
       </c>
-      <c r="H372" s="3">
+      <c r="H372">
         <v>2.44</v>
       </c>
-      <c r="I372" s="3">
+      <c r="I372">
         <v>4.21</v>
       </c>
-      <c r="J372" s="3">
+      <c r="J372">
         <v>5.27</v>
       </c>
     </row>
@@ -8099,16 +8095,16 @@
       <c r="A373" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="F373" s="2">
+      <c r="F373">
         <v>-2.0299999999999998</v>
       </c>
-      <c r="G373" s="3">
+      <c r="G373">
         <v>2.0099999999999998</v>
       </c>
-      <c r="H373" s="3">
+      <c r="H373">
         <v>2.63</v>
       </c>
-      <c r="I373" s="4">
+      <c r="I373">
         <v>0</v>
       </c>
     </row>
@@ -8116,16 +8112,16 @@
       <c r="A374" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="F374" s="4">
-        <v>0</v>
-      </c>
-      <c r="G374" s="4">
-        <v>0</v>
-      </c>
-      <c r="H374" s="3">
+      <c r="F374">
+        <v>0</v>
+      </c>
+      <c r="G374">
+        <v>0</v>
+      </c>
+      <c r="H374">
         <v>2.78</v>
       </c>
-      <c r="I374" s="3">
+      <c r="I374">
         <v>2.66</v>
       </c>
     </row>
@@ -8133,16 +8129,16 @@
       <c r="A375" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="G375" s="3">
+      <c r="G375">
         <v>2.66</v>
       </c>
-      <c r="H375" s="3">
+      <c r="H375">
         <v>1.36</v>
       </c>
-      <c r="I375" s="3">
+      <c r="I375">
         <v>3.82</v>
       </c>
-      <c r="J375" s="4">
+      <c r="J375">
         <v>0</v>
       </c>
     </row>
@@ -8150,16 +8146,16 @@
       <c r="A376" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="G376" s="3">
+      <c r="G376">
         <v>1.0900000000000001</v>
       </c>
-      <c r="H376" s="3">
+      <c r="H376">
         <v>1.29</v>
       </c>
-      <c r="I376" s="3">
+      <c r="I376">
         <v>1.27</v>
       </c>
-      <c r="J376" s="3">
+      <c r="J376">
         <v>3.71</v>
       </c>
     </row>
@@ -8167,16 +8163,16 @@
       <c r="A377" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="G377" s="3">
+      <c r="G377">
         <v>1.68</v>
       </c>
-      <c r="H377" s="3">
+      <c r="H377">
         <v>1.59</v>
       </c>
-      <c r="I377" s="3">
+      <c r="I377">
         <v>1.1599999999999999</v>
       </c>
-      <c r="J377" s="3">
+      <c r="J377">
         <v>1.66</v>
       </c>
     </row>
@@ -8184,16 +8180,16 @@
       <c r="A378" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="F378" s="3">
+      <c r="F378">
         <v>1.25</v>
       </c>
-      <c r="G378" s="3">
+      <c r="G378">
         <v>3.39</v>
       </c>
-      <c r="H378" s="3">
+      <c r="H378">
         <v>1.19</v>
       </c>
-      <c r="I378" s="3">
+      <c r="I378">
         <v>2.37</v>
       </c>
     </row>
@@ -8201,16 +8197,16 @@
       <c r="A379" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="G379" s="3">
+      <c r="G379">
         <v>3.1</v>
       </c>
-      <c r="H379" s="3">
+      <c r="H379">
         <v>2.78</v>
       </c>
-      <c r="I379" s="3">
+      <c r="I379">
         <v>1.94</v>
       </c>
-      <c r="J379" s="4">
+      <c r="J379">
         <v>0</v>
       </c>
     </row>
@@ -8218,16 +8214,16 @@
       <c r="A380" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="F380" s="3">
+      <c r="F380">
         <v>2.4900000000000002</v>
       </c>
-      <c r="G380" s="3">
+      <c r="G380">
         <v>2.31</v>
       </c>
-      <c r="H380" s="3">
+      <c r="H380">
         <v>2.36</v>
       </c>
-      <c r="I380" s="2">
+      <c r="I380">
         <v>-1.53</v>
       </c>
     </row>
@@ -8235,16 +8231,16 @@
       <c r="A381" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="G381" s="2">
+      <c r="G381">
         <v>-0.2</v>
       </c>
-      <c r="H381" s="3">
+      <c r="H381">
         <v>1.91</v>
       </c>
-      <c r="I381" s="3">
+      <c r="I381">
         <v>2.5</v>
       </c>
-      <c r="J381" s="3">
+      <c r="J381">
         <v>2.77</v>
       </c>
     </row>
@@ -8252,16 +8248,16 @@
       <c r="A382" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="G382" s="3">
+      <c r="G382">
         <v>3.05</v>
       </c>
-      <c r="H382" s="3">
+      <c r="H382">
         <v>4.34</v>
       </c>
-      <c r="I382" s="3">
+      <c r="I382">
         <v>5.98</v>
       </c>
-      <c r="J382" s="3">
+      <c r="J382">
         <v>5.49</v>
       </c>
     </row>
@@ -8269,16 +8265,16 @@
       <c r="A383" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="F383" s="3">
+      <c r="F383">
         <v>1.83</v>
       </c>
-      <c r="G383" s="3">
+      <c r="G383">
         <v>1.7</v>
       </c>
-      <c r="H383" s="4">
-        <v>0</v>
-      </c>
-      <c r="I383" s="3">
+      <c r="H383">
+        <v>0</v>
+      </c>
+      <c r="I383">
         <v>2.04</v>
       </c>
     </row>
@@ -8286,16 +8282,16 @@
       <c r="A384" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="G384" s="3">
+      <c r="G384">
         <v>4.57</v>
       </c>
-      <c r="H384" s="3">
+      <c r="H384">
         <v>3.1</v>
       </c>
-      <c r="I384" s="2">
+      <c r="I384">
         <v>-2.58</v>
       </c>
-      <c r="J384" s="3">
+      <c r="J384">
         <v>5.35</v>
       </c>
     </row>
@@ -8303,16 +8299,16 @@
       <c r="A385" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="G385" s="3">
+      <c r="G385">
         <v>3.28</v>
       </c>
-      <c r="H385" s="3">
+      <c r="H385">
         <v>1.42</v>
       </c>
-      <c r="I385" s="3">
+      <c r="I385">
         <v>3.75</v>
       </c>
-      <c r="J385" s="3">
+      <c r="J385">
         <v>3.61</v>
       </c>
     </row>
@@ -8320,16 +8316,16 @@
       <c r="A386" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="G386" s="3">
+      <c r="G386">
         <v>2.6</v>
       </c>
-      <c r="H386" s="3">
+      <c r="H386">
         <v>3</v>
       </c>
-      <c r="I386" s="3">
+      <c r="I386">
         <v>3.2</v>
       </c>
-      <c r="J386" s="3">
+      <c r="J386">
         <v>3.38</v>
       </c>
     </row>
@@ -8337,16 +8333,16 @@
       <c r="A387" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="F387" s="3">
+      <c r="F387">
         <v>5.48</v>
       </c>
-      <c r="G387" s="3">
+      <c r="G387">
         <v>5.76</v>
       </c>
-      <c r="H387" s="3">
+      <c r="H387">
         <v>4.1500000000000004</v>
       </c>
-      <c r="I387" s="3">
+      <c r="I387">
         <v>4.21</v>
       </c>
     </row>
@@ -8354,16 +8350,16 @@
       <c r="A388" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="F388" s="3">
+      <c r="F388">
         <v>3.24</v>
       </c>
-      <c r="G388" s="3">
+      <c r="G388">
         <v>3.53</v>
       </c>
-      <c r="H388" s="3">
+      <c r="H388">
         <v>4.76</v>
       </c>
-      <c r="I388" s="3">
+      <c r="I388">
         <v>4.96</v>
       </c>
     </row>
@@ -8371,16 +8367,16 @@
       <c r="A389" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="F389" s="3">
+      <c r="F389">
         <v>1.39</v>
       </c>
-      <c r="G389" s="3">
+      <c r="G389">
         <v>1.44</v>
       </c>
-      <c r="H389" s="3">
+      <c r="H389">
         <v>1.58</v>
       </c>
-      <c r="I389" s="3">
+      <c r="I389">
         <v>1.38</v>
       </c>
     </row>
@@ -8388,16 +8384,16 @@
       <c r="A390" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="G390" s="3">
+      <c r="G390">
         <v>9.84</v>
       </c>
-      <c r="H390" s="3">
+      <c r="H390">
         <v>10.82</v>
       </c>
-      <c r="I390" s="3">
+      <c r="I390">
         <v>10.99</v>
       </c>
-      <c r="J390" s="4">
+      <c r="J390">
         <v>0</v>
       </c>
     </row>
@@ -8405,16 +8401,16 @@
       <c r="A391" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="F391" s="3">
+      <c r="F391">
         <v>3.89</v>
       </c>
-      <c r="G391" s="3">
+      <c r="G391">
         <v>2.35</v>
       </c>
-      <c r="H391" s="3">
+      <c r="H391">
         <v>2.69</v>
       </c>
-      <c r="I391" s="3">
+      <c r="I391">
         <v>3.03</v>
       </c>
     </row>
@@ -8422,16 +8418,16 @@
       <c r="A392" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="G392" s="4">
-        <v>0</v>
-      </c>
-      <c r="H392" s="4">
-        <v>0</v>
-      </c>
-      <c r="I392" s="4">
-        <v>0</v>
-      </c>
-      <c r="J392" s="4">
+      <c r="G392">
+        <v>0</v>
+      </c>
+      <c r="H392">
+        <v>0</v>
+      </c>
+      <c r="I392">
+        <v>0</v>
+      </c>
+      <c r="J392">
         <v>0</v>
       </c>
     </row>
@@ -8439,16 +8435,16 @@
       <c r="A393" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="F393" s="3">
+      <c r="F393">
         <v>5.33</v>
       </c>
-      <c r="G393" s="3">
+      <c r="G393">
         <v>3.05</v>
       </c>
-      <c r="H393" s="3">
+      <c r="H393">
         <v>6.56</v>
       </c>
-      <c r="I393" s="3">
+      <c r="I393">
         <v>12.5</v>
       </c>
     </row>
@@ -8456,16 +8452,16 @@
       <c r="A394" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="F394" s="3">
+      <c r="F394">
         <v>1.3</v>
       </c>
-      <c r="G394" s="3">
+      <c r="G394">
         <v>1.3</v>
       </c>
-      <c r="H394" s="3">
+      <c r="H394">
         <v>1.73</v>
       </c>
-      <c r="I394" s="3">
+      <c r="I394">
         <v>1.98</v>
       </c>
     </row>
@@ -8473,16 +8469,16 @@
       <c r="A395" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="F395" s="3">
+      <c r="F395">
         <v>1.53</v>
       </c>
-      <c r="G395" s="3">
+      <c r="G395">
         <v>1.94</v>
       </c>
-      <c r="H395" s="3">
+      <c r="H395">
         <v>2.61</v>
       </c>
-      <c r="I395" s="3">
+      <c r="I395">
         <v>2.86</v>
       </c>
     </row>
@@ -8490,16 +8486,16 @@
       <c r="A396" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="F396" s="3">
+      <c r="F396">
         <v>2.1</v>
       </c>
-      <c r="G396" s="3">
+      <c r="G396">
         <v>1.78</v>
       </c>
-      <c r="I396" s="3">
+      <c r="I396">
         <v>2.15</v>
       </c>
-      <c r="J396" s="3">
+      <c r="J396">
         <v>2.52</v>
       </c>
     </row>
@@ -8507,16 +8503,16 @@
       <c r="A397" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="F397" s="3">
+      <c r="F397">
         <v>1.23</v>
       </c>
-      <c r="G397" s="3">
+      <c r="G397">
         <v>1.54</v>
       </c>
-      <c r="H397" s="3">
+      <c r="H397">
         <v>0.98</v>
       </c>
-      <c r="I397" s="3">
+      <c r="I397">
         <v>1.08</v>
       </c>
     </row>
@@ -8524,16 +8520,16 @@
       <c r="A398" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F398" s="4">
-        <v>0</v>
-      </c>
-      <c r="G398" s="4">
-        <v>0</v>
-      </c>
-      <c r="H398" s="4">
-        <v>0</v>
-      </c>
-      <c r="I398" s="4">
+      <c r="F398">
+        <v>0</v>
+      </c>
+      <c r="G398">
+        <v>0</v>
+      </c>
+      <c r="H398">
+        <v>0</v>
+      </c>
+      <c r="I398">
         <v>0</v>
       </c>
     </row>
@@ -8541,16 +8537,16 @@
       <c r="A399" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="F399" s="2">
+      <c r="F399">
         <v>-2.1800000000000002</v>
       </c>
-      <c r="G399" s="3">
+      <c r="G399">
         <v>1.64</v>
       </c>
-      <c r="H399" s="3">
+      <c r="H399">
         <v>3.05</v>
       </c>
-      <c r="I399" s="3">
+      <c r="I399">
         <v>19.52</v>
       </c>
     </row>
@@ -8558,16 +8554,16 @@
       <c r="A400" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="F400" s="3">
+      <c r="F400">
         <v>0.85</v>
       </c>
-      <c r="G400" s="3">
+      <c r="G400">
         <v>0.16</v>
       </c>
-      <c r="H400" s="3">
+      <c r="H400">
         <v>0.6</v>
       </c>
-      <c r="I400" s="3">
+      <c r="I400">
         <v>1.3</v>
       </c>
     </row>
@@ -8575,16 +8571,16 @@
       <c r="A401" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="F401" s="3">
+      <c r="F401">
         <v>4.57</v>
       </c>
-      <c r="G401" s="3">
+      <c r="G401">
         <v>5.21</v>
       </c>
-      <c r="H401" s="3">
+      <c r="H401">
         <v>5.52</v>
       </c>
-      <c r="I401" s="3">
+      <c r="I401">
         <v>6.89</v>
       </c>
     </row>
@@ -8592,16 +8588,16 @@
       <c r="A402" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="G402" s="3">
+      <c r="G402">
         <v>2.73</v>
       </c>
-      <c r="H402" s="4">
-        <v>0</v>
-      </c>
-      <c r="I402" s="3">
+      <c r="H402">
+        <v>0</v>
+      </c>
+      <c r="I402">
         <v>4</v>
       </c>
-      <c r="J402" s="4">
+      <c r="J402">
         <v>0</v>
       </c>
     </row>
@@ -8609,16 +8605,16 @@
       <c r="A403" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="G403" s="3">
+      <c r="G403">
         <v>5.59</v>
       </c>
-      <c r="H403" s="3">
+      <c r="H403">
         <v>5.78</v>
       </c>
-      <c r="I403" s="3">
+      <c r="I403">
         <v>6.1</v>
       </c>
-      <c r="J403" s="4">
+      <c r="J403">
         <v>0</v>
       </c>
     </row>
@@ -8626,16 +8622,16 @@
       <c r="A404" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="F404" s="3">
+      <c r="F404">
         <v>3.18</v>
       </c>
-      <c r="G404" s="3">
+      <c r="G404">
         <v>3.24</v>
       </c>
-      <c r="H404" s="3">
+      <c r="H404">
         <v>1.62</v>
       </c>
-      <c r="I404" s="3">
+      <c r="I404">
         <v>3.51</v>
       </c>
     </row>
@@ -8643,16 +8639,16 @@
       <c r="A405" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="G405" s="3">
+      <c r="G405">
         <v>9.4700000000000006</v>
       </c>
-      <c r="H405" s="3">
+      <c r="H405">
         <v>5.77</v>
       </c>
-      <c r="I405" s="3">
+      <c r="I405">
         <v>5.51</v>
       </c>
-      <c r="J405" s="4">
+      <c r="J405">
         <v>0</v>
       </c>
     </row>
@@ -8660,16 +8656,16 @@
       <c r="A406" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="F406" s="3">
+      <c r="F406">
         <v>0.84</v>
       </c>
-      <c r="G406" s="3">
+      <c r="G406">
         <v>4.6500000000000004</v>
       </c>
-      <c r="H406" s="3">
+      <c r="H406">
         <v>3.31</v>
       </c>
-      <c r="I406" s="3">
+      <c r="I406">
         <v>5.38</v>
       </c>
     </row>
@@ -8677,16 +8673,16 @@
       <c r="A407" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="G407" s="3">
+      <c r="G407">
         <v>1.63</v>
       </c>
-      <c r="H407" s="3">
+      <c r="H407">
         <v>1.92</v>
       </c>
-      <c r="I407" s="3">
+      <c r="I407">
         <v>1.7</v>
       </c>
-      <c r="J407" s="3">
+      <c r="J407">
         <v>1.79</v>
       </c>
     </row>
@@ -8694,16 +8690,16 @@
       <c r="A408" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="G408" s="4">
-        <v>0</v>
-      </c>
-      <c r="H408" s="4">
-        <v>0</v>
-      </c>
-      <c r="I408" s="4">
-        <v>0</v>
-      </c>
-      <c r="J408" s="4">
+      <c r="G408">
+        <v>0</v>
+      </c>
+      <c r="H408">
+        <v>0</v>
+      </c>
+      <c r="I408">
+        <v>0</v>
+      </c>
+      <c r="J408">
         <v>0</v>
       </c>
     </row>
@@ -8711,16 +8707,16 @@
       <c r="A409" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="G409" s="3">
+      <c r="G409">
         <v>6.35</v>
       </c>
-      <c r="H409" s="3">
+      <c r="H409">
         <v>6.92</v>
       </c>
-      <c r="I409" s="3">
+      <c r="I409">
         <v>8.7200000000000006</v>
       </c>
-      <c r="J409" s="4">
+      <c r="J409">
         <v>0</v>
       </c>
     </row>
@@ -8728,16 +8724,16 @@
       <c r="A410" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="G410" s="4">
-        <v>0</v>
-      </c>
-      <c r="H410" s="4">
-        <v>0</v>
-      </c>
-      <c r="I410" s="4">
-        <v>0</v>
-      </c>
-      <c r="J410" s="4">
+      <c r="G410">
+        <v>0</v>
+      </c>
+      <c r="H410">
+        <v>0</v>
+      </c>
+      <c r="I410">
+        <v>0</v>
+      </c>
+      <c r="J410">
         <v>0</v>
       </c>
     </row>
@@ -8745,16 +8741,16 @@
       <c r="A411" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="G411" s="3">
+      <c r="G411">
         <v>4.04</v>
       </c>
-      <c r="H411" s="3">
+      <c r="H411">
         <v>3.88</v>
       </c>
-      <c r="I411" s="3">
+      <c r="I411">
         <v>4.13</v>
       </c>
-      <c r="J411" s="3">
+      <c r="J411">
         <v>4.22</v>
       </c>
     </row>
@@ -8762,16 +8758,16 @@
       <c r="A412" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="F412" s="4">
-        <v>0</v>
-      </c>
-      <c r="G412" s="4">
-        <v>0</v>
-      </c>
-      <c r="I412" s="3">
+      <c r="F412">
+        <v>0</v>
+      </c>
+      <c r="G412">
+        <v>0</v>
+      </c>
+      <c r="I412">
         <v>2.42</v>
       </c>
-      <c r="J412" s="3">
+      <c r="J412">
         <v>2.9</v>
       </c>
     </row>
@@ -8779,16 +8775,16 @@
       <c r="A413" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="G413" s="3">
+      <c r="G413">
         <v>4.93</v>
       </c>
-      <c r="H413" s="3">
+      <c r="H413">
         <v>5.53</v>
       </c>
-      <c r="I413" s="3">
+      <c r="I413">
         <v>4.78</v>
       </c>
-      <c r="J413" s="3">
+      <c r="J413">
         <v>3.63</v>
       </c>
     </row>
@@ -8796,16 +8792,16 @@
       <c r="A414" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="F414" s="3">
+      <c r="F414">
         <v>3.77</v>
       </c>
-      <c r="G414" s="3">
+      <c r="G414">
         <v>4.99</v>
       </c>
-      <c r="H414" s="3">
+      <c r="H414">
         <v>6.88</v>
       </c>
-      <c r="I414" s="3">
+      <c r="I414">
         <v>8</v>
       </c>
     </row>
@@ -8813,16 +8809,16 @@
       <c r="A415" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="F415" s="2">
+      <c r="F415">
         <v>-0.41</v>
       </c>
-      <c r="G415" s="3">
+      <c r="G415">
         <v>0.19</v>
       </c>
-      <c r="H415" s="3">
+      <c r="H415">
         <v>1.56</v>
       </c>
-      <c r="I415" s="3">
+      <c r="I415">
         <v>1.66</v>
       </c>
     </row>
@@ -8830,16 +8826,16 @@
       <c r="A416" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="G416" s="3">
+      <c r="G416">
         <v>2.1</v>
       </c>
-      <c r="H416" s="3">
+      <c r="H416">
         <v>4.18</v>
       </c>
-      <c r="I416" s="3">
+      <c r="I416">
         <v>3.61</v>
       </c>
-      <c r="J416" s="4">
+      <c r="J416">
         <v>0</v>
       </c>
     </row>
@@ -8847,16 +8843,16 @@
       <c r="A417" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="F417" s="3">
+      <c r="F417">
         <v>1.98</v>
       </c>
-      <c r="G417" s="3">
+      <c r="G417">
         <v>2.0699999999999998</v>
       </c>
-      <c r="H417" s="3">
+      <c r="H417">
         <v>2.41</v>
       </c>
-      <c r="I417" s="3">
+      <c r="I417">
         <v>3.07</v>
       </c>
     </row>
@@ -8864,16 +8860,16 @@
       <c r="A418" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="F418" s="3">
+      <c r="F418">
         <v>2.04</v>
       </c>
-      <c r="G418" s="3">
+      <c r="G418">
         <v>3.77</v>
       </c>
-      <c r="H418" s="3">
+      <c r="H418">
         <v>2.8</v>
       </c>
-      <c r="I418" s="3">
+      <c r="I418">
         <v>3.29</v>
       </c>
     </row>
@@ -8881,16 +8877,16 @@
       <c r="A419" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="F419" s="2">
+      <c r="F419">
         <v>-0.5</v>
       </c>
-      <c r="G419" s="2">
+      <c r="G419">
         <v>-1.98</v>
       </c>
-      <c r="H419" s="2">
+      <c r="H419">
         <v>-3.14</v>
       </c>
-      <c r="I419" s="2">
+      <c r="I419">
         <v>-2.31</v>
       </c>
     </row>
@@ -8898,16 +8894,16 @@
       <c r="A420" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="G420" s="3">
+      <c r="G420">
         <v>1.55</v>
       </c>
-      <c r="H420" s="3">
+      <c r="H420">
         <v>1.62</v>
       </c>
-      <c r="I420" s="3">
+      <c r="I420">
         <v>1.26</v>
       </c>
-      <c r="J420" s="4">
+      <c r="J420">
         <v>0</v>
       </c>
     </row>
@@ -8915,16 +8911,16 @@
       <c r="A421" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="F421" s="3">
+      <c r="F421">
         <v>0.31</v>
       </c>
-      <c r="G421" s="3">
+      <c r="G421">
         <v>4.01</v>
       </c>
-      <c r="H421" s="3">
+      <c r="H421">
         <v>2.42</v>
       </c>
-      <c r="I421" s="3">
+      <c r="I421">
         <v>4.38</v>
       </c>
     </row>
@@ -8932,16 +8928,16 @@
       <c r="A422" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="F422" s="4">
-        <v>0</v>
-      </c>
-      <c r="G422" s="4">
-        <v>0</v>
-      </c>
-      <c r="H422" s="4">
-        <v>0</v>
-      </c>
-      <c r="I422" s="3">
+      <c r="F422">
+        <v>0</v>
+      </c>
+      <c r="G422">
+        <v>0</v>
+      </c>
+      <c r="H422">
+        <v>0</v>
+      </c>
+      <c r="I422">
         <v>5.7</v>
       </c>
     </row>
@@ -8949,16 +8945,16 @@
       <c r="A423" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="G423" s="3">
+      <c r="G423">
         <v>4.07</v>
       </c>
-      <c r="H423" s="3">
+      <c r="H423">
         <v>6.88</v>
       </c>
-      <c r="I423" s="3">
+      <c r="I423">
         <v>6.31</v>
       </c>
-      <c r="J423" s="3">
+      <c r="J423">
         <v>1.01</v>
       </c>
     </row>
@@ -8966,16 +8962,16 @@
       <c r="A424" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="F424" s="3">
+      <c r="F424">
         <v>2.37</v>
       </c>
-      <c r="G424" s="3">
+      <c r="G424">
         <v>2.54</v>
       </c>
-      <c r="H424" s="3">
+      <c r="H424">
         <v>2.61</v>
       </c>
-      <c r="I424" s="3">
+      <c r="I424">
         <v>2.36</v>
       </c>
     </row>
@@ -8983,16 +8979,16 @@
       <c r="A425" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="F425" s="3">
+      <c r="F425">
         <v>3.4</v>
       </c>
-      <c r="G425" s="3">
+      <c r="G425">
         <v>3.95</v>
       </c>
-      <c r="H425" s="3">
+      <c r="H425">
         <v>4.17</v>
       </c>
-      <c r="I425" s="3">
+      <c r="I425">
         <v>4.18</v>
       </c>
     </row>
@@ -9000,16 +8996,16 @@
       <c r="A426" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="G426" s="3">
+      <c r="G426">
         <v>1.48</v>
       </c>
-      <c r="H426" s="3">
+      <c r="H426">
         <v>1.57</v>
       </c>
-      <c r="I426" s="3">
+      <c r="I426">
         <v>1.49</v>
       </c>
-      <c r="J426" s="3">
+      <c r="J426">
         <v>1.55</v>
       </c>
     </row>
@@ -9017,16 +9013,16 @@
       <c r="A427" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="G427" s="3">
+      <c r="G427">
         <v>10.42</v>
       </c>
-      <c r="H427" s="3">
+      <c r="H427">
         <v>8.3000000000000007</v>
       </c>
-      <c r="I427" s="3">
+      <c r="I427">
         <v>9.9499999999999993</v>
       </c>
-      <c r="J427" s="4">
+      <c r="J427">
         <v>0</v>
       </c>
     </row>
@@ -9034,16 +9030,16 @@
       <c r="A428" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="F428" s="4">
-        <v>0</v>
-      </c>
-      <c r="G428" s="4">
-        <v>0</v>
-      </c>
-      <c r="H428" s="4">
-        <v>0</v>
-      </c>
-      <c r="I428" s="4">
+      <c r="F428">
+        <v>0</v>
+      </c>
+      <c r="G428">
+        <v>0</v>
+      </c>
+      <c r="H428">
+        <v>0</v>
+      </c>
+      <c r="I428">
         <v>0</v>
       </c>
     </row>
@@ -9051,10 +9047,10 @@
       <c r="A429" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="G429" s="3">
+      <c r="G429">
         <v>0.21</v>
       </c>
-      <c r="H429" s="3">
+      <c r="H429">
         <v>2.8</v>
       </c>
       <c r="I429">

--- a/earnings_per_share_pivot_table.xlsx
+++ b/earnings_per_share_pivot_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="941" documentId="11_2869E2F47DC3CC36B52C4C78752C31E77979E71B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04F30F8A-8A8A-49F4-B656-6A2351E6E13B}"/>
+  <xr:revisionPtr revIDLastSave="1651" documentId="11_2869E2F47DC3CC36B52C4C78752C31E77979E71B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{139E375F-6861-4DE4-88E0-725B77129089}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1787,9 +1787,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K449"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -5838,16 +5848,16 @@
       <c r="A239" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F239">
+      <c r="F239" s="3">
         <v>1.72</v>
       </c>
-      <c r="G239">
+      <c r="G239" s="3">
         <v>1.36</v>
       </c>
-      <c r="H239">
+      <c r="H239" s="3">
         <v>0.69</v>
       </c>
-      <c r="I239">
+      <c r="I239" s="3">
         <v>2.31</v>
       </c>
     </row>
@@ -5855,16 +5865,16 @@
       <c r="A240" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="G240">
+      <c r="G240" s="3">
         <v>2.48</v>
       </c>
-      <c r="H240">
+      <c r="H240" s="3">
         <v>3.12</v>
       </c>
-      <c r="I240">
+      <c r="I240" s="3">
         <v>3.87</v>
       </c>
-      <c r="J240">
+      <c r="J240" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5872,16 +5882,16 @@
       <c r="A241" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F241">
+      <c r="F241" s="3">
         <v>6.09</v>
       </c>
-      <c r="G241">
+      <c r="G241" s="3">
         <v>6.36</v>
       </c>
-      <c r="H241">
-        <v>0</v>
-      </c>
-      <c r="I241">
+      <c r="H241" s="4">
+        <v>0</v>
+      </c>
+      <c r="I241" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5889,16 +5899,16 @@
       <c r="A242" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="F242">
+      <c r="F242" s="3">
         <v>0.88</v>
       </c>
-      <c r="G242">
-        <v>0</v>
-      </c>
-      <c r="H242">
-        <v>0</v>
-      </c>
-      <c r="I242">
+      <c r="G242" s="4">
+        <v>0</v>
+      </c>
+      <c r="H242" s="4">
+        <v>0</v>
+      </c>
+      <c r="I242" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5906,16 +5916,16 @@
       <c r="A243" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="F243">
+      <c r="F243" s="3">
         <v>8.41</v>
       </c>
-      <c r="G243">
+      <c r="G243" s="3">
         <v>8.6999999999999993</v>
       </c>
-      <c r="H243">
+      <c r="H243" s="3">
         <v>7.78</v>
       </c>
-      <c r="I243">
+      <c r="I243" s="2">
         <v>-2.97</v>
       </c>
     </row>
@@ -5923,16 +5933,16 @@
       <c r="A244" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G244">
+      <c r="G244" s="3">
         <v>1.72</v>
       </c>
-      <c r="H244">
+      <c r="H244" s="3">
         <v>1.91</v>
       </c>
-      <c r="I244">
+      <c r="I244" s="3">
         <v>2.13</v>
       </c>
-      <c r="J244">
+      <c r="J244" s="3">
         <v>2.02</v>
       </c>
     </row>
@@ -5940,16 +5950,16 @@
       <c r="A245" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="F245">
+      <c r="F245" s="3">
         <v>3.67</v>
       </c>
-      <c r="G245">
+      <c r="G245" s="3">
         <v>4.33</v>
       </c>
-      <c r="H245">
+      <c r="H245" s="3">
         <v>2.23</v>
       </c>
-      <c r="I245">
+      <c r="I245" s="3">
         <v>2.27</v>
       </c>
     </row>
@@ -5957,16 +5967,16 @@
       <c r="A246" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="G246">
+      <c r="G246" s="3">
         <v>9.2899999999999991</v>
       </c>
-      <c r="H246">
+      <c r="H246" s="3">
         <v>11.41</v>
       </c>
-      <c r="I246">
+      <c r="I246" s="3">
         <v>11.62</v>
       </c>
-      <c r="J246">
+      <c r="J246" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5974,16 +5984,16 @@
       <c r="A247" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F247">
+      <c r="F247" s="3">
         <v>2.89</v>
       </c>
-      <c r="G247">
+      <c r="G247" s="3">
         <v>3.23</v>
       </c>
-      <c r="H247">
+      <c r="H247" s="3">
         <v>3.46</v>
       </c>
-      <c r="I247">
+      <c r="I247" s="3">
         <v>3.36</v>
       </c>
     </row>
@@ -5991,16 +6001,16 @@
       <c r="A248" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G248">
+      <c r="G248" s="3">
         <v>1.69</v>
       </c>
-      <c r="H248">
+      <c r="H248" s="3">
         <v>2.14</v>
       </c>
-      <c r="I248">
+      <c r="I248" s="3">
         <v>2.71</v>
       </c>
-      <c r="J248">
+      <c r="J248" s="3">
         <v>2.73</v>
       </c>
     </row>
@@ -6008,16 +6018,16 @@
       <c r="A249" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="G249">
+      <c r="G249" s="3">
         <v>0.67</v>
       </c>
-      <c r="H249">
+      <c r="H249" s="3">
         <v>3.84</v>
       </c>
-      <c r="I249">
+      <c r="I249" s="3">
         <v>4.1100000000000003</v>
       </c>
-      <c r="J249">
+      <c r="J249" s="3">
         <v>5.75</v>
       </c>
     </row>
@@ -6025,16 +6035,16 @@
       <c r="A250" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F250">
+      <c r="F250" s="3">
         <v>3.49</v>
       </c>
-      <c r="G250">
+      <c r="G250" s="3">
         <v>1.07</v>
       </c>
-      <c r="H250">
+      <c r="H250" s="3">
         <v>0.54</v>
       </c>
-      <c r="I250">
+      <c r="I250" s="3">
         <v>0.74</v>
       </c>
     </row>
@@ -6042,16 +6052,16 @@
       <c r="A251" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="G251">
+      <c r="G251" s="3">
         <v>1.06</v>
       </c>
-      <c r="H251">
+      <c r="H251" s="3">
         <v>1.65</v>
       </c>
-      <c r="I251">
+      <c r="I251" s="3">
         <v>3.3</v>
       </c>
-      <c r="J251">
+      <c r="J251" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6059,16 +6069,16 @@
       <c r="A252" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="F252">
+      <c r="F252" s="2">
         <v>-1.96</v>
       </c>
-      <c r="G252">
+      <c r="G252" s="2">
         <v>-0.49</v>
       </c>
-      <c r="H252">
+      <c r="H252" s="3">
         <v>1.23</v>
       </c>
-      <c r="I252">
+      <c r="I252" s="3">
         <v>9.7100000000000009</v>
       </c>
     </row>
@@ -6076,16 +6086,16 @@
       <c r="A253" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F253">
+      <c r="F253" s="3">
         <v>4.97</v>
       </c>
-      <c r="G253">
+      <c r="G253" s="3">
         <v>6.8</v>
       </c>
-      <c r="H253">
+      <c r="H253" s="3">
         <v>8.0299999999999994</v>
       </c>
-      <c r="I253">
+      <c r="I253" s="3">
         <v>9.6199999999999992</v>
       </c>
     </row>
@@ -6093,16 +6103,16 @@
       <c r="A254" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="G254">
+      <c r="G254" s="3">
         <v>3.29</v>
       </c>
-      <c r="H254">
+      <c r="H254" s="3">
         <v>3.93</v>
       </c>
-      <c r="I254">
+      <c r="I254" s="3">
         <v>4.3</v>
       </c>
-      <c r="J254">
+      <c r="J254" s="3">
         <v>3.26</v>
       </c>
     </row>
@@ -6110,16 +6120,16 @@
       <c r="A255" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="G255">
+      <c r="G255" s="3">
         <v>2.57</v>
       </c>
-      <c r="H255">
+      <c r="H255" s="3">
         <v>3.11</v>
       </c>
-      <c r="I255">
+      <c r="I255" s="3">
         <v>3.36</v>
       </c>
-      <c r="J255">
+      <c r="J255" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6127,16 +6137,16 @@
       <c r="A256" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="F256">
+      <c r="F256" s="3">
         <v>2.56</v>
       </c>
-      <c r="G256">
+      <c r="G256" s="3">
         <v>2.27</v>
       </c>
-      <c r="H256">
+      <c r="H256" s="3">
         <v>1.97</v>
       </c>
-      <c r="I256">
+      <c r="I256" s="3">
         <v>4.41</v>
       </c>
     </row>
@@ -6144,16 +6154,16 @@
       <c r="A257" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F257">
+      <c r="F257" s="3">
         <v>2.5099999999999998</v>
       </c>
-      <c r="G257">
+      <c r="G257" s="3">
         <v>3.01</v>
       </c>
-      <c r="H257">
+      <c r="H257" s="3">
         <v>10.46</v>
       </c>
-      <c r="I257">
+      <c r="I257" s="3">
         <v>3.08</v>
       </c>
     </row>
@@ -6161,16 +6171,16 @@
       <c r="A258" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="F258">
-        <v>0</v>
-      </c>
-      <c r="G258">
+      <c r="F258" s="4">
+        <v>0</v>
+      </c>
+      <c r="G258" s="3">
         <v>2.0499999999999998</v>
       </c>
-      <c r="H258">
+      <c r="H258" s="3">
         <v>2.6</v>
       </c>
-      <c r="I258">
+      <c r="I258" s="3">
         <v>3.22</v>
       </c>
     </row>
@@ -6178,16 +6188,16 @@
       <c r="A259" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="G259">
+      <c r="G259" s="3">
         <v>0.76</v>
       </c>
-      <c r="H259">
+      <c r="H259" s="3">
         <v>2.4</v>
       </c>
-      <c r="I259">
+      <c r="I259" s="3">
         <v>1.03</v>
       </c>
-      <c r="J259">
+      <c r="J259" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6195,16 +6205,16 @@
       <c r="A260" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="F260">
+      <c r="F260" s="3">
         <v>2.25</v>
       </c>
-      <c r="G260">
+      <c r="G260" s="3">
         <v>2.61</v>
       </c>
-      <c r="H260">
+      <c r="H260" s="3">
         <v>1.46</v>
       </c>
-      <c r="I260">
+      <c r="I260" s="3">
         <v>1.08</v>
       </c>
     </row>
@@ -6212,16 +6222,16 @@
       <c r="A261" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="F261">
+      <c r="F261" s="3">
         <v>5.41</v>
       </c>
-      <c r="G261">
+      <c r="G261" s="3">
         <v>5.59</v>
       </c>
-      <c r="H261">
+      <c r="H261" s="3">
         <v>4.8499999999999996</v>
       </c>
-      <c r="I261">
+      <c r="I261" s="3">
         <v>4.82</v>
       </c>
     </row>
@@ -6229,16 +6239,16 @@
       <c r="A262" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="G262">
+      <c r="G262" s="3">
         <v>0.65</v>
       </c>
-      <c r="H262">
+      <c r="H262" s="3">
         <v>1.99</v>
       </c>
-      <c r="I262">
+      <c r="I262" s="3">
         <v>1.84</v>
       </c>
-      <c r="J262">
+      <c r="J262" s="3">
         <v>1.59</v>
       </c>
     </row>
@@ -6246,16 +6256,16 @@
       <c r="A263" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="G263">
+      <c r="G263" s="3">
         <v>5.71</v>
       </c>
-      <c r="H263">
+      <c r="H263" s="3">
         <v>5.51</v>
       </c>
-      <c r="I263">
+      <c r="I263" s="3">
         <v>6.37</v>
       </c>
-      <c r="J263">
+      <c r="J263" s="3">
         <v>9.82</v>
       </c>
     </row>
@@ -6263,16 +6273,16 @@
       <c r="A264" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="F264">
+      <c r="F264" s="3">
         <v>3.09</v>
       </c>
-      <c r="G264">
+      <c r="G264" s="3">
         <v>3.67</v>
       </c>
-      <c r="H264">
+      <c r="H264" s="3">
         <v>4.6900000000000004</v>
       </c>
-      <c r="I264">
+      <c r="I264" s="3">
         <v>4.7</v>
       </c>
     </row>
@@ -6280,16 +6290,16 @@
       <c r="A265" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="F265">
+      <c r="F265" s="3">
         <v>1.7</v>
       </c>
-      <c r="G265">
+      <c r="G265" s="3">
         <v>2.21</v>
       </c>
-      <c r="H265">
+      <c r="H265" s="3">
         <v>1.29</v>
       </c>
-      <c r="I265">
+      <c r="I265" s="3">
         <v>4.49</v>
       </c>
     </row>
@@ -6297,16 +6307,16 @@
       <c r="A266" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="F266">
+      <c r="F266" s="3">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G266">
+      <c r="G266" s="3">
         <v>2.94</v>
       </c>
-      <c r="H266">
+      <c r="H266" s="3">
         <v>5.48</v>
       </c>
-      <c r="I266">
+      <c r="I266" s="3">
         <v>4.6100000000000003</v>
       </c>
     </row>
@@ -6314,16 +6324,16 @@
       <c r="A267" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="F267">
+      <c r="F267" s="3">
         <v>3.63</v>
       </c>
-      <c r="G267">
+      <c r="G267" s="3">
         <v>4.8600000000000003</v>
       </c>
-      <c r="H267">
+      <c r="H267" s="3">
         <v>7.3</v>
       </c>
-      <c r="I267">
+      <c r="I267" s="3">
         <v>2.59</v>
       </c>
     </row>
@@ -6331,16 +6341,16 @@
       <c r="A268" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F268">
+      <c r="F268" s="3">
         <v>2.96</v>
       </c>
-      <c r="G268">
+      <c r="G268" s="3">
         <v>3.2</v>
       </c>
-      <c r="H268">
+      <c r="H268" s="3">
         <v>3.55</v>
       </c>
-      <c r="I268">
+      <c r="I268" s="3">
         <v>3.28</v>
       </c>
     </row>
@@ -6348,16 +6358,16 @@
       <c r="A269" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="G269">
+      <c r="G269" s="3">
         <v>2.94</v>
       </c>
-      <c r="H269">
+      <c r="H269" s="3">
         <v>3.37</v>
       </c>
-      <c r="I269">
+      <c r="I269" s="3">
         <v>3.14</v>
       </c>
-      <c r="J269">
+      <c r="J269" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6365,16 +6375,16 @@
       <c r="A270" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="F270">
+      <c r="F270" s="3">
         <v>1.83</v>
       </c>
-      <c r="G270">
+      <c r="G270" s="3">
         <v>2.62</v>
       </c>
-      <c r="H270">
+      <c r="H270" s="3">
         <v>2.73</v>
       </c>
-      <c r="I270">
+      <c r="I270" s="3">
         <v>4.3099999999999996</v>
       </c>
     </row>
@@ -6382,16 +6392,16 @@
       <c r="A271" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="F271">
+      <c r="F271" s="3">
         <v>2.16</v>
       </c>
-      <c r="G271">
+      <c r="G271" s="3">
         <v>2.4700000000000002</v>
       </c>
-      <c r="H271">
+      <c r="H271" s="3">
         <v>2.69</v>
       </c>
-      <c r="I271">
+      <c r="I271" s="3">
         <v>3.01</v>
       </c>
     </row>
@@ -6399,16 +6409,16 @@
       <c r="A272" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="G272">
+      <c r="G272" s="3">
         <v>6.83</v>
       </c>
-      <c r="H272">
+      <c r="H272" s="3">
         <v>7.63</v>
       </c>
-      <c r="I272">
+      <c r="I272" s="3">
         <v>7.72</v>
       </c>
-      <c r="J272">
+      <c r="J272" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6416,16 +6426,16 @@
       <c r="A273" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F273">
-        <v>0</v>
-      </c>
-      <c r="G273">
-        <v>0</v>
-      </c>
-      <c r="H273">
-        <v>0</v>
-      </c>
-      <c r="I273">
+      <c r="F273" s="4">
+        <v>0</v>
+      </c>
+      <c r="G273" s="4">
+        <v>0</v>
+      </c>
+      <c r="H273" s="4">
+        <v>0</v>
+      </c>
+      <c r="I273" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6433,16 +6443,16 @@
       <c r="A274" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F274">
+      <c r="F274" s="3">
         <v>2.06</v>
       </c>
-      <c r="G274">
+      <c r="G274" s="3">
         <v>2.2599999999999998</v>
       </c>
-      <c r="H274">
+      <c r="H274" s="3">
         <v>2.56</v>
       </c>
-      <c r="I274">
+      <c r="I274" s="3">
         <v>2.67</v>
       </c>
     </row>
@@ -6450,16 +6460,16 @@
       <c r="A275" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="G275">
+      <c r="G275" s="3">
         <v>4.6500000000000004</v>
       </c>
-      <c r="H275">
+      <c r="H275" s="3">
         <v>5.28</v>
       </c>
-      <c r="I275">
+      <c r="I275" s="3">
         <v>4.8499999999999996</v>
       </c>
-      <c r="J275">
+      <c r="J275" s="3">
         <v>3.02</v>
       </c>
     </row>
@@ -6467,16 +6477,16 @@
       <c r="A276" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="G276">
+      <c r="G276" s="3">
         <v>4.4400000000000004</v>
       </c>
-      <c r="H276">
+      <c r="H276" s="3">
         <v>2.69</v>
       </c>
-      <c r="I276">
+      <c r="I276" s="3">
         <v>2.79</v>
       </c>
-      <c r="J276">
+      <c r="J276" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6484,16 +6494,16 @@
       <c r="A277" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="F277">
+      <c r="F277" s="3">
         <v>9.9499999999999993</v>
       </c>
-      <c r="G277">
+      <c r="G277" s="3">
         <v>6.69</v>
       </c>
-      <c r="H277">
+      <c r="H277" s="3">
         <v>8.84</v>
       </c>
-      <c r="I277">
+      <c r="I277" s="3">
         <v>5.29</v>
       </c>
     </row>
@@ -6501,16 +6511,16 @@
       <c r="A278" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F278">
+      <c r="F278" s="3">
         <v>2.0299999999999998</v>
       </c>
-      <c r="G278">
+      <c r="G278" s="3">
         <v>1.49</v>
       </c>
-      <c r="H278">
+      <c r="H278" s="3">
         <v>4.12</v>
       </c>
-      <c r="I278">
+      <c r="I278" s="3">
         <v>1.58</v>
       </c>
     </row>
@@ -6518,16 +6528,16 @@
       <c r="A279" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="F279">
+      <c r="F279" s="3">
         <v>2.2400000000000002</v>
       </c>
-      <c r="G279">
+      <c r="G279" s="3">
         <v>2.4900000000000002</v>
       </c>
-      <c r="H279">
+      <c r="H279" s="3">
         <v>4.4800000000000004</v>
       </c>
-      <c r="I279">
+      <c r="I279" s="2">
         <v>-3.26</v>
       </c>
     </row>
@@ -6535,16 +6545,16 @@
       <c r="A280" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G280">
+      <c r="G280" s="3">
         <v>2.61</v>
       </c>
-      <c r="H280">
+      <c r="H280" s="3">
         <v>2.66</v>
       </c>
-      <c r="I280">
+      <c r="I280" s="3">
         <v>1.49</v>
       </c>
-      <c r="J280">
+      <c r="J280" s="3">
         <v>2.12</v>
       </c>
     </row>
@@ -6552,16 +6562,16 @@
       <c r="A281" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="F281">
+      <c r="F281" s="3">
         <v>7.57</v>
       </c>
-      <c r="G281">
+      <c r="G281" s="3">
         <v>8.26</v>
       </c>
-      <c r="H281">
+      <c r="H281" s="3">
         <v>7.47</v>
       </c>
-      <c r="I281">
+      <c r="I281" s="3">
         <v>7.22</v>
       </c>
     </row>
@@ -6569,16 +6579,16 @@
       <c r="A282" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="G282">
+      <c r="G282" s="3">
         <v>10.220000000000001</v>
       </c>
-      <c r="H282">
+      <c r="H282" s="3">
         <v>11.71</v>
       </c>
-      <c r="I282">
+      <c r="I282" s="3">
         <v>12.75</v>
       </c>
-      <c r="J282">
+      <c r="J282" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6586,16 +6596,16 @@
       <c r="A283" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="G283">
+      <c r="G283" s="3">
         <v>1.1599999999999999</v>
       </c>
-      <c r="H283">
+      <c r="H283" s="3">
         <v>2.87</v>
       </c>
-      <c r="I283">
+      <c r="I283" s="3">
         <v>2.71</v>
       </c>
-      <c r="J283">
+      <c r="J283" s="2">
         <v>-0.27</v>
       </c>
     </row>
@@ -6603,16 +6613,16 @@
       <c r="A284" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="F284">
+      <c r="F284" s="3">
         <v>5.01</v>
       </c>
-      <c r="G284">
+      <c r="G284" s="3">
         <v>5.98</v>
       </c>
-      <c r="H284">
+      <c r="H284" s="3">
         <v>5.0599999999999996</v>
       </c>
-      <c r="I284">
+      <c r="I284" s="2">
         <v>-13.03</v>
       </c>
     </row>
@@ -6620,10 +6630,10 @@
       <c r="A285" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="H285">
+      <c r="H285" s="3">
         <v>2.4900000000000002</v>
       </c>
-      <c r="I285">
+      <c r="I285" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6631,13 +6641,13 @@
       <c r="A286" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G286">
-        <v>0</v>
-      </c>
-      <c r="H286">
+      <c r="G286" s="4">
+        <v>0</v>
+      </c>
+      <c r="H286" s="3">
         <v>2.74</v>
       </c>
-      <c r="I286">
+      <c r="I286" s="3">
         <v>2.66</v>
       </c>
     </row>
@@ -6645,16 +6655,16 @@
       <c r="A287" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G287">
+      <c r="G287" s="3">
         <v>2.72</v>
       </c>
-      <c r="H287">
+      <c r="H287" s="3">
         <v>3.36</v>
       </c>
-      <c r="I287">
+      <c r="I287" s="2">
         <v>-6.07</v>
       </c>
-      <c r="J287">
+      <c r="J287" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6662,16 +6672,16 @@
       <c r="A288" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="F288">
+      <c r="F288" s="3">
         <v>2.09</v>
       </c>
-      <c r="G288">
+      <c r="G288" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H288">
+      <c r="H288" s="3">
         <v>2.4500000000000002</v>
       </c>
-      <c r="I288">
+      <c r="I288" s="3">
         <v>2.56</v>
       </c>
     </row>
@@ -6679,16 +6689,16 @@
       <c r="A289" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="F289">
+      <c r="F289" s="3">
         <v>4.59</v>
       </c>
-      <c r="G289">
+      <c r="G289" s="3">
         <v>4.5</v>
       </c>
-      <c r="H289">
+      <c r="H289" s="3">
         <v>5.67</v>
       </c>
-      <c r="I289">
+      <c r="I289" s="3">
         <v>6.11</v>
       </c>
     </row>
@@ -6696,16 +6706,16 @@
       <c r="A290" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="F290">
+      <c r="F290" s="3">
         <v>3.65</v>
       </c>
-      <c r="G290">
+      <c r="G290" s="2">
         <v>-4.9400000000000004</v>
       </c>
-      <c r="H290">
+      <c r="H290" s="3">
         <v>1.02</v>
       </c>
-      <c r="I290">
+      <c r="I290" s="3">
         <v>0.43</v>
       </c>
     </row>
@@ -6713,16 +6723,16 @@
       <c r="A291" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="G291">
+      <c r="G291" s="3">
         <v>1.93</v>
       </c>
-      <c r="H291">
+      <c r="H291" s="3">
         <v>4.4400000000000004</v>
       </c>
-      <c r="I291">
+      <c r="I291" s="3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="J291">
+      <c r="J291" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6730,16 +6740,16 @@
       <c r="A292" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="F292">
+      <c r="F292" s="2">
         <v>-8.8000000000000007</v>
       </c>
-      <c r="G292">
+      <c r="G292" s="3">
         <v>0.94</v>
       </c>
-      <c r="H292">
+      <c r="H292" s="3">
         <v>6.59</v>
       </c>
-      <c r="I292">
+      <c r="I292" s="2">
         <v>-21.18</v>
       </c>
     </row>
@@ -6747,16 +6757,16 @@
       <c r="A293" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="G293">
-        <v>0</v>
-      </c>
-      <c r="H293">
-        <v>0</v>
-      </c>
-      <c r="I293">
-        <v>0</v>
-      </c>
-      <c r="J293">
+      <c r="G293" s="4">
+        <v>0</v>
+      </c>
+      <c r="H293" s="4">
+        <v>0</v>
+      </c>
+      <c r="I293" s="4">
+        <v>0</v>
+      </c>
+      <c r="J293" s="3">
         <v>2.21</v>
       </c>
     </row>
@@ -6764,16 +6774,16 @@
       <c r="A294" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="G294">
+      <c r="G294" s="3">
         <v>1.97</v>
       </c>
-      <c r="H294">
+      <c r="H294" s="3">
         <v>1.01</v>
       </c>
-      <c r="I294">
+      <c r="I294" s="3">
         <v>1.55</v>
       </c>
-      <c r="J294">
+      <c r="J294" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6781,16 +6791,16 @@
       <c r="A295" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="F295">
+      <c r="F295" s="3">
         <v>5.86</v>
       </c>
-      <c r="G295">
+      <c r="G295" s="3">
         <v>5.46</v>
       </c>
-      <c r="H295">
+      <c r="H295" s="3">
         <v>5.85</v>
       </c>
-      <c r="I295">
+      <c r="I295" s="2">
         <v>-1.99</v>
       </c>
     </row>
@@ -6798,16 +6808,16 @@
       <c r="A296" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="G296">
+      <c r="G296" s="3">
         <v>6.1</v>
       </c>
-      <c r="H296">
+      <c r="H296" s="3">
         <v>6.44</v>
       </c>
-      <c r="I296">
+      <c r="I296" s="3">
         <v>5.13</v>
       </c>
-      <c r="J296">
+      <c r="J296" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6815,16 +6825,16 @@
       <c r="A297" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="G297">
+      <c r="G297" s="3">
         <v>1.4</v>
       </c>
-      <c r="H297">
+      <c r="H297" s="3">
         <v>1.87</v>
       </c>
-      <c r="I297">
+      <c r="I297" s="3">
         <v>1.77</v>
       </c>
-      <c r="J297">
+      <c r="J297" s="3">
         <v>0.78</v>
       </c>
     </row>
@@ -6832,16 +6842,16 @@
       <c r="A298" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="F298">
+      <c r="F298" s="3">
         <v>2.82</v>
       </c>
-      <c r="G298">
+      <c r="G298" s="3">
         <v>3.01</v>
       </c>
-      <c r="H298">
+      <c r="H298" s="3">
         <v>3.34</v>
       </c>
-      <c r="I298">
+      <c r="I298" s="3">
         <v>4.03</v>
       </c>
     </row>
@@ -6849,16 +6859,16 @@
       <c r="A299" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="F299">
+      <c r="F299" s="3">
         <v>1.58</v>
       </c>
-      <c r="G299">
+      <c r="G299" s="3">
         <v>1.52</v>
       </c>
-      <c r="H299">
+      <c r="H299" s="3">
         <v>2.2200000000000002</v>
       </c>
-      <c r="I299">
+      <c r="I299" s="3">
         <v>1.1100000000000001</v>
       </c>
     </row>
@@ -6866,16 +6876,16 @@
       <c r="A300" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="G300">
+      <c r="G300" s="3">
         <v>0.91</v>
       </c>
-      <c r="H300">
+      <c r="H300" s="3">
         <v>0.75</v>
       </c>
-      <c r="I300">
+      <c r="I300" s="3">
         <v>1.1399999999999999</v>
       </c>
-      <c r="J300">
+      <c r="J300" s="3">
         <v>1.1299999999999999</v>
       </c>
     </row>
@@ -6883,16 +6893,16 @@
       <c r="A301" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="F301">
+      <c r="F301" s="3">
         <v>1.38</v>
       </c>
-      <c r="G301">
+      <c r="G301" s="3">
         <v>1.64</v>
       </c>
-      <c r="H301">
+      <c r="H301" s="3">
         <v>1.37</v>
       </c>
-      <c r="I301">
+      <c r="I301" s="3">
         <v>1.3</v>
       </c>
     </row>
@@ -6900,16 +6910,16 @@
       <c r="A302" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="G302">
-        <v>0</v>
-      </c>
-      <c r="H302">
-        <v>0</v>
-      </c>
-      <c r="I302">
-        <v>0</v>
-      </c>
-      <c r="J302">
+      <c r="G302" s="4">
+        <v>0</v>
+      </c>
+      <c r="H302" s="4">
+        <v>0</v>
+      </c>
+      <c r="I302" s="4">
+        <v>0</v>
+      </c>
+      <c r="J302" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6917,16 +6927,16 @@
       <c r="A303" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="G303">
-        <v>0</v>
-      </c>
-      <c r="H303">
+      <c r="G303" s="4">
+        <v>0</v>
+      </c>
+      <c r="H303" s="3">
         <v>0.41</v>
       </c>
-      <c r="I303">
+      <c r="I303" s="2">
         <v>-0.26</v>
       </c>
-      <c r="J303">
+      <c r="J303" s="3">
         <v>0.3</v>
       </c>
     </row>
@@ -6934,16 +6944,16 @@
       <c r="A304" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="F304">
+      <c r="F304" s="3">
         <v>0.86</v>
       </c>
-      <c r="G304">
+      <c r="G304" s="3">
         <v>1.06</v>
       </c>
-      <c r="H304">
+      <c r="H304" s="3">
         <v>1.04</v>
       </c>
-      <c r="I304">
+      <c r="I304" s="3">
         <v>1.0900000000000001</v>
       </c>
     </row>
@@ -6951,16 +6961,16 @@
       <c r="A305" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="F305">
+      <c r="F305" s="3">
         <v>1.75</v>
       </c>
-      <c r="G305">
+      <c r="G305" s="3">
         <v>1.29</v>
       </c>
-      <c r="H305">
+      <c r="H305" s="3">
         <v>1.5</v>
       </c>
-      <c r="I305">
+      <c r="I305" s="3">
         <v>1.17</v>
       </c>
     </row>
@@ -6968,16 +6978,16 @@
       <c r="A306" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G306">
+      <c r="G306" s="3">
         <v>3.73</v>
       </c>
-      <c r="H306">
+      <c r="H306" s="3">
         <v>4.2699999999999996</v>
       </c>
-      <c r="I306">
+      <c r="I306" s="3">
         <v>4.43</v>
       </c>
-      <c r="J306">
+      <c r="J306" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6985,16 +6995,16 @@
       <c r="A307" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="F307">
+      <c r="F307" s="3">
         <v>4.83</v>
       </c>
-      <c r="G307">
+      <c r="G307" s="3">
         <v>6.14</v>
       </c>
-      <c r="H307">
+      <c r="H307" s="3">
         <v>7.46</v>
       </c>
-      <c r="I307">
+      <c r="I307" s="3">
         <v>9.32</v>
       </c>
     </row>
@@ -7002,16 +7012,16 @@
       <c r="A308" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="F308">
+      <c r="F308" s="3">
         <v>5.67</v>
       </c>
-      <c r="G308">
+      <c r="G308" s="3">
         <v>7.33</v>
       </c>
-      <c r="H308">
+      <c r="H308" s="3">
         <v>0.79</v>
       </c>
-      <c r="I308">
+      <c r="I308" s="2">
         <v>-10.23</v>
       </c>
     </row>
@@ -7019,16 +7029,16 @@
       <c r="A309" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="G309">
+      <c r="G309" s="3">
         <v>1.56</v>
       </c>
-      <c r="H309">
+      <c r="H309" s="3">
         <v>1.72</v>
       </c>
-      <c r="I309">
+      <c r="I309" s="3">
         <v>1.86</v>
       </c>
-      <c r="J309">
+      <c r="J309" s="3">
         <v>2.1</v>
       </c>
     </row>
@@ -7036,16 +7046,16 @@
       <c r="A310" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="F310">
+      <c r="F310" s="3">
         <v>0.72</v>
       </c>
-      <c r="G310">
+      <c r="G310" s="3">
         <v>0.74</v>
       </c>
-      <c r="H310">
+      <c r="H310" s="3">
         <v>0.84</v>
       </c>
-      <c r="I310">
+      <c r="I310" s="3">
         <v>0.86</v>
       </c>
     </row>
@@ -7053,16 +7063,16 @@
       <c r="A311" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="F311">
+      <c r="F311" s="3">
         <v>2.2200000000000002</v>
       </c>
-      <c r="G311">
+      <c r="G311" s="3">
         <v>0.71</v>
       </c>
-      <c r="H311">
+      <c r="H311" s="3">
         <v>1.65</v>
       </c>
-      <c r="I311">
+      <c r="I311" s="3">
         <v>2.04</v>
       </c>
     </row>
@@ -7070,16 +7080,16 @@
       <c r="A312" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="F312">
+      <c r="F312" s="3">
         <v>3.13</v>
       </c>
-      <c r="G312">
+      <c r="G312" s="3">
         <v>3.31</v>
       </c>
-      <c r="H312">
+      <c r="H312" s="3">
         <v>3.83</v>
       </c>
-      <c r="I312">
+      <c r="I312" s="3">
         <v>4.5199999999999996</v>
       </c>
     </row>
@@ -7087,16 +7097,16 @@
       <c r="A313" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="G313">
+      <c r="G313" s="3">
         <v>1.83</v>
       </c>
-      <c r="H313">
+      <c r="H313" s="3">
         <v>3.07</v>
       </c>
-      <c r="I313">
+      <c r="I313" s="3">
         <v>1.81</v>
       </c>
-      <c r="J313">
+      <c r="J313" s="4">
         <v>0</v>
       </c>
     </row>
@@ -7104,16 +7114,16 @@
       <c r="A314" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="F314">
+      <c r="F314" s="3">
         <v>28.48</v>
       </c>
-      <c r="G314">
+      <c r="G314" s="3">
         <v>37.17</v>
       </c>
-      <c r="H314">
+      <c r="H314" s="3">
         <v>46.3</v>
       </c>
-      <c r="I314">
+      <c r="I314" s="3">
         <v>50.09</v>
       </c>
     </row>
@@ -7121,16 +7131,16 @@
       <c r="A315" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="G315">
+      <c r="G315" s="3">
         <v>2.04</v>
       </c>
-      <c r="H315">
+      <c r="H315" s="3">
         <v>1.99</v>
       </c>
-      <c r="I315">
+      <c r="I315" s="3">
         <v>2.2599999999999998</v>
       </c>
-      <c r="J315">
+      <c r="J315" s="3">
         <v>1.93</v>
       </c>
     </row>
@@ -7138,16 +7148,16 @@
       <c r="A316" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="F316">
+      <c r="F316" s="3">
         <v>2.52</v>
       </c>
-      <c r="G316">
+      <c r="G316" s="3">
         <v>2.46</v>
       </c>
-      <c r="H316">
+      <c r="H316" s="3">
         <v>3</v>
       </c>
-      <c r="I316">
+      <c r="I316" s="3">
         <v>3.32</v>
       </c>
     </row>
@@ -7155,16 +7165,16 @@
       <c r="A317" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="G317">
+      <c r="G317" s="3">
         <v>4.37</v>
       </c>
-      <c r="H317">
+      <c r="H317" s="3">
         <v>4.3099999999999996</v>
       </c>
-      <c r="I317">
+      <c r="I317" s="3">
         <v>3.71</v>
       </c>
-      <c r="J317">
+      <c r="J317" s="4">
         <v>0</v>
       </c>
     </row>
@@ -7172,16 +7182,16 @@
       <c r="A318" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="F318">
+      <c r="F318" s="3">
         <v>1.96</v>
       </c>
-      <c r="G318">
+      <c r="G318" s="3">
         <v>3.23</v>
       </c>
-      <c r="H318">
+      <c r="H318" s="3">
         <v>1.44</v>
       </c>
-      <c r="I318">
+      <c r="I318" s="3">
         <v>1.1299999999999999</v>
       </c>
     </row>
@@ -7189,16 +7199,16 @@
       <c r="A319" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="G319">
+      <c r="G319" s="3">
         <v>2.99</v>
       </c>
-      <c r="H319">
+      <c r="H319" s="3">
         <v>3.7</v>
       </c>
-      <c r="I319">
+      <c r="I319" s="3">
         <v>4.1100000000000003</v>
       </c>
-      <c r="J319">
+      <c r="J319" s="4">
         <v>0</v>
       </c>
     </row>
@@ -7206,16 +7216,16 @@
       <c r="A320" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="G320">
-        <v>0</v>
-      </c>
-      <c r="H320">
-        <v>0</v>
-      </c>
-      <c r="I320">
-        <v>0</v>
-      </c>
-      <c r="J320">
+      <c r="G320" s="4">
+        <v>0</v>
+      </c>
+      <c r="H320" s="4">
+        <v>0</v>
+      </c>
+      <c r="I320" s="4">
+        <v>0</v>
+      </c>
+      <c r="J320" s="4">
         <v>0</v>
       </c>
     </row>
@@ -7223,16 +7233,16 @@
       <c r="A321" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="F321">
+      <c r="F321" s="3">
         <v>1.5</v>
       </c>
-      <c r="G321">
+      <c r="G321" s="3">
         <v>1.95</v>
       </c>
-      <c r="H321">
+      <c r="H321" s="3">
         <v>2.17</v>
       </c>
-      <c r="I321">
+      <c r="I321" s="3">
         <v>2.16</v>
       </c>
     </row>
@@ -7240,16 +7250,16 @@
       <c r="A322" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="G322">
+      <c r="G322" s="3">
         <v>6.36</v>
       </c>
-      <c r="H322">
+      <c r="H322" s="3">
         <v>6.98</v>
       </c>
-      <c r="I322">
+      <c r="I322" s="3">
         <v>7.08</v>
       </c>
-      <c r="J322">
+      <c r="J322" s="3">
         <v>5.96</v>
       </c>
     </row>
@@ -7257,16 +7267,16 @@
       <c r="A323" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="G323">
+      <c r="G323" s="3">
         <v>6.79</v>
       </c>
-      <c r="H323">
+      <c r="H323" s="3">
         <v>1.27</v>
       </c>
-      <c r="I323">
+      <c r="I323" s="3">
         <v>1.38</v>
       </c>
-      <c r="J323">
+      <c r="J323" s="4">
         <v>0</v>
       </c>
     </row>
@@ -7274,16 +7284,16 @@
       <c r="A324" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="F324">
+      <c r="F324" s="3">
         <v>0.61</v>
       </c>
-      <c r="G324">
+      <c r="G324" s="3">
         <v>1.49</v>
       </c>
-      <c r="H324">
+      <c r="H324" s="3">
         <v>1.4</v>
       </c>
-      <c r="J324">
+      <c r="J324" s="3">
         <v>1.89</v>
       </c>
     </row>
@@ -7291,16 +7301,16 @@
       <c r="A325" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G325">
+      <c r="G325" s="3">
         <v>5.26</v>
       </c>
-      <c r="H325">
+      <c r="H325" s="3">
         <v>4.76</v>
       </c>
-      <c r="I325">
+      <c r="I325" s="3">
         <v>4.42</v>
       </c>
-      <c r="J325">
+      <c r="J325" s="4">
         <v>0</v>
       </c>
     </row>
@@ -7308,16 +7318,16 @@
       <c r="A326" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="F326">
+      <c r="F326" s="3">
         <v>5.36</v>
       </c>
-      <c r="G326">
+      <c r="G326" s="3">
         <v>7.48</v>
       </c>
-      <c r="H326">
+      <c r="H326" s="3">
         <v>7.44</v>
       </c>
-      <c r="I326">
+      <c r="I326" s="3">
         <v>7.52</v>
       </c>
     </row>
@@ -7325,16 +7335,16 @@
       <c r="A327" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="F327">
+      <c r="F327" s="2">
         <v>-0.84</v>
       </c>
-      <c r="G327">
+      <c r="G327" s="3">
         <v>2.67</v>
       </c>
-      <c r="H327">
+      <c r="H327" s="3">
         <v>1.1299999999999999</v>
       </c>
-      <c r="I327">
+      <c r="I327" s="2">
         <v>-0.42</v>
       </c>
     </row>
@@ -7342,16 +7352,16 @@
       <c r="A328" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="F328">
+      <c r="F328" s="3">
         <v>3.48</v>
       </c>
-      <c r="G328">
+      <c r="G328" s="3">
         <v>3.69</v>
       </c>
-      <c r="H328">
+      <c r="H328" s="3">
         <v>3.59</v>
       </c>
-      <c r="I328">
+      <c r="I328" s="3">
         <v>3.94</v>
       </c>
     </row>
@@ -7359,16 +7369,16 @@
       <c r="A329" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="G329">
+      <c r="G329" s="3">
         <v>22.53</v>
       </c>
-      <c r="H329">
+      <c r="H329" s="3">
         <v>15.2</v>
       </c>
-      <c r="I329">
+      <c r="I329" s="3">
         <v>5.18</v>
       </c>
-      <c r="J329">
+      <c r="J329" s="4">
         <v>0</v>
       </c>
     </row>
@@ -7376,16 +7386,16 @@
       <c r="A330" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="F330">
+      <c r="F330" s="3">
         <v>2.61</v>
       </c>
-      <c r="G330">
+      <c r="G330" s="3">
         <v>1.85</v>
       </c>
-      <c r="H330">
+      <c r="H330" s="3">
         <v>2.64</v>
       </c>
-      <c r="I330">
+      <c r="I330" s="3">
         <v>1.01</v>
       </c>
     </row>
@@ -7393,16 +7403,16 @@
       <c r="A331" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="F331">
+      <c r="F331" s="2">
         <v>-0.48</v>
       </c>
-      <c r="G331">
+      <c r="G331" s="2">
         <v>-1.55</v>
       </c>
-      <c r="H331">
+      <c r="H331" s="2">
         <v>-2.69</v>
       </c>
-      <c r="I331">
+      <c r="I331" s="3">
         <v>12.37</v>
       </c>
     </row>
@@ -7410,16 +7420,16 @@
       <c r="A332" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="F332">
+      <c r="F332" s="3">
         <v>6.55</v>
       </c>
-      <c r="G332">
+      <c r="G332" s="3">
         <v>6.07</v>
       </c>
-      <c r="H332">
+      <c r="H332" s="3">
         <v>8.4</v>
       </c>
-      <c r="I332">
+      <c r="I332" s="3">
         <v>7.78</v>
       </c>
     </row>
@@ -7427,16 +7437,16 @@
       <c r="A333" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="G333">
+      <c r="G333" s="3">
         <v>5.98</v>
       </c>
-      <c r="H333">
+      <c r="H333" s="3">
         <v>1.77</v>
       </c>
-      <c r="I333">
+      <c r="I333" s="3">
         <v>5.33</v>
       </c>
-      <c r="J333">
+      <c r="J333" s="3">
         <v>6.95</v>
       </c>
     </row>
@@ -7444,16 +7454,16 @@
       <c r="A334" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="F334">
+      <c r="F334" s="3">
         <v>1.44</v>
       </c>
-      <c r="G334">
+      <c r="G334" s="3">
         <v>1.87</v>
       </c>
-      <c r="H334">
+      <c r="H334" s="3">
         <v>1.35</v>
       </c>
-      <c r="I334">
+      <c r="I334" s="3">
         <v>1.59</v>
       </c>
     </row>
@@ -7461,16 +7471,16 @@
       <c r="A335" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="F335">
+      <c r="F335" s="3">
         <v>5.67</v>
       </c>
-      <c r="G335">
+      <c r="G335" s="3">
         <v>5.94</v>
       </c>
-      <c r="H335">
+      <c r="H335" s="3">
         <v>5.79</v>
       </c>
-      <c r="I335">
+      <c r="I335" s="3">
         <v>5.39</v>
       </c>
     </row>
@@ -7478,13 +7488,13 @@
       <c r="A336" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="H336">
-        <v>0</v>
-      </c>
-      <c r="I336">
+      <c r="H336" s="4">
+        <v>0</v>
+      </c>
+      <c r="I336" s="3">
         <v>1</v>
       </c>
-      <c r="J336">
+      <c r="J336" s="4">
         <v>0</v>
       </c>
     </row>
@@ -7492,16 +7502,16 @@
       <c r="A337" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="G337">
+      <c r="G337" s="3">
         <v>3.99</v>
       </c>
-      <c r="H337">
+      <c r="H337" s="3">
         <v>4.7300000000000004</v>
       </c>
-      <c r="I337">
+      <c r="I337" s="3">
         <v>3.26</v>
       </c>
-      <c r="J337">
+      <c r="J337" s="3">
         <v>3.84</v>
       </c>
     </row>
@@ -7509,13 +7519,13 @@
       <c r="A338" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="H338">
-        <v>0</v>
-      </c>
-      <c r="I338">
+      <c r="H338" s="4">
+        <v>0</v>
+      </c>
+      <c r="I338" s="3">
         <v>2.17</v>
       </c>
-      <c r="J338">
+      <c r="J338" s="2">
         <v>-0.2</v>
       </c>
     </row>
@@ -7523,16 +7533,16 @@
       <c r="A339" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="G339">
+      <c r="G339" s="3">
         <v>4.57</v>
       </c>
-      <c r="H339">
+      <c r="H339" s="3">
         <v>4.1399999999999997</v>
       </c>
-      <c r="I339">
+      <c r="I339" s="3">
         <v>5.75</v>
       </c>
-      <c r="J339">
+      <c r="J339" s="4">
         <v>0</v>
       </c>
     </row>
@@ -7540,16 +7550,16 @@
       <c r="A340" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="F340">
+      <c r="F340" s="3">
         <v>0.08</v>
       </c>
-      <c r="G340">
+      <c r="G340" s="3">
         <v>2.16</v>
       </c>
-      <c r="H340">
+      <c r="H340" s="3">
         <v>3.45</v>
       </c>
-      <c r="I340">
+      <c r="I340" s="3">
         <v>3.03</v>
       </c>
     </row>
@@ -7557,16 +7567,16 @@
       <c r="A341" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="G341">
+      <c r="G341" s="3">
         <v>4.33</v>
       </c>
-      <c r="H341">
+      <c r="H341" s="3">
         <v>3.46</v>
       </c>
-      <c r="I341">
+      <c r="I341" s="3">
         <v>6.17</v>
       </c>
-      <c r="J341">
+      <c r="J341" s="4">
         <v>0</v>
       </c>
     </row>
@@ -7574,16 +7584,16 @@
       <c r="A342" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="G342">
+      <c r="G342" s="3">
         <v>1.85</v>
       </c>
-      <c r="H342">
+      <c r="H342" s="3">
         <v>2.2799999999999998</v>
       </c>
-      <c r="I342">
+      <c r="I342" s="3">
         <v>2.72</v>
       </c>
-      <c r="J342">
+      <c r="J342" s="4">
         <v>0</v>
       </c>
     </row>
@@ -7591,16 +7601,16 @@
       <c r="A343" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="G343">
+      <c r="G343" s="3">
         <v>0.78</v>
       </c>
-      <c r="H343">
+      <c r="H343" s="3">
         <v>0.94</v>
       </c>
-      <c r="I343">
+      <c r="I343" s="3">
         <v>0.97</v>
       </c>
-      <c r="J343">
+      <c r="J343" s="3">
         <v>1.0900000000000001</v>
       </c>
     </row>
@@ -7608,16 +7618,16 @@
       <c r="A344" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="G344">
+      <c r="G344" s="3">
         <v>8.2100000000000009</v>
       </c>
-      <c r="H344">
+      <c r="H344" s="3">
         <v>8.5500000000000007</v>
       </c>
-      <c r="I344">
+      <c r="I344" s="3">
         <v>7.96</v>
       </c>
-      <c r="J344">
+      <c r="J344" s="3">
         <v>4.6500000000000004</v>
       </c>
     </row>
@@ -7625,16 +7635,16 @@
       <c r="A345" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="G345">
+      <c r="G345" s="3">
         <v>5.43</v>
       </c>
-      <c r="H345">
+      <c r="H345" s="3">
         <v>5.98</v>
       </c>
-      <c r="I345">
+      <c r="I345" s="3">
         <v>6.15</v>
       </c>
-      <c r="J345">
+      <c r="J345" s="3">
         <v>5.6</v>
       </c>
     </row>
@@ -7642,16 +7652,16 @@
       <c r="A346" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="F346">
+      <c r="F346" s="3">
         <v>4.95</v>
       </c>
-      <c r="G346">
+      <c r="G346" s="3">
         <v>5.43</v>
       </c>
-      <c r="H346">
+      <c r="H346" s="3">
         <v>6.47</v>
       </c>
-      <c r="I346">
+      <c r="I346" s="3">
         <v>6.92</v>
       </c>
     </row>
@@ -7659,16 +7669,16 @@
       <c r="A347" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G347">
+      <c r="G347" s="3">
         <v>3.59</v>
       </c>
-      <c r="H347">
+      <c r="H347" s="3">
         <v>3.93</v>
       </c>
-      <c r="I347">
+      <c r="I347" s="3">
         <v>4.47</v>
       </c>
-      <c r="J347">
+      <c r="J347" s="3">
         <v>2.5299999999999998</v>
       </c>
     </row>
@@ -7676,16 +7686,16 @@
       <c r="A348" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="F348">
+      <c r="F348" s="3">
         <v>0.08</v>
       </c>
-      <c r="G348">
+      <c r="G348" s="3">
         <v>0.71</v>
       </c>
-      <c r="H348">
+      <c r="H348" s="3">
         <v>3.81</v>
       </c>
-      <c r="I348">
+      <c r="I348" s="2">
         <v>-4.29</v>
       </c>
     </row>
@@ -7693,16 +7703,16 @@
       <c r="A349" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="G349">
+      <c r="G349" s="3">
         <v>1.63</v>
       </c>
-      <c r="H349">
+      <c r="H349" s="3">
         <v>1.54</v>
       </c>
-      <c r="I349">
+      <c r="I349" s="3">
         <v>2.14</v>
       </c>
-      <c r="J349">
+      <c r="J349" s="4">
         <v>0</v>
       </c>
     </row>
@@ -7710,16 +7720,16 @@
       <c r="A350" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="G350">
+      <c r="G350" s="3">
         <v>0.01</v>
       </c>
-      <c r="H350">
+      <c r="H350" s="3">
         <v>2.75</v>
       </c>
-      <c r="I350">
+      <c r="I350" s="3">
         <v>1.84</v>
       </c>
-      <c r="J350">
+      <c r="J350" s="3">
         <v>1.91</v>
       </c>
     </row>
@@ -7727,16 +7737,16 @@
       <c r="A351" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="F351">
+      <c r="F351" s="3">
         <v>3.2</v>
       </c>
-      <c r="G351">
+      <c r="G351" s="3">
         <v>3.4</v>
       </c>
-      <c r="H351">
+      <c r="H351" s="3">
         <v>3.79</v>
       </c>
-      <c r="I351">
+      <c r="I351" s="3">
         <v>5.22</v>
       </c>
     </row>
@@ -7744,16 +7754,16 @@
       <c r="A352" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="F352">
+      <c r="F352" s="3">
         <v>0.69</v>
       </c>
-      <c r="G352">
+      <c r="G352" s="3">
         <v>0.78</v>
       </c>
-      <c r="H352">
+      <c r="H352" s="3">
         <v>0.96</v>
       </c>
-      <c r="I352">
+      <c r="I352" s="3">
         <v>1.04</v>
       </c>
     </row>
@@ -7761,16 +7771,16 @@
       <c r="A353" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="F353">
+      <c r="F353" s="3">
         <v>1.44</v>
       </c>
-      <c r="G353">
+      <c r="G353" s="3">
         <v>1.55</v>
       </c>
-      <c r="H353">
+      <c r="H353" s="3">
         <v>1.61</v>
       </c>
-      <c r="I353">
+      <c r="I353" s="3">
         <v>0.28999999999999998</v>
       </c>
     </row>
@@ -7778,16 +7788,16 @@
       <c r="A354" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="G354">
+      <c r="G354" s="3">
         <v>0.64</v>
       </c>
-      <c r="H354">
+      <c r="H354" s="3">
         <v>1.22</v>
       </c>
-      <c r="I354">
+      <c r="I354" s="3">
         <v>1.63</v>
       </c>
-      <c r="J354">
+      <c r="J354" s="4">
         <v>0</v>
       </c>
     </row>
@@ -7795,16 +7805,16 @@
       <c r="A355" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="F355">
+      <c r="F355" s="3">
         <v>6.15</v>
       </c>
-      <c r="G355">
+      <c r="G355" s="3">
         <v>7.41</v>
       </c>
-      <c r="H355">
+      <c r="H355" s="3">
         <v>8.9499999999999993</v>
       </c>
-      <c r="I355">
+      <c r="I355" s="3">
         <v>11.38</v>
       </c>
     </row>
@@ -7812,16 +7822,16 @@
       <c r="A356" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="G356">
+      <c r="G356" s="3">
         <v>4.37</v>
       </c>
-      <c r="H356">
+      <c r="H356" s="3">
         <v>4.59</v>
       </c>
-      <c r="I356">
-        <v>0</v>
-      </c>
-      <c r="J356">
+      <c r="I356" s="4">
+        <v>0</v>
+      </c>
+      <c r="J356" s="3">
         <v>5.89</v>
       </c>
     </row>
@@ -7829,16 +7839,16 @@
       <c r="A357" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="G357">
+      <c r="G357" s="3">
         <v>5</v>
       </c>
-      <c r="H357">
+      <c r="H357" s="3">
         <v>5.42</v>
       </c>
-      <c r="I357">
+      <c r="I357" s="3">
         <v>3.33</v>
       </c>
-      <c r="J357">
+      <c r="J357" s="3">
         <v>5.77</v>
       </c>
     </row>
@@ -7846,16 +7856,16 @@
       <c r="A358" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F358">
+      <c r="F358" s="3">
         <v>1.75</v>
       </c>
-      <c r="G358">
+      <c r="G358" s="3">
         <v>0.39</v>
       </c>
-      <c r="H358">
+      <c r="H358" s="3">
         <v>0.59</v>
       </c>
-      <c r="I358">
+      <c r="I358" s="3">
         <v>1.02</v>
       </c>
     </row>
@@ -7863,13 +7873,13 @@
       <c r="A359" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="G359">
-        <v>0</v>
-      </c>
-      <c r="I359">
+      <c r="G359" s="4">
+        <v>0</v>
+      </c>
+      <c r="I359" s="3">
         <v>7.26</v>
       </c>
-      <c r="J359">
+      <c r="J359" s="3">
         <v>8.24</v>
       </c>
     </row>
@@ -7877,16 +7887,16 @@
       <c r="A360" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="F360">
+      <c r="F360" s="3">
         <v>4.4800000000000004</v>
       </c>
-      <c r="G360">
+      <c r="G360" s="3">
         <v>3.43</v>
       </c>
-      <c r="H360">
+      <c r="H360" s="3">
         <v>3.86</v>
       </c>
-      <c r="I360">
+      <c r="I360" s="3">
         <v>4.68</v>
       </c>
     </row>
@@ -7894,16 +7904,16 @@
       <c r="A361" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="F361">
+      <c r="F361" s="3">
         <v>2.7</v>
       </c>
-      <c r="G361">
+      <c r="G361" s="3">
         <v>1.88</v>
       </c>
-      <c r="H361">
+      <c r="H361" s="3">
         <v>2.19</v>
       </c>
-      <c r="I361">
+      <c r="I361" s="3">
         <v>2.6</v>
       </c>
     </row>
@@ -7911,16 +7921,16 @@
       <c r="A362" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="F362">
+      <c r="F362" s="3">
         <v>4.72</v>
       </c>
-      <c r="G362">
+      <c r="G362" s="3">
         <v>4.24</v>
       </c>
-      <c r="H362">
+      <c r="H362" s="3">
         <v>4.5199999999999996</v>
       </c>
-      <c r="I362">
+      <c r="I362" s="3">
         <v>5.88</v>
       </c>
     </row>
@@ -7928,16 +7938,16 @@
       <c r="A363" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="G363">
+      <c r="G363" s="3">
         <v>5.01</v>
       </c>
-      <c r="H363">
+      <c r="H363" s="2">
         <v>-0.42</v>
       </c>
-      <c r="I363">
+      <c r="I363" s="3">
         <v>4.26</v>
       </c>
-      <c r="J363">
+      <c r="J363" s="4">
         <v>0</v>
       </c>
     </row>
@@ -7945,16 +7955,16 @@
       <c r="A364" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="G364">
+      <c r="G364" s="2">
         <v>-0.31</v>
       </c>
-      <c r="H364">
+      <c r="H364" s="3">
         <v>0.95</v>
       </c>
-      <c r="I364">
+      <c r="I364" s="3">
         <v>0.21</v>
       </c>
-      <c r="J364">
+      <c r="J364" s="3">
         <v>0.59</v>
       </c>
     </row>
@@ -7962,16 +7972,16 @@
       <c r="A365" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="F365">
+      <c r="F365" s="3">
         <v>3.14</v>
       </c>
-      <c r="G365">
+      <c r="G365" s="3">
         <v>3.62</v>
       </c>
-      <c r="H365">
+      <c r="H365" s="3">
         <v>3.84</v>
       </c>
-      <c r="I365">
+      <c r="I365" s="3">
         <v>3.02</v>
       </c>
     </row>
@@ -7979,16 +7989,16 @@
       <c r="A366" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="F366">
+      <c r="F366" s="3">
         <v>3.56</v>
       </c>
-      <c r="G366">
+      <c r="G366" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H366">
+      <c r="H366" s="3">
         <v>4.72</v>
       </c>
-      <c r="I366">
+      <c r="I366" s="3">
         <v>5.43</v>
       </c>
     </row>
@@ -7996,16 +8006,16 @@
       <c r="A367" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="F367">
+      <c r="F367" s="3">
         <v>3.62</v>
       </c>
-      <c r="G367">
+      <c r="G367" s="3">
         <v>2.4300000000000002</v>
       </c>
-      <c r="H367">
+      <c r="H367" s="3">
         <v>3.26</v>
       </c>
-      <c r="I367">
+      <c r="I367" s="3">
         <v>3.62</v>
       </c>
     </row>
@@ -8013,16 +8023,16 @@
       <c r="A368" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="G368">
+      <c r="G368" s="3">
         <v>4.71</v>
       </c>
-      <c r="H368">
+      <c r="H368" s="3">
         <v>4.6500000000000004</v>
       </c>
-      <c r="I368">
+      <c r="I368" s="3">
         <v>4.53</v>
       </c>
-      <c r="J368">
+      <c r="J368" s="4">
         <v>0</v>
       </c>
     </row>
@@ -8030,16 +8040,16 @@
       <c r="A369" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="G369">
+      <c r="G369" s="3">
         <v>4.97</v>
       </c>
-      <c r="H369">
+      <c r="H369" s="3">
         <v>4.66</v>
       </c>
-      <c r="I369">
+      <c r="I369" s="3">
         <v>5.38</v>
       </c>
-      <c r="J369">
+      <c r="J369" s="3">
         <v>0.83</v>
       </c>
     </row>
@@ -8047,16 +8057,16 @@
       <c r="A370" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="G370">
-        <v>0</v>
-      </c>
-      <c r="H370">
-        <v>0</v>
-      </c>
-      <c r="I370">
-        <v>0</v>
-      </c>
-      <c r="J370">
+      <c r="G370" s="4">
+        <v>0</v>
+      </c>
+      <c r="H370" s="4">
+        <v>0</v>
+      </c>
+      <c r="I370" s="4">
+        <v>0</v>
+      </c>
+      <c r="J370" s="4">
         <v>0</v>
       </c>
     </row>
@@ -8064,13 +8074,13 @@
       <c r="A371" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="G371">
+      <c r="G371" s="3">
         <v>3.16</v>
       </c>
-      <c r="I371">
-        <v>0</v>
-      </c>
-      <c r="J371">
+      <c r="I371" s="4">
+        <v>0</v>
+      </c>
+      <c r="J371" s="3">
         <v>5.96</v>
       </c>
     </row>
@@ -8078,16 +8088,16 @@
       <c r="A372" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="G372">
+      <c r="G372" s="3">
         <v>1.48</v>
       </c>
-      <c r="H372">
+      <c r="H372" s="3">
         <v>2.44</v>
       </c>
-      <c r="I372">
+      <c r="I372" s="3">
         <v>4.21</v>
       </c>
-      <c r="J372">
+      <c r="J372" s="3">
         <v>5.27</v>
       </c>
     </row>
@@ -8095,16 +8105,16 @@
       <c r="A373" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="F373">
+      <c r="F373" s="2">
         <v>-2.0299999999999998</v>
       </c>
-      <c r="G373">
+      <c r="G373" s="3">
         <v>2.0099999999999998</v>
       </c>
-      <c r="H373">
+      <c r="H373" s="3">
         <v>2.63</v>
       </c>
-      <c r="I373">
+      <c r="I373" s="4">
         <v>0</v>
       </c>
     </row>
@@ -8112,16 +8122,16 @@
       <c r="A374" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="F374">
-        <v>0</v>
-      </c>
-      <c r="G374">
-        <v>0</v>
-      </c>
-      <c r="H374">
+      <c r="F374" s="4">
+        <v>0</v>
+      </c>
+      <c r="G374" s="4">
+        <v>0</v>
+      </c>
+      <c r="H374" s="3">
         <v>2.78</v>
       </c>
-      <c r="I374">
+      <c r="I374" s="3">
         <v>2.66</v>
       </c>
     </row>
@@ -8129,16 +8139,16 @@
       <c r="A375" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="G375">
+      <c r="G375" s="3">
         <v>2.66</v>
       </c>
-      <c r="H375">
+      <c r="H375" s="3">
         <v>1.36</v>
       </c>
-      <c r="I375">
+      <c r="I375" s="3">
         <v>3.82</v>
       </c>
-      <c r="J375">
+      <c r="J375" s="4">
         <v>0</v>
       </c>
     </row>
@@ -8146,16 +8156,16 @@
       <c r="A376" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="G376">
+      <c r="G376" s="3">
         <v>1.0900000000000001</v>
       </c>
-      <c r="H376">
+      <c r="H376" s="3">
         <v>1.29</v>
       </c>
-      <c r="I376">
+      <c r="I376" s="3">
         <v>1.27</v>
       </c>
-      <c r="J376">
+      <c r="J376" s="3">
         <v>3.71</v>
       </c>
     </row>
@@ -8163,16 +8173,16 @@
       <c r="A377" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="G377">
+      <c r="G377" s="3">
         <v>1.68</v>
       </c>
-      <c r="H377">
+      <c r="H377" s="3">
         <v>1.59</v>
       </c>
-      <c r="I377">
+      <c r="I377" s="3">
         <v>1.1599999999999999</v>
       </c>
-      <c r="J377">
+      <c r="J377" s="3">
         <v>1.66</v>
       </c>
     </row>
@@ -8180,16 +8190,16 @@
       <c r="A378" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="F378">
+      <c r="F378" s="3">
         <v>1.25</v>
       </c>
-      <c r="G378">
+      <c r="G378" s="3">
         <v>3.39</v>
       </c>
-      <c r="H378">
+      <c r="H378" s="3">
         <v>1.19</v>
       </c>
-      <c r="I378">
+      <c r="I378" s="3">
         <v>2.37</v>
       </c>
     </row>
@@ -8197,16 +8207,16 @@
       <c r="A379" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="G379">
+      <c r="G379" s="3">
         <v>3.1</v>
       </c>
-      <c r="H379">
+      <c r="H379" s="3">
         <v>2.78</v>
       </c>
-      <c r="I379">
+      <c r="I379" s="3">
         <v>1.94</v>
       </c>
-      <c r="J379">
+      <c r="J379" s="4">
         <v>0</v>
       </c>
     </row>
@@ -8214,16 +8224,16 @@
       <c r="A380" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="F380">
+      <c r="F380" s="3">
         <v>2.4900000000000002</v>
       </c>
-      <c r="G380">
+      <c r="G380" s="3">
         <v>2.31</v>
       </c>
-      <c r="H380">
+      <c r="H380" s="3">
         <v>2.36</v>
       </c>
-      <c r="I380">
+      <c r="I380" s="2">
         <v>-1.53</v>
       </c>
     </row>
@@ -8231,16 +8241,16 @@
       <c r="A381" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="G381">
+      <c r="G381" s="2">
         <v>-0.2</v>
       </c>
-      <c r="H381">
+      <c r="H381" s="3">
         <v>1.91</v>
       </c>
-      <c r="I381">
+      <c r="I381" s="3">
         <v>2.5</v>
       </c>
-      <c r="J381">
+      <c r="J381" s="3">
         <v>2.77</v>
       </c>
     </row>
@@ -8248,16 +8258,16 @@
       <c r="A382" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="G382">
+      <c r="G382" s="3">
         <v>3.05</v>
       </c>
-      <c r="H382">
+      <c r="H382" s="3">
         <v>4.34</v>
       </c>
-      <c r="I382">
+      <c r="I382" s="3">
         <v>5.98</v>
       </c>
-      <c r="J382">
+      <c r="J382" s="3">
         <v>5.49</v>
       </c>
     </row>
@@ -8265,16 +8275,16 @@
       <c r="A383" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="F383">
+      <c r="F383" s="3">
         <v>1.83</v>
       </c>
-      <c r="G383">
+      <c r="G383" s="3">
         <v>1.7</v>
       </c>
-      <c r="H383">
-        <v>0</v>
-      </c>
-      <c r="I383">
+      <c r="H383" s="4">
+        <v>0</v>
+      </c>
+      <c r="I383" s="3">
         <v>2.04</v>
       </c>
     </row>
@@ -8282,16 +8292,16 @@
       <c r="A384" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="G384">
+      <c r="G384" s="3">
         <v>4.57</v>
       </c>
-      <c r="H384">
+      <c r="H384" s="3">
         <v>3.1</v>
       </c>
-      <c r="I384">
+      <c r="I384" s="2">
         <v>-2.58</v>
       </c>
-      <c r="J384">
+      <c r="J384" s="3">
         <v>5.35</v>
       </c>
     </row>
@@ -8299,16 +8309,16 @@
       <c r="A385" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="G385">
+      <c r="G385" s="3">
         <v>3.28</v>
       </c>
-      <c r="H385">
+      <c r="H385" s="3">
         <v>1.42</v>
       </c>
-      <c r="I385">
+      <c r="I385" s="3">
         <v>3.75</v>
       </c>
-      <c r="J385">
+      <c r="J385" s="3">
         <v>3.61</v>
       </c>
     </row>
@@ -8316,16 +8326,16 @@
       <c r="A386" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="G386">
+      <c r="G386" s="3">
         <v>2.6</v>
       </c>
-      <c r="H386">
+      <c r="H386" s="3">
         <v>3</v>
       </c>
-      <c r="I386">
+      <c r="I386" s="3">
         <v>3.2</v>
       </c>
-      <c r="J386">
+      <c r="J386" s="3">
         <v>3.38</v>
       </c>
     </row>
@@ -8333,16 +8343,16 @@
       <c r="A387" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="F387">
+      <c r="F387" s="3">
         <v>5.48</v>
       </c>
-      <c r="G387">
+      <c r="G387" s="3">
         <v>5.76</v>
       </c>
-      <c r="H387">
+      <c r="H387" s="3">
         <v>4.1500000000000004</v>
       </c>
-      <c r="I387">
+      <c r="I387" s="3">
         <v>4.21</v>
       </c>
     </row>
@@ -8350,16 +8360,16 @@
       <c r="A388" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="F388">
+      <c r="F388" s="3">
         <v>3.24</v>
       </c>
-      <c r="G388">
+      <c r="G388" s="3">
         <v>3.53</v>
       </c>
-      <c r="H388">
+      <c r="H388" s="3">
         <v>4.76</v>
       </c>
-      <c r="I388">
+      <c r="I388" s="3">
         <v>4.96</v>
       </c>
     </row>
@@ -8367,16 +8377,16 @@
       <c r="A389" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="F389">
+      <c r="F389" s="3">
         <v>1.39</v>
       </c>
-      <c r="G389">
+      <c r="G389" s="3">
         <v>1.44</v>
       </c>
-      <c r="H389">
+      <c r="H389" s="3">
         <v>1.58</v>
       </c>
-      <c r="I389">
+      <c r="I389" s="3">
         <v>1.38</v>
       </c>
     </row>
@@ -8384,16 +8394,16 @@
       <c r="A390" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="G390">
+      <c r="G390" s="3">
         <v>9.84</v>
       </c>
-      <c r="H390">
+      <c r="H390" s="3">
         <v>10.82</v>
       </c>
-      <c r="I390">
+      <c r="I390" s="3">
         <v>10.99</v>
       </c>
-      <c r="J390">
+      <c r="J390" s="4">
         <v>0</v>
       </c>
     </row>
@@ -8401,16 +8411,16 @@
       <c r="A391" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="F391">
+      <c r="F391" s="3">
         <v>3.89</v>
       </c>
-      <c r="G391">
+      <c r="G391" s="3">
         <v>2.35</v>
       </c>
-      <c r="H391">
+      <c r="H391" s="3">
         <v>2.69</v>
       </c>
-      <c r="I391">
+      <c r="I391" s="3">
         <v>3.03</v>
       </c>
     </row>
@@ -8418,16 +8428,16 @@
       <c r="A392" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="G392">
-        <v>0</v>
-      </c>
-      <c r="H392">
-        <v>0</v>
-      </c>
-      <c r="I392">
-        <v>0</v>
-      </c>
-      <c r="J392">
+      <c r="G392" s="4">
+        <v>0</v>
+      </c>
+      <c r="H392" s="4">
+        <v>0</v>
+      </c>
+      <c r="I392" s="4">
+        <v>0</v>
+      </c>
+      <c r="J392" s="4">
         <v>0</v>
       </c>
     </row>
@@ -8435,16 +8445,16 @@
       <c r="A393" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="F393">
+      <c r="F393" s="3">
         <v>5.33</v>
       </c>
-      <c r="G393">
+      <c r="G393" s="3">
         <v>3.05</v>
       </c>
-      <c r="H393">
+      <c r="H393" s="3">
         <v>6.56</v>
       </c>
-      <c r="I393">
+      <c r="I393" s="3">
         <v>12.5</v>
       </c>
     </row>
@@ -8452,16 +8462,16 @@
       <c r="A394" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="F394">
+      <c r="F394" s="3">
         <v>1.3</v>
       </c>
-      <c r="G394">
+      <c r="G394" s="3">
         <v>1.3</v>
       </c>
-      <c r="H394">
+      <c r="H394" s="3">
         <v>1.73</v>
       </c>
-      <c r="I394">
+      <c r="I394" s="3">
         <v>1.98</v>
       </c>
     </row>
@@ -8469,16 +8479,16 @@
       <c r="A395" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="F395">
+      <c r="F395" s="3">
         <v>1.53</v>
       </c>
-      <c r="G395">
+      <c r="G395" s="3">
         <v>1.94</v>
       </c>
-      <c r="H395">
+      <c r="H395" s="3">
         <v>2.61</v>
       </c>
-      <c r="I395">
+      <c r="I395" s="3">
         <v>2.86</v>
       </c>
     </row>
@@ -8486,16 +8496,16 @@
       <c r="A396" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="F396">
+      <c r="F396" s="3">
         <v>2.1</v>
       </c>
-      <c r="G396">
+      <c r="G396" s="3">
         <v>1.78</v>
       </c>
-      <c r="I396">
+      <c r="I396" s="3">
         <v>2.15</v>
       </c>
-      <c r="J396">
+      <c r="J396" s="3">
         <v>2.52</v>
       </c>
     </row>
@@ -8503,16 +8513,16 @@
       <c r="A397" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="F397">
+      <c r="F397" s="3">
         <v>1.23</v>
       </c>
-      <c r="G397">
+      <c r="G397" s="3">
         <v>1.54</v>
       </c>
-      <c r="H397">
+      <c r="H397" s="3">
         <v>0.98</v>
       </c>
-      <c r="I397">
+      <c r="I397" s="3">
         <v>1.08</v>
       </c>
     </row>
@@ -8520,16 +8530,16 @@
       <c r="A398" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F398">
-        <v>0</v>
-      </c>
-      <c r="G398">
-        <v>0</v>
-      </c>
-      <c r="H398">
-        <v>0</v>
-      </c>
-      <c r="I398">
+      <c r="F398" s="4">
+        <v>0</v>
+      </c>
+      <c r="G398" s="4">
+        <v>0</v>
+      </c>
+      <c r="H398" s="4">
+        <v>0</v>
+      </c>
+      <c r="I398" s="4">
         <v>0</v>
       </c>
     </row>
@@ -8537,16 +8547,16 @@
       <c r="A399" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="F399">
+      <c r="F399" s="2">
         <v>-2.1800000000000002</v>
       </c>
-      <c r="G399">
+      <c r="G399" s="3">
         <v>1.64</v>
       </c>
-      <c r="H399">
+      <c r="H399" s="3">
         <v>3.05</v>
       </c>
-      <c r="I399">
+      <c r="I399" s="3">
         <v>19.52</v>
       </c>
     </row>
@@ -8554,16 +8564,16 @@
       <c r="A400" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="F400">
+      <c r="F400" s="3">
         <v>0.85</v>
       </c>
-      <c r="G400">
+      <c r="G400" s="3">
         <v>0.16</v>
       </c>
-      <c r="H400">
+      <c r="H400" s="3">
         <v>0.6</v>
       </c>
-      <c r="I400">
+      <c r="I400" s="3">
         <v>1.3</v>
       </c>
     </row>
@@ -8571,16 +8581,16 @@
       <c r="A401" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="F401">
+      <c r="F401" s="3">
         <v>4.57</v>
       </c>
-      <c r="G401">
+      <c r="G401" s="3">
         <v>5.21</v>
       </c>
-      <c r="H401">
+      <c r="H401" s="3">
         <v>5.52</v>
       </c>
-      <c r="I401">
+      <c r="I401" s="3">
         <v>6.89</v>
       </c>
     </row>
@@ -8588,16 +8598,16 @@
       <c r="A402" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="G402">
+      <c r="G402" s="3">
         <v>2.73</v>
       </c>
-      <c r="H402">
-        <v>0</v>
-      </c>
-      <c r="I402">
+      <c r="H402" s="4">
+        <v>0</v>
+      </c>
+      <c r="I402" s="3">
         <v>4</v>
       </c>
-      <c r="J402">
+      <c r="J402" s="4">
         <v>0</v>
       </c>
     </row>
@@ -8605,16 +8615,16 @@
       <c r="A403" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="G403">
+      <c r="G403" s="3">
         <v>5.59</v>
       </c>
-      <c r="H403">
+      <c r="H403" s="3">
         <v>5.78</v>
       </c>
-      <c r="I403">
+      <c r="I403" s="3">
         <v>6.1</v>
       </c>
-      <c r="J403">
+      <c r="J403" s="4">
         <v>0</v>
       </c>
     </row>
@@ -8622,16 +8632,16 @@
       <c r="A404" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="F404">
+      <c r="F404" s="3">
         <v>3.18</v>
       </c>
-      <c r="G404">
+      <c r="G404" s="3">
         <v>3.24</v>
       </c>
-      <c r="H404">
+      <c r="H404" s="3">
         <v>1.62</v>
       </c>
-      <c r="I404">
+      <c r="I404" s="3">
         <v>3.51</v>
       </c>
     </row>
@@ -8639,16 +8649,16 @@
       <c r="A405" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="G405">
+      <c r="G405" s="3">
         <v>9.4700000000000006</v>
       </c>
-      <c r="H405">
+      <c r="H405" s="3">
         <v>5.77</v>
       </c>
-      <c r="I405">
+      <c r="I405" s="3">
         <v>5.51</v>
       </c>
-      <c r="J405">
+      <c r="J405" s="4">
         <v>0</v>
       </c>
     </row>
@@ -8656,16 +8666,16 @@
       <c r="A406" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="F406">
+      <c r="F406" s="3">
         <v>0.84</v>
       </c>
-      <c r="G406">
+      <c r="G406" s="3">
         <v>4.6500000000000004</v>
       </c>
-      <c r="H406">
+      <c r="H406" s="3">
         <v>3.31</v>
       </c>
-      <c r="I406">
+      <c r="I406" s="3">
         <v>5.38</v>
       </c>
     </row>
@@ -8673,16 +8683,16 @@
       <c r="A407" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="G407">
+      <c r="G407" s="3">
         <v>1.63</v>
       </c>
-      <c r="H407">
+      <c r="H407" s="3">
         <v>1.92</v>
       </c>
-      <c r="I407">
+      <c r="I407" s="3">
         <v>1.7</v>
       </c>
-      <c r="J407">
+      <c r="J407" s="3">
         <v>1.79</v>
       </c>
     </row>
@@ -8690,16 +8700,16 @@
       <c r="A408" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="G408">
-        <v>0</v>
-      </c>
-      <c r="H408">
-        <v>0</v>
-      </c>
-      <c r="I408">
-        <v>0</v>
-      </c>
-      <c r="J408">
+      <c r="G408" s="4">
+        <v>0</v>
+      </c>
+      <c r="H408" s="4">
+        <v>0</v>
+      </c>
+      <c r="I408" s="4">
+        <v>0</v>
+      </c>
+      <c r="J408" s="4">
         <v>0</v>
       </c>
     </row>
@@ -8707,16 +8717,16 @@
       <c r="A409" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="G409">
+      <c r="G409" s="3">
         <v>6.35</v>
       </c>
-      <c r="H409">
+      <c r="H409" s="3">
         <v>6.92</v>
       </c>
-      <c r="I409">
+      <c r="I409" s="3">
         <v>8.7200000000000006</v>
       </c>
-      <c r="J409">
+      <c r="J409" s="4">
         <v>0</v>
       </c>
     </row>
@@ -8724,16 +8734,16 @@
       <c r="A410" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="G410">
-        <v>0</v>
-      </c>
-      <c r="H410">
-        <v>0</v>
-      </c>
-      <c r="I410">
-        <v>0</v>
-      </c>
-      <c r="J410">
+      <c r="G410" s="4">
+        <v>0</v>
+      </c>
+      <c r="H410" s="4">
+        <v>0</v>
+      </c>
+      <c r="I410" s="4">
+        <v>0</v>
+      </c>
+      <c r="J410" s="4">
         <v>0</v>
       </c>
     </row>
@@ -8741,16 +8751,16 @@
       <c r="A411" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="G411">
+      <c r="G411" s="3">
         <v>4.04</v>
       </c>
-      <c r="H411">
+      <c r="H411" s="3">
         <v>3.88</v>
       </c>
-      <c r="I411">
+      <c r="I411" s="3">
         <v>4.13</v>
       </c>
-      <c r="J411">
+      <c r="J411" s="3">
         <v>4.22</v>
       </c>
     </row>
@@ -8758,16 +8768,16 @@
       <c r="A412" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="F412">
-        <v>0</v>
-      </c>
-      <c r="G412">
-        <v>0</v>
-      </c>
-      <c r="I412">
+      <c r="F412" s="4">
+        <v>0</v>
+      </c>
+      <c r="G412" s="4">
+        <v>0</v>
+      </c>
+      <c r="I412" s="3">
         <v>2.42</v>
       </c>
-      <c r="J412">
+      <c r="J412" s="3">
         <v>2.9</v>
       </c>
     </row>
@@ -8775,16 +8785,16 @@
       <c r="A413" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="G413">
+      <c r="G413" s="3">
         <v>4.93</v>
       </c>
-      <c r="H413">
+      <c r="H413" s="3">
         <v>5.53</v>
       </c>
-      <c r="I413">
+      <c r="I413" s="3">
         <v>4.78</v>
       </c>
-      <c r="J413">
+      <c r="J413" s="3">
         <v>3.63</v>
       </c>
     </row>
@@ -8792,16 +8802,16 @@
       <c r="A414" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="F414">
+      <c r="F414" s="3">
         <v>3.77</v>
       </c>
-      <c r="G414">
+      <c r="G414" s="3">
         <v>4.99</v>
       </c>
-      <c r="H414">
+      <c r="H414" s="3">
         <v>6.88</v>
       </c>
-      <c r="I414">
+      <c r="I414" s="3">
         <v>8</v>
       </c>
     </row>
@@ -8809,16 +8819,16 @@
       <c r="A415" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="F415">
+      <c r="F415" s="2">
         <v>-0.41</v>
       </c>
-      <c r="G415">
+      <c r="G415" s="3">
         <v>0.19</v>
       </c>
-      <c r="H415">
+      <c r="H415" s="3">
         <v>1.56</v>
       </c>
-      <c r="I415">
+      <c r="I415" s="3">
         <v>1.66</v>
       </c>
     </row>
@@ -8826,16 +8836,16 @@
       <c r="A416" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="G416">
+      <c r="G416" s="3">
         <v>2.1</v>
       </c>
-      <c r="H416">
+      <c r="H416" s="3">
         <v>4.18</v>
       </c>
-      <c r="I416">
+      <c r="I416" s="3">
         <v>3.61</v>
       </c>
-      <c r="J416">
+      <c r="J416" s="4">
         <v>0</v>
       </c>
     </row>
@@ -8843,16 +8853,16 @@
       <c r="A417" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="F417">
+      <c r="F417" s="3">
         <v>1.98</v>
       </c>
-      <c r="G417">
+      <c r="G417" s="3">
         <v>2.0699999999999998</v>
       </c>
-      <c r="H417">
+      <c r="H417" s="3">
         <v>2.41</v>
       </c>
-      <c r="I417">
+      <c r="I417" s="3">
         <v>3.07</v>
       </c>
     </row>

--- a/earnings_per_share_pivot_table.xlsx
+++ b/earnings_per_share_pivot_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD8CB5FEE27FB797A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8904B0E-0D43-4A02-9310-A46B87F686B0}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD8C0976D2CD7797A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59A55633-F108-4686-97B8-9044151BF2E8}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/earnings_per_share_pivot_table.xlsx
+++ b/earnings_per_share_pivot_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD87CB76B04AF797A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{184002EC-4472-4DBE-90FD-0E1D732233EA}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD8ADCFA82A29787A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1F45D79-9764-491B-A30B-4BBC7802163A}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/earnings_per_share_pivot_table.xlsx
+++ b/earnings_per_share_pivot_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD8ADCFA82A29787A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1F45D79-9764-491B-A30B-4BBC7802163A}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD8FF076A1037797A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31CF6448-193F-4646-82BF-538EB56A74EF}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/earnings_per_share_pivot_table.xlsx
+++ b/earnings_per_share_pivot_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD8FF076A1037797A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31CF6448-193F-4646-82BF-538EB56A74EF}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD8FB27A813F1797A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA410A90-7FD7-4FDA-9521-888E2D96A237}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/earnings_per_share_pivot_table.xlsx
+++ b/earnings_per_share_pivot_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD8FB27A813F1797A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA410A90-7FD7-4FDA-9521-888E2D96A237}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD843FF693775787A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72AED936-03B4-4B08-A894-095F017111F0}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/earnings_per_share_pivot_table.xlsx
+++ b/earnings_per_share_pivot_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD843FF693775787A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72AED936-03B4-4B08-A894-095F017111F0}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD86DCFEA1B4D787A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59C8F98A-C3A9-4136-95CD-0EC4A5A83BEA}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/earnings_per_share_pivot_table.xlsx
+++ b/earnings_per_share_pivot_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD86DCFEA1B4D787A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59C8F98A-C3A9-4136-95CD-0EC4A5A83BEA}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD88E3F6D1237797A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F31E8DC-0934-4F1E-B41C-346D608CC56E}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/earnings_per_share_pivot_table.xlsx
+++ b/earnings_per_share_pivot_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD88E3F6D1237797A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F31E8DC-0934-4F1E-B41C-346D608CC56E}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD882872E382D797A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEE8391A-B303-4722-9069-38FA6AE0A21F}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/earnings_per_share_pivot_table.xlsx
+++ b/earnings_per_share_pivot_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD8875FE839A1797A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4203E0B1-C35B-4CFA-868A-BBF4A2F7EC7D}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD86C6FE9023F797A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D6445B7-1816-4D54-87D1-41D460258850}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/earnings_per_share_pivot_table.xlsx
+++ b/earnings_per_share_pivot_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD86C6FE9023F797A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D6445B7-1816-4D54-87D1-41D460258850}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD8459FAB1CDD797A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{741D248D-7891-46A9-9298-A9BE7BC9AA99}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/earnings_per_share_pivot_table.xlsx
+++ b/earnings_per_share_pivot_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD8459FAB1CDD797A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{741D248D-7891-46A9-9298-A9BE7BC9AA99}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD862976C24A1787A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8F96D77-686B-41E7-A646-91EF6840C36F}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/earnings_per_share_pivot_table.xlsx
+++ b/earnings_per_share_pivot_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD862976C24A1787A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8F96D77-686B-41E7-A646-91EF6840C36F}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD8BD07EE1001797A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F0A3062-7F80-4CE9-AC5B-8672170A4C6C}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/earnings_per_share_pivot_table.xlsx
+++ b/earnings_per_share_pivot_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD8BD07EE1001797A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F0A3062-7F80-4CE9-AC5B-8672170A4C6C}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD8B277E82D49797A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10046C91-DB2E-422B-A898-518CACCD1C39}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/earnings_per_share_pivot_table.xlsx
+++ b/earnings_per_share_pivot_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD8B277E82D49797A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10046C91-DB2E-422B-A898-518CACCD1C39}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD8924F6C0959787A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA3937BB-050B-4459-AAF8-D2E15AD9F9BE}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/earnings_per_share_pivot_table.xlsx
+++ b/earnings_per_share_pivot_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD8924F6C0959787A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA3937BB-050B-4459-AAF8-D2E15AD9F9BE}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD81997EC2191787A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F372FF3A-814F-4AF4-9884-AFFE898ACDF5}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/earnings_per_share_pivot_table.xlsx
+++ b/earnings_per_share_pivot_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD81997EC2191787A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F372FF3A-814F-4AF4-9884-AFFE898ACDF5}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD898AF2A06B5787A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D2EA74B-6920-4776-AEB2-D4C524AF3D29}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/earnings_per_share_pivot_table.xlsx
+++ b/earnings_per_share_pivot_table.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD898AF2A06B5787A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D2EA74B-6920-4776-AEB2-D4C524AF3D29}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_2869E2F4B8130AB5A65CD86547291E0D787A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{312A794F-6438-419B-940F-E31F04D0695A}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2100" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$1</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -1787,7 +1790,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K449"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9406,6 +9411,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/earnings_per_share_pivot_table.xlsx
+++ b/earnings_per_share_pivot_table.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_2869E2F4B8130AB5A65CD86547291E0D787A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{312A794F-6438-419B-940F-E31F04D0695A}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD8DA57AD3681787A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5308F9BD-92E6-476B-9DE8-463BB8613FC3}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$1</definedName>
-  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -1790,9 +1787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K449"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9411,7 +9406,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/earnings_per_share_pivot_table.xlsx
+++ b/earnings_per_share_pivot_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD8DA57AD3681787A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5308F9BD-92E6-476B-9DE8-463BB8613FC3}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD83B17283E37797A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E1CF2CD-1A54-43A5-92B9-48AD3174DD60}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/earnings_per_share_pivot_table.xlsx
+++ b/earnings_per_share_pivot_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD83B17283E37797A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E1CF2CD-1A54-43A5-92B9-48AD3174DD60}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD855AFE93673787A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59613D81-C70A-450B-AC79-4F0757F708D2}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/earnings_per_share_pivot_table.xlsx
+++ b/earnings_per_share_pivot_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD855AFE93673787A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59613D81-C70A-450B-AC79-4F0757F708D2}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD82E8F2F07D5797A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B97EC3D-EC7A-4CF4-B7FB-8B51B6FEAE38}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/earnings_per_share_pivot_table.xlsx
+++ b/earnings_per_share_pivot_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD82E8F2F07D5797A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B97EC3D-EC7A-4CF4-B7FB-8B51B6FEAE38}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_2869E2F4B8130AB5A65CD82E8F2F07D5797A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C41DE016-C788-40F9-BD5C-C1AD3ABD0F57}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="12015" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1787,7 +1787,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K449"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/earnings_per_share_pivot_table.xlsx
+++ b/earnings_per_share_pivot_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_2869E2F4B8130AB5A65CD82E8F2F07D5797A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C41DE016-C788-40F9-BD5C-C1AD3ABD0F57}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD83A076D20C5797A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{658E8CD8-4874-4D89-9DE2-A33C05D63023}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="12015" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1787,9 +1787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K449"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/earnings_per_share_pivot_table.xlsx
+++ b/earnings_per_share_pivot_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD83A076D20C5797A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{658E8CD8-4874-4D89-9DE2-A33C05D63023}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD8EE8F692145787A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6152B4E5-956D-43C2-890A-CC288C7ECEB9}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/earnings_per_share_pivot_table.xlsx
+++ b/earnings_per_share_pivot_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD83CB7EE3C2F797A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F3FBFB1-275F-463E-A776-A5D76E6DD9F2}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2869E2F4B8130AB5A65CD8310FE91B29797A1921" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F98CEC1C-6403-41EA-AB13-F7419D5DA0E3}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
